--- a/Developer/配置表/Excel/monster.xlsx
+++ b/Developer/配置表/Excel/monster.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="24225" windowHeight="14340" tabRatio="594"/>
+    <workbookView windowWidth="28800" windowHeight="14340" tabRatio="594"/>
   </bookViews>
   <sheets>
     <sheet name="monster" sheetId="1" r:id="rId1"/>
@@ -2076,7 +2076,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="27">
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2095,13 +2095,6 @@
       <color theme="1"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -2272,7 +2265,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="42">
+  <fills count="40">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2443,12 +2436,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -2504,12 +2491,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2660,10 +2641,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2672,31 +2653,34 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2708,103 +2692,100 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="5" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2848,13 +2829,13 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="50">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="50">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
@@ -2872,7 +2853,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
@@ -2884,10 +2865,10 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -2899,10 +2880,10 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="50" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="50" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="50" applyFont="1" applyFill="1">
@@ -3255,7 +3236,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="G38" sqref="G38"/>
+      <selection pane="bottomRight" activeCell="N30" sqref="N30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.25" defaultRowHeight="14.25"/>
@@ -5454,7 +5435,7 @@
         <v>4001</v>
       </c>
       <c r="K22">
-        <v>2038</v>
+        <v>1</v>
       </c>
       <c r="M22">
         <v>1</v>

--- a/Developer/配置表/Excel/monster.xlsx
+++ b/Developer/配置表/Excel/monster.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="14340" tabRatio="594"/>
+    <workbookView windowWidth="28800" windowHeight="12375" tabRatio="594"/>
   </bookViews>
   <sheets>
     <sheet name="monster" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,20 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">monster!$C$1:$U$22</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">旧数据备份!$C$1:$BJ$192</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -2069,12 +2082,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
   <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -2110,34 +2123,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -2151,14 +2136,6 @@
       <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2198,6 +2175,21 @@
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2248,7 +2240,28 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2328,55 +2341,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2394,31 +2365,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2436,6 +2395,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -2448,7 +2419,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2472,7 +2467,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2491,6 +2498,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2537,21 +2550,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -2580,6 +2578,21 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2638,151 +2651,151 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -2892,55 +2905,55 @@
   </cellXfs>
   <cellStyles count="51">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
     <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="常规 2 2" xfId="44"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="45" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="46" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="47" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="48" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="49" builtinId="52"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="常规 2 2" xfId="49"/>
     <cellStyle name="常规 2" xfId="50"/>
   </cellStyles>
   <dxfs count="2">
@@ -3232,11 +3245,11 @@
   <dimension ref="C1:BC22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="4" topLeftCell="E22" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="4" ySplit="4" topLeftCell="N22" activePane="bottomRight" state="frozenSplit"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="N30" sqref="N30"/>
+      <selection pane="bottomRight" activeCell="P22" sqref="P22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.25" defaultRowHeight="14.25"/>

--- a/Developer/配置表/Excel/monster.xlsx
+++ b/Developer/配置表/Excel/monster.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12375" tabRatio="594"/>
+    <workbookView windowWidth="28800" windowHeight="14340" tabRatio="594"/>
   </bookViews>
   <sheets>
     <sheet name="monster" sheetId="1" r:id="rId1"/>
@@ -15,20 +15,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">monster!$C$1:$U$22</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">旧数据备份!$C$1:$BJ$192</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -2082,12 +2069,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -2123,6 +2110,34 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -2136,6 +2151,14 @@
       <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2175,21 +2198,6 @@
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2240,28 +2248,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2341,13 +2328,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2365,19 +2394,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2395,18 +2436,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -2419,31 +2448,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2467,19 +2472,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2498,12 +2491,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2550,6 +2537,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -2578,21 +2580,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2651,151 +2638,151 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -2905,55 +2892,55 @@
   </cellXfs>
   <cellStyles count="51">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
-    <cellStyle name="货币" xfId="2" builtinId="4"/>
-    <cellStyle name="百分比" xfId="3" builtinId="5"/>
-    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
-    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
-    <cellStyle name="超链接" xfId="6" builtinId="8"/>
-    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
-    <cellStyle name="注释" xfId="8" builtinId="10"/>
-    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
-    <cellStyle name="标题" xfId="10" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
-    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
     <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="输入" xfId="16" builtinId="20"/>
-    <cellStyle name="输出" xfId="17" builtinId="21"/>
-    <cellStyle name="计算" xfId="18" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
-    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="好" xfId="22" builtinId="26"/>
-    <cellStyle name="差" xfId="23" builtinId="27"/>
-    <cellStyle name="适中" xfId="24" builtinId="28"/>
-    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
-    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
-    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
-    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
-    <cellStyle name="常规 2 2" xfId="49"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="常规 2 2" xfId="44"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="45" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="46" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="47" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="48" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="49" builtinId="52"/>
     <cellStyle name="常规 2" xfId="50"/>
   </cellStyles>
   <dxfs count="2">
@@ -3249,7 +3236,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="P22" sqref="P22"/>
+      <selection pane="bottomRight" activeCell="Q32" sqref="Q32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.25" defaultRowHeight="14.25"/>
@@ -5460,7 +5447,7 @@
         <v>5</v>
       </c>
       <c r="P22" s="19">
-        <v>15010</v>
+        <v>15050</v>
       </c>
       <c r="Q22">
         <v>10000</v>

--- a/Developer/配置表/Excel/monster.xlsx
+++ b/Developer/配置表/Excel/monster.xlsx
@@ -2071,10 +2071,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -2638,7 +2638,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2647,10 +2647,10 @@
     <xf numFmtId="0" fontId="6" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2659,7 +2659,7 @@
     <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3232,11 +3232,11 @@
   <dimension ref="C1:BC22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="4" topLeftCell="N22" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="4" ySplit="4" topLeftCell="E9" activePane="bottomRight" state="frozenSplit"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="Q32" sqref="Q32"/>
+      <selection pane="bottomRight" activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.25" defaultRowHeight="14.25"/>
@@ -5435,7 +5435,7 @@
         <v>4001</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>2016</v>
       </c>
       <c r="M22">
         <v>1</v>

--- a/Developer/配置表/Excel/monster.xlsx
+++ b/Developer/配置表/Excel/monster.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="14340" tabRatio="594"/>
+    <workbookView windowWidth="28800" windowHeight="12375" tabRatio="594"/>
   </bookViews>
   <sheets>
     <sheet name="monster" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,20 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">monster!$C$1:$U$22</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">旧数据备份!$C$1:$BJ$192</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -401,7 +414,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1529" uniqueCount="544">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1529" uniqueCount="533">
   <si>
     <t>怪物ID</t>
   </si>
@@ -809,7 +822,7 @@
     <t>3|4</t>
   </si>
   <si>
-    <t>2030_1_monster</t>
+    <t>jinzhan_monster</t>
   </si>
   <si>
     <t>0|2|3|8</t>
@@ -833,7 +846,7 @@
     <t>7|8|13|16</t>
   </si>
   <si>
-    <t>2005_1_monster</t>
+    <t>yuancheng_monster</t>
   </si>
   <si>
     <t>1745|181|23|1</t>
@@ -851,42 +864,24 @@
     <t>13|16</t>
   </si>
   <si>
-    <t>2006_1_monster</t>
-  </si>
-  <si>
     <t>空中-连射针蜂</t>
   </si>
   <si>
-    <t>2009_1_monster</t>
-  </si>
-  <si>
     <t>对峙-连射针蜂</t>
   </si>
   <si>
-    <t>2009_3_monster</t>
-  </si>
-  <si>
     <t>对峙-恶魔蝙蝠</t>
   </si>
   <si>
     <t>7|8|16|13</t>
   </si>
   <si>
-    <t>2019_3_monster</t>
-  </si>
-  <si>
     <t>空中-恶魔蝙蝠</t>
   </si>
   <si>
-    <t>2019_4_monster</t>
-  </si>
-  <si>
     <t>场外-喷吐小毒蛙</t>
   </si>
   <si>
-    <t>back_npn_2023_1</t>
-  </si>
-  <si>
     <t>0|2|3|6|7|8</t>
   </si>
   <si>
@@ -902,15 +897,9 @@
     <t>场外-爆破哥布林</t>
   </si>
   <si>
-    <t>2040_1_monster</t>
-  </si>
-  <si>
     <t>冲锋-小野猪</t>
   </si>
   <si>
-    <t>2001_1_monster</t>
-  </si>
-  <si>
     <t>1300|181|23|1</t>
   </si>
   <si>
@@ -926,31 +915,19 @@
     <t>巡逻-刺客哥布林</t>
   </si>
   <si>
-    <t>2051_1_monster</t>
-  </si>
-  <si>
     <t>巡逻-骷髅镰刀手</t>
   </si>
   <si>
     <t>7|8|13</t>
   </si>
   <si>
-    <t>2007_1_monster</t>
-  </si>
-  <si>
     <t>巡逻-土系钢牙蜥蜴</t>
   </si>
   <si>
-    <t>2058_1_monster</t>
-  </si>
-  <si>
     <t>冰野猪</t>
   </si>
   <si>
     <t>吹箭哥布林-土</t>
-  </si>
-  <si>
-    <t>2035_1_monster</t>
   </si>
   <si>
     <t>字段</t>
@@ -1304,6 +1281,9 @@
     <t>后排-丛林树蛙</t>
   </si>
   <si>
+    <t>back_npn_2023_1</t>
+  </si>
+  <si>
     <t>后排-丛林树蛙-带中毒dot</t>
   </si>
   <si>
@@ -2069,12 +2049,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -2110,34 +2090,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -2151,14 +2103,6 @@
       <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2198,6 +2142,21 @@
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2248,18 +2207,39 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -2328,55 +2308,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2394,31 +2332,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2436,6 +2362,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -2448,7 +2386,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2472,7 +2434,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2491,6 +2465,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2537,21 +2517,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -2580,6 +2545,21 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2638,151 +2618,151 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -2892,55 +2872,55 @@
   </cellXfs>
   <cellStyles count="51">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
     <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="常规 2 2" xfId="44"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="45" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="46" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="47" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="48" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="49" builtinId="52"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="常规 2 2" xfId="49"/>
     <cellStyle name="常规 2" xfId="50"/>
   </cellStyles>
   <dxfs count="2">
@@ -3232,11 +3212,11 @@
   <dimension ref="C1:BC22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="4" topLeftCell="E9" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="4" ySplit="4" topLeftCell="N5" activePane="bottomRight" state="frozenSplit"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="G28" sqref="G28"/>
+      <selection pane="bottomRight" activeCell="P25" sqref="P25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.25" defaultRowHeight="14.25"/>
@@ -3953,7 +3933,7 @@
         <v>136</v>
       </c>
       <c r="P6" s="19">
-        <v>15010</v>
+        <v>15050</v>
       </c>
       <c r="Q6">
         <v>10000</v>
@@ -4036,7 +4016,7 @@
         <v>4001</v>
       </c>
       <c r="K7">
-        <v>2032</v>
+        <v>2033</v>
       </c>
       <c r="M7">
         <v>2</v>
@@ -4158,7 +4138,7 @@
         <v>80</v>
       </c>
       <c r="U8" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="Y8" s="30" t="s">
         <v>130</v>
@@ -4205,7 +4185,7 @@
         <v>1200901</v>
       </c>
       <c r="D9" s="25" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E9">
         <v>2</v>
@@ -4238,7 +4218,7 @@
         <v>128</v>
       </c>
       <c r="P9" s="19">
-        <v>15030</v>
+        <v>15050</v>
       </c>
       <c r="Q9">
         <v>10000</v>
@@ -4252,8 +4232,8 @@
       <c r="T9">
         <v>80</v>
       </c>
-      <c r="U9" s="25" t="s">
-        <v>145</v>
+      <c r="U9" t="s">
+        <v>129</v>
       </c>
       <c r="Y9" s="30" t="s">
         <v>130</v>
@@ -4294,7 +4274,7 @@
         <v>1200902</v>
       </c>
       <c r="D10" s="25" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="E10">
         <v>2</v>
@@ -4315,7 +4295,7 @@
         <v>4001</v>
       </c>
       <c r="K10">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="M10" s="13">
         <v>13</v>
@@ -4327,7 +4307,7 @@
         <v>128</v>
       </c>
       <c r="P10" s="19">
-        <v>15040</v>
+        <v>15010</v>
       </c>
       <c r="Q10">
         <v>10000</v>
@@ -4341,8 +4321,8 @@
       <c r="T10">
         <v>80</v>
       </c>
-      <c r="U10" s="25" t="s">
-        <v>147</v>
+      <c r="U10" t="s">
+        <v>137</v>
       </c>
       <c r="Y10" s="30" t="s">
         <v>130</v>
@@ -4380,7 +4360,7 @@
         <v>1201902</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="E11" s="9">
         <v>2</v>
@@ -4410,10 +4390,10 @@
         <v>0</v>
       </c>
       <c r="O11" s="26" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="P11" s="19">
-        <v>15040</v>
+        <v>15010</v>
       </c>
       <c r="Q11">
         <v>10000</v>
@@ -4427,8 +4407,8 @@
       <c r="T11">
         <v>80</v>
       </c>
-      <c r="U11" s="25" t="s">
-        <v>150</v>
+      <c r="U11" t="s">
+        <v>129</v>
       </c>
       <c r="Y11" s="30" t="s">
         <v>130</v>
@@ -4472,7 +4452,7 @@
         <v>1201903</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="E12" s="9">
         <v>2</v>
@@ -4493,7 +4473,7 @@
         <v>4001</v>
       </c>
       <c r="K12">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="M12">
         <v>3</v>
@@ -4502,10 +4482,10 @@
         <v>0</v>
       </c>
       <c r="O12" s="26" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="P12" s="19">
-        <v>15030</v>
+        <v>15050</v>
       </c>
       <c r="Q12">
         <v>10000</v>
@@ -4519,8 +4499,8 @@
       <c r="T12">
         <v>80</v>
       </c>
-      <c r="U12" s="25" t="s">
-        <v>152</v>
+      <c r="U12" t="s">
+        <v>137</v>
       </c>
       <c r="Y12" s="30" t="s">
         <v>130</v>
@@ -4567,7 +4547,7 @@
         <v>1202301</v>
       </c>
       <c r="D13" s="25" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="E13">
         <v>2</v>
@@ -4600,7 +4580,7 @@
         <v>128</v>
       </c>
       <c r="P13" s="19">
-        <v>16000</v>
+        <v>15010</v>
       </c>
       <c r="Q13">
         <v>10000</v>
@@ -4615,19 +4595,19 @@
         <v>80</v>
       </c>
       <c r="U13" t="s">
-        <v>154</v>
+        <v>129</v>
       </c>
       <c r="Y13" s="30" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="Z13" s="30" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="AA13" s="26" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="AB13" s="26" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="AC13">
         <v>0</v>
@@ -4662,7 +4642,7 @@
         <v>1204301</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="E14" s="9">
         <v>2</v>
@@ -4710,19 +4690,19 @@
         <v>80</v>
       </c>
       <c r="U14" t="s">
-        <v>160</v>
+        <v>137</v>
       </c>
       <c r="Y14" s="30" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="Z14" s="30" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="AA14" s="26" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="AB14" s="26" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="AC14">
         <v>0</v>
@@ -4757,7 +4737,7 @@
         <v>1200101</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="E15" s="9">
         <v>2</v>
@@ -4789,7 +4769,9 @@
       <c r="O15" s="26" t="s">
         <v>128</v>
       </c>
-      <c r="P15" s="19"/>
+      <c r="P15" s="19">
+        <v>15050</v>
+      </c>
       <c r="Q15">
         <v>10000</v>
       </c>
@@ -4803,7 +4785,7 @@
         <v>80</v>
       </c>
       <c r="U15" t="s">
-        <v>162</v>
+        <v>129</v>
       </c>
       <c r="Y15" s="30" t="s">
         <v>130</v>
@@ -4812,7 +4794,7 @@
         <v>131</v>
       </c>
       <c r="AA15" s="26" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="AB15" s="26" t="s">
         <v>133</v>
@@ -4850,7 +4832,7 @@
         <v>1201301</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="E16" s="9">
         <v>2</v>
@@ -4880,9 +4862,11 @@
         <v>0</v>
       </c>
       <c r="O16" s="26" t="s">
-        <v>165</v>
-      </c>
-      <c r="P16" s="19"/>
+        <v>157</v>
+      </c>
+      <c r="P16" s="19">
+        <v>15010</v>
+      </c>
       <c r="Q16">
         <v>10000</v>
       </c>
@@ -4896,7 +4880,7 @@
         <v>80</v>
       </c>
       <c r="U16" t="s">
-        <v>162</v>
+        <v>137</v>
       </c>
       <c r="Y16" s="30" t="s">
         <v>130</v>
@@ -4905,7 +4889,7 @@
         <v>131</v>
       </c>
       <c r="AA16" s="26" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="AB16" s="26" t="s">
         <v>133</v>
@@ -4943,7 +4927,7 @@
         <v>1201201</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="E17" s="9">
         <v>2</v>
@@ -4975,7 +4959,9 @@
       <c r="O17" s="26" t="s">
         <v>142</v>
       </c>
-      <c r="P17" s="19"/>
+      <c r="P17" s="19">
+        <v>15010</v>
+      </c>
       <c r="Q17">
         <v>10000</v>
       </c>
@@ -4989,7 +4975,7 @@
         <v>80</v>
       </c>
       <c r="U17" t="s">
-        <v>162</v>
+        <v>129</v>
       </c>
       <c r="Y17" s="30" t="s">
         <v>130</v>
@@ -4998,7 +4984,7 @@
         <v>131</v>
       </c>
       <c r="AA17" s="26" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="AB17" s="26" t="s">
         <v>133</v>
@@ -5036,7 +5022,7 @@
         <v>1203202</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="E18" s="9">
         <v>2</v>
@@ -5069,7 +5055,7 @@
         <v>128</v>
       </c>
       <c r="P18" s="19">
-        <v>15010</v>
+        <v>15050</v>
       </c>
       <c r="Q18">
         <v>10000</v>
@@ -5083,8 +5069,8 @@
       <c r="T18">
         <v>80</v>
       </c>
-      <c r="U18" s="25" t="s">
-        <v>168</v>
+      <c r="U18" t="s">
+        <v>137</v>
       </c>
       <c r="Y18" s="30" t="s">
         <v>130</v>
@@ -5131,7 +5117,7 @@
         <v>1200701</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="E19" s="9">
         <v>2</v>
@@ -5161,7 +5147,7 @@
         <v>0</v>
       </c>
       <c r="O19" s="26" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="P19" s="19">
         <v>15010</v>
@@ -5179,7 +5165,7 @@
         <v>80</v>
       </c>
       <c r="U19" t="s">
-        <v>171</v>
+        <v>129</v>
       </c>
       <c r="Y19" s="30" t="s">
         <v>130</v>
@@ -5226,7 +5212,7 @@
         <v>1205801</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="E20" s="9">
         <v>2</v>
@@ -5273,8 +5259,8 @@
       <c r="T20">
         <v>80</v>
       </c>
-      <c r="U20" s="25" t="s">
-        <v>173</v>
+      <c r="U20" t="s">
+        <v>137</v>
       </c>
       <c r="Y20" s="30" t="s">
         <v>130</v>
@@ -5321,7 +5307,7 @@
         <v>1201501</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>174</v>
+        <v>163</v>
       </c>
       <c r="E21" s="9">
         <v>2</v>
@@ -5353,7 +5339,9 @@
       <c r="O21" s="3">
         <v>10</v>
       </c>
-      <c r="P21" s="19"/>
+      <c r="P21" s="19">
+        <v>15010</v>
+      </c>
       <c r="Q21">
         <v>10000</v>
       </c>
@@ -5367,7 +5355,7 @@
         <v>80</v>
       </c>
       <c r="U21" t="s">
-        <v>162</v>
+        <v>129</v>
       </c>
       <c r="Y21" s="30" t="s">
         <v>130</v>
@@ -5376,7 +5364,7 @@
         <v>131</v>
       </c>
       <c r="AA21" s="26" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="AB21" s="26" t="s">
         <v>133</v>
@@ -5414,7 +5402,7 @@
         <v>1203801</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>175</v>
+        <v>164</v>
       </c>
       <c r="E22" s="9">
         <v>2</v>
@@ -5462,19 +5450,19 @@
         <v>80</v>
       </c>
       <c r="U22" t="s">
-        <v>176</v>
+        <v>137</v>
       </c>
       <c r="Y22" s="30" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="Z22" s="30" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="AA22" s="26" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="AB22" s="26" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="AC22">
         <v>0</v>
@@ -5570,19 +5558,19 @@
   <sheetData>
     <row r="1" ht="18" spans="1:5">
       <c r="A1" s="21" t="s">
-        <v>177</v>
+        <v>165</v>
       </c>
       <c r="B1" s="21" t="s">
-        <v>178</v>
+        <v>166</v>
       </c>
       <c r="C1" s="21" t="s">
-        <v>179</v>
+        <v>167</v>
       </c>
       <c r="D1" s="21" t="s">
-        <v>180</v>
+        <v>168</v>
       </c>
       <c r="E1" s="21" t="s">
-        <v>181</v>
+        <v>169</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -5590,7 +5578,7 @@
         <v>73</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="C2" s="12" t="s">
         <v>53</v>
@@ -5613,17 +5601,17 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="12" t="s">
-        <v>183</v>
+        <v>171</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>184</v>
+        <v>172</v>
       </c>
       <c r="C4" s="12" t="s">
         <v>53</v>
       </c>
       <c r="D4" s="12"/>
       <c r="E4" s="12" t="s">
-        <v>185</v>
+        <v>173</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -5637,7 +5625,7 @@
         <v>53</v>
       </c>
       <c r="D5" s="22" t="s">
-        <v>186</v>
+        <v>174</v>
       </c>
       <c r="E5" s="22"/>
     </row>
@@ -5652,7 +5640,7 @@
         <v>53</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>186</v>
+        <v>174</v>
       </c>
       <c r="E6" s="12"/>
     </row>
@@ -5696,33 +5684,33 @@
       <c r="C9" s="22"/>
       <c r="D9" s="22"/>
       <c r="E9" s="23" t="s">
-        <v>187</v>
+        <v>175</v>
       </c>
     </row>
     <row r="10" ht="66" spans="1:5">
       <c r="A10" s="12" t="s">
-        <v>188</v>
+        <v>176</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>189</v>
+        <v>177</v>
       </c>
       <c r="C10" s="12"/>
       <c r="D10" s="12"/>
       <c r="E10" s="24" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
     </row>
     <row r="11" ht="66" spans="1:5">
       <c r="A11" s="22" t="s">
-        <v>191</v>
+        <v>179</v>
       </c>
       <c r="B11" s="22" t="s">
-        <v>192</v>
+        <v>180</v>
       </c>
       <c r="C11" s="22"/>
       <c r="D11" s="22"/>
       <c r="E11" s="23" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
     </row>
     <row r="12" ht="33" spans="1:5">
@@ -5737,15 +5725,15 @@
       </c>
       <c r="D12" s="12"/>
       <c r="E12" s="24" t="s">
-        <v>194</v>
+        <v>182</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="22" t="s">
-        <v>195</v>
+        <v>183</v>
       </c>
       <c r="B13" s="22" t="s">
-        <v>196</v>
+        <v>184</v>
       </c>
       <c r="C13" s="22" t="s">
         <v>53</v>
@@ -5755,25 +5743,25 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="12" t="s">
-        <v>197</v>
+        <v>185</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>198</v>
+        <v>186</v>
       </c>
       <c r="C14" s="12" t="s">
         <v>53</v>
       </c>
       <c r="D14" s="12"/>
       <c r="E14" s="12" t="s">
-        <v>199</v>
+        <v>187</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="22" t="s">
-        <v>200</v>
+        <v>188</v>
       </c>
       <c r="B15" s="22" t="s">
-        <v>201</v>
+        <v>189</v>
       </c>
       <c r="C15" s="22" t="s">
         <v>53</v>
@@ -5783,10 +5771,10 @@
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="12" t="s">
-        <v>202</v>
+        <v>190</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>203</v>
+        <v>191</v>
       </c>
       <c r="C16" s="12" t="s">
         <v>53</v>
@@ -5796,10 +5784,10 @@
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="22" t="s">
-        <v>204</v>
+        <v>192</v>
       </c>
       <c r="B17" s="22" t="s">
-        <v>205</v>
+        <v>193</v>
       </c>
       <c r="C17" s="22" t="s">
         <v>53</v>
@@ -5809,32 +5797,32 @@
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="22" t="s">
-        <v>206</v>
+        <v>194</v>
       </c>
       <c r="B18" s="22" t="s">
-        <v>207</v>
+        <v>195</v>
       </c>
       <c r="C18" s="22" t="s">
         <v>59</v>
       </c>
       <c r="D18" s="22"/>
       <c r="E18" s="22" t="s">
-        <v>208</v>
+        <v>196</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="12" t="s">
-        <v>209</v>
+        <v>197</v>
       </c>
       <c r="B19" s="12" t="s">
-        <v>210</v>
+        <v>198</v>
       </c>
       <c r="C19" s="12" t="s">
         <v>59</v>
       </c>
       <c r="D19" s="12"/>
       <c r="E19" s="12" t="s">
-        <v>211</v>
+        <v>199</v>
       </c>
     </row>
     <row r="20" ht="49.5" spans="1:5">
@@ -5849,7 +5837,7 @@
       </c>
       <c r="D20" s="12"/>
       <c r="E20" s="24" t="s">
-        <v>212</v>
+        <v>200</v>
       </c>
     </row>
     <row r="21" ht="33" spans="1:5">
@@ -5864,7 +5852,7 @@
       </c>
       <c r="D21" s="22"/>
       <c r="E21" s="23" t="s">
-        <v>213</v>
+        <v>201</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -5879,7 +5867,7 @@
       </c>
       <c r="D22" s="12"/>
       <c r="E22" s="12" t="s">
-        <v>214</v>
+        <v>202</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -5894,7 +5882,7 @@
       </c>
       <c r="D23" s="22"/>
       <c r="E23" s="22" t="s">
-        <v>215</v>
+        <v>203</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -5911,7 +5899,7 @@
         <v>68</v>
       </c>
       <c r="E24" s="12" t="s">
-        <v>216</v>
+        <v>204</v>
       </c>
     </row>
   </sheetData>
@@ -6060,64 +6048,64 @@
         <v>13</v>
       </c>
       <c r="AA1" s="18" t="s">
+        <v>205</v>
+      </c>
+      <c r="AB1" s="18" t="s">
+        <v>206</v>
+      </c>
+      <c r="AC1" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="AD1" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="AE1" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="AF1" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="AG1" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="AH1" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="AI1" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="AJ1" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="AK1" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="AL1" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="AM1" s="3" t="s">
         <v>217</v>
       </c>
-      <c r="AB1" s="18" t="s">
+      <c r="AN1" s="3" t="s">
         <v>218</v>
       </c>
-      <c r="AC1" s="3" t="s">
+      <c r="AO1" s="3" t="s">
         <v>219</v>
       </c>
-      <c r="AD1" s="3" t="s">
+      <c r="AP1" s="3" t="s">
         <v>220</v>
       </c>
-      <c r="AE1" s="3" t="s">
+      <c r="AQ1" s="3" t="s">
         <v>221</v>
       </c>
-      <c r="AF1" s="3" t="s">
+      <c r="AR1" s="3" t="s">
         <v>222</v>
       </c>
-      <c r="AG1" s="3" t="s">
+      <c r="AS1" s="4" t="s">
         <v>223</v>
       </c>
-      <c r="AH1" s="3" t="s">
+      <c r="AT1" s="4" t="s">
         <v>224</v>
-      </c>
-      <c r="AI1" s="4" t="s">
-        <v>225</v>
-      </c>
-      <c r="AJ1" s="4" t="s">
-        <v>226</v>
-      </c>
-      <c r="AK1" s="3" t="s">
-        <v>227</v>
-      </c>
-      <c r="AL1" s="3" t="s">
-        <v>228</v>
-      </c>
-      <c r="AM1" s="3" t="s">
-        <v>229</v>
-      </c>
-      <c r="AN1" s="3" t="s">
-        <v>230</v>
-      </c>
-      <c r="AO1" s="3" t="s">
-        <v>231</v>
-      </c>
-      <c r="AP1" s="3" t="s">
-        <v>232</v>
-      </c>
-      <c r="AQ1" s="3" t="s">
-        <v>233</v>
-      </c>
-      <c r="AR1" s="3" t="s">
-        <v>234</v>
-      </c>
-      <c r="AS1" s="4" t="s">
-        <v>235</v>
-      </c>
-      <c r="AT1" s="4" t="s">
-        <v>236</v>
       </c>
       <c r="AU1" s="3" t="s">
         <v>44</v>
@@ -6194,7 +6182,7 @@
         <v>55</v>
       </c>
       <c r="M2" s="11" t="s">
-        <v>237</v>
+        <v>225</v>
       </c>
       <c r="N2" s="6" t="s">
         <v>64</v>
@@ -6382,10 +6370,10 @@
     </row>
     <row r="4" ht="16.5" spans="3:62">
       <c r="C4" s="7" t="s">
-        <v>181</v>
+        <v>169</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>238</v>
+        <v>226</v>
       </c>
       <c r="E4" s="6" t="s">
         <v>73</v>
@@ -6454,64 +6442,64 @@
         <v>86</v>
       </c>
       <c r="AA4" s="18" t="s">
+        <v>227</v>
+      </c>
+      <c r="AB4" s="18" t="s">
+        <v>228</v>
+      </c>
+      <c r="AC4" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="AD4" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="AE4" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="AF4" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="AG4" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="AH4" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="AI4" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="AJ4" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="AK4" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="AL4" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="AM4" s="3" t="s">
         <v>239</v>
       </c>
-      <c r="AB4" s="18" t="s">
+      <c r="AN4" s="3" t="s">
         <v>240</v>
       </c>
-      <c r="AC4" s="3" t="s">
+      <c r="AO4" s="3" t="s">
         <v>241</v>
       </c>
-      <c r="AD4" s="3" t="s">
+      <c r="AP4" s="3" t="s">
         <v>242</v>
       </c>
-      <c r="AE4" s="3" t="s">
+      <c r="AQ4" s="3" t="s">
         <v>243</v>
       </c>
-      <c r="AF4" s="3" t="s">
+      <c r="AR4" s="3" t="s">
         <v>244</v>
       </c>
-      <c r="AG4" s="3" t="s">
+      <c r="AS4" s="4" t="s">
         <v>245</v>
       </c>
-      <c r="AH4" s="3" t="s">
+      <c r="AT4" s="4" t="s">
         <v>246</v>
-      </c>
-      <c r="AI4" s="4" t="s">
-        <v>247</v>
-      </c>
-      <c r="AJ4" s="4" t="s">
-        <v>248</v>
-      </c>
-      <c r="AK4" s="3" t="s">
-        <v>249</v>
-      </c>
-      <c r="AL4" s="3" t="s">
-        <v>250</v>
-      </c>
-      <c r="AM4" s="3" t="s">
-        <v>251</v>
-      </c>
-      <c r="AN4" s="3" t="s">
-        <v>252</v>
-      </c>
-      <c r="AO4" s="3" t="s">
-        <v>253</v>
-      </c>
-      <c r="AP4" s="3" t="s">
-        <v>254</v>
-      </c>
-      <c r="AQ4" s="3" t="s">
-        <v>255</v>
-      </c>
-      <c r="AR4" s="3" t="s">
-        <v>256</v>
-      </c>
-      <c r="AS4" s="4" t="s">
-        <v>257</v>
-      </c>
-      <c r="AT4" s="4" t="s">
-        <v>258</v>
       </c>
       <c r="AU4" s="3" t="s">
         <v>117</v>
@@ -6564,13 +6552,13 @@
     </row>
     <row r="5" ht="16.5" spans="4:62">
       <c r="D5" s="2" t="s">
-        <v>259</v>
+        <v>247</v>
       </c>
       <c r="E5">
         <v>11020011</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>260</v>
+        <v>248</v>
       </c>
       <c r="G5">
         <v>42002001</v>
@@ -6697,18 +6685,18 @@
       <c r="BH5" s="3"/>
       <c r="BI5" s="3"/>
       <c r="BJ5" t="s">
-        <v>261</v>
+        <v>249</v>
       </c>
     </row>
     <row r="6" ht="16.5" spans="4:62">
       <c r="D6" s="2" t="s">
-        <v>259</v>
+        <v>247</v>
       </c>
       <c r="E6">
         <v>11020021</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>262</v>
+        <v>250</v>
       </c>
       <c r="G6">
         <v>42002001</v>
@@ -6830,18 +6818,18 @@
         <v>0</v>
       </c>
       <c r="BJ6" t="s">
-        <v>263</v>
+        <v>251</v>
       </c>
     </row>
     <row r="7" ht="16.5" spans="4:62">
       <c r="D7" s="2" t="s">
-        <v>259</v>
+        <v>247</v>
       </c>
       <c r="E7">
         <v>11020031</v>
       </c>
       <c r="F7" s="9" t="s">
-        <v>264</v>
+        <v>252</v>
       </c>
       <c r="G7">
         <v>42002001</v>
@@ -6963,18 +6951,18 @@
         <v>0</v>
       </c>
       <c r="BJ7" t="s">
-        <v>265</v>
+        <v>253</v>
       </c>
     </row>
     <row r="8" ht="16.5" spans="4:62">
       <c r="D8" s="2" t="s">
-        <v>259</v>
+        <v>247</v>
       </c>
       <c r="E8">
         <v>11020051</v>
       </c>
       <c r="F8" s="9" t="s">
-        <v>266</v>
+        <v>254</v>
       </c>
       <c r="G8">
         <v>42002001</v>
@@ -7099,18 +7087,18 @@
         <v>0</v>
       </c>
       <c r="BJ8" t="s">
-        <v>265</v>
+        <v>253</v>
       </c>
     </row>
     <row r="9" ht="16.5" spans="4:62">
       <c r="D9" s="2" t="s">
-        <v>259</v>
+        <v>247</v>
       </c>
       <c r="E9">
         <v>11020061</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>267</v>
+        <v>255</v>
       </c>
       <c r="G9">
         <v>42002001</v>
@@ -7235,18 +7223,18 @@
         <v>0</v>
       </c>
       <c r="BJ9" t="s">
-        <v>265</v>
+        <v>253</v>
       </c>
     </row>
     <row r="10" ht="16.5" spans="4:62">
       <c r="D10" s="2" t="s">
-        <v>259</v>
+        <v>247</v>
       </c>
       <c r="E10" s="10">
         <v>11020071</v>
       </c>
       <c r="F10" s="9" t="s">
-        <v>268</v>
+        <v>256</v>
       </c>
       <c r="G10">
         <v>42002001</v>
@@ -7371,18 +7359,18 @@
         <v>0</v>
       </c>
       <c r="BJ10" t="s">
-        <v>269</v>
+        <v>257</v>
       </c>
     </row>
     <row r="11" ht="16.5" spans="4:62">
       <c r="D11" s="2" t="s">
-        <v>270</v>
+        <v>258</v>
       </c>
       <c r="E11" s="10">
         <v>12020081</v>
       </c>
       <c r="F11" s="9" t="s">
-        <v>271</v>
+        <v>259</v>
       </c>
       <c r="G11">
         <v>42002001</v>
@@ -7507,18 +7495,18 @@
         <v>0</v>
       </c>
       <c r="BJ11" t="s">
-        <v>272</v>
+        <v>260</v>
       </c>
     </row>
     <row r="12" ht="16.5" spans="4:62">
       <c r="D12" s="2" t="s">
-        <v>270</v>
+        <v>258</v>
       </c>
       <c r="E12" s="10">
         <v>12020082</v>
       </c>
       <c r="F12" s="9" t="s">
-        <v>273</v>
+        <v>261</v>
       </c>
       <c r="G12">
         <v>42002001</v>
@@ -7643,18 +7631,18 @@
         <v>0</v>
       </c>
       <c r="BJ12" t="s">
-        <v>272</v>
+        <v>260</v>
       </c>
     </row>
     <row r="13" ht="16.5" spans="4:62">
       <c r="D13" s="2" t="s">
-        <v>270</v>
+        <v>258</v>
       </c>
       <c r="E13" s="10">
         <v>12020091</v>
       </c>
       <c r="F13" s="9" t="s">
-        <v>274</v>
+        <v>262</v>
       </c>
       <c r="G13">
         <v>42002001</v>
@@ -7777,18 +7765,18 @@
         <v>0</v>
       </c>
       <c r="BJ13" t="s">
-        <v>275</v>
+        <v>263</v>
       </c>
     </row>
     <row r="14" ht="16.5" spans="4:62">
       <c r="D14" s="2" t="s">
-        <v>259</v>
+        <v>247</v>
       </c>
       <c r="E14" s="10">
         <v>11020111</v>
       </c>
       <c r="F14" s="9" t="s">
-        <v>276</v>
+        <v>264</v>
       </c>
       <c r="G14">
         <v>42002001</v>
@@ -7823,7 +7811,7 @@
         <v>0</v>
       </c>
       <c r="Z14" s="19" t="s">
-        <v>277</v>
+        <v>265</v>
       </c>
       <c r="AA14" s="5">
         <v>200</v>
@@ -7911,18 +7899,18 @@
         <v>0</v>
       </c>
       <c r="BJ14" t="s">
-        <v>278</v>
+        <v>266</v>
       </c>
     </row>
     <row r="15" ht="16.5" spans="4:62">
       <c r="D15" s="2" t="s">
-        <v>259</v>
+        <v>247</v>
       </c>
       <c r="E15" s="10">
         <v>11020121</v>
       </c>
       <c r="F15" s="9" t="s">
-        <v>279</v>
+        <v>267</v>
       </c>
       <c r="G15">
         <v>42002001</v>
@@ -7957,7 +7945,7 @@
         <v>0</v>
       </c>
       <c r="Z15" s="19" t="s">
-        <v>280</v>
+        <v>268</v>
       </c>
       <c r="AA15" s="5">
         <v>200</v>
@@ -8045,18 +8033,18 @@
         <v>0</v>
       </c>
       <c r="BJ15" t="s">
-        <v>261</v>
+        <v>249</v>
       </c>
     </row>
     <row r="16" ht="16.5" spans="4:62">
       <c r="D16" s="2" t="s">
-        <v>259</v>
+        <v>247</v>
       </c>
       <c r="E16" s="10">
         <v>11020131</v>
       </c>
       <c r="F16" s="9" t="s">
-        <v>281</v>
+        <v>269</v>
       </c>
       <c r="G16">
         <v>42002001</v>
@@ -8091,7 +8079,7 @@
         <v>0</v>
       </c>
       <c r="Z16" s="19" t="s">
-        <v>280</v>
+        <v>268</v>
       </c>
       <c r="AA16" s="5">
         <v>200</v>
@@ -8179,18 +8167,18 @@
         <v>0</v>
       </c>
       <c r="BJ16" t="s">
-        <v>261</v>
+        <v>249</v>
       </c>
     </row>
     <row r="17" ht="16.5" spans="4:62">
       <c r="D17" s="2" t="s">
-        <v>259</v>
+        <v>247</v>
       </c>
       <c r="E17" s="10">
         <v>11020141</v>
       </c>
       <c r="F17" s="9" t="s">
-        <v>282</v>
+        <v>270</v>
       </c>
       <c r="G17">
         <v>42002001</v>
@@ -8313,18 +8301,18 @@
         <v>0</v>
       </c>
       <c r="BJ17" t="s">
-        <v>261</v>
+        <v>249</v>
       </c>
     </row>
     <row r="18" ht="16.5" spans="4:62">
       <c r="D18" s="2" t="s">
-        <v>270</v>
+        <v>258</v>
       </c>
       <c r="E18" s="10">
         <v>12020181</v>
       </c>
       <c r="F18" s="9" t="s">
-        <v>283</v>
+        <v>271</v>
       </c>
       <c r="G18">
         <v>42002001</v>
@@ -8447,18 +8435,18 @@
         <v>0</v>
       </c>
       <c r="BJ18" t="s">
-        <v>284</v>
+        <v>272</v>
       </c>
     </row>
     <row r="19" ht="16.5" spans="4:62">
       <c r="D19" s="2" t="s">
-        <v>270</v>
+        <v>258</v>
       </c>
       <c r="E19" s="10">
         <v>12020191</v>
       </c>
       <c r="F19" s="9" t="s">
-        <v>285</v>
+        <v>273</v>
       </c>
       <c r="G19">
         <v>42002001</v>
@@ -8581,18 +8569,18 @@
         <v>0</v>
       </c>
       <c r="BJ19" t="s">
-        <v>284</v>
+        <v>272</v>
       </c>
     </row>
     <row r="20" ht="16.5" spans="4:62">
       <c r="D20" s="2" t="s">
-        <v>270</v>
+        <v>258</v>
       </c>
       <c r="E20" s="10">
         <v>12020201</v>
       </c>
       <c r="F20" s="9" t="s">
-        <v>286</v>
+        <v>274</v>
       </c>
       <c r="G20">
         <v>42002001</v>
@@ -8715,18 +8703,18 @@
         <v>0</v>
       </c>
       <c r="BJ20" t="s">
-        <v>284</v>
+        <v>272</v>
       </c>
     </row>
     <row r="21" ht="16.5" spans="4:62">
       <c r="D21" s="2" t="s">
-        <v>270</v>
+        <v>258</v>
       </c>
       <c r="E21" s="10">
         <v>12020211</v>
       </c>
       <c r="F21" s="9" t="s">
-        <v>287</v>
+        <v>275</v>
       </c>
       <c r="G21">
         <v>42002001</v>
@@ -8849,18 +8837,18 @@
         <v>0</v>
       </c>
       <c r="BJ21" t="s">
-        <v>284</v>
+        <v>272</v>
       </c>
     </row>
     <row r="22" ht="16.5" spans="4:62">
       <c r="D22" s="2" t="s">
-        <v>270</v>
+        <v>258</v>
       </c>
       <c r="E22" s="10">
         <v>12020221</v>
       </c>
       <c r="F22" s="9" t="s">
-        <v>288</v>
+        <v>276</v>
       </c>
       <c r="G22">
         <v>42002001</v>
@@ -8983,18 +8971,18 @@
         <v>0</v>
       </c>
       <c r="BJ22" t="s">
-        <v>284</v>
+        <v>272</v>
       </c>
     </row>
     <row r="23" ht="16.5" spans="4:62">
       <c r="D23" s="2" t="s">
-        <v>270</v>
+        <v>258</v>
       </c>
       <c r="E23" s="10">
         <v>12020231</v>
       </c>
       <c r="F23" s="9" t="s">
-        <v>289</v>
+        <v>277</v>
       </c>
       <c r="G23">
         <v>42002001</v>
@@ -9117,18 +9105,18 @@
         <v>0</v>
       </c>
       <c r="BJ23" t="s">
-        <v>154</v>
+        <v>278</v>
       </c>
     </row>
     <row r="24" ht="16.5" spans="4:62">
       <c r="D24" s="2" t="s">
-        <v>270</v>
+        <v>258</v>
       </c>
       <c r="E24" s="10">
         <v>12020232</v>
       </c>
       <c r="F24" s="9" t="s">
-        <v>290</v>
+        <v>279</v>
       </c>
       <c r="G24">
         <v>42002001</v>
@@ -9163,7 +9151,7 @@
         <v>0</v>
       </c>
       <c r="Z24" s="19" t="s">
-        <v>291</v>
+        <v>280</v>
       </c>
       <c r="AA24" s="5">
         <v>200</v>
@@ -9251,18 +9239,18 @@
         <v>0</v>
       </c>
       <c r="BJ24" t="s">
-        <v>154</v>
+        <v>278</v>
       </c>
     </row>
     <row r="25" ht="16.5" spans="4:62">
       <c r="D25" s="2" t="s">
-        <v>259</v>
+        <v>247</v>
       </c>
       <c r="E25" s="10">
         <v>11020241</v>
       </c>
       <c r="F25" s="9" t="s">
-        <v>292</v>
+        <v>281</v>
       </c>
       <c r="G25">
         <v>42002001</v>
@@ -9385,18 +9373,18 @@
         <v>0</v>
       </c>
       <c r="BJ25" t="s">
-        <v>293</v>
+        <v>282</v>
       </c>
     </row>
     <row r="26" ht="16.5" spans="4:62">
       <c r="D26" s="2" t="s">
-        <v>259</v>
+        <v>247</v>
       </c>
       <c r="E26" s="10">
         <v>11020251</v>
       </c>
       <c r="F26" s="9" t="s">
-        <v>294</v>
+        <v>283</v>
       </c>
       <c r="G26">
         <v>42002001</v>
@@ -9519,18 +9507,18 @@
         <v>0</v>
       </c>
       <c r="BJ26" t="s">
-        <v>295</v>
+        <v>284</v>
       </c>
     </row>
     <row r="27" ht="16.5" spans="4:62">
       <c r="D27" s="2" t="s">
-        <v>259</v>
+        <v>247</v>
       </c>
       <c r="E27" s="10">
         <v>11020261</v>
       </c>
       <c r="F27" s="9" t="s">
-        <v>296</v>
+        <v>285</v>
       </c>
       <c r="G27">
         <v>42002001</v>
@@ -9653,18 +9641,18 @@
         <v>0</v>
       </c>
       <c r="BJ27" t="s">
-        <v>297</v>
+        <v>286</v>
       </c>
     </row>
     <row r="28" ht="16.5" spans="4:62">
       <c r="D28" s="2" t="s">
-        <v>259</v>
+        <v>247</v>
       </c>
       <c r="E28" s="10">
         <v>11020281</v>
       </c>
       <c r="F28" s="9" t="s">
-        <v>298</v>
+        <v>287</v>
       </c>
       <c r="G28">
         <v>42002001</v>
@@ -9787,18 +9775,18 @@
         <v>0</v>
       </c>
       <c r="BJ28" t="s">
-        <v>299</v>
+        <v>288</v>
       </c>
     </row>
     <row r="29" ht="16.5" spans="4:62">
       <c r="D29" s="2" t="s">
-        <v>259</v>
+        <v>247</v>
       </c>
       <c r="E29" s="10">
         <v>11020291</v>
       </c>
       <c r="F29" s="9" t="s">
-        <v>300</v>
+        <v>289</v>
       </c>
       <c r="G29">
         <v>42002001</v>
@@ -9921,18 +9909,18 @@
         <v>0</v>
       </c>
       <c r="BJ29" t="s">
-        <v>301</v>
+        <v>290</v>
       </c>
     </row>
     <row r="30" ht="16.5" spans="4:62">
       <c r="D30" s="2" t="s">
-        <v>259</v>
+        <v>247</v>
       </c>
       <c r="E30" s="10">
         <v>11020301</v>
       </c>
       <c r="F30" s="9" t="s">
-        <v>302</v>
+        <v>291</v>
       </c>
       <c r="G30">
         <v>42002001</v>
@@ -10055,18 +10043,18 @@
         <v>0</v>
       </c>
       <c r="BJ30" t="s">
-        <v>303</v>
+        <v>292</v>
       </c>
     </row>
     <row r="31" ht="16.5" spans="4:62">
       <c r="D31" s="2" t="s">
-        <v>259</v>
+        <v>247</v>
       </c>
       <c r="E31" s="10">
         <v>11020302</v>
       </c>
       <c r="F31" s="9" t="s">
-        <v>304</v>
+        <v>293</v>
       </c>
       <c r="G31">
         <v>42002001</v>
@@ -10191,10 +10179,10 @@
         <v>0</v>
       </c>
       <c r="BE31" t="s">
-        <v>305</v>
+        <v>294</v>
       </c>
       <c r="BF31" t="s">
-        <v>306</v>
+        <v>295</v>
       </c>
       <c r="BG31" t="e">
         <f>IF(O31=0,"",VLOOKUP(O31,#REF!,2,FALSE))</f>
@@ -10204,18 +10192,18 @@
         <v>1</v>
       </c>
       <c r="BJ31" t="s">
-        <v>303</v>
+        <v>292</v>
       </c>
     </row>
     <row r="32" ht="16.5" spans="4:62">
       <c r="D32" s="2" t="s">
-        <v>259</v>
+        <v>247</v>
       </c>
       <c r="E32" s="10">
         <v>11020303</v>
       </c>
       <c r="F32" s="9" t="s">
-        <v>307</v>
+        <v>296</v>
       </c>
       <c r="G32">
         <v>42002001</v>
@@ -10250,7 +10238,7 @@
         <v>0</v>
       </c>
       <c r="Z32" s="19" t="s">
-        <v>308</v>
+        <v>297</v>
       </c>
       <c r="AA32" s="5">
         <v>200</v>
@@ -10338,18 +10326,18 @@
         <v>0</v>
       </c>
       <c r="BJ32" t="s">
-        <v>303</v>
+        <v>292</v>
       </c>
     </row>
     <row r="33" ht="16.5" spans="4:62">
       <c r="D33" s="2" t="s">
-        <v>259</v>
+        <v>247</v>
       </c>
       <c r="E33" s="10">
         <v>11020311</v>
       </c>
       <c r="F33" s="9" t="s">
-        <v>309</v>
+        <v>298</v>
       </c>
       <c r="G33">
         <v>42002001</v>
@@ -10472,18 +10460,18 @@
         <v>0</v>
       </c>
       <c r="BJ33" t="s">
-        <v>303</v>
+        <v>292</v>
       </c>
     </row>
     <row r="34" ht="16.5" spans="4:62">
       <c r="D34" s="2" t="s">
-        <v>259</v>
+        <v>247</v>
       </c>
       <c r="E34" s="10">
         <v>11020312</v>
       </c>
       <c r="F34" s="9" t="s">
-        <v>310</v>
+        <v>299</v>
       </c>
       <c r="G34">
         <v>42002001</v>
@@ -10608,10 +10596,10 @@
         <v>0</v>
       </c>
       <c r="BE34" t="s">
-        <v>305</v>
+        <v>294</v>
       </c>
       <c r="BF34" t="s">
-        <v>306</v>
+        <v>295</v>
       </c>
       <c r="BG34" t="e">
         <f>IF(O34=0,"",VLOOKUP(O34,#REF!,2,FALSE))</f>
@@ -10621,18 +10609,18 @@
         <v>1</v>
       </c>
       <c r="BJ34" t="s">
-        <v>303</v>
+        <v>292</v>
       </c>
     </row>
     <row r="35" ht="16.5" spans="4:62">
       <c r="D35" s="2" t="s">
-        <v>259</v>
+        <v>247</v>
       </c>
       <c r="E35" s="10">
         <v>11020313</v>
       </c>
       <c r="F35" s="9" t="s">
-        <v>311</v>
+        <v>300</v>
       </c>
       <c r="G35">
         <v>42002001</v>
@@ -10667,7 +10655,7 @@
         <v>0</v>
       </c>
       <c r="Z35" s="19" t="s">
-        <v>308</v>
+        <v>297</v>
       </c>
       <c r="AA35" s="5">
         <v>200</v>
@@ -10755,18 +10743,18 @@
         <v>0</v>
       </c>
       <c r="BJ35" t="s">
-        <v>303</v>
+        <v>292</v>
       </c>
     </row>
     <row r="36" ht="16.5" spans="4:62">
       <c r="D36" s="2" t="s">
-        <v>259</v>
+        <v>247</v>
       </c>
       <c r="E36" s="10">
         <v>11020321</v>
       </c>
       <c r="F36" s="9" t="s">
-        <v>312</v>
+        <v>301</v>
       </c>
       <c r="G36">
         <v>42002001</v>
@@ -10889,18 +10877,18 @@
         <v>0</v>
       </c>
       <c r="BJ36" t="s">
-        <v>303</v>
+        <v>292</v>
       </c>
     </row>
     <row r="37" ht="16.5" spans="4:62">
       <c r="D37" s="2" t="s">
-        <v>259</v>
+        <v>247</v>
       </c>
       <c r="E37" s="10">
         <v>11020322</v>
       </c>
       <c r="F37" s="9" t="s">
-        <v>313</v>
+        <v>302</v>
       </c>
       <c r="G37">
         <v>42002001</v>
@@ -11025,10 +11013,10 @@
         <v>0</v>
       </c>
       <c r="BE37" t="s">
-        <v>305</v>
+        <v>294</v>
       </c>
       <c r="BF37" t="s">
-        <v>306</v>
+        <v>295</v>
       </c>
       <c r="BG37" t="e">
         <f>IF(O37=0,"",VLOOKUP(O37,#REF!,2,FALSE))</f>
@@ -11038,18 +11026,18 @@
         <v>1</v>
       </c>
       <c r="BJ37" t="s">
-        <v>303</v>
+        <v>292</v>
       </c>
     </row>
     <row r="38" ht="16.5" spans="4:62">
       <c r="D38" s="2" t="s">
-        <v>259</v>
+        <v>247</v>
       </c>
       <c r="E38" s="10">
         <v>11020323</v>
       </c>
       <c r="F38" s="9" t="s">
-        <v>314</v>
+        <v>303</v>
       </c>
       <c r="G38">
         <v>42002001</v>
@@ -11084,7 +11072,7 @@
         <v>0</v>
       </c>
       <c r="Z38" s="19" t="s">
-        <v>308</v>
+        <v>297</v>
       </c>
       <c r="AA38" s="5">
         <v>200</v>
@@ -11172,18 +11160,18 @@
         <v>0</v>
       </c>
       <c r="BJ38" t="s">
-        <v>303</v>
+        <v>292</v>
       </c>
     </row>
     <row r="39" ht="16.5" spans="4:62">
       <c r="D39" s="2" t="s">
-        <v>270</v>
+        <v>258</v>
       </c>
       <c r="E39" s="10">
         <v>12020351</v>
       </c>
       <c r="F39" s="9" t="s">
-        <v>315</v>
+        <v>304</v>
       </c>
       <c r="G39">
         <v>42002001</v>
@@ -11306,18 +11294,18 @@
         <v>0</v>
       </c>
       <c r="BJ39" t="s">
-        <v>316</v>
+        <v>305</v>
       </c>
     </row>
     <row r="40" ht="16.5" spans="4:62">
       <c r="D40" s="2" t="s">
-        <v>270</v>
+        <v>258</v>
       </c>
       <c r="E40" s="10">
         <v>12020352</v>
       </c>
       <c r="F40" s="9" t="s">
-        <v>317</v>
+        <v>306</v>
       </c>
       <c r="G40">
         <v>42002001</v>
@@ -11442,10 +11430,10 @@
         <v>0</v>
       </c>
       <c r="BE40" t="s">
-        <v>305</v>
+        <v>294</v>
       </c>
       <c r="BF40" t="s">
-        <v>306</v>
+        <v>295</v>
       </c>
       <c r="BG40" t="e">
         <f>IF(O40=0,"",VLOOKUP(O40,#REF!,2,FALSE))</f>
@@ -11455,18 +11443,18 @@
         <v>1</v>
       </c>
       <c r="BJ40" t="s">
-        <v>316</v>
+        <v>305</v>
       </c>
     </row>
     <row r="41" ht="16.5" spans="4:62">
       <c r="D41" s="2" t="s">
-        <v>270</v>
+        <v>258</v>
       </c>
       <c r="E41" s="10">
         <v>12020361</v>
       </c>
       <c r="F41" s="9" t="s">
-        <v>318</v>
+        <v>307</v>
       </c>
       <c r="G41">
         <v>42002001</v>
@@ -11589,18 +11577,18 @@
         <v>0</v>
       </c>
       <c r="BJ41" t="s">
-        <v>316</v>
+        <v>305</v>
       </c>
     </row>
     <row r="42" ht="16.5" spans="4:62">
       <c r="D42" s="2" t="s">
-        <v>270</v>
+        <v>258</v>
       </c>
       <c r="E42" s="10">
         <v>12020362</v>
       </c>
       <c r="F42" s="9" t="s">
-        <v>319</v>
+        <v>308</v>
       </c>
       <c r="G42">
         <v>42002001</v>
@@ -11725,10 +11713,10 @@
         <v>0</v>
       </c>
       <c r="BE42" t="s">
-        <v>305</v>
+        <v>294</v>
       </c>
       <c r="BF42" t="s">
-        <v>306</v>
+        <v>295</v>
       </c>
       <c r="BG42" t="e">
         <f>IF(O42=0,"",VLOOKUP(O42,#REF!,2,FALSE))</f>
@@ -11738,18 +11726,18 @@
         <v>1</v>
       </c>
       <c r="BJ42" t="s">
-        <v>316</v>
+        <v>305</v>
       </c>
     </row>
     <row r="43" ht="16.5" spans="4:62">
       <c r="D43" s="2" t="s">
-        <v>270</v>
+        <v>258</v>
       </c>
       <c r="E43" s="10">
         <v>12020371</v>
       </c>
       <c r="F43" s="9" t="s">
-        <v>320</v>
+        <v>309</v>
       </c>
       <c r="G43">
         <v>42002001</v>
@@ -11872,18 +11860,18 @@
         <v>0</v>
       </c>
       <c r="BJ43" t="s">
-        <v>316</v>
+        <v>305</v>
       </c>
     </row>
     <row r="44" ht="16.5" spans="4:62">
       <c r="D44" s="2" t="s">
-        <v>270</v>
+        <v>258</v>
       </c>
       <c r="E44" s="10">
         <v>12020372</v>
       </c>
       <c r="F44" s="9" t="s">
-        <v>321</v>
+        <v>310</v>
       </c>
       <c r="G44">
         <v>42002001</v>
@@ -12008,10 +11996,10 @@
         <v>0</v>
       </c>
       <c r="BE44" t="s">
-        <v>305</v>
+        <v>294</v>
       </c>
       <c r="BF44" t="s">
-        <v>306</v>
+        <v>295</v>
       </c>
       <c r="BG44" t="e">
         <f>IF(O44=0,"",VLOOKUP(O44,#REF!,2,FALSE))</f>
@@ -12021,18 +12009,18 @@
         <v>1</v>
       </c>
       <c r="BJ44" t="s">
-        <v>316</v>
+        <v>305</v>
       </c>
     </row>
     <row r="45" ht="16.5" spans="4:62">
       <c r="D45" s="2" t="s">
-        <v>270</v>
+        <v>258</v>
       </c>
       <c r="E45" s="10">
         <v>12020401</v>
       </c>
       <c r="F45" s="9" t="s">
-        <v>322</v>
+        <v>311</v>
       </c>
       <c r="G45">
         <v>42002001</v>
@@ -12155,18 +12143,18 @@
         <v>0</v>
       </c>
       <c r="BJ45" t="s">
-        <v>323</v>
+        <v>312</v>
       </c>
     </row>
     <row r="46" ht="16.5" spans="4:62">
       <c r="D46" s="2" t="s">
-        <v>270</v>
+        <v>258</v>
       </c>
       <c r="E46" s="10">
         <v>12020402</v>
       </c>
       <c r="F46" s="9" t="s">
-        <v>324</v>
+        <v>313</v>
       </c>
       <c r="G46">
         <v>42002001</v>
@@ -12291,10 +12279,10 @@
         <v>0</v>
       </c>
       <c r="BE46" t="s">
-        <v>305</v>
+        <v>294</v>
       </c>
       <c r="BF46" t="s">
-        <v>306</v>
+        <v>295</v>
       </c>
       <c r="BG46" t="e">
         <f>IF(O46=0,"",VLOOKUP(O46,#REF!,2,FALSE))</f>
@@ -12304,18 +12292,18 @@
         <v>1</v>
       </c>
       <c r="BJ46" t="s">
-        <v>323</v>
+        <v>312</v>
       </c>
     </row>
     <row r="47" ht="16.5" spans="4:62">
       <c r="D47" s="2" t="s">
-        <v>270</v>
+        <v>258</v>
       </c>
       <c r="E47" s="10">
         <v>12020403</v>
       </c>
       <c r="F47" s="9" t="s">
-        <v>325</v>
+        <v>314</v>
       </c>
       <c r="G47">
         <v>42002001</v>
@@ -12350,7 +12338,7 @@
         <v>0</v>
       </c>
       <c r="Z47" s="19" t="s">
-        <v>326</v>
+        <v>315</v>
       </c>
       <c r="AA47" s="5">
         <v>200</v>
@@ -12438,18 +12426,18 @@
         <v>0</v>
       </c>
       <c r="BJ47" t="s">
-        <v>323</v>
+        <v>312</v>
       </c>
     </row>
     <row r="48" ht="16.5" spans="4:62">
       <c r="D48" s="2" t="s">
-        <v>270</v>
+        <v>258</v>
       </c>
       <c r="E48" s="10">
         <v>12020404</v>
       </c>
       <c r="F48" s="9" t="s">
-        <v>327</v>
+        <v>316</v>
       </c>
       <c r="G48">
         <v>42002001</v>
@@ -12486,7 +12474,7 @@
         <v>0</v>
       </c>
       <c r="Z48" s="19" t="s">
-        <v>326</v>
+        <v>315</v>
       </c>
       <c r="AA48" s="5">
         <v>200</v>
@@ -12574,10 +12562,10 @@
         <v>0</v>
       </c>
       <c r="BE48" t="s">
-        <v>305</v>
+        <v>294</v>
       </c>
       <c r="BF48" t="s">
-        <v>306</v>
+        <v>295</v>
       </c>
       <c r="BG48" t="e">
         <f>IF(O48=0,"",VLOOKUP(O48,#REF!,2,FALSE))</f>
@@ -12587,18 +12575,18 @@
         <v>1</v>
       </c>
       <c r="BJ48" t="s">
-        <v>323</v>
+        <v>312</v>
       </c>
     </row>
     <row r="49" ht="16.5" spans="4:62">
       <c r="D49" s="2" t="s">
-        <v>270</v>
+        <v>258</v>
       </c>
       <c r="E49" s="10">
         <v>12020411</v>
       </c>
       <c r="F49" s="9" t="s">
-        <v>328</v>
+        <v>317</v>
       </c>
       <c r="G49">
         <v>42002001</v>
@@ -12721,18 +12709,18 @@
         <v>0</v>
       </c>
       <c r="BJ49" t="s">
-        <v>323</v>
+        <v>312</v>
       </c>
     </row>
     <row r="50" ht="16.5" spans="4:62">
       <c r="D50" s="2" t="s">
-        <v>270</v>
+        <v>258</v>
       </c>
       <c r="E50" s="10">
         <v>12020412</v>
       </c>
       <c r="F50" s="9" t="s">
-        <v>329</v>
+        <v>318</v>
       </c>
       <c r="G50">
         <v>42002001</v>
@@ -12857,10 +12845,10 @@
         <v>0</v>
       </c>
       <c r="BE50" t="s">
-        <v>305</v>
+        <v>294</v>
       </c>
       <c r="BF50" t="s">
-        <v>306</v>
+        <v>295</v>
       </c>
       <c r="BG50" t="e">
         <f>IF(O50=0,"",VLOOKUP(O50,#REF!,2,FALSE))</f>
@@ -12870,18 +12858,18 @@
         <v>1</v>
       </c>
       <c r="BJ50" t="s">
-        <v>323</v>
+        <v>312</v>
       </c>
     </row>
     <row r="51" ht="16.5" spans="4:62">
       <c r="D51" s="2" t="s">
-        <v>270</v>
+        <v>258</v>
       </c>
       <c r="E51" s="10">
         <v>12020413</v>
       </c>
       <c r="F51" s="9" t="s">
-        <v>330</v>
+        <v>319</v>
       </c>
       <c r="G51">
         <v>42002001</v>
@@ -12916,7 +12904,7 @@
         <v>0</v>
       </c>
       <c r="Z51" s="19" t="s">
-        <v>326</v>
+        <v>315</v>
       </c>
       <c r="AA51" s="5">
         <v>200</v>
@@ -13004,18 +12992,18 @@
         <v>0</v>
       </c>
       <c r="BJ51" t="s">
-        <v>323</v>
+        <v>312</v>
       </c>
     </row>
     <row r="52" ht="16.5" spans="4:62">
       <c r="D52" s="2" t="s">
-        <v>270</v>
+        <v>258</v>
       </c>
       <c r="E52" s="10">
         <v>12020414</v>
       </c>
       <c r="F52" s="9" t="s">
-        <v>331</v>
+        <v>320</v>
       </c>
       <c r="G52">
         <v>42002001</v>
@@ -13052,7 +13040,7 @@
         <v>0</v>
       </c>
       <c r="Z52" s="19" t="s">
-        <v>326</v>
+        <v>315</v>
       </c>
       <c r="AA52" s="5">
         <v>200</v>
@@ -13140,10 +13128,10 @@
         <v>0</v>
       </c>
       <c r="BE52" t="s">
-        <v>305</v>
+        <v>294</v>
       </c>
       <c r="BF52" t="s">
-        <v>306</v>
+        <v>295</v>
       </c>
       <c r="BG52" t="e">
         <f>IF(O52=0,"",VLOOKUP(O52,#REF!,2,FALSE))</f>
@@ -13153,18 +13141,18 @@
         <v>1</v>
       </c>
       <c r="BJ52" t="s">
-        <v>323</v>
+        <v>312</v>
       </c>
     </row>
     <row r="53" ht="16.5" spans="4:62">
       <c r="D53" s="2" t="s">
-        <v>270</v>
+        <v>258</v>
       </c>
       <c r="E53" s="10">
         <v>12020421</v>
       </c>
       <c r="F53" s="9" t="s">
-        <v>332</v>
+        <v>321</v>
       </c>
       <c r="G53">
         <v>42002001</v>
@@ -13287,18 +13275,18 @@
         <v>0</v>
       </c>
       <c r="BJ53" t="s">
-        <v>323</v>
+        <v>312</v>
       </c>
     </row>
     <row r="54" ht="16.5" spans="4:62">
       <c r="D54" s="2" t="s">
-        <v>270</v>
+        <v>258</v>
       </c>
       <c r="E54" s="10">
         <v>12020422</v>
       </c>
       <c r="F54" s="9" t="s">
-        <v>333</v>
+        <v>322</v>
       </c>
       <c r="G54">
         <v>42002001</v>
@@ -13423,10 +13411,10 @@
         <v>0</v>
       </c>
       <c r="BE54" t="s">
-        <v>305</v>
+        <v>294</v>
       </c>
       <c r="BF54" t="s">
-        <v>306</v>
+        <v>295</v>
       </c>
       <c r="BG54" t="e">
         <f>IF(O54=0,"",VLOOKUP(O54,#REF!,2,FALSE))</f>
@@ -13436,18 +13424,18 @@
         <v>1</v>
       </c>
       <c r="BJ54" t="s">
-        <v>323</v>
+        <v>312</v>
       </c>
     </row>
     <row r="55" ht="16.5" spans="4:62">
       <c r="D55" s="2" t="s">
-        <v>270</v>
+        <v>258</v>
       </c>
       <c r="E55" s="10">
         <v>12020423</v>
       </c>
       <c r="F55" s="9" t="s">
-        <v>334</v>
+        <v>323</v>
       </c>
       <c r="G55">
         <v>42002001</v>
@@ -13482,7 +13470,7 @@
         <v>0</v>
       </c>
       <c r="Z55" s="19" t="s">
-        <v>326</v>
+        <v>315</v>
       </c>
       <c r="AA55" s="5">
         <v>200</v>
@@ -13570,18 +13558,18 @@
         <v>0</v>
       </c>
       <c r="BJ55" t="s">
-        <v>323</v>
+        <v>312</v>
       </c>
     </row>
     <row r="56" ht="16.5" spans="4:62">
       <c r="D56" s="2" t="s">
-        <v>270</v>
+        <v>258</v>
       </c>
       <c r="E56" s="10">
         <v>12020424</v>
       </c>
       <c r="F56" s="9" t="s">
-        <v>335</v>
+        <v>324</v>
       </c>
       <c r="G56">
         <v>42002001</v>
@@ -13618,7 +13606,7 @@
         <v>0</v>
       </c>
       <c r="Z56" s="19" t="s">
-        <v>326</v>
+        <v>315</v>
       </c>
       <c r="AA56" s="5">
         <v>200</v>
@@ -13706,10 +13694,10 @@
         <v>0</v>
       </c>
       <c r="BE56" t="s">
-        <v>305</v>
+        <v>294</v>
       </c>
       <c r="BF56" t="s">
-        <v>306</v>
+        <v>295</v>
       </c>
       <c r="BG56" t="e">
         <f>IF(O56=0,"",VLOOKUP(O56,#REF!,2,FALSE))</f>
@@ -13719,18 +13707,18 @@
         <v>1</v>
       </c>
       <c r="BJ56" t="s">
-        <v>323</v>
+        <v>312</v>
       </c>
     </row>
     <row r="57" ht="16.5" spans="4:62">
       <c r="D57" s="2" t="s">
-        <v>259</v>
+        <v>247</v>
       </c>
       <c r="E57" s="10">
         <v>11020451</v>
       </c>
       <c r="F57" s="9" t="s">
-        <v>336</v>
+        <v>325</v>
       </c>
       <c r="G57">
         <v>42002001</v>
@@ -13853,18 +13841,18 @@
         <v>0</v>
       </c>
       <c r="BJ57" t="s">
-        <v>337</v>
+        <v>326</v>
       </c>
     </row>
     <row r="58" ht="15.75" customHeight="1" spans="4:62">
       <c r="D58" s="2" t="s">
-        <v>259</v>
+        <v>247</v>
       </c>
       <c r="E58" s="10">
         <v>11020452</v>
       </c>
       <c r="F58" s="9" t="s">
-        <v>338</v>
+        <v>327</v>
       </c>
       <c r="G58">
         <v>42002001</v>
@@ -13989,10 +13977,10 @@
         <v>0</v>
       </c>
       <c r="BE58" t="s">
-        <v>305</v>
+        <v>294</v>
       </c>
       <c r="BF58" t="s">
-        <v>306</v>
+        <v>295</v>
       </c>
       <c r="BG58" t="e">
         <f>IF(O58=0,"",VLOOKUP(O58,#REF!,2,FALSE))</f>
@@ -14002,18 +13990,18 @@
         <v>1</v>
       </c>
       <c r="BJ58" t="s">
-        <v>337</v>
+        <v>326</v>
       </c>
     </row>
     <row r="59" ht="15.75" customHeight="1" spans="4:62">
       <c r="D59" s="2" t="s">
-        <v>259</v>
+        <v>247</v>
       </c>
       <c r="E59" s="10">
         <v>11020453</v>
       </c>
       <c r="F59" s="9" t="s">
-        <v>339</v>
+        <v>328</v>
       </c>
       <c r="G59">
         <v>42002001</v>
@@ -14048,7 +14036,7 @@
         <v>0</v>
       </c>
       <c r="Z59" s="19" t="s">
-        <v>340</v>
+        <v>329</v>
       </c>
       <c r="AA59" s="5">
         <v>200</v>
@@ -14136,18 +14124,18 @@
         <v>0</v>
       </c>
       <c r="BJ59" t="s">
-        <v>337</v>
+        <v>326</v>
       </c>
     </row>
     <row r="60" ht="15.75" customHeight="1" spans="4:62">
       <c r="D60" s="2" t="s">
-        <v>259</v>
+        <v>247</v>
       </c>
       <c r="E60" s="10">
         <v>11020454</v>
       </c>
       <c r="F60" s="9" t="s">
-        <v>341</v>
+        <v>330</v>
       </c>
       <c r="G60">
         <v>42002001</v>
@@ -14182,7 +14170,7 @@
         <v>0</v>
       </c>
       <c r="Z60" s="19" t="s">
-        <v>342</v>
+        <v>331</v>
       </c>
       <c r="AA60" s="5">
         <v>200</v>
@@ -14270,18 +14258,18 @@
         <v>0</v>
       </c>
       <c r="BJ60" t="s">
-        <v>337</v>
+        <v>326</v>
       </c>
     </row>
     <row r="61" ht="15.75" customHeight="1" spans="4:62">
       <c r="D61" s="2" t="s">
-        <v>259</v>
+        <v>247</v>
       </c>
       <c r="E61" s="10">
         <v>11020455</v>
       </c>
       <c r="F61" s="9" t="s">
-        <v>343</v>
+        <v>332</v>
       </c>
       <c r="G61">
         <v>42002001</v>
@@ -14318,7 +14306,7 @@
         <v>0</v>
       </c>
       <c r="Z61" s="19" t="s">
-        <v>342</v>
+        <v>331</v>
       </c>
       <c r="AA61" s="5">
         <v>200</v>
@@ -14406,10 +14394,10 @@
         <v>0</v>
       </c>
       <c r="BE61" t="s">
-        <v>305</v>
+        <v>294</v>
       </c>
       <c r="BF61" t="s">
-        <v>306</v>
+        <v>295</v>
       </c>
       <c r="BG61" t="e">
         <f>IF(O61=0,"",VLOOKUP(O61,#REF!,2,FALSE))</f>
@@ -14419,18 +14407,18 @@
         <v>1</v>
       </c>
       <c r="BJ61" t="s">
-        <v>337</v>
+        <v>326</v>
       </c>
     </row>
     <row r="62" ht="16.5" spans="4:62">
       <c r="D62" s="2" t="s">
-        <v>259</v>
+        <v>247</v>
       </c>
       <c r="E62" s="10">
         <v>11020461</v>
       </c>
       <c r="F62" s="9" t="s">
-        <v>344</v>
+        <v>333</v>
       </c>
       <c r="G62">
         <v>42002001</v>
@@ -14465,7 +14453,7 @@
         <v>0</v>
       </c>
       <c r="Z62" s="19" t="s">
-        <v>340</v>
+        <v>329</v>
       </c>
       <c r="AA62" s="5">
         <v>200</v>
@@ -14553,18 +14541,18 @@
         <v>0</v>
       </c>
       <c r="BJ62" t="s">
-        <v>337</v>
+        <v>326</v>
       </c>
     </row>
     <row r="63" ht="16.5" spans="4:62">
       <c r="D63" s="2" t="s">
-        <v>259</v>
+        <v>247</v>
       </c>
       <c r="E63" s="10">
         <v>11020462</v>
       </c>
       <c r="F63" s="9" t="s">
-        <v>345</v>
+        <v>334</v>
       </c>
       <c r="G63">
         <v>42002001</v>
@@ -14601,7 +14589,7 @@
         <v>0</v>
       </c>
       <c r="Z63" s="19" t="s">
-        <v>340</v>
+        <v>329</v>
       </c>
       <c r="AA63" s="5">
         <v>200</v>
@@ -14689,10 +14677,10 @@
         <v>0</v>
       </c>
       <c r="BE63" t="s">
-        <v>305</v>
+        <v>294</v>
       </c>
       <c r="BF63" t="s">
-        <v>306</v>
+        <v>295</v>
       </c>
       <c r="BG63" t="e">
         <f>IF(O63=0,"",VLOOKUP(O63,#REF!,2,FALSE))</f>
@@ -14702,18 +14690,18 @@
         <v>1</v>
       </c>
       <c r="BJ63" t="s">
-        <v>337</v>
+        <v>326</v>
       </c>
     </row>
     <row r="64" ht="15.75" customHeight="1" spans="4:62">
       <c r="D64" s="2" t="s">
-        <v>259</v>
+        <v>247</v>
       </c>
       <c r="E64" s="10">
         <v>11020463</v>
       </c>
       <c r="F64" s="9" t="s">
-        <v>346</v>
+        <v>335</v>
       </c>
       <c r="G64">
         <v>42002001</v>
@@ -14748,7 +14736,7 @@
         <v>0</v>
       </c>
       <c r="Z64" s="19" t="s">
-        <v>340</v>
+        <v>329</v>
       </c>
       <c r="AA64" s="5">
         <v>200</v>
@@ -14836,18 +14824,18 @@
         <v>0</v>
       </c>
       <c r="BJ64" t="s">
-        <v>337</v>
+        <v>326</v>
       </c>
     </row>
     <row r="65" ht="15.75" customHeight="1" spans="4:62">
       <c r="D65" s="2" t="s">
-        <v>259</v>
+        <v>247</v>
       </c>
       <c r="E65" s="10">
         <v>11020464</v>
       </c>
       <c r="F65" s="9" t="s">
-        <v>347</v>
+        <v>336</v>
       </c>
       <c r="G65">
         <v>42002001</v>
@@ -14882,7 +14870,7 @@
         <v>0</v>
       </c>
       <c r="Z65" s="19" t="s">
-        <v>342</v>
+        <v>331</v>
       </c>
       <c r="AA65" s="5">
         <v>200</v>
@@ -14970,18 +14958,18 @@
         <v>0</v>
       </c>
       <c r="BJ65" t="s">
-        <v>337</v>
+        <v>326</v>
       </c>
     </row>
     <row r="66" ht="15.75" customHeight="1" spans="4:62">
       <c r="D66" s="2" t="s">
-        <v>259</v>
+        <v>247</v>
       </c>
       <c r="E66" s="10">
         <v>11020465</v>
       </c>
       <c r="F66" s="9" t="s">
-        <v>348</v>
+        <v>337</v>
       </c>
       <c r="G66">
         <v>42002001</v>
@@ -15018,7 +15006,7 @@
         <v>0</v>
       </c>
       <c r="Z66" s="19" t="s">
-        <v>342</v>
+        <v>331</v>
       </c>
       <c r="AA66" s="5">
         <v>200</v>
@@ -15106,10 +15094,10 @@
         <v>0</v>
       </c>
       <c r="BE66" t="s">
-        <v>305</v>
+        <v>294</v>
       </c>
       <c r="BF66" t="s">
-        <v>306</v>
+        <v>295</v>
       </c>
       <c r="BG66" t="e">
         <f>IF(O66=0,"",VLOOKUP(O66,#REF!,2,FALSE))</f>
@@ -15119,18 +15107,18 @@
         <v>1</v>
       </c>
       <c r="BJ66" t="s">
-        <v>337</v>
+        <v>326</v>
       </c>
     </row>
     <row r="67" ht="16.5" spans="4:62">
       <c r="D67" s="2" t="s">
-        <v>259</v>
+        <v>247</v>
       </c>
       <c r="E67" s="10">
         <v>11020471</v>
       </c>
       <c r="F67" s="9" t="s">
-        <v>349</v>
+        <v>338</v>
       </c>
       <c r="G67">
         <v>42002001</v>
@@ -15165,7 +15153,7 @@
         <v>0</v>
       </c>
       <c r="Z67" s="19" t="s">
-        <v>340</v>
+        <v>329</v>
       </c>
       <c r="AA67" s="5">
         <v>200</v>
@@ -15253,18 +15241,18 @@
         <v>0</v>
       </c>
       <c r="BJ67" t="s">
-        <v>337</v>
+        <v>326</v>
       </c>
     </row>
     <row r="68" ht="16.5" spans="4:62">
       <c r="D68" s="2" t="s">
-        <v>259</v>
+        <v>247</v>
       </c>
       <c r="E68" s="10">
         <v>11020472</v>
       </c>
       <c r="F68" s="9" t="s">
-        <v>350</v>
+        <v>339</v>
       </c>
       <c r="G68">
         <v>42002001</v>
@@ -15301,7 +15289,7 @@
         <v>0</v>
       </c>
       <c r="Z68" s="19" t="s">
-        <v>340</v>
+        <v>329</v>
       </c>
       <c r="AA68" s="5">
         <v>200</v>
@@ -15389,10 +15377,10 @@
         <v>0</v>
       </c>
       <c r="BE68" t="s">
-        <v>305</v>
+        <v>294</v>
       </c>
       <c r="BF68" t="s">
-        <v>306</v>
+        <v>295</v>
       </c>
       <c r="BG68" t="e">
         <f>IF(O68=0,"",VLOOKUP(O68,#REF!,2,FALSE))</f>
@@ -15402,18 +15390,18 @@
         <v>1</v>
       </c>
       <c r="BJ68" t="s">
-        <v>337</v>
+        <v>326</v>
       </c>
     </row>
     <row r="69" ht="15.75" customHeight="1" spans="4:62">
       <c r="D69" s="2" t="s">
-        <v>259</v>
+        <v>247</v>
       </c>
       <c r="E69" s="10">
         <v>11020473</v>
       </c>
       <c r="F69" s="9" t="s">
-        <v>351</v>
+        <v>340</v>
       </c>
       <c r="G69">
         <v>42002001</v>
@@ -15448,7 +15436,7 @@
         <v>0</v>
       </c>
       <c r="Z69" s="19" t="s">
-        <v>340</v>
+        <v>329</v>
       </c>
       <c r="AA69" s="5">
         <v>200</v>
@@ -15536,18 +15524,18 @@
         <v>0</v>
       </c>
       <c r="BJ69" t="s">
-        <v>337</v>
+        <v>326</v>
       </c>
     </row>
     <row r="70" ht="15.75" customHeight="1" spans="4:62">
       <c r="D70" s="2" t="s">
-        <v>259</v>
+        <v>247</v>
       </c>
       <c r="E70" s="10">
         <v>11020474</v>
       </c>
       <c r="F70" s="9" t="s">
-        <v>352</v>
+        <v>341</v>
       </c>
       <c r="G70">
         <v>42002001</v>
@@ -15582,7 +15570,7 @@
         <v>0</v>
       </c>
       <c r="Z70" s="19" t="s">
-        <v>342</v>
+        <v>331</v>
       </c>
       <c r="AA70" s="5">
         <v>200</v>
@@ -15670,18 +15658,18 @@
         <v>0</v>
       </c>
       <c r="BJ70" t="s">
-        <v>337</v>
+        <v>326</v>
       </c>
     </row>
     <row r="71" ht="15.75" customHeight="1" spans="4:62">
       <c r="D71" s="2" t="s">
-        <v>259</v>
+        <v>247</v>
       </c>
       <c r="E71" s="10">
         <v>11020475</v>
       </c>
       <c r="F71" s="9" t="s">
-        <v>353</v>
+        <v>342</v>
       </c>
       <c r="G71">
         <v>42002001</v>
@@ -15718,7 +15706,7 @@
         <v>0</v>
       </c>
       <c r="Z71" s="19" t="s">
-        <v>342</v>
+        <v>331</v>
       </c>
       <c r="AA71" s="5">
         <v>200</v>
@@ -15806,10 +15794,10 @@
         <v>0</v>
       </c>
       <c r="BE71" t="s">
-        <v>305</v>
+        <v>294</v>
       </c>
       <c r="BF71" t="s">
-        <v>306</v>
+        <v>295</v>
       </c>
       <c r="BG71" t="e">
         <f>IF(O71=0,"",VLOOKUP(O71,#REF!,2,FALSE))</f>
@@ -15819,18 +15807,18 @@
         <v>1</v>
       </c>
       <c r="BJ71" t="s">
-        <v>337</v>
+        <v>326</v>
       </c>
     </row>
     <row r="72" ht="15.75" customHeight="1" spans="4:62">
       <c r="D72" s="2" t="s">
-        <v>259</v>
+        <v>247</v>
       </c>
       <c r="E72" s="10">
         <v>11020551</v>
       </c>
       <c r="F72" s="9" t="s">
-        <v>354</v>
+        <v>343</v>
       </c>
       <c r="G72">
         <v>42002001</v>
@@ -15865,7 +15853,7 @@
         <v>0</v>
       </c>
       <c r="Z72" s="19" t="s">
-        <v>342</v>
+        <v>331</v>
       </c>
       <c r="AA72" s="5">
         <v>200</v>
@@ -15953,10 +15941,10 @@
         <v>0</v>
       </c>
       <c r="BE72" t="s">
-        <v>305</v>
+        <v>294</v>
       </c>
       <c r="BF72" t="s">
-        <v>306</v>
+        <v>295</v>
       </c>
       <c r="BG72" t="e">
         <f>IF(O72=0,"",VLOOKUP(O72,#REF!,2,FALSE))</f>
@@ -15966,18 +15954,18 @@
         <v>1</v>
       </c>
       <c r="BJ72" t="s">
-        <v>355</v>
+        <v>344</v>
       </c>
     </row>
     <row r="73" ht="15.75" customHeight="1" spans="4:62">
       <c r="D73" s="2" t="s">
-        <v>259</v>
+        <v>247</v>
       </c>
       <c r="E73" s="10">
         <v>11020561</v>
       </c>
       <c r="F73" s="9" t="s">
-        <v>356</v>
+        <v>345</v>
       </c>
       <c r="G73">
         <v>42002001</v>
@@ -16012,7 +16000,7 @@
         <v>0</v>
       </c>
       <c r="Z73" s="19" t="s">
-        <v>342</v>
+        <v>331</v>
       </c>
       <c r="AA73" s="5">
         <v>200</v>
@@ -16100,10 +16088,10 @@
         <v>0</v>
       </c>
       <c r="BE73" t="s">
-        <v>305</v>
+        <v>294</v>
       </c>
       <c r="BF73" t="s">
-        <v>306</v>
+        <v>295</v>
       </c>
       <c r="BG73" t="e">
         <f>IF(O73=0,"",VLOOKUP(O73,#REF!,2,FALSE))</f>
@@ -16113,18 +16101,18 @@
         <v>1</v>
       </c>
       <c r="BJ73" t="s">
-        <v>355</v>
+        <v>344</v>
       </c>
     </row>
     <row r="74" ht="15.75" customHeight="1" spans="4:62">
       <c r="D74" s="2" t="s">
-        <v>259</v>
+        <v>247</v>
       </c>
       <c r="E74" s="10">
         <v>11020571</v>
       </c>
       <c r="F74" s="9" t="s">
-        <v>357</v>
+        <v>346</v>
       </c>
       <c r="G74">
         <v>42002001</v>
@@ -16159,7 +16147,7 @@
         <v>0</v>
       </c>
       <c r="Z74" s="19" t="s">
-        <v>342</v>
+        <v>331</v>
       </c>
       <c r="AA74" s="5">
         <v>200</v>
@@ -16247,10 +16235,10 @@
         <v>0</v>
       </c>
       <c r="BE74" t="s">
-        <v>305</v>
+        <v>294</v>
       </c>
       <c r="BF74" t="s">
-        <v>306</v>
+        <v>295</v>
       </c>
       <c r="BG74" t="e">
         <f>IF(O74=0,"",VLOOKUP(O74,#REF!,2,FALSE))</f>
@@ -16260,18 +16248,18 @@
         <v>1</v>
       </c>
       <c r="BJ74" t="s">
-        <v>355</v>
+        <v>344</v>
       </c>
     </row>
     <row r="75" ht="15.75" customHeight="1" spans="4:62">
       <c r="D75" s="2" t="s">
-        <v>259</v>
+        <v>247</v>
       </c>
       <c r="E75" s="10">
         <v>11020581</v>
       </c>
       <c r="F75" s="9" t="s">
-        <v>358</v>
+        <v>347</v>
       </c>
       <c r="G75">
         <v>42002001</v>
@@ -16306,7 +16294,7 @@
         <v>0</v>
       </c>
       <c r="Z75" s="19" t="s">
-        <v>342</v>
+        <v>331</v>
       </c>
       <c r="AA75" s="5">
         <v>200</v>
@@ -16394,10 +16382,10 @@
         <v>0</v>
       </c>
       <c r="BE75" t="s">
-        <v>305</v>
+        <v>294</v>
       </c>
       <c r="BF75" t="s">
-        <v>306</v>
+        <v>295</v>
       </c>
       <c r="BG75" t="e">
         <f>IF(O75=0,"",VLOOKUP(O75,#REF!,2,FALSE))</f>
@@ -16407,18 +16395,18 @@
         <v>1</v>
       </c>
       <c r="BJ75" t="s">
-        <v>355</v>
+        <v>344</v>
       </c>
     </row>
     <row r="76" ht="15.75" customHeight="1" spans="4:62">
       <c r="D76" s="2" t="s">
-        <v>259</v>
+        <v>247</v>
       </c>
       <c r="E76" s="10">
         <v>11020591</v>
       </c>
       <c r="F76" s="9" t="s">
-        <v>359</v>
+        <v>348</v>
       </c>
       <c r="G76">
         <v>42002001</v>
@@ -16453,7 +16441,7 @@
         <v>0</v>
       </c>
       <c r="Z76" s="19" t="s">
-        <v>342</v>
+        <v>331</v>
       </c>
       <c r="AA76" s="5">
         <v>200</v>
@@ -16541,10 +16529,10 @@
         <v>0</v>
       </c>
       <c r="BE76" t="s">
-        <v>305</v>
+        <v>294</v>
       </c>
       <c r="BF76" t="s">
-        <v>306</v>
+        <v>295</v>
       </c>
       <c r="BG76" t="e">
         <f>IF(O76=0,"",VLOOKUP(O76,#REF!,2,FALSE))</f>
@@ -16554,18 +16542,18 @@
         <v>1</v>
       </c>
       <c r="BJ76" t="s">
-        <v>355</v>
+        <v>344</v>
       </c>
     </row>
     <row r="77" ht="16.5" spans="4:62">
       <c r="D77" s="2" t="s">
-        <v>259</v>
+        <v>247</v>
       </c>
       <c r="E77" s="10">
         <v>11120301</v>
       </c>
       <c r="F77" s="9" t="s">
-        <v>360</v>
+        <v>349</v>
       </c>
       <c r="G77">
         <v>42002001</v>
@@ -16599,7 +16587,7 @@
         <v>0</v>
       </c>
       <c r="Z77" s="19" t="s">
-        <v>361</v>
+        <v>350</v>
       </c>
       <c r="AA77" s="5">
         <v>200</v>
@@ -16685,18 +16673,18 @@
         <v>0</v>
       </c>
       <c r="BJ77" t="s">
-        <v>303</v>
+        <v>292</v>
       </c>
     </row>
     <row r="78" ht="16.5" spans="4:62">
       <c r="D78" s="2" t="s">
-        <v>259</v>
+        <v>247</v>
       </c>
       <c r="E78" s="10">
         <v>11120311</v>
       </c>
       <c r="F78" s="9" t="s">
-        <v>362</v>
+        <v>351</v>
       </c>
       <c r="G78">
         <v>42002001</v>
@@ -16730,7 +16718,7 @@
         <v>0</v>
       </c>
       <c r="Z78" s="19" t="s">
-        <v>361</v>
+        <v>350</v>
       </c>
       <c r="AA78" s="5">
         <v>200</v>
@@ -16816,18 +16804,18 @@
         <v>0</v>
       </c>
       <c r="BJ78" t="s">
-        <v>303</v>
+        <v>292</v>
       </c>
     </row>
     <row r="79" ht="16.5" spans="4:62">
       <c r="D79" s="2" t="s">
-        <v>259</v>
+        <v>247</v>
       </c>
       <c r="E79" s="10">
         <v>11120321</v>
       </c>
       <c r="F79" s="9" t="s">
-        <v>363</v>
+        <v>352</v>
       </c>
       <c r="G79">
         <v>42002001</v>
@@ -16861,7 +16849,7 @@
         <v>0</v>
       </c>
       <c r="Z79" s="19" t="s">
-        <v>361</v>
+        <v>350</v>
       </c>
       <c r="AA79" s="5">
         <v>200</v>
@@ -16947,18 +16935,18 @@
         <v>0</v>
       </c>
       <c r="BJ79" t="s">
-        <v>303</v>
+        <v>292</v>
       </c>
     </row>
     <row r="80" ht="16.5" spans="4:62">
       <c r="D80" s="2" t="s">
-        <v>364</v>
+        <v>353</v>
       </c>
       <c r="E80">
         <v>21020021</v>
       </c>
       <c r="F80" s="9" t="s">
-        <v>365</v>
+        <v>354</v>
       </c>
       <c r="G80">
         <v>42002001</v>
@@ -17079,18 +17067,18 @@
         <v>0</v>
       </c>
       <c r="BJ80" t="s">
-        <v>366</v>
+        <v>355</v>
       </c>
     </row>
     <row r="81" ht="16.5" spans="4:62">
       <c r="D81" s="2" t="s">
-        <v>364</v>
+        <v>353</v>
       </c>
       <c r="E81" s="10">
         <v>21020051</v>
       </c>
       <c r="F81" s="9" t="s">
-        <v>367</v>
+        <v>356</v>
       </c>
       <c r="G81">
         <v>42002001</v>
@@ -17214,18 +17202,18 @@
         <v>0</v>
       </c>
       <c r="BJ81" t="s">
-        <v>269</v>
+        <v>257</v>
       </c>
     </row>
     <row r="82" ht="16.5" spans="4:62">
       <c r="D82" s="2" t="s">
-        <v>364</v>
+        <v>353</v>
       </c>
       <c r="E82" s="10">
         <v>21020052</v>
       </c>
       <c r="F82" s="9" t="s">
-        <v>368</v>
+        <v>357</v>
       </c>
       <c r="G82">
         <v>42002001</v>
@@ -17349,10 +17337,10 @@
         <v>0</v>
       </c>
       <c r="BE82" t="s">
-        <v>305</v>
+        <v>294</v>
       </c>
       <c r="BF82" t="s">
-        <v>306</v>
+        <v>295</v>
       </c>
       <c r="BG82" t="e">
         <f>IF(O82=0,"",VLOOKUP(O82,#REF!,2,FALSE))</f>
@@ -17362,18 +17350,18 @@
         <v>1</v>
       </c>
       <c r="BJ82" t="s">
-        <v>269</v>
+        <v>257</v>
       </c>
     </row>
     <row r="83" ht="16.5" spans="4:62">
       <c r="D83" s="2" t="s">
-        <v>364</v>
+        <v>353</v>
       </c>
       <c r="E83" s="10">
         <v>21020071</v>
       </c>
       <c r="F83" s="9" t="s">
-        <v>369</v>
+        <v>358</v>
       </c>
       <c r="G83">
         <v>42002001</v>
@@ -17497,18 +17485,18 @@
         <v>0</v>
       </c>
       <c r="BJ83" t="s">
-        <v>269</v>
+        <v>257</v>
       </c>
     </row>
     <row r="84" ht="16.5" spans="4:62">
       <c r="D84" s="2" t="s">
-        <v>364</v>
+        <v>353</v>
       </c>
       <c r="E84" s="10">
         <v>21020072</v>
       </c>
       <c r="F84" s="9" t="s">
-        <v>370</v>
+        <v>359</v>
       </c>
       <c r="G84">
         <v>42002001</v>
@@ -17632,10 +17620,10 @@
         <v>0</v>
       </c>
       <c r="BE84" t="s">
-        <v>305</v>
+        <v>294</v>
       </c>
       <c r="BF84" t="s">
-        <v>306</v>
+        <v>295</v>
       </c>
       <c r="BG84" t="e">
         <f>IF(O84=0,"",VLOOKUP(O84,#REF!,2,FALSE))</f>
@@ -17645,18 +17633,18 @@
         <v>1</v>
       </c>
       <c r="BJ84" t="s">
-        <v>269</v>
+        <v>257</v>
       </c>
     </row>
     <row r="85" ht="16.5" spans="4:62">
       <c r="D85" s="2" t="s">
-        <v>364</v>
+        <v>353</v>
       </c>
       <c r="E85" s="10">
         <v>22020081</v>
       </c>
       <c r="F85" s="9" t="s">
-        <v>371</v>
+        <v>360</v>
       </c>
       <c r="G85">
         <v>42002001</v>
@@ -17780,18 +17768,18 @@
         <v>0</v>
       </c>
       <c r="BJ85" t="s">
-        <v>272</v>
+        <v>260</v>
       </c>
     </row>
     <row r="86" ht="16.5" spans="4:62">
       <c r="D86" s="2" t="s">
-        <v>364</v>
+        <v>353</v>
       </c>
       <c r="E86" s="10">
         <v>22020082</v>
       </c>
       <c r="F86" s="9" t="s">
-        <v>372</v>
+        <v>361</v>
       </c>
       <c r="G86">
         <v>42002001</v>
@@ -17915,10 +17903,10 @@
         <v>0</v>
       </c>
       <c r="BE86" t="s">
-        <v>305</v>
+        <v>294</v>
       </c>
       <c r="BF86" t="s">
-        <v>306</v>
+        <v>295</v>
       </c>
       <c r="BG86" t="e">
         <f>IF(O86=0,"",VLOOKUP(O86,#REF!,2,FALSE))</f>
@@ -17928,18 +17916,18 @@
         <v>1</v>
       </c>
       <c r="BJ86" t="s">
-        <v>272</v>
+        <v>260</v>
       </c>
     </row>
     <row r="87" ht="16.5" spans="4:62">
       <c r="D87" s="2" t="s">
-        <v>364</v>
+        <v>353</v>
       </c>
       <c r="E87" s="10">
         <v>21020121</v>
       </c>
       <c r="F87" s="9" t="s">
-        <v>373</v>
+        <v>362</v>
       </c>
       <c r="G87">
         <v>42002001</v>
@@ -17973,7 +17961,7 @@
         <v>0</v>
       </c>
       <c r="Z87" s="19" t="s">
-        <v>374</v>
+        <v>363</v>
       </c>
       <c r="AA87" s="5">
         <v>200</v>
@@ -18061,18 +18049,18 @@
         <v>0</v>
       </c>
       <c r="BJ87" t="s">
-        <v>375</v>
+        <v>364</v>
       </c>
     </row>
     <row r="88" ht="16.5" spans="4:62">
       <c r="D88" s="2" t="s">
-        <v>364</v>
+        <v>353</v>
       </c>
       <c r="E88" s="10">
         <v>21020131</v>
       </c>
       <c r="F88" s="9" t="s">
-        <v>376</v>
+        <v>365</v>
       </c>
       <c r="G88">
         <v>42002001</v>
@@ -18106,7 +18094,7 @@
         <v>0</v>
       </c>
       <c r="Z88" s="19" t="s">
-        <v>374</v>
+        <v>363</v>
       </c>
       <c r="AA88" s="5">
         <v>200</v>
@@ -18194,18 +18182,18 @@
         <v>0</v>
       </c>
       <c r="BJ88" t="s">
-        <v>375</v>
+        <v>364</v>
       </c>
     </row>
     <row r="89" ht="16.5" spans="4:62">
       <c r="D89" s="2" t="s">
-        <v>364</v>
+        <v>353</v>
       </c>
       <c r="E89" s="10">
         <v>21020132</v>
       </c>
       <c r="F89" s="9" t="s">
-        <v>377</v>
+        <v>366</v>
       </c>
       <c r="G89">
         <v>42002001</v>
@@ -18239,7 +18227,7 @@
         <v>0</v>
       </c>
       <c r="Z89" s="19" t="s">
-        <v>374</v>
+        <v>363</v>
       </c>
       <c r="AA89" s="5">
         <v>200</v>
@@ -18327,10 +18315,10 @@
         <v>0</v>
       </c>
       <c r="BE89" t="s">
-        <v>305</v>
+        <v>294</v>
       </c>
       <c r="BF89" t="s">
-        <v>306</v>
+        <v>295</v>
       </c>
       <c r="BG89" t="e">
         <f>IF(O89=0,"",VLOOKUP(O89,#REF!,2,FALSE))</f>
@@ -18340,18 +18328,18 @@
         <v>1</v>
       </c>
       <c r="BJ89" t="s">
-        <v>375</v>
+        <v>364</v>
       </c>
     </row>
     <row r="90" ht="16.5" spans="4:62">
       <c r="D90" s="2" t="s">
-        <v>364</v>
+        <v>353</v>
       </c>
       <c r="E90" s="10">
         <v>21020301</v>
       </c>
       <c r="F90" s="9" t="s">
-        <v>378</v>
+        <v>367</v>
       </c>
       <c r="G90">
         <v>42002001</v>
@@ -18471,10 +18459,10 @@
         <v>0</v>
       </c>
       <c r="BE90" t="s">
-        <v>305</v>
+        <v>294</v>
       </c>
       <c r="BF90" t="s">
-        <v>306</v>
+        <v>295</v>
       </c>
       <c r="BG90" t="e">
         <f>IF(O90=0,"",VLOOKUP(O90,#REF!,2,FALSE))</f>
@@ -18484,18 +18472,18 @@
         <v>1</v>
       </c>
       <c r="BJ90" t="s">
-        <v>379</v>
+        <v>368</v>
       </c>
     </row>
     <row r="91" ht="16.5" spans="4:62">
       <c r="D91" s="2" t="s">
-        <v>364</v>
+        <v>353</v>
       </c>
       <c r="E91" s="10">
         <v>21020302</v>
       </c>
       <c r="F91" s="9" t="s">
-        <v>380</v>
+        <v>369</v>
       </c>
       <c r="G91">
         <v>42002001</v>
@@ -18529,7 +18517,7 @@
         <v>0</v>
       </c>
       <c r="Z91" s="19" t="s">
-        <v>361</v>
+        <v>350</v>
       </c>
       <c r="AA91" s="5">
         <v>200</v>
@@ -18615,10 +18603,10 @@
         <v>0</v>
       </c>
       <c r="BE91" t="s">
-        <v>305</v>
+        <v>294</v>
       </c>
       <c r="BF91" t="s">
-        <v>306</v>
+        <v>295</v>
       </c>
       <c r="BG91" t="e">
         <f>IF(O91=0,"",VLOOKUP(O91,#REF!,2,FALSE))</f>
@@ -18628,18 +18616,18 @@
         <v>1</v>
       </c>
       <c r="BJ91" t="s">
-        <v>379</v>
+        <v>368</v>
       </c>
     </row>
     <row r="92" ht="16.5" spans="4:62">
       <c r="D92" s="2" t="s">
-        <v>364</v>
+        <v>353</v>
       </c>
       <c r="E92" s="10">
         <v>21020303</v>
       </c>
       <c r="F92" s="9" t="s">
-        <v>381</v>
+        <v>370</v>
       </c>
       <c r="G92">
         <v>42002001</v>
@@ -18673,7 +18661,7 @@
         <v>0</v>
       </c>
       <c r="Z92" s="19" t="s">
-        <v>361</v>
+        <v>350</v>
       </c>
       <c r="AA92" s="5">
         <v>200</v>
@@ -18759,18 +18747,18 @@
         <v>0</v>
       </c>
       <c r="BJ92" t="s">
-        <v>379</v>
+        <v>368</v>
       </c>
     </row>
     <row r="93" ht="16.5" spans="4:62">
       <c r="D93" s="2" t="s">
-        <v>364</v>
+        <v>353</v>
       </c>
       <c r="E93" s="10">
         <v>21020304</v>
       </c>
       <c r="F93" s="9" t="s">
-        <v>382</v>
+        <v>371</v>
       </c>
       <c r="G93">
         <v>42002001</v>
@@ -18890,18 +18878,18 @@
         <v>0</v>
       </c>
       <c r="BJ93" t="s">
-        <v>379</v>
+        <v>368</v>
       </c>
     </row>
     <row r="94" ht="16.5" spans="4:62">
       <c r="D94" s="2" t="s">
-        <v>364</v>
+        <v>353</v>
       </c>
       <c r="E94" s="10">
         <v>21020311</v>
       </c>
       <c r="F94" s="9" t="s">
-        <v>383</v>
+        <v>372</v>
       </c>
       <c r="G94">
         <v>42002001</v>
@@ -19021,10 +19009,10 @@
         <v>0</v>
       </c>
       <c r="BE94" t="s">
-        <v>305</v>
+        <v>294</v>
       </c>
       <c r="BF94" t="s">
-        <v>306</v>
+        <v>295</v>
       </c>
       <c r="BG94" t="e">
         <f>IF(O94=0,"",VLOOKUP(O94,#REF!,2,FALSE))</f>
@@ -19034,18 +19022,18 @@
         <v>1</v>
       </c>
       <c r="BJ94" t="s">
-        <v>379</v>
+        <v>368</v>
       </c>
     </row>
     <row r="95" ht="16.5" spans="4:62">
       <c r="D95" s="2" t="s">
-        <v>364</v>
+        <v>353</v>
       </c>
       <c r="E95" s="10">
         <v>21020312</v>
       </c>
       <c r="F95" s="9" t="s">
-        <v>384</v>
+        <v>373</v>
       </c>
       <c r="G95">
         <v>42002001</v>
@@ -19079,7 +19067,7 @@
         <v>0</v>
       </c>
       <c r="Z95" s="19" t="s">
-        <v>361</v>
+        <v>350</v>
       </c>
       <c r="AA95" s="5">
         <v>200</v>
@@ -19165,10 +19153,10 @@
         <v>0</v>
       </c>
       <c r="BE95" t="s">
-        <v>305</v>
+        <v>294</v>
       </c>
       <c r="BF95" t="s">
-        <v>306</v>
+        <v>295</v>
       </c>
       <c r="BG95" t="e">
         <f>IF(O95=0,"",VLOOKUP(O95,#REF!,2,FALSE))</f>
@@ -19178,18 +19166,18 @@
         <v>1</v>
       </c>
       <c r="BJ95" t="s">
-        <v>379</v>
+        <v>368</v>
       </c>
     </row>
     <row r="96" ht="16.5" spans="4:62">
       <c r="D96" s="2" t="s">
-        <v>364</v>
+        <v>353</v>
       </c>
       <c r="E96" s="10">
         <v>21020313</v>
       </c>
       <c r="F96" s="9" t="s">
-        <v>385</v>
+        <v>374</v>
       </c>
       <c r="G96">
         <v>42002001</v>
@@ -19223,7 +19211,7 @@
         <v>0</v>
       </c>
       <c r="Z96" s="19" t="s">
-        <v>361</v>
+        <v>350</v>
       </c>
       <c r="AA96" s="5">
         <v>200</v>
@@ -19309,18 +19297,18 @@
         <v>0</v>
       </c>
       <c r="BJ96" t="s">
-        <v>379</v>
+        <v>368</v>
       </c>
     </row>
     <row r="97" ht="16.5" spans="4:62">
       <c r="D97" s="2" t="s">
-        <v>364</v>
+        <v>353</v>
       </c>
       <c r="E97" s="10">
         <v>21020314</v>
       </c>
       <c r="F97" s="9" t="s">
-        <v>386</v>
+        <v>375</v>
       </c>
       <c r="G97">
         <v>42002001</v>
@@ -19440,18 +19428,18 @@
         <v>0</v>
       </c>
       <c r="BJ97" t="s">
-        <v>379</v>
+        <v>368</v>
       </c>
     </row>
     <row r="98" ht="16.5" spans="4:62">
       <c r="D98" s="2" t="s">
-        <v>364</v>
+        <v>353</v>
       </c>
       <c r="E98" s="10">
         <v>21020321</v>
       </c>
       <c r="F98" s="9" t="s">
-        <v>387</v>
+        <v>376</v>
       </c>
       <c r="G98">
         <v>42002001</v>
@@ -19571,10 +19559,10 @@
         <v>0</v>
       </c>
       <c r="BE98" t="s">
-        <v>305</v>
+        <v>294</v>
       </c>
       <c r="BF98" t="s">
-        <v>306</v>
+        <v>295</v>
       </c>
       <c r="BG98" t="e">
         <f>IF(O98=0,"",VLOOKUP(O98,#REF!,2,FALSE))</f>
@@ -19584,18 +19572,18 @@
         <v>1</v>
       </c>
       <c r="BJ98" t="s">
-        <v>379</v>
+        <v>368</v>
       </c>
     </row>
     <row r="99" ht="16.5" spans="4:62">
       <c r="D99" s="2" t="s">
-        <v>364</v>
+        <v>353</v>
       </c>
       <c r="E99" s="10">
         <v>21020322</v>
       </c>
       <c r="F99" s="9" t="s">
-        <v>388</v>
+        <v>377</v>
       </c>
       <c r="G99">
         <v>42002001</v>
@@ -19629,7 +19617,7 @@
         <v>0</v>
       </c>
       <c r="Z99" s="19" t="s">
-        <v>361</v>
+        <v>350</v>
       </c>
       <c r="AA99" s="5">
         <v>200</v>
@@ -19715,10 +19703,10 @@
         <v>0</v>
       </c>
       <c r="BE99" t="s">
-        <v>305</v>
+        <v>294</v>
       </c>
       <c r="BF99" t="s">
-        <v>306</v>
+        <v>295</v>
       </c>
       <c r="BG99" t="e">
         <f>IF(O99=0,"",VLOOKUP(O99,#REF!,2,FALSE))</f>
@@ -19728,18 +19716,18 @@
         <v>1</v>
       </c>
       <c r="BJ99" t="s">
-        <v>379</v>
+        <v>368</v>
       </c>
     </row>
     <row r="100" ht="16.5" spans="4:62">
       <c r="D100" s="2" t="s">
-        <v>364</v>
+        <v>353</v>
       </c>
       <c r="E100" s="10">
         <v>21020323</v>
       </c>
       <c r="F100" s="9" t="s">
-        <v>389</v>
+        <v>378</v>
       </c>
       <c r="G100">
         <v>42002001</v>
@@ -19773,7 +19761,7 @@
         <v>0</v>
       </c>
       <c r="Z100" s="19" t="s">
-        <v>361</v>
+        <v>350</v>
       </c>
       <c r="AA100" s="5">
         <v>200</v>
@@ -19859,18 +19847,18 @@
         <v>0</v>
       </c>
       <c r="BJ100" t="s">
-        <v>379</v>
+        <v>368</v>
       </c>
     </row>
     <row r="101" ht="16.5" spans="4:62">
       <c r="D101" s="2" t="s">
-        <v>364</v>
+        <v>353</v>
       </c>
       <c r="E101" s="10">
         <v>21020324</v>
       </c>
       <c r="F101" s="9" t="s">
-        <v>390</v>
+        <v>379</v>
       </c>
       <c r="G101">
         <v>42002001</v>
@@ -19990,18 +19978,18 @@
         <v>0</v>
       </c>
       <c r="BJ101" t="s">
-        <v>379</v>
+        <v>368</v>
       </c>
     </row>
     <row r="102" ht="16.5" spans="4:62">
       <c r="D102" s="2" t="s">
-        <v>391</v>
+        <v>380</v>
       </c>
       <c r="E102" s="10">
         <v>22020351</v>
       </c>
       <c r="F102" s="9" t="s">
-        <v>392</v>
+        <v>381</v>
       </c>
       <c r="G102">
         <v>42002001</v>
@@ -20121,10 +20109,10 @@
         <v>0</v>
       </c>
       <c r="BE102" t="s">
-        <v>305</v>
+        <v>294</v>
       </c>
       <c r="BF102" t="s">
-        <v>306</v>
+        <v>295</v>
       </c>
       <c r="BG102" t="e">
         <f>IF(O102=0,"",VLOOKUP(O102,#REF!,2,FALSE))</f>
@@ -20134,18 +20122,18 @@
         <v>1</v>
       </c>
       <c r="BJ102" t="s">
-        <v>393</v>
+        <v>382</v>
       </c>
     </row>
     <row r="103" ht="16.5" spans="4:62">
       <c r="D103" s="2" t="s">
-        <v>391</v>
+        <v>380</v>
       </c>
       <c r="E103" s="10">
         <v>22020352</v>
       </c>
       <c r="F103" s="9" t="s">
-        <v>394</v>
+        <v>383</v>
       </c>
       <c r="G103">
         <v>42002001</v>
@@ -20179,7 +20167,7 @@
         <v>0</v>
       </c>
       <c r="Z103" s="19" t="s">
-        <v>395</v>
+        <v>384</v>
       </c>
       <c r="AA103" s="5">
         <v>200</v>
@@ -20265,21 +20253,21 @@
         <v>0</v>
       </c>
       <c r="BJ103" t="s">
-        <v>393</v>
+        <v>382</v>
       </c>
     </row>
     <row r="104" ht="16.5" spans="1:62">
       <c r="A104" t="s">
-        <v>396</v>
+        <v>385</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>391</v>
+        <v>380</v>
       </c>
       <c r="E104" s="10">
         <v>22020353</v>
       </c>
       <c r="F104" s="9" t="s">
-        <v>397</v>
+        <v>386</v>
       </c>
       <c r="G104">
         <v>42002001</v>
@@ -20313,7 +20301,7 @@
         <v>0</v>
       </c>
       <c r="Z104" s="19" t="s">
-        <v>395</v>
+        <v>384</v>
       </c>
       <c r="AA104" s="5">
         <v>200</v>
@@ -20399,10 +20387,10 @@
         <v>0</v>
       </c>
       <c r="BE104" t="s">
-        <v>305</v>
+        <v>294</v>
       </c>
       <c r="BF104" t="s">
-        <v>306</v>
+        <v>295</v>
       </c>
       <c r="BG104" t="e">
         <f>IF(O104=0,"",VLOOKUP(O104,#REF!,2,FALSE))</f>
@@ -20412,21 +20400,21 @@
         <v>1</v>
       </c>
       <c r="BJ104" t="s">
-        <v>393</v>
+        <v>382</v>
       </c>
     </row>
     <row r="105" ht="16.5" spans="1:62">
       <c r="A105" t="s">
-        <v>396</v>
+        <v>385</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>391</v>
+        <v>380</v>
       </c>
       <c r="E105" s="10">
         <v>22020354</v>
       </c>
       <c r="F105" s="9" t="s">
-        <v>398</v>
+        <v>387</v>
       </c>
       <c r="G105">
         <v>42002001</v>
@@ -20546,18 +20534,18 @@
         <v>0</v>
       </c>
       <c r="BJ105" t="s">
-        <v>393</v>
+        <v>382</v>
       </c>
     </row>
     <row r="106" ht="16.5" spans="4:62">
       <c r="D106" s="2" t="s">
-        <v>391</v>
+        <v>380</v>
       </c>
       <c r="E106" s="10">
         <v>22020361</v>
       </c>
       <c r="F106" s="9" t="s">
-        <v>399</v>
+        <v>388</v>
       </c>
       <c r="G106">
         <v>42002001</v>
@@ -20677,10 +20665,10 @@
         <v>0</v>
       </c>
       <c r="BE106" t="s">
-        <v>305</v>
+        <v>294</v>
       </c>
       <c r="BF106" t="s">
-        <v>306</v>
+        <v>295</v>
       </c>
       <c r="BG106" t="e">
         <f>IF(O106=0,"",VLOOKUP(O106,#REF!,2,FALSE))</f>
@@ -20690,18 +20678,18 @@
         <v>1</v>
       </c>
       <c r="BJ106" t="s">
-        <v>393</v>
+        <v>382</v>
       </c>
     </row>
     <row r="107" ht="16.5" spans="4:62">
       <c r="D107" s="2" t="s">
-        <v>391</v>
+        <v>380</v>
       </c>
       <c r="E107" s="10">
         <v>22020362</v>
       </c>
       <c r="F107" s="9" t="s">
-        <v>400</v>
+        <v>389</v>
       </c>
       <c r="G107">
         <v>42002001</v>
@@ -20735,7 +20723,7 @@
         <v>0</v>
       </c>
       <c r="Z107" s="19" t="s">
-        <v>395</v>
+        <v>384</v>
       </c>
       <c r="AA107" s="5">
         <v>200</v>
@@ -20821,18 +20809,18 @@
         <v>0</v>
       </c>
       <c r="BJ107" t="s">
-        <v>393</v>
+        <v>382</v>
       </c>
     </row>
     <row r="108" ht="16.5" spans="4:62">
       <c r="D108" s="2" t="s">
-        <v>391</v>
+        <v>380</v>
       </c>
       <c r="E108" s="10">
         <v>22020363</v>
       </c>
       <c r="F108" s="9" t="s">
-        <v>401</v>
+        <v>390</v>
       </c>
       <c r="G108">
         <v>42002001</v>
@@ -20866,7 +20854,7 @@
         <v>0</v>
       </c>
       <c r="Z108" s="19" t="s">
-        <v>395</v>
+        <v>384</v>
       </c>
       <c r="AA108" s="5">
         <v>200</v>
@@ -20952,10 +20940,10 @@
         <v>0</v>
       </c>
       <c r="BE108" t="s">
-        <v>305</v>
+        <v>294</v>
       </c>
       <c r="BF108" t="s">
-        <v>306</v>
+        <v>295</v>
       </c>
       <c r="BG108" t="e">
         <f>IF(O108=0,"",VLOOKUP(O108,#REF!,2,FALSE))</f>
@@ -20965,18 +20953,18 @@
         <v>1</v>
       </c>
       <c r="BJ108" t="s">
-        <v>393</v>
+        <v>382</v>
       </c>
     </row>
     <row r="109" ht="16.5" spans="4:62">
       <c r="D109" s="2" t="s">
-        <v>391</v>
+        <v>380</v>
       </c>
       <c r="E109" s="10">
         <v>22020364</v>
       </c>
       <c r="F109" s="9" t="s">
-        <v>402</v>
+        <v>391</v>
       </c>
       <c r="G109">
         <v>42002001</v>
@@ -21096,18 +21084,18 @@
         <v>0</v>
       </c>
       <c r="BJ109" t="s">
-        <v>393</v>
+        <v>382</v>
       </c>
     </row>
     <row r="110" ht="16.5" spans="4:62">
       <c r="D110" s="2" t="s">
-        <v>391</v>
+        <v>380</v>
       </c>
       <c r="E110" s="10">
         <v>22020371</v>
       </c>
       <c r="F110" s="9" t="s">
-        <v>403</v>
+        <v>392</v>
       </c>
       <c r="G110">
         <v>42002001</v>
@@ -21227,10 +21215,10 @@
         <v>0</v>
       </c>
       <c r="BE110" t="s">
-        <v>305</v>
+        <v>294</v>
       </c>
       <c r="BF110" t="s">
-        <v>306</v>
+        <v>295</v>
       </c>
       <c r="BG110" t="e">
         <f>IF(O110=0,"",VLOOKUP(O110,#REF!,2,FALSE))</f>
@@ -21240,18 +21228,18 @@
         <v>1</v>
       </c>
       <c r="BJ110" t="s">
-        <v>393</v>
+        <v>382</v>
       </c>
     </row>
     <row r="111" ht="16.5" spans="4:62">
       <c r="D111" s="2" t="s">
-        <v>391</v>
+        <v>380</v>
       </c>
       <c r="E111" s="10">
         <v>22020372</v>
       </c>
       <c r="F111" s="9" t="s">
-        <v>404</v>
+        <v>393</v>
       </c>
       <c r="G111">
         <v>42002001</v>
@@ -21285,7 +21273,7 @@
         <v>0</v>
       </c>
       <c r="Z111" s="19" t="s">
-        <v>395</v>
+        <v>384</v>
       </c>
       <c r="AA111" s="5">
         <v>200</v>
@@ -21371,18 +21359,18 @@
         <v>0</v>
       </c>
       <c r="BJ111" t="s">
-        <v>393</v>
+        <v>382</v>
       </c>
     </row>
     <row r="112" ht="16.5" spans="4:62">
       <c r="D112" s="2" t="s">
-        <v>391</v>
+        <v>380</v>
       </c>
       <c r="E112" s="10">
         <v>22020373</v>
       </c>
       <c r="F112" s="9" t="s">
-        <v>405</v>
+        <v>394</v>
       </c>
       <c r="G112">
         <v>42002001</v>
@@ -21416,7 +21404,7 @@
         <v>0</v>
       </c>
       <c r="Z112" s="19" t="s">
-        <v>395</v>
+        <v>384</v>
       </c>
       <c r="AA112" s="5">
         <v>200</v>
@@ -21502,10 +21490,10 @@
         <v>0</v>
       </c>
       <c r="BE112" t="s">
-        <v>305</v>
+        <v>294</v>
       </c>
       <c r="BF112" t="s">
-        <v>306</v>
+        <v>295</v>
       </c>
       <c r="BG112" t="e">
         <f>IF(O112=0,"",VLOOKUP(O112,#REF!,2,FALSE))</f>
@@ -21515,18 +21503,18 @@
         <v>1</v>
       </c>
       <c r="BJ112" t="s">
-        <v>393</v>
+        <v>382</v>
       </c>
     </row>
     <row r="113" ht="16.5" spans="4:62">
       <c r="D113" s="2" t="s">
-        <v>391</v>
+        <v>380</v>
       </c>
       <c r="E113" s="10">
         <v>22020374</v>
       </c>
       <c r="F113" s="9" t="s">
-        <v>406</v>
+        <v>395</v>
       </c>
       <c r="G113">
         <v>42002001</v>
@@ -21646,18 +21634,18 @@
         <v>0</v>
       </c>
       <c r="BJ113" t="s">
-        <v>393</v>
+        <v>382</v>
       </c>
     </row>
     <row r="114" ht="16.5" spans="4:62">
       <c r="D114" s="2" t="s">
-        <v>391</v>
+        <v>380</v>
       </c>
       <c r="E114" s="10">
         <v>22020401</v>
       </c>
       <c r="F114" s="9" t="s">
-        <v>407</v>
+        <v>396</v>
       </c>
       <c r="G114">
         <v>42002001</v>
@@ -21777,10 +21765,10 @@
         <v>0</v>
       </c>
       <c r="BE114" t="s">
-        <v>305</v>
+        <v>294</v>
       </c>
       <c r="BF114" t="s">
-        <v>306</v>
+        <v>295</v>
       </c>
       <c r="BG114" t="e">
         <f>IF(O114=0,"",VLOOKUP(O114,#REF!,2,FALSE))</f>
@@ -21790,18 +21778,18 @@
         <v>1</v>
       </c>
       <c r="BJ114" t="s">
-        <v>408</v>
+        <v>397</v>
       </c>
     </row>
     <row r="115" ht="16.5" spans="4:62">
       <c r="D115" s="2" t="s">
-        <v>391</v>
+        <v>380</v>
       </c>
       <c r="E115" s="10">
         <v>22020402</v>
       </c>
       <c r="F115" s="9" t="s">
-        <v>409</v>
+        <v>398</v>
       </c>
       <c r="G115">
         <v>42002001</v>
@@ -21835,7 +21823,7 @@
         <v>0</v>
       </c>
       <c r="Z115" s="19" t="s">
-        <v>410</v>
+        <v>399</v>
       </c>
       <c r="AA115" s="5">
         <v>200</v>
@@ -21921,10 +21909,10 @@
         <v>0</v>
       </c>
       <c r="BE115" t="s">
-        <v>305</v>
+        <v>294</v>
       </c>
       <c r="BF115" t="s">
-        <v>306</v>
+        <v>295</v>
       </c>
       <c r="BG115" t="e">
         <f>IF(O115=0,"",VLOOKUP(O115,#REF!,2,FALSE))</f>
@@ -21934,18 +21922,18 @@
         <v>1</v>
       </c>
       <c r="BJ115" t="s">
-        <v>408</v>
+        <v>397</v>
       </c>
     </row>
     <row r="116" ht="16.5" spans="4:62">
       <c r="D116" s="2" t="s">
-        <v>391</v>
+        <v>380</v>
       </c>
       <c r="E116" s="10">
         <v>22020403</v>
       </c>
       <c r="F116" s="9" t="s">
-        <v>411</v>
+        <v>400</v>
       </c>
       <c r="G116">
         <v>42002001</v>
@@ -22065,18 +22053,18 @@
         <v>0</v>
       </c>
       <c r="BJ116" t="s">
-        <v>408</v>
+        <v>397</v>
       </c>
     </row>
     <row r="117" ht="16.5" spans="4:62">
       <c r="D117" s="2" t="s">
-        <v>391</v>
+        <v>380</v>
       </c>
       <c r="E117" s="10">
         <v>22020411</v>
       </c>
       <c r="F117" s="9" t="s">
-        <v>412</v>
+        <v>401</v>
       </c>
       <c r="G117">
         <v>42002001</v>
@@ -22196,10 +22184,10 @@
         <v>0</v>
       </c>
       <c r="BE117" t="s">
-        <v>305</v>
+        <v>294</v>
       </c>
       <c r="BF117" t="s">
-        <v>306</v>
+        <v>295</v>
       </c>
       <c r="BG117" t="e">
         <f>IF(O117=0,"",VLOOKUP(O117,#REF!,2,FALSE))</f>
@@ -22209,18 +22197,18 @@
         <v>1</v>
       </c>
       <c r="BJ117" t="s">
-        <v>408</v>
+        <v>397</v>
       </c>
     </row>
     <row r="118" ht="16.5" spans="4:62">
       <c r="D118" s="2" t="s">
-        <v>391</v>
+        <v>380</v>
       </c>
       <c r="E118" s="10">
         <v>22020412</v>
       </c>
       <c r="F118" s="9" t="s">
-        <v>413</v>
+        <v>402</v>
       </c>
       <c r="G118">
         <v>42002001</v>
@@ -22254,7 +22242,7 @@
         <v>0</v>
       </c>
       <c r="Z118" s="19" t="s">
-        <v>410</v>
+        <v>399</v>
       </c>
       <c r="AA118" s="5">
         <v>200</v>
@@ -22340,10 +22328,10 @@
         <v>0</v>
       </c>
       <c r="BE118" t="s">
-        <v>305</v>
+        <v>294</v>
       </c>
       <c r="BF118" t="s">
-        <v>306</v>
+        <v>295</v>
       </c>
       <c r="BG118" t="e">
         <f>IF(O118=0,"",VLOOKUP(O118,#REF!,2,FALSE))</f>
@@ -22353,18 +22341,18 @@
         <v>1</v>
       </c>
       <c r="BJ118" t="s">
-        <v>408</v>
+        <v>397</v>
       </c>
     </row>
     <row r="119" ht="16.5" spans="4:62">
       <c r="D119" s="2" t="s">
-        <v>391</v>
+        <v>380</v>
       </c>
       <c r="E119" s="10">
         <v>22020413</v>
       </c>
       <c r="F119" s="9" t="s">
-        <v>414</v>
+        <v>403</v>
       </c>
       <c r="G119">
         <v>42002001</v>
@@ -22484,18 +22472,18 @@
         <v>0</v>
       </c>
       <c r="BJ119" t="s">
-        <v>408</v>
+        <v>397</v>
       </c>
     </row>
     <row r="120" ht="16.5" spans="4:62">
       <c r="D120" s="2" t="s">
-        <v>391</v>
+        <v>380</v>
       </c>
       <c r="E120" s="10">
         <v>22020421</v>
       </c>
       <c r="F120" s="9" t="s">
-        <v>415</v>
+        <v>404</v>
       </c>
       <c r="G120">
         <v>42002001</v>
@@ -22615,10 +22603,10 @@
         <v>0</v>
       </c>
       <c r="BE120" t="s">
-        <v>305</v>
+        <v>294</v>
       </c>
       <c r="BF120" t="s">
-        <v>306</v>
+        <v>295</v>
       </c>
       <c r="BG120" t="e">
         <f>IF(O120=0,"",VLOOKUP(O120,#REF!,2,FALSE))</f>
@@ -22628,18 +22616,18 @@
         <v>1</v>
       </c>
       <c r="BJ120" t="s">
-        <v>408</v>
+        <v>397</v>
       </c>
     </row>
     <row r="121" ht="16.5" spans="4:62">
       <c r="D121" s="2" t="s">
-        <v>391</v>
+        <v>380</v>
       </c>
       <c r="E121" s="10">
         <v>22020422</v>
       </c>
       <c r="F121" s="9" t="s">
-        <v>416</v>
+        <v>405</v>
       </c>
       <c r="G121">
         <v>42002001</v>
@@ -22673,7 +22661,7 @@
         <v>0</v>
       </c>
       <c r="Z121" s="19" t="s">
-        <v>410</v>
+        <v>399</v>
       </c>
       <c r="AA121" s="5">
         <v>200</v>
@@ -22759,10 +22747,10 @@
         <v>0</v>
       </c>
       <c r="BE121" t="s">
-        <v>305</v>
+        <v>294</v>
       </c>
       <c r="BF121" t="s">
-        <v>306</v>
+        <v>295</v>
       </c>
       <c r="BG121" t="e">
         <f>IF(O121=0,"",VLOOKUP(O121,#REF!,2,FALSE))</f>
@@ -22772,18 +22760,18 @@
         <v>1</v>
       </c>
       <c r="BJ121" t="s">
-        <v>408</v>
+        <v>397</v>
       </c>
     </row>
     <row r="122" ht="16.5" spans="4:62">
       <c r="D122" s="2" t="s">
-        <v>391</v>
+        <v>380</v>
       </c>
       <c r="E122" s="10">
         <v>22020423</v>
       </c>
       <c r="F122" s="9" t="s">
-        <v>417</v>
+        <v>406</v>
       </c>
       <c r="G122">
         <v>42002001</v>
@@ -22903,18 +22891,18 @@
         <v>0</v>
       </c>
       <c r="BJ122" t="s">
-        <v>408</v>
+        <v>397</v>
       </c>
     </row>
     <row r="123" ht="15.75" customHeight="1" spans="4:62">
       <c r="D123" s="2" t="s">
-        <v>364</v>
+        <v>353</v>
       </c>
       <c r="E123" s="10">
         <v>21020451</v>
       </c>
       <c r="F123" s="9" t="s">
-        <v>418</v>
+        <v>407</v>
       </c>
       <c r="G123">
         <v>42002001</v>
@@ -23034,10 +23022,10 @@
         <v>0</v>
       </c>
       <c r="BE123" t="s">
-        <v>305</v>
+        <v>294</v>
       </c>
       <c r="BF123" t="s">
-        <v>306</v>
+        <v>295</v>
       </c>
       <c r="BG123" t="e">
         <f>IF(O123=0,"",VLOOKUP(O123,#REF!,2,FALSE))</f>
@@ -23047,18 +23035,18 @@
         <v>1</v>
       </c>
       <c r="BJ123" t="s">
-        <v>419</v>
+        <v>408</v>
       </c>
     </row>
     <row r="124" ht="15.75" customHeight="1" spans="4:62">
       <c r="D124" s="2" t="s">
-        <v>364</v>
+        <v>353</v>
       </c>
       <c r="E124" s="10">
         <v>21020452</v>
       </c>
       <c r="F124" s="9" t="s">
-        <v>420</v>
+        <v>409</v>
       </c>
       <c r="G124">
         <v>42002001</v>
@@ -23092,7 +23080,7 @@
         <v>0</v>
       </c>
       <c r="Z124" s="19" t="s">
-        <v>342</v>
+        <v>331</v>
       </c>
       <c r="AA124" s="5">
         <v>200</v>
@@ -23178,7 +23166,7 @@
         <v>0</v>
       </c>
       <c r="BF124" t="s">
-        <v>306</v>
+        <v>295</v>
       </c>
       <c r="BG124" t="e">
         <f>IF(O124=0,"",VLOOKUP(O124,#REF!,2,FALSE))</f>
@@ -23188,18 +23176,18 @@
         <v>1</v>
       </c>
       <c r="BJ124" t="s">
-        <v>419</v>
+        <v>408</v>
       </c>
     </row>
     <row r="125" ht="15.75" customHeight="1" spans="4:62">
       <c r="D125" s="2" t="s">
-        <v>364</v>
+        <v>353</v>
       </c>
       <c r="E125" s="10">
         <v>21020453</v>
       </c>
       <c r="F125" s="9" t="s">
-        <v>421</v>
+        <v>410</v>
       </c>
       <c r="G125">
         <v>42002001</v>
@@ -23319,18 +23307,18 @@
         <v>0</v>
       </c>
       <c r="BJ125" t="s">
-        <v>419</v>
+        <v>408</v>
       </c>
     </row>
     <row r="126" ht="16.5" spans="4:62">
       <c r="D126" s="2" t="s">
-        <v>364</v>
+        <v>353</v>
       </c>
       <c r="E126" s="10">
         <v>21020461</v>
       </c>
       <c r="F126" s="9" t="s">
-        <v>422</v>
+        <v>411</v>
       </c>
       <c r="G126">
         <v>42002001</v>
@@ -23450,10 +23438,10 @@
         <v>0</v>
       </c>
       <c r="BE126" t="s">
-        <v>305</v>
+        <v>294</v>
       </c>
       <c r="BF126" t="s">
-        <v>306</v>
+        <v>295</v>
       </c>
       <c r="BG126" t="e">
         <f>IF(O126=0,"",VLOOKUP(O126,#REF!,2,FALSE))</f>
@@ -23463,18 +23451,18 @@
         <v>1</v>
       </c>
       <c r="BJ126" t="s">
-        <v>419</v>
+        <v>408</v>
       </c>
     </row>
     <row r="127" ht="16.5" spans="4:62">
       <c r="D127" s="2" t="s">
-        <v>364</v>
+        <v>353</v>
       </c>
       <c r="E127" s="10">
         <v>21020462</v>
       </c>
       <c r="F127" s="9" t="s">
-        <v>423</v>
+        <v>412</v>
       </c>
       <c r="G127">
         <v>42002001</v>
@@ -23508,7 +23496,7 @@
         <v>0</v>
       </c>
       <c r="Z127" s="19" t="s">
-        <v>342</v>
+        <v>331</v>
       </c>
       <c r="AA127" s="5">
         <v>200</v>
@@ -23594,7 +23582,7 @@
         <v>0</v>
       </c>
       <c r="BF127" t="s">
-        <v>306</v>
+        <v>295</v>
       </c>
       <c r="BG127" t="e">
         <f>IF(O127=0,"",VLOOKUP(O127,#REF!,2,FALSE))</f>
@@ -23604,18 +23592,18 @@
         <v>1</v>
       </c>
       <c r="BJ127" t="s">
-        <v>419</v>
+        <v>408</v>
       </c>
     </row>
     <row r="128" ht="16.5" spans="4:62">
       <c r="D128" s="2" t="s">
-        <v>364</v>
+        <v>353</v>
       </c>
       <c r="E128" s="10">
         <v>21020463</v>
       </c>
       <c r="F128" s="9" t="s">
-        <v>424</v>
+        <v>413</v>
       </c>
       <c r="G128">
         <v>42002001</v>
@@ -23735,18 +23723,18 @@
         <v>0</v>
       </c>
       <c r="BJ128" t="s">
-        <v>419</v>
+        <v>408</v>
       </c>
     </row>
     <row r="129" ht="16.5" spans="4:62">
       <c r="D129" s="2" t="s">
-        <v>364</v>
+        <v>353</v>
       </c>
       <c r="E129" s="10">
         <v>21020471</v>
       </c>
       <c r="F129" s="9" t="s">
-        <v>425</v>
+        <v>414</v>
       </c>
       <c r="G129">
         <v>42002001</v>
@@ -23866,10 +23854,10 @@
         <v>0</v>
       </c>
       <c r="BE129" t="s">
-        <v>305</v>
+        <v>294</v>
       </c>
       <c r="BF129" t="s">
-        <v>306</v>
+        <v>295</v>
       </c>
       <c r="BG129" t="e">
         <f>IF(O129=0,"",VLOOKUP(O129,#REF!,2,FALSE))</f>
@@ -23879,18 +23867,18 @@
         <v>1</v>
       </c>
       <c r="BJ129" t="s">
-        <v>419</v>
+        <v>408</v>
       </c>
     </row>
     <row r="130" ht="16.5" spans="4:62">
       <c r="D130" s="2" t="s">
-        <v>364</v>
+        <v>353</v>
       </c>
       <c r="E130" s="10">
         <v>21020472</v>
       </c>
       <c r="F130" s="9" t="s">
-        <v>426</v>
+        <v>415</v>
       </c>
       <c r="G130">
         <v>42002001</v>
@@ -23924,7 +23912,7 @@
         <v>0</v>
       </c>
       <c r="Z130" s="19" t="s">
-        <v>342</v>
+        <v>331</v>
       </c>
       <c r="AA130" s="5">
         <v>200</v>
@@ -24010,7 +23998,7 @@
         <v>0</v>
       </c>
       <c r="BF130" t="s">
-        <v>306</v>
+        <v>295</v>
       </c>
       <c r="BG130" t="e">
         <f>IF(O130=0,"",VLOOKUP(O130,#REF!,2,FALSE))</f>
@@ -24020,18 +24008,18 @@
         <v>1</v>
       </c>
       <c r="BJ130" t="s">
-        <v>419</v>
+        <v>408</v>
       </c>
     </row>
     <row r="131" ht="16.5" spans="4:62">
       <c r="D131" s="2" t="s">
-        <v>364</v>
+        <v>353</v>
       </c>
       <c r="E131" s="10">
         <v>21020473</v>
       </c>
       <c r="F131" s="9" t="s">
-        <v>427</v>
+        <v>416</v>
       </c>
       <c r="G131">
         <v>42002001</v>
@@ -24151,18 +24139,18 @@
         <v>0</v>
       </c>
       <c r="BJ131" t="s">
-        <v>419</v>
+        <v>408</v>
       </c>
     </row>
     <row r="132" ht="16.5" spans="4:62">
       <c r="D132" s="2" t="s">
-        <v>391</v>
+        <v>380</v>
       </c>
       <c r="E132" s="10">
         <v>22020181</v>
       </c>
       <c r="F132" s="9" t="s">
-        <v>428</v>
+        <v>417</v>
       </c>
       <c r="G132">
         <v>42002001</v>
@@ -24284,18 +24272,18 @@
         <v>0</v>
       </c>
       <c r="BJ132" t="s">
-        <v>429</v>
+        <v>418</v>
       </c>
     </row>
     <row r="133" ht="16.5" spans="4:62">
       <c r="D133" s="2" t="s">
-        <v>391</v>
+        <v>380</v>
       </c>
       <c r="E133" s="10">
         <v>22020182</v>
       </c>
       <c r="F133" s="9" t="s">
-        <v>430</v>
+        <v>419</v>
       </c>
       <c r="G133">
         <v>42002001</v>
@@ -24417,10 +24405,10 @@
         <v>0</v>
       </c>
       <c r="BE133" t="s">
-        <v>305</v>
+        <v>294</v>
       </c>
       <c r="BF133" t="s">
-        <v>306</v>
+        <v>295</v>
       </c>
       <c r="BG133" t="e">
         <f>IF(O133=0,"",VLOOKUP(O133,#REF!,2,FALSE))</f>
@@ -24430,18 +24418,18 @@
         <v>1</v>
       </c>
       <c r="BJ133" t="s">
-        <v>429</v>
+        <v>418</v>
       </c>
     </row>
     <row r="134" ht="16.5" spans="4:62">
       <c r="D134" s="2" t="s">
-        <v>391</v>
+        <v>380</v>
       </c>
       <c r="E134" s="10">
         <v>22020191</v>
       </c>
       <c r="F134" s="9" t="s">
-        <v>431</v>
+        <v>420</v>
       </c>
       <c r="G134">
         <v>42002001</v>
@@ -24563,18 +24551,18 @@
         <v>0</v>
       </c>
       <c r="BJ134" t="s">
-        <v>429</v>
+        <v>418</v>
       </c>
     </row>
     <row r="135" ht="16.5" spans="4:62">
       <c r="D135" s="2" t="s">
-        <v>391</v>
+        <v>380</v>
       </c>
       <c r="E135" s="10">
         <v>22020192</v>
       </c>
       <c r="F135" s="9" t="s">
-        <v>432</v>
+        <v>421</v>
       </c>
       <c r="G135">
         <v>42002001</v>
@@ -24696,10 +24684,10 @@
         <v>0</v>
       </c>
       <c r="BE135" t="s">
-        <v>305</v>
+        <v>294</v>
       </c>
       <c r="BF135" t="s">
-        <v>306</v>
+        <v>295</v>
       </c>
       <c r="BG135" t="e">
         <f>IF(O135=0,"",VLOOKUP(O135,#REF!,2,FALSE))</f>
@@ -24709,18 +24697,18 @@
         <v>1</v>
       </c>
       <c r="BJ135" t="s">
-        <v>429</v>
+        <v>418</v>
       </c>
     </row>
     <row r="136" ht="16.5" spans="4:62">
       <c r="D136" s="2" t="s">
-        <v>391</v>
+        <v>380</v>
       </c>
       <c r="E136" s="10">
         <v>22020201</v>
       </c>
       <c r="F136" s="9" t="s">
-        <v>433</v>
+        <v>422</v>
       </c>
       <c r="G136">
         <v>42002001</v>
@@ -24842,18 +24830,18 @@
         <v>0</v>
       </c>
       <c r="BJ136" t="s">
-        <v>429</v>
+        <v>418</v>
       </c>
     </row>
     <row r="137" ht="16.5" spans="4:62">
       <c r="D137" s="2" t="s">
-        <v>391</v>
+        <v>380</v>
       </c>
       <c r="E137" s="10">
         <v>22020202</v>
       </c>
       <c r="F137" s="9" t="s">
-        <v>434</v>
+        <v>423</v>
       </c>
       <c r="G137">
         <v>42002001</v>
@@ -24975,10 +24963,10 @@
         <v>0</v>
       </c>
       <c r="BE137" t="s">
-        <v>305</v>
+        <v>294</v>
       </c>
       <c r="BF137" t="s">
-        <v>306</v>
+        <v>295</v>
       </c>
       <c r="BG137" t="e">
         <f>IF(O137=0,"",VLOOKUP(O137,#REF!,2,FALSE))</f>
@@ -24988,18 +24976,18 @@
         <v>1</v>
       </c>
       <c r="BJ137" t="s">
-        <v>429</v>
+        <v>418</v>
       </c>
     </row>
     <row r="138" ht="16.5" spans="4:62">
       <c r="D138" s="2" t="s">
-        <v>391</v>
+        <v>380</v>
       </c>
       <c r="E138" s="10">
         <v>22020211</v>
       </c>
       <c r="F138" s="9" t="s">
-        <v>435</v>
+        <v>424</v>
       </c>
       <c r="G138">
         <v>42002001</v>
@@ -25121,18 +25109,18 @@
         <v>0</v>
       </c>
       <c r="BJ138" t="s">
-        <v>429</v>
+        <v>418</v>
       </c>
     </row>
     <row r="139" ht="16.5" spans="4:62">
       <c r="D139" s="2" t="s">
-        <v>391</v>
+        <v>380</v>
       </c>
       <c r="E139" s="10">
         <v>22020212</v>
       </c>
       <c r="F139" s="9" t="s">
-        <v>436</v>
+        <v>425</v>
       </c>
       <c r="G139">
         <v>42002001</v>
@@ -25254,10 +25242,10 @@
         <v>0</v>
       </c>
       <c r="BE139" t="s">
-        <v>305</v>
+        <v>294</v>
       </c>
       <c r="BF139" t="s">
-        <v>306</v>
+        <v>295</v>
       </c>
       <c r="BG139" t="e">
         <f>IF(O139=0,"",VLOOKUP(O139,#REF!,2,FALSE))</f>
@@ -25267,18 +25255,18 @@
         <v>1</v>
       </c>
       <c r="BJ139" t="s">
-        <v>429</v>
+        <v>418</v>
       </c>
     </row>
     <row r="140" ht="16.5" spans="4:62">
       <c r="D140" s="2" t="s">
-        <v>391</v>
+        <v>380</v>
       </c>
       <c r="E140" s="10">
         <v>22020221</v>
       </c>
       <c r="F140" s="9" t="s">
-        <v>437</v>
+        <v>426</v>
       </c>
       <c r="G140">
         <v>42002001</v>
@@ -25400,18 +25388,18 @@
         <v>0</v>
       </c>
       <c r="BJ140" t="s">
-        <v>429</v>
+        <v>418</v>
       </c>
     </row>
     <row r="141" ht="16.5" spans="4:62">
       <c r="D141" s="2" t="s">
-        <v>391</v>
+        <v>380</v>
       </c>
       <c r="E141" s="10">
         <v>22020222</v>
       </c>
       <c r="F141" s="9" t="s">
-        <v>438</v>
+        <v>427</v>
       </c>
       <c r="G141">
         <v>42002001</v>
@@ -25533,10 +25521,10 @@
         <v>0</v>
       </c>
       <c r="BE141" t="s">
-        <v>305</v>
+        <v>294</v>
       </c>
       <c r="BF141" t="s">
-        <v>306</v>
+        <v>295</v>
       </c>
       <c r="BG141" t="e">
         <f>IF(O141=0,"",VLOOKUP(O141,#REF!,2,FALSE))</f>
@@ -25546,18 +25534,18 @@
         <v>1</v>
       </c>
       <c r="BJ141" t="s">
-        <v>429</v>
+        <v>418</v>
       </c>
     </row>
     <row r="142" ht="16.5" spans="4:62">
       <c r="D142" s="2" t="s">
-        <v>391</v>
+        <v>380</v>
       </c>
       <c r="E142" s="10">
         <v>22020231</v>
       </c>
       <c r="F142" s="9" t="s">
-        <v>439</v>
+        <v>428</v>
       </c>
       <c r="G142">
         <v>42002001</v>
@@ -25679,10 +25667,10 @@
         <v>0</v>
       </c>
       <c r="BE142" t="s">
-        <v>440</v>
+        <v>429</v>
       </c>
       <c r="BF142" t="s">
-        <v>306</v>
+        <v>295</v>
       </c>
       <c r="BG142" t="e">
         <f>IF(O142=0,"",VLOOKUP(O142,#REF!,2,FALSE))</f>
@@ -25692,18 +25680,18 @@
         <v>1</v>
       </c>
       <c r="BJ142" t="s">
-        <v>441</v>
+        <v>430</v>
       </c>
     </row>
     <row r="143" ht="16.5" spans="4:62">
       <c r="D143" s="2" t="s">
-        <v>391</v>
+        <v>380</v>
       </c>
       <c r="E143" s="10">
         <v>22029011</v>
       </c>
       <c r="F143" s="9" t="s">
-        <v>442</v>
+        <v>431</v>
       </c>
       <c r="G143">
         <v>42002001</v>
@@ -25737,7 +25725,7 @@
         <v>0</v>
       </c>
       <c r="Z143" s="19" t="s">
-        <v>410</v>
+        <v>399</v>
       </c>
       <c r="AA143" s="5">
         <v>200</v>
@@ -25825,18 +25813,18 @@
         <v>0</v>
       </c>
       <c r="BJ143" t="s">
-        <v>443</v>
+        <v>432</v>
       </c>
     </row>
     <row r="144" spans="4:62">
       <c r="D144" s="2" t="s">
-        <v>444</v>
+        <v>433</v>
       </c>
       <c r="E144" s="10">
         <v>41120471</v>
       </c>
       <c r="F144" t="s">
-        <v>445</v>
+        <v>434</v>
       </c>
       <c r="G144">
         <v>44001101</v>
@@ -25845,7 +25833,7 @@
         <v>44001101</v>
       </c>
       <c r="I144" t="s">
-        <v>446</v>
+        <v>435</v>
       </c>
       <c r="J144">
         <v>4001</v>
@@ -25870,7 +25858,7 @@
         <v>0</v>
       </c>
       <c r="Z144" s="19" t="s">
-        <v>447</v>
+        <v>436</v>
       </c>
       <c r="AA144" s="5">
         <v>200</v>
@@ -25958,18 +25946,18 @@
         <v>0</v>
       </c>
       <c r="BJ144" t="s">
-        <v>448</v>
+        <v>437</v>
       </c>
     </row>
     <row r="145" spans="4:62">
       <c r="D145" s="2" t="s">
-        <v>444</v>
+        <v>433</v>
       </c>
       <c r="E145">
         <v>41130021</v>
       </c>
       <c r="F145" t="s">
-        <v>449</v>
+        <v>438</v>
       </c>
       <c r="G145">
         <v>44001102</v>
@@ -26003,7 +25991,7 @@
         <v>0</v>
       </c>
       <c r="Z145" s="19" t="s">
-        <v>450</v>
+        <v>439</v>
       </c>
       <c r="AA145" s="5">
         <v>200</v>
@@ -26091,18 +26079,18 @@
         <v>0</v>
       </c>
       <c r="BJ145" t="s">
-        <v>451</v>
+        <v>440</v>
       </c>
     </row>
     <row r="146" spans="4:62">
       <c r="D146" s="2" t="s">
-        <v>444</v>
+        <v>433</v>
       </c>
       <c r="E146">
         <v>41130031</v>
       </c>
       <c r="F146" t="s">
-        <v>452</v>
+        <v>441</v>
       </c>
       <c r="G146">
         <v>44001103</v>
@@ -26223,18 +26211,18 @@
         <v>0</v>
       </c>
       <c r="BJ146" t="s">
-        <v>453</v>
+        <v>442</v>
       </c>
     </row>
     <row r="147" spans="4:62">
       <c r="D147" s="2" t="s">
-        <v>454</v>
+        <v>443</v>
       </c>
       <c r="E147">
         <v>41130041</v>
       </c>
       <c r="F147" t="s">
-        <v>455</v>
+        <v>444</v>
       </c>
       <c r="G147">
         <v>44001104</v>
@@ -26243,7 +26231,7 @@
         <v>44001104</v>
       </c>
       <c r="I147" t="s">
-        <v>456</v>
+        <v>445</v>
       </c>
       <c r="J147">
         <v>4001</v>
@@ -26355,18 +26343,18 @@
         <v>0</v>
       </c>
       <c r="BJ147" t="s">
-        <v>457</v>
+        <v>446</v>
       </c>
     </row>
     <row r="148" spans="4:62">
       <c r="D148" s="2" t="s">
-        <v>454</v>
+        <v>443</v>
       </c>
       <c r="E148">
         <v>41130051</v>
       </c>
       <c r="F148" t="s">
-        <v>458</v>
+        <v>447</v>
       </c>
       <c r="G148">
         <v>44001116</v>
@@ -26375,7 +26363,7 @@
         <v>44001116</v>
       </c>
       <c r="I148" t="s">
-        <v>459</v>
+        <v>448</v>
       </c>
       <c r="J148">
         <v>4001</v>
@@ -26399,7 +26387,7 @@
         <v>0</v>
       </c>
       <c r="Z148" s="19" t="s">
-        <v>460</v>
+        <v>449</v>
       </c>
       <c r="AA148" s="5">
         <v>200</v>
@@ -26487,18 +26475,18 @@
         <v>0</v>
       </c>
       <c r="BJ148" t="s">
-        <v>461</v>
+        <v>450</v>
       </c>
     </row>
     <row r="149" spans="4:62">
       <c r="D149" s="2" t="s">
-        <v>454</v>
+        <v>443</v>
       </c>
       <c r="E149">
         <v>41130061</v>
       </c>
       <c r="F149" t="s">
-        <v>462</v>
+        <v>451</v>
       </c>
       <c r="G149">
         <v>44001117</v>
@@ -26507,7 +26495,7 @@
         <v>44001117</v>
       </c>
       <c r="I149" t="s">
-        <v>459</v>
+        <v>448</v>
       </c>
       <c r="J149">
         <v>4001</v>
@@ -26531,7 +26519,7 @@
         <v>0</v>
       </c>
       <c r="Z149" s="19" t="s">
-        <v>460</v>
+        <v>449</v>
       </c>
       <c r="AA149" s="5">
         <v>200</v>
@@ -26619,18 +26607,18 @@
         <v>0</v>
       </c>
       <c r="BJ149" t="s">
-        <v>463</v>
+        <v>452</v>
       </c>
     </row>
     <row r="150" spans="4:62">
       <c r="D150" s="2" t="s">
-        <v>454</v>
+        <v>443</v>
       </c>
       <c r="E150">
         <v>41130071</v>
       </c>
       <c r="F150" t="s">
-        <v>464</v>
+        <v>453</v>
       </c>
       <c r="G150">
         <v>44001118</v>
@@ -26639,7 +26627,7 @@
         <v>44001118</v>
       </c>
       <c r="I150" t="s">
-        <v>459</v>
+        <v>448</v>
       </c>
       <c r="J150">
         <v>4001</v>
@@ -26663,7 +26651,7 @@
         <v>0</v>
       </c>
       <c r="Z150" s="19" t="s">
-        <v>460</v>
+        <v>449</v>
       </c>
       <c r="AA150" s="5">
         <v>200</v>
@@ -26751,18 +26739,18 @@
         <v>0</v>
       </c>
       <c r="BJ150" t="s">
-        <v>465</v>
+        <v>454</v>
       </c>
     </row>
     <row r="151" spans="4:62">
       <c r="D151" s="2" t="s">
-        <v>454</v>
+        <v>443</v>
       </c>
       <c r="E151">
         <v>41130081</v>
       </c>
       <c r="F151" t="s">
-        <v>466</v>
+        <v>455</v>
       </c>
       <c r="G151">
         <v>44001105</v>
@@ -26771,7 +26759,7 @@
         <v>44001105</v>
       </c>
       <c r="I151" t="s">
-        <v>459</v>
+        <v>448</v>
       </c>
       <c r="J151">
         <v>4001</v>
@@ -26795,7 +26783,7 @@
         <v>0</v>
       </c>
       <c r="Z151" s="19" t="s">
-        <v>460</v>
+        <v>449</v>
       </c>
       <c r="AA151" s="5">
         <v>200</v>
@@ -26883,18 +26871,18 @@
         <v>0</v>
       </c>
       <c r="BJ151" t="s">
-        <v>467</v>
+        <v>456</v>
       </c>
     </row>
     <row r="152" spans="4:62">
       <c r="D152" s="2" t="s">
-        <v>444</v>
+        <v>433</v>
       </c>
       <c r="E152">
         <v>41130121</v>
       </c>
       <c r="F152" t="s">
-        <v>468</v>
+        <v>457</v>
       </c>
       <c r="G152">
         <v>44001106</v>
@@ -26903,7 +26891,7 @@
         <v>44001106</v>
       </c>
       <c r="I152" t="s">
-        <v>469</v>
+        <v>458</v>
       </c>
       <c r="J152">
         <v>4001</v>
@@ -26927,7 +26915,7 @@
         <v>0</v>
       </c>
       <c r="Z152" s="19" t="s">
-        <v>470</v>
+        <v>459</v>
       </c>
       <c r="AA152" s="5">
         <v>200</v>
@@ -27015,18 +27003,18 @@
         <v>0</v>
       </c>
       <c r="BJ152" t="s">
-        <v>471</v>
+        <v>460</v>
       </c>
     </row>
     <row r="153" spans="4:62">
       <c r="D153" s="2" t="s">
-        <v>454</v>
+        <v>443</v>
       </c>
       <c r="E153">
         <v>41130131</v>
       </c>
       <c r="F153" t="s">
-        <v>472</v>
+        <v>461</v>
       </c>
       <c r="G153">
         <v>44001107</v>
@@ -27035,7 +27023,7 @@
         <v>44001107</v>
       </c>
       <c r="I153" t="s">
-        <v>473</v>
+        <v>462</v>
       </c>
       <c r="J153">
         <v>4001</v>
@@ -27059,7 +27047,7 @@
         <v>0</v>
       </c>
       <c r="Z153" s="19" t="s">
-        <v>474</v>
+        <v>463</v>
       </c>
       <c r="AA153" s="5">
         <v>200</v>
@@ -27147,18 +27135,18 @@
         <v>0</v>
       </c>
       <c r="BJ153" t="s">
-        <v>475</v>
+        <v>464</v>
       </c>
     </row>
     <row r="154" spans="4:62">
       <c r="D154" s="2" t="s">
-        <v>454</v>
+        <v>443</v>
       </c>
       <c r="E154">
         <v>41130161</v>
       </c>
       <c r="F154" t="s">
-        <v>476</v>
+        <v>465</v>
       </c>
       <c r="G154">
         <v>44001108</v>
@@ -27167,7 +27155,7 @@
         <v>44001108</v>
       </c>
       <c r="I154" t="s">
-        <v>477</v>
+        <v>466</v>
       </c>
       <c r="J154">
         <v>4001</v>
@@ -27279,18 +27267,18 @@
         <v>0</v>
       </c>
       <c r="BJ154" t="s">
-        <v>478</v>
+        <v>467</v>
       </c>
     </row>
     <row r="155" spans="4:62">
       <c r="D155" s="2" t="s">
-        <v>444</v>
+        <v>433</v>
       </c>
       <c r="E155">
         <v>41130181</v>
       </c>
       <c r="F155" t="s">
-        <v>479</v>
+        <v>468</v>
       </c>
       <c r="G155">
         <v>44001109</v>
@@ -27299,7 +27287,7 @@
         <v>44001109</v>
       </c>
       <c r="I155" t="s">
-        <v>480</v>
+        <v>469</v>
       </c>
       <c r="J155">
         <v>4001</v>
@@ -27323,7 +27311,7 @@
         <v>0</v>
       </c>
       <c r="Z155" s="19" t="s">
-        <v>481</v>
+        <v>470</v>
       </c>
       <c r="AA155" s="5">
         <v>200</v>
@@ -27411,18 +27399,18 @@
         <v>0</v>
       </c>
       <c r="BJ155" t="s">
-        <v>482</v>
+        <v>471</v>
       </c>
     </row>
     <row r="156" spans="4:62">
       <c r="D156" s="2" t="s">
-        <v>454</v>
+        <v>443</v>
       </c>
       <c r="E156">
         <v>41130191</v>
       </c>
       <c r="F156" t="s">
-        <v>483</v>
+        <v>472</v>
       </c>
       <c r="G156">
         <v>44001110</v>
@@ -27431,7 +27419,7 @@
         <v>44001110</v>
       </c>
       <c r="I156" t="s">
-        <v>484</v>
+        <v>473</v>
       </c>
       <c r="J156">
         <v>4001</v>
@@ -27455,7 +27443,7 @@
         <v>0</v>
       </c>
       <c r="Z156" s="19" t="s">
-        <v>485</v>
+        <v>474</v>
       </c>
       <c r="AA156" s="5">
         <v>200</v>
@@ -27543,18 +27531,18 @@
         <v>0</v>
       </c>
       <c r="BJ156" t="s">
-        <v>486</v>
+        <v>475</v>
       </c>
     </row>
     <row r="157" spans="4:62">
       <c r="D157" s="2" t="s">
-        <v>444</v>
+        <v>433</v>
       </c>
       <c r="E157">
         <v>41130261</v>
       </c>
       <c r="F157" t="s">
-        <v>487</v>
+        <v>476</v>
       </c>
       <c r="G157">
         <v>44001111</v>
@@ -27563,7 +27551,7 @@
         <v>44001111</v>
       </c>
       <c r="I157" t="s">
-        <v>488</v>
+        <v>477</v>
       </c>
       <c r="J157">
         <v>4001</v>
@@ -27587,7 +27575,7 @@
         <v>0</v>
       </c>
       <c r="Z157" s="19" t="s">
-        <v>481</v>
+        <v>470</v>
       </c>
       <c r="AA157" s="5">
         <v>200</v>
@@ -27675,18 +27663,18 @@
         <v>0</v>
       </c>
       <c r="BJ157" t="s">
-        <v>489</v>
+        <v>478</v>
       </c>
     </row>
     <row r="158" spans="4:62">
       <c r="D158" s="2" t="s">
-        <v>454</v>
+        <v>443</v>
       </c>
       <c r="E158">
         <v>41130271</v>
       </c>
       <c r="F158" t="s">
-        <v>490</v>
+        <v>479</v>
       </c>
       <c r="G158">
         <v>44001112</v>
@@ -27695,7 +27683,7 @@
         <v>44001112</v>
       </c>
       <c r="I158" t="s">
-        <v>491</v>
+        <v>480</v>
       </c>
       <c r="J158">
         <v>4001</v>
@@ -27719,7 +27707,7 @@
         <v>0</v>
       </c>
       <c r="Z158" s="19" t="s">
-        <v>492</v>
+        <v>481</v>
       </c>
       <c r="AA158" s="5">
         <v>200</v>
@@ -27807,18 +27795,18 @@
         <v>0</v>
       </c>
       <c r="BJ158" t="s">
-        <v>493</v>
+        <v>482</v>
       </c>
     </row>
     <row r="159" spans="4:62">
       <c r="D159" s="2" t="s">
-        <v>444</v>
+        <v>433</v>
       </c>
       <c r="E159">
         <v>41130311</v>
       </c>
       <c r="F159" t="s">
-        <v>494</v>
+        <v>483</v>
       </c>
       <c r="G159">
         <v>44001113</v>
@@ -27827,7 +27815,7 @@
         <v>44001113</v>
       </c>
       <c r="I159" t="s">
-        <v>495</v>
+        <v>484</v>
       </c>
       <c r="J159">
         <v>4001</v>
@@ -27939,18 +27927,18 @@
         <v>0</v>
       </c>
       <c r="BJ159" t="s">
-        <v>496</v>
+        <v>485</v>
       </c>
     </row>
     <row r="160" spans="4:62">
       <c r="D160" s="2" t="s">
-        <v>454</v>
+        <v>443</v>
       </c>
       <c r="E160">
         <v>41130321</v>
       </c>
       <c r="F160" t="s">
-        <v>497</v>
+        <v>486</v>
       </c>
       <c r="G160">
         <v>44001114</v>
@@ -27959,7 +27947,7 @@
         <v>44001114</v>
       </c>
       <c r="I160" t="s">
-        <v>498</v>
+        <v>487</v>
       </c>
       <c r="J160">
         <v>4001</v>
@@ -28071,18 +28059,18 @@
         <v>0</v>
       </c>
       <c r="BJ160" t="s">
-        <v>499</v>
+        <v>488</v>
       </c>
     </row>
     <row r="161" spans="4:62">
       <c r="D161" s="2" t="s">
-        <v>444</v>
+        <v>433</v>
       </c>
       <c r="E161">
         <v>41130331</v>
       </c>
       <c r="F161" t="s">
-        <v>500</v>
+        <v>489</v>
       </c>
       <c r="G161">
         <v>44001115</v>
@@ -28115,7 +28103,7 @@
         <v>0</v>
       </c>
       <c r="Z161" s="19" t="s">
-        <v>501</v>
+        <v>490</v>
       </c>
       <c r="AA161" s="5">
         <v>200</v>
@@ -28203,18 +28191,18 @@
         <v>0</v>
       </c>
       <c r="BJ161" t="s">
-        <v>502</v>
+        <v>491</v>
       </c>
     </row>
     <row r="162" spans="4:62">
       <c r="D162" s="2" t="s">
-        <v>444</v>
+        <v>433</v>
       </c>
       <c r="E162" s="10">
         <v>51120471</v>
       </c>
       <c r="F162" s="20" t="s">
-        <v>503</v>
+        <v>492</v>
       </c>
       <c r="G162">
         <v>44001101</v>
@@ -28223,7 +28211,7 @@
         <v>44001101</v>
       </c>
       <c r="I162" t="s">
-        <v>446</v>
+        <v>435</v>
       </c>
       <c r="J162">
         <v>4001</v>
@@ -28336,18 +28324,18 @@
         <v>0</v>
       </c>
       <c r="BJ162" t="s">
-        <v>448</v>
+        <v>437</v>
       </c>
     </row>
     <row r="163" spans="4:62">
       <c r="D163" s="2" t="s">
-        <v>444</v>
+        <v>433</v>
       </c>
       <c r="E163">
         <v>51130021</v>
       </c>
       <c r="F163" s="20" t="s">
-        <v>504</v>
+        <v>493</v>
       </c>
       <c r="G163">
         <v>44001102</v>
@@ -28381,7 +28369,7 @@
         <v>0</v>
       </c>
       <c r="Z163" s="19" t="s">
-        <v>450</v>
+        <v>439</v>
       </c>
       <c r="AA163" s="5">
         <v>200</v>
@@ -28469,18 +28457,18 @@
         <v>0</v>
       </c>
       <c r="BJ163" t="s">
-        <v>451</v>
+        <v>440</v>
       </c>
     </row>
     <row r="164" spans="4:62">
       <c r="D164" s="2" t="s">
-        <v>444</v>
+        <v>433</v>
       </c>
       <c r="E164">
         <v>51130031</v>
       </c>
       <c r="F164" s="20" t="s">
-        <v>505</v>
+        <v>494</v>
       </c>
       <c r="G164">
         <v>44001103</v>
@@ -28601,18 +28589,18 @@
         <v>0</v>
       </c>
       <c r="BJ164" t="s">
-        <v>453</v>
+        <v>442</v>
       </c>
     </row>
     <row r="165" spans="4:62">
       <c r="D165" s="2" t="s">
-        <v>454</v>
+        <v>443</v>
       </c>
       <c r="E165">
         <v>51130041</v>
       </c>
       <c r="F165" s="20" t="s">
-        <v>506</v>
+        <v>495</v>
       </c>
       <c r="G165">
         <v>44001104</v>
@@ -28621,7 +28609,7 @@
         <v>44001104</v>
       </c>
       <c r="I165" t="s">
-        <v>456</v>
+        <v>445</v>
       </c>
       <c r="J165">
         <v>4001</v>
@@ -28733,18 +28721,18 @@
         <v>0</v>
       </c>
       <c r="BJ165" t="s">
-        <v>457</v>
+        <v>446</v>
       </c>
     </row>
     <row r="166" spans="4:62">
       <c r="D166" s="2" t="s">
-        <v>454</v>
+        <v>443</v>
       </c>
       <c r="E166">
         <v>51130051</v>
       </c>
       <c r="F166" s="20" t="s">
-        <v>507</v>
+        <v>496</v>
       </c>
       <c r="G166">
         <v>44001116</v>
@@ -28753,7 +28741,7 @@
         <v>44001116</v>
       </c>
       <c r="I166" t="s">
-        <v>459</v>
+        <v>448</v>
       </c>
       <c r="J166">
         <v>4001</v>
@@ -28777,7 +28765,7 @@
         <v>0</v>
       </c>
       <c r="Z166" s="19" t="s">
-        <v>460</v>
+        <v>449</v>
       </c>
       <c r="AA166" s="5">
         <v>200</v>
@@ -28865,18 +28853,18 @@
         <v>0</v>
       </c>
       <c r="BJ166" t="s">
-        <v>461</v>
+        <v>450</v>
       </c>
     </row>
     <row r="167" spans="4:62">
       <c r="D167" s="2" t="s">
-        <v>454</v>
+        <v>443</v>
       </c>
       <c r="E167">
         <v>51130061</v>
       </c>
       <c r="F167" s="20" t="s">
-        <v>508</v>
+        <v>497</v>
       </c>
       <c r="G167">
         <v>44001117</v>
@@ -28885,7 +28873,7 @@
         <v>44001117</v>
       </c>
       <c r="I167" t="s">
-        <v>459</v>
+        <v>448</v>
       </c>
       <c r="J167">
         <v>4001</v>
@@ -28909,7 +28897,7 @@
         <v>0</v>
       </c>
       <c r="Z167" s="19" t="s">
-        <v>460</v>
+        <v>449</v>
       </c>
       <c r="AA167" s="5">
         <v>200</v>
@@ -28997,18 +28985,18 @@
         <v>0</v>
       </c>
       <c r="BJ167" t="s">
-        <v>463</v>
+        <v>452</v>
       </c>
     </row>
     <row r="168" spans="4:62">
       <c r="D168" s="2" t="s">
-        <v>454</v>
+        <v>443</v>
       </c>
       <c r="E168">
         <v>51130071</v>
       </c>
       <c r="F168" s="20" t="s">
-        <v>509</v>
+        <v>498</v>
       </c>
       <c r="G168">
         <v>44001118</v>
@@ -29017,7 +29005,7 @@
         <v>44001118</v>
       </c>
       <c r="I168" t="s">
-        <v>459</v>
+        <v>448</v>
       </c>
       <c r="J168">
         <v>4001</v>
@@ -29041,7 +29029,7 @@
         <v>0</v>
       </c>
       <c r="Z168" s="19" t="s">
-        <v>460</v>
+        <v>449</v>
       </c>
       <c r="AA168" s="5">
         <v>200</v>
@@ -29129,18 +29117,18 @@
         <v>0</v>
       </c>
       <c r="BJ168" t="s">
-        <v>465</v>
+        <v>454</v>
       </c>
     </row>
     <row r="169" spans="4:62">
       <c r="D169" s="2" t="s">
-        <v>454</v>
+        <v>443</v>
       </c>
       <c r="E169">
         <v>51130081</v>
       </c>
       <c r="F169" s="20" t="s">
-        <v>510</v>
+        <v>499</v>
       </c>
       <c r="G169">
         <v>44001105</v>
@@ -29149,7 +29137,7 @@
         <v>44001105</v>
       </c>
       <c r="I169" t="s">
-        <v>459</v>
+        <v>448</v>
       </c>
       <c r="J169">
         <v>4001</v>
@@ -29173,7 +29161,7 @@
         <v>0</v>
       </c>
       <c r="Z169" s="19" t="s">
-        <v>460</v>
+        <v>449</v>
       </c>
       <c r="AA169" s="5">
         <v>200</v>
@@ -29261,18 +29249,18 @@
         <v>0</v>
       </c>
       <c r="BJ169" t="s">
-        <v>467</v>
+        <v>456</v>
       </c>
     </row>
     <row r="170" spans="4:62">
       <c r="D170" s="2" t="s">
-        <v>444</v>
+        <v>433</v>
       </c>
       <c r="E170">
         <v>51130121</v>
       </c>
       <c r="F170" s="20" t="s">
-        <v>511</v>
+        <v>500</v>
       </c>
       <c r="G170">
         <v>44001106</v>
@@ -29281,7 +29269,7 @@
         <v>44001106</v>
       </c>
       <c r="I170" t="s">
-        <v>469</v>
+        <v>458</v>
       </c>
       <c r="J170">
         <v>4001</v>
@@ -29305,7 +29293,7 @@
         <v>0</v>
       </c>
       <c r="Z170" s="19" t="s">
-        <v>470</v>
+        <v>459</v>
       </c>
       <c r="AA170" s="5">
         <v>200</v>
@@ -29393,18 +29381,18 @@
         <v>0</v>
       </c>
       <c r="BJ170" t="s">
-        <v>471</v>
+        <v>460</v>
       </c>
     </row>
     <row r="171" spans="4:62">
       <c r="D171" s="2" t="s">
-        <v>454</v>
+        <v>443</v>
       </c>
       <c r="E171">
         <v>51130131</v>
       </c>
       <c r="F171" s="20" t="s">
-        <v>512</v>
+        <v>501</v>
       </c>
       <c r="G171">
         <v>44001107</v>
@@ -29413,7 +29401,7 @@
         <v>44001107</v>
       </c>
       <c r="I171" t="s">
-        <v>473</v>
+        <v>462</v>
       </c>
       <c r="J171">
         <v>4001</v>
@@ -29437,7 +29425,7 @@
         <v>0</v>
       </c>
       <c r="Z171" s="19" t="s">
-        <v>474</v>
+        <v>463</v>
       </c>
       <c r="AA171" s="5">
         <v>200</v>
@@ -29525,18 +29513,18 @@
         <v>0</v>
       </c>
       <c r="BJ171" t="s">
-        <v>475</v>
+        <v>464</v>
       </c>
     </row>
     <row r="172" spans="4:62">
       <c r="D172" s="2" t="s">
-        <v>454</v>
+        <v>443</v>
       </c>
       <c r="E172">
         <v>51130161</v>
       </c>
       <c r="F172" s="20" t="s">
-        <v>513</v>
+        <v>502</v>
       </c>
       <c r="G172">
         <v>44001108</v>
@@ -29545,7 +29533,7 @@
         <v>44001108</v>
       </c>
       <c r="I172" t="s">
-        <v>477</v>
+        <v>466</v>
       </c>
       <c r="J172">
         <v>4001</v>
@@ -29657,18 +29645,18 @@
         <v>0</v>
       </c>
       <c r="BJ172" t="s">
-        <v>478</v>
+        <v>467</v>
       </c>
     </row>
     <row r="173" spans="4:62">
       <c r="D173" s="2" t="s">
-        <v>444</v>
+        <v>433</v>
       </c>
       <c r="E173">
         <v>51130181</v>
       </c>
       <c r="F173" s="20" t="s">
-        <v>514</v>
+        <v>503</v>
       </c>
       <c r="G173">
         <v>44001109</v>
@@ -29677,7 +29665,7 @@
         <v>44001109</v>
       </c>
       <c r="I173" t="s">
-        <v>480</v>
+        <v>469</v>
       </c>
       <c r="J173">
         <v>4001</v>
@@ -29701,7 +29689,7 @@
         <v>0</v>
       </c>
       <c r="Z173" s="19" t="s">
-        <v>481</v>
+        <v>470</v>
       </c>
       <c r="AA173" s="5">
         <v>200</v>
@@ -29789,18 +29777,18 @@
         <v>0</v>
       </c>
       <c r="BJ173" t="s">
-        <v>482</v>
+        <v>471</v>
       </c>
     </row>
     <row r="174" spans="4:62">
       <c r="D174" s="2" t="s">
-        <v>454</v>
+        <v>443</v>
       </c>
       <c r="E174">
         <v>51130191</v>
       </c>
       <c r="F174" s="20" t="s">
-        <v>515</v>
+        <v>504</v>
       </c>
       <c r="G174">
         <v>44001110</v>
@@ -29809,7 +29797,7 @@
         <v>44001110</v>
       </c>
       <c r="I174" t="s">
-        <v>484</v>
+        <v>473</v>
       </c>
       <c r="J174">
         <v>4001</v>
@@ -29833,7 +29821,7 @@
         <v>0</v>
       </c>
       <c r="Z174" s="19" t="s">
-        <v>485</v>
+        <v>474</v>
       </c>
       <c r="AA174" s="5">
         <v>200</v>
@@ -29921,18 +29909,18 @@
         <v>0</v>
       </c>
       <c r="BJ174" t="s">
-        <v>486</v>
+        <v>475</v>
       </c>
     </row>
     <row r="175" spans="4:62">
       <c r="D175" s="2" t="s">
-        <v>444</v>
+        <v>433</v>
       </c>
       <c r="E175">
         <v>51130261</v>
       </c>
       <c r="F175" s="20" t="s">
-        <v>516</v>
+        <v>505</v>
       </c>
       <c r="G175">
         <v>44001111</v>
@@ -29941,7 +29929,7 @@
         <v>44001111</v>
       </c>
       <c r="I175" t="s">
-        <v>488</v>
+        <v>477</v>
       </c>
       <c r="J175">
         <v>4001</v>
@@ -29965,7 +29953,7 @@
         <v>0</v>
       </c>
       <c r="Z175" s="19" t="s">
-        <v>481</v>
+        <v>470</v>
       </c>
       <c r="AA175" s="5">
         <v>200</v>
@@ -30053,18 +30041,18 @@
         <v>0</v>
       </c>
       <c r="BJ175" t="s">
-        <v>489</v>
+        <v>478</v>
       </c>
     </row>
     <row r="176" spans="4:62">
       <c r="D176" s="2" t="s">
-        <v>454</v>
+        <v>443</v>
       </c>
       <c r="E176">
         <v>51130271</v>
       </c>
       <c r="F176" s="20" t="s">
-        <v>517</v>
+        <v>506</v>
       </c>
       <c r="G176">
         <v>44001112</v>
@@ -30073,7 +30061,7 @@
         <v>44001112</v>
       </c>
       <c r="I176" t="s">
-        <v>491</v>
+        <v>480</v>
       </c>
       <c r="J176">
         <v>4001</v>
@@ -30097,7 +30085,7 @@
         <v>0</v>
       </c>
       <c r="Z176" s="19" t="s">
-        <v>492</v>
+        <v>481</v>
       </c>
       <c r="AA176" s="5">
         <v>200</v>
@@ -30185,18 +30173,18 @@
         <v>0</v>
       </c>
       <c r="BJ176" t="s">
-        <v>493</v>
+        <v>482</v>
       </c>
     </row>
     <row r="177" spans="4:62">
       <c r="D177" s="2" t="s">
-        <v>444</v>
+        <v>433</v>
       </c>
       <c r="E177">
         <v>51130311</v>
       </c>
       <c r="F177" s="20" t="s">
-        <v>518</v>
+        <v>507</v>
       </c>
       <c r="G177">
         <v>44001113</v>
@@ -30205,7 +30193,7 @@
         <v>44001113</v>
       </c>
       <c r="I177" t="s">
-        <v>495</v>
+        <v>484</v>
       </c>
       <c r="J177">
         <v>4001</v>
@@ -30317,18 +30305,18 @@
         <v>0</v>
       </c>
       <c r="BJ177" t="s">
-        <v>496</v>
+        <v>485</v>
       </c>
     </row>
     <row r="178" spans="4:62">
       <c r="D178" s="2" t="s">
-        <v>454</v>
+        <v>443</v>
       </c>
       <c r="E178">
         <v>51130321</v>
       </c>
       <c r="F178" s="20" t="s">
-        <v>519</v>
+        <v>508</v>
       </c>
       <c r="G178">
         <v>44001114</v>
@@ -30337,7 +30325,7 @@
         <v>44001114</v>
       </c>
       <c r="I178" t="s">
-        <v>498</v>
+        <v>487</v>
       </c>
       <c r="J178">
         <v>4001</v>
@@ -30449,18 +30437,18 @@
         <v>0</v>
       </c>
       <c r="BJ178" t="s">
-        <v>499</v>
+        <v>488</v>
       </c>
     </row>
     <row r="179" spans="4:62">
       <c r="D179" s="2" t="s">
-        <v>444</v>
+        <v>433</v>
       </c>
       <c r="E179">
         <v>51130331</v>
       </c>
       <c r="F179" s="20" t="s">
-        <v>520</v>
+        <v>509</v>
       </c>
       <c r="G179">
         <v>44001115</v>
@@ -30493,7 +30481,7 @@
         <v>0</v>
       </c>
       <c r="Z179" s="19" t="s">
-        <v>501</v>
+        <v>490</v>
       </c>
       <c r="AA179" s="5">
         <v>200</v>
@@ -30581,18 +30569,18 @@
         <v>0</v>
       </c>
       <c r="BJ179" t="s">
-        <v>502</v>
+        <v>491</v>
       </c>
     </row>
     <row r="180" spans="4:62">
       <c r="D180" s="2" t="s">
-        <v>521</v>
+        <v>510</v>
       </c>
       <c r="E180">
         <v>51120231</v>
       </c>
       <c r="F180" t="s">
-        <v>522</v>
+        <v>511</v>
       </c>
       <c r="G180">
         <v>42002009</v>
@@ -30601,7 +30589,7 @@
         <v>42002009</v>
       </c>
       <c r="I180" t="s">
-        <v>523</v>
+        <v>512</v>
       </c>
       <c r="J180">
         <v>4001</v>
@@ -30722,13 +30710,13 @@
     </row>
     <row r="181" spans="4:62">
       <c r="D181" s="2" t="s">
-        <v>259</v>
+        <v>247</v>
       </c>
       <c r="E181">
         <v>61000001</v>
       </c>
       <c r="F181" t="s">
-        <v>524</v>
+        <v>513</v>
       </c>
       <c r="G181">
         <v>42002001</v>
@@ -30849,18 +30837,18 @@
         <v>0</v>
       </c>
       <c r="BJ181" t="s">
-        <v>525</v>
+        <v>514</v>
       </c>
     </row>
     <row r="182" spans="4:62">
       <c r="D182" s="2" t="s">
-        <v>259</v>
+        <v>247</v>
       </c>
       <c r="E182">
         <v>61000002</v>
       </c>
       <c r="F182" t="s">
-        <v>526</v>
+        <v>515</v>
       </c>
       <c r="G182">
         <v>42002001</v>
@@ -30981,18 +30969,18 @@
         <v>0</v>
       </c>
       <c r="BJ182" t="s">
-        <v>527</v>
+        <v>516</v>
       </c>
     </row>
     <row r="183" spans="4:62">
       <c r="D183" s="2" t="s">
-        <v>270</v>
+        <v>258</v>
       </c>
       <c r="E183">
         <v>61000003</v>
       </c>
       <c r="F183" t="s">
-        <v>528</v>
+        <v>517</v>
       </c>
       <c r="G183">
         <v>42002001</v>
@@ -31114,19 +31102,19 @@
         <v>0</v>
       </c>
       <c r="BJ183" t="s">
-        <v>529</v>
+        <v>518</v>
       </c>
     </row>
     <row r="184" spans="3:62">
       <c r="C184"/>
       <c r="D184" s="2" t="s">
-        <v>259</v>
+        <v>247</v>
       </c>
       <c r="E184">
         <v>61000004</v>
       </c>
       <c r="F184" t="s">
-        <v>530</v>
+        <v>519</v>
       </c>
       <c r="G184" s="2">
         <v>42002001</v>
@@ -31255,18 +31243,18 @@
       <c r="BE184" s="3"/>
       <c r="BF184" s="3"/>
       <c r="BJ184" t="s">
-        <v>531</v>
+        <v>520</v>
       </c>
     </row>
     <row r="185" spans="4:62">
       <c r="D185" s="2" t="s">
-        <v>270</v>
+        <v>258</v>
       </c>
       <c r="E185">
         <v>61000005</v>
       </c>
       <c r="F185" t="s">
-        <v>532</v>
+        <v>521</v>
       </c>
       <c r="G185">
         <v>42002001</v>
@@ -31387,18 +31375,18 @@
         <v>0</v>
       </c>
       <c r="BJ185" t="s">
-        <v>533</v>
+        <v>522</v>
       </c>
     </row>
     <row r="186" spans="4:62">
       <c r="D186" s="2" t="s">
-        <v>259</v>
+        <v>247</v>
       </c>
       <c r="E186">
         <v>61000101</v>
       </c>
       <c r="F186" t="s">
-        <v>534</v>
+        <v>523</v>
       </c>
       <c r="G186">
         <v>42002001</v>
@@ -31517,18 +31505,18 @@
         <v>0</v>
       </c>
       <c r="BJ186" t="s">
-        <v>535</v>
+        <v>524</v>
       </c>
     </row>
     <row r="187" spans="4:62">
       <c r="D187" s="2" t="s">
-        <v>454</v>
+        <v>443</v>
       </c>
       <c r="E187">
         <v>62000001</v>
       </c>
       <c r="F187" t="s">
-        <v>536</v>
+        <v>525</v>
       </c>
       <c r="G187">
         <v>44001110</v>
@@ -31537,7 +31525,7 @@
         <v>44001110</v>
       </c>
       <c r="I187" t="s">
-        <v>484</v>
+        <v>473</v>
       </c>
       <c r="J187">
         <v>4001</v>
@@ -31647,18 +31635,18 @@
         <v>0</v>
       </c>
       <c r="BJ187" t="s">
-        <v>537</v>
+        <v>526</v>
       </c>
     </row>
     <row r="188" spans="4:62">
       <c r="D188" s="2" t="s">
-        <v>454</v>
+        <v>443</v>
       </c>
       <c r="E188">
         <v>63000001</v>
       </c>
       <c r="F188" t="s">
-        <v>538</v>
+        <v>527</v>
       </c>
       <c r="G188">
         <v>44001110</v>
@@ -31667,7 +31655,7 @@
         <v>44001110</v>
       </c>
       <c r="I188" t="s">
-        <v>484</v>
+        <v>473</v>
       </c>
       <c r="J188">
         <v>4001</v>
@@ -31777,18 +31765,18 @@
         <v>0</v>
       </c>
       <c r="BJ188" t="s">
-        <v>539</v>
+        <v>528</v>
       </c>
     </row>
     <row r="189" spans="4:62">
       <c r="D189" s="2" t="s">
-        <v>454</v>
+        <v>443</v>
       </c>
       <c r="E189">
         <v>63000002</v>
       </c>
       <c r="F189" t="s">
-        <v>540</v>
+        <v>529</v>
       </c>
       <c r="G189">
         <v>44001110</v>
@@ -31797,7 +31785,7 @@
         <v>44001110</v>
       </c>
       <c r="I189" t="s">
-        <v>484</v>
+        <v>473</v>
       </c>
       <c r="J189">
         <v>4001</v>
@@ -31907,18 +31895,18 @@
         <v>0</v>
       </c>
       <c r="BJ189" t="s">
-        <v>541</v>
+        <v>530</v>
       </c>
     </row>
     <row r="190" spans="4:62">
       <c r="D190" s="2" t="s">
-        <v>454</v>
+        <v>443</v>
       </c>
       <c r="E190">
         <v>62000099</v>
       </c>
       <c r="F190" t="s">
-        <v>542</v>
+        <v>531</v>
       </c>
       <c r="G190">
         <v>44001104</v>
@@ -31927,7 +31915,7 @@
         <v>44001104</v>
       </c>
       <c r="I190" t="s">
-        <v>456</v>
+        <v>445</v>
       </c>
       <c r="J190">
         <v>4001</v>
@@ -32037,7 +32025,7 @@
         <v>0</v>
       </c>
       <c r="BJ190" t="s">
-        <v>543</v>
+        <v>532</v>
       </c>
     </row>
     <row r="191" spans="3:58">

--- a/Developer/配置表/Excel/monster.xlsx
+++ b/Developer/配置表/Excel/monster.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12375" tabRatio="594"/>
+    <workbookView windowWidth="21795" windowHeight="11970" tabRatio="594"/>
   </bookViews>
   <sheets>
     <sheet name="monster" sheetId="1" r:id="rId1"/>
@@ -12,23 +12,10 @@
     <sheet name="旧数据备份" sheetId="9" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">monster!$C$1:$U$22</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">monster!$C$1:$U$23</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">旧数据备份!$C$1:$BJ$192</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -414,7 +401,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1529" uniqueCount="533">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1538" uniqueCount="535">
   <si>
     <t>怪物ID</t>
   </si>
@@ -930,6 +917,12 @@
     <t>吹箭哥布林-土</t>
   </si>
   <si>
+    <t>Boss</t>
+  </si>
+  <si>
+    <t>sizhipaxing_boss</t>
+  </si>
+  <si>
     <t>字段</t>
   </si>
   <si>
@@ -2049,11 +2042,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="179" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="26">
@@ -2090,6 +2083,34 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -2103,6 +2124,14 @@
       <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2142,21 +2171,6 @@
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2207,39 +2221,18 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -2308,13 +2301,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2332,19 +2367,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2362,18 +2409,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -2386,31 +2421,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2434,19 +2445,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2465,12 +2464,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2517,6 +2510,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -2545,21 +2553,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2618,151 +2611,151 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -2872,55 +2865,55 @@
   </cellXfs>
   <cellStyles count="51">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
-    <cellStyle name="货币" xfId="2" builtinId="4"/>
-    <cellStyle name="百分比" xfId="3" builtinId="5"/>
-    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
-    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
-    <cellStyle name="超链接" xfId="6" builtinId="8"/>
-    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
-    <cellStyle name="注释" xfId="8" builtinId="10"/>
-    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
-    <cellStyle name="标题" xfId="10" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
-    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
     <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="输入" xfId="16" builtinId="20"/>
-    <cellStyle name="输出" xfId="17" builtinId="21"/>
-    <cellStyle name="计算" xfId="18" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
-    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="好" xfId="22" builtinId="26"/>
-    <cellStyle name="差" xfId="23" builtinId="27"/>
-    <cellStyle name="适中" xfId="24" builtinId="28"/>
-    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
-    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
-    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
-    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
-    <cellStyle name="常规 2 2" xfId="49"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="常规 2 2" xfId="44"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="45" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="46" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="47" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="48" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="49" builtinId="52"/>
     <cellStyle name="常规 2" xfId="50"/>
   </cellStyles>
   <dxfs count="2">
@@ -3209,14 +3202,14 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="C1:BC22"/>
+  <dimension ref="C1:BC23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="4" topLeftCell="N5" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="4" ySplit="4" topLeftCell="E5" activePane="bottomRight" state="frozenSplit"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="P25" sqref="P25"/>
+      <selection pane="bottomRight" activeCell="K27" sqref="K27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.25" defaultRowHeight="14.25"/>
@@ -3826,7 +3819,7 @@
         <v>4001</v>
       </c>
       <c r="K5">
-        <v>2032</v>
+        <v>2009</v>
       </c>
       <c r="M5">
         <v>1</v>
@@ -3921,7 +3914,7 @@
         <v>4001</v>
       </c>
       <c r="K6">
-        <v>2005</v>
+        <v>2019</v>
       </c>
       <c r="M6">
         <v>1</v>
@@ -4016,7 +4009,7 @@
         <v>4001</v>
       </c>
       <c r="K7">
-        <v>2033</v>
+        <v>2020</v>
       </c>
       <c r="M7">
         <v>2</v>
@@ -4111,7 +4104,7 @@
         <v>4001</v>
       </c>
       <c r="K8">
-        <v>2006</v>
+        <v>2023</v>
       </c>
       <c r="M8">
         <v>2</v>
@@ -4206,7 +4199,7 @@
         <v>4001</v>
       </c>
       <c r="K9">
-        <v>2009</v>
+        <v>2043</v>
       </c>
       <c r="M9" s="13">
         <v>3</v>
@@ -4295,7 +4288,7 @@
         <v>4001</v>
       </c>
       <c r="K10">
-        <v>2008</v>
+        <v>2001</v>
       </c>
       <c r="M10" s="13">
         <v>13</v>
@@ -4381,7 +4374,7 @@
         <v>4001</v>
       </c>
       <c r="K11">
-        <v>2019</v>
+        <v>2013</v>
       </c>
       <c r="M11">
         <v>13</v>
@@ -4473,7 +4466,7 @@
         <v>4001</v>
       </c>
       <c r="K12">
-        <v>2020</v>
+        <v>2012</v>
       </c>
       <c r="M12">
         <v>3</v>
@@ -4567,8 +4560,8 @@
       <c r="J13">
         <v>4001</v>
       </c>
-      <c r="K13">
-        <v>2023</v>
+      <c r="K13" s="13">
+        <v>2051</v>
       </c>
       <c r="M13" s="13">
         <v>9</v>
@@ -4663,7 +4656,7 @@
         <v>4001</v>
       </c>
       <c r="K14">
-        <v>2043</v>
+        <v>2007</v>
       </c>
       <c r="M14">
         <v>9</v>
@@ -4758,7 +4751,7 @@
         <v>4001</v>
       </c>
       <c r="K15">
-        <v>2001</v>
+        <v>2058</v>
       </c>
       <c r="M15">
         <v>5</v>
@@ -4853,7 +4846,7 @@
         <v>4001</v>
       </c>
       <c r="K16">
-        <v>2013</v>
+        <v>2015</v>
       </c>
       <c r="M16">
         <v>5</v>
@@ -4948,7 +4941,7 @@
         <v>4001</v>
       </c>
       <c r="K17">
-        <v>2012</v>
+        <v>2016</v>
       </c>
       <c r="M17">
         <v>5</v>
@@ -5042,8 +5035,8 @@
       <c r="J18">
         <v>4001</v>
       </c>
-      <c r="K18" s="13">
-        <v>2051</v>
+      <c r="K18">
+        <v>2117</v>
       </c>
       <c r="M18">
         <v>7</v>
@@ -5138,7 +5131,7 @@
         <v>4001</v>
       </c>
       <c r="K19">
-        <v>2007</v>
+        <v>2118</v>
       </c>
       <c r="M19">
         <v>7</v>
@@ -5233,7 +5226,7 @@
         <v>4001</v>
       </c>
       <c r="K20">
-        <v>2058</v>
+        <v>2119</v>
       </c>
       <c r="M20">
         <v>7</v>
@@ -5328,7 +5321,7 @@
         <v>4001</v>
       </c>
       <c r="K21">
-        <v>2015</v>
+        <v>2120</v>
       </c>
       <c r="M21">
         <v>7</v>
@@ -5423,7 +5416,7 @@
         <v>4001</v>
       </c>
       <c r="K22">
-        <v>2016</v>
+        <v>2121</v>
       </c>
       <c r="M22">
         <v>1</v>
@@ -5492,41 +5485,143 @@
         <v>0</v>
       </c>
     </row>
+    <row r="23" ht="16.5" spans="3:55">
+      <c r="C23">
+        <v>3200101</v>
+      </c>
+      <c r="D23" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="E23" s="9">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>42002001</v>
+      </c>
+      <c r="H23">
+        <v>42002001</v>
+      </c>
+      <c r="I23" t="s">
+        <v>127</v>
+      </c>
+      <c r="J23">
+        <v>4001</v>
+      </c>
+      <c r="K23">
+        <v>5000</v>
+      </c>
+      <c r="M23">
+        <v>5</v>
+      </c>
+      <c r="N23" s="3">
+        <v>3</v>
+      </c>
+      <c r="O23" s="26" t="s">
+        <v>128</v>
+      </c>
+      <c r="P23" s="19">
+        <v>15050</v>
+      </c>
+      <c r="Q23">
+        <v>10000</v>
+      </c>
+      <c r="R23">
+        <v>10000</v>
+      </c>
+      <c r="S23">
+        <v>40</v>
+      </c>
+      <c r="T23">
+        <v>80</v>
+      </c>
+      <c r="U23" t="s">
+        <v>166</v>
+      </c>
+      <c r="Y23" s="30" t="s">
+        <v>130</v>
+      </c>
+      <c r="Z23" s="30" t="s">
+        <v>131</v>
+      </c>
+      <c r="AA23" s="26" t="s">
+        <v>155</v>
+      </c>
+      <c r="AB23" s="26" t="s">
+        <v>133</v>
+      </c>
+      <c r="AC23">
+        <v>0</v>
+      </c>
+      <c r="AE23">
+        <v>999</v>
+      </c>
+      <c r="AG23">
+        <v>3002001</v>
+      </c>
+      <c r="AJ23" t="s">
+        <v>134</v>
+      </c>
+      <c r="AO23" s="3"/>
+      <c r="AP23" s="3"/>
+      <c r="AQ23" s="3"/>
+      <c r="AR23" s="3"/>
+      <c r="AS23" s="3"/>
+      <c r="AT23" s="3"/>
+      <c r="BA23" s="3">
+        <v>20</v>
+      </c>
+      <c r="BB23">
+        <v>1</v>
+      </c>
+      <c r="BC23">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="C1:U22">
+  <autoFilter ref="C1:U23">
     <extLst/>
   </autoFilter>
-  <conditionalFormatting sqref="K18">
-    <cfRule type="duplicateValues" dxfId="0" priority="3"/>
+  <conditionalFormatting sqref="K13">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C23:C1048576">
-    <cfRule type="duplicateValues" dxfId="0" priority="310"/>
+  <conditionalFormatting sqref="C23">
+    <cfRule type="duplicateValues" dxfId="0" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="4"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C1:C4 C23:C1048576">
-    <cfRule type="duplicateValues" dxfId="0" priority="243"/>
+  <conditionalFormatting sqref="C24:C1048576">
+    <cfRule type="duplicateValues" dxfId="0" priority="318"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C13 C9:C10 C1:C4 C23:C1048576">
-    <cfRule type="duplicateValues" dxfId="0" priority="835"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="836"/>
+  <conditionalFormatting sqref="C1:C4 C24:C1048576">
+    <cfRule type="duplicateValues" dxfId="0" priority="251"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C13 C9:C10 C1:C4 C24:C1048576">
+    <cfRule type="duplicateValues" dxfId="0" priority="843"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="844"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AH2:AJ8">
-    <cfRule type="notContainsBlanks" dxfId="1" priority="242">
+    <cfRule type="notContainsBlanks" dxfId="1" priority="250">
       <formula>LEN(TRIM(AH2))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C5:C8 C11:C12 C14:C22">
-    <cfRule type="duplicateValues" dxfId="0" priority="837"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="838"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="839"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="840"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="841"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="845"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="846"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="847"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="848"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="849"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C13 C9:C10">
-    <cfRule type="duplicateValues" dxfId="0" priority="810"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="811"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="818"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="819"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AH18:AJ20">
-    <cfRule type="notContainsBlanks" dxfId="1" priority="4">
+    <cfRule type="notContainsBlanks" dxfId="1" priority="12">
       <formula>LEN(TRIM(AH18))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5558,19 +5653,19 @@
   <sheetData>
     <row r="1" ht="18" spans="1:5">
       <c r="A1" s="21" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="B1" s="21" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="C1" s="21" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="D1" s="21" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="E1" s="21" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -5578,7 +5673,7 @@
         <v>73</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="C2" s="12" t="s">
         <v>53</v>
@@ -5601,17 +5696,17 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="12" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="C4" s="12" t="s">
         <v>53</v>
       </c>
       <c r="D4" s="12"/>
       <c r="E4" s="12" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -5625,7 +5720,7 @@
         <v>53</v>
       </c>
       <c r="D5" s="22" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="E5" s="22"/>
     </row>
@@ -5640,7 +5735,7 @@
         <v>53</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="E6" s="12"/>
     </row>
@@ -5684,33 +5779,33 @@
       <c r="C9" s="22"/>
       <c r="D9" s="22"/>
       <c r="E9" s="23" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
     </row>
     <row r="10" ht="66" spans="1:5">
       <c r="A10" s="12" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="C10" s="12"/>
       <c r="D10" s="12"/>
       <c r="E10" s="24" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
     </row>
     <row r="11" ht="66" spans="1:5">
       <c r="A11" s="22" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="B11" s="22" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="C11" s="22"/>
       <c r="D11" s="22"/>
       <c r="E11" s="23" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
     </row>
     <row r="12" ht="33" spans="1:5">
@@ -5725,15 +5820,15 @@
       </c>
       <c r="D12" s="12"/>
       <c r="E12" s="24" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="22" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="B13" s="22" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="C13" s="22" t="s">
         <v>53</v>
@@ -5743,25 +5838,25 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="12" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="C14" s="12" t="s">
         <v>53</v>
       </c>
       <c r="D14" s="12"/>
       <c r="E14" s="12" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="22" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B15" s="22" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="C15" s="22" t="s">
         <v>53</v>
@@ -5771,10 +5866,10 @@
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="12" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="C16" s="12" t="s">
         <v>53</v>
@@ -5784,10 +5879,10 @@
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="22" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="B17" s="22" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="C17" s="22" t="s">
         <v>53</v>
@@ -5797,32 +5892,32 @@
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="22" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="B18" s="22" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="C18" s="22" t="s">
         <v>59</v>
       </c>
       <c r="D18" s="22"/>
       <c r="E18" s="22" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="12" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="B19" s="12" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="C19" s="12" t="s">
         <v>59</v>
       </c>
       <c r="D19" s="12"/>
       <c r="E19" s="12" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
     </row>
     <row r="20" ht="49.5" spans="1:5">
@@ -5837,7 +5932,7 @@
       </c>
       <c r="D20" s="12"/>
       <c r="E20" s="24" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
     </row>
     <row r="21" ht="33" spans="1:5">
@@ -5852,7 +5947,7 @@
       </c>
       <c r="D21" s="22"/>
       <c r="E21" s="23" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -5867,7 +5962,7 @@
       </c>
       <c r="D22" s="12"/>
       <c r="E22" s="12" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -5882,7 +5977,7 @@
       </c>
       <c r="D23" s="22"/>
       <c r="E23" s="22" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -5899,7 +5994,7 @@
         <v>68</v>
       </c>
       <c r="E24" s="12" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
     </row>
   </sheetData>
@@ -6048,64 +6143,64 @@
         <v>13</v>
       </c>
       <c r="AA1" s="18" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="AB1" s="18" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="AC1" s="3" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="AD1" s="3" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="AE1" s="3" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="AF1" s="3" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="AG1" s="3" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="AH1" s="3" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="AI1" s="4" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="AJ1" s="4" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="AK1" s="3" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="AL1" s="3" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="AM1" s="3" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="AN1" s="3" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="AO1" s="3" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="AP1" s="3" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="AQ1" s="3" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="AR1" s="3" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="AS1" s="4" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="AT1" s="4" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="AU1" s="3" t="s">
         <v>44</v>
@@ -6182,7 +6277,7 @@
         <v>55</v>
       </c>
       <c r="M2" s="11" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="N2" s="6" t="s">
         <v>64</v>
@@ -6370,10 +6465,10 @@
     </row>
     <row r="4" ht="16.5" spans="3:62">
       <c r="C4" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="E4" s="6" t="s">
         <v>73</v>
@@ -6442,64 +6537,64 @@
         <v>86</v>
       </c>
       <c r="AA4" s="18" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="AB4" s="18" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="AC4" s="3" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="AD4" s="3" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="AE4" s="3" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="AF4" s="3" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="AG4" s="3" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="AH4" s="3" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="AI4" s="4" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="AJ4" s="4" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="AK4" s="3" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="AL4" s="3" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="AM4" s="3" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="AN4" s="3" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="AO4" s="3" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="AP4" s="3" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="AQ4" s="3" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="AR4" s="3" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="AS4" s="4" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="AT4" s="4" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="AU4" s="3" t="s">
         <v>117</v>
@@ -6552,13 +6647,13 @@
     </row>
     <row r="5" ht="16.5" spans="4:62">
       <c r="D5" s="2" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="E5">
         <v>11020011</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="G5">
         <v>42002001</v>
@@ -6685,18 +6780,18 @@
       <c r="BH5" s="3"/>
       <c r="BI5" s="3"/>
       <c r="BJ5" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
     </row>
     <row r="6" ht="16.5" spans="4:62">
       <c r="D6" s="2" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="E6">
         <v>11020021</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="G6">
         <v>42002001</v>
@@ -6818,18 +6913,18 @@
         <v>0</v>
       </c>
       <c r="BJ6" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
     </row>
     <row r="7" ht="16.5" spans="4:62">
       <c r="D7" s="2" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="E7">
         <v>11020031</v>
       </c>
       <c r="F7" s="9" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="G7">
         <v>42002001</v>
@@ -6951,18 +7046,18 @@
         <v>0</v>
       </c>
       <c r="BJ7" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
     </row>
     <row r="8" ht="16.5" spans="4:62">
       <c r="D8" s="2" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="E8">
         <v>11020051</v>
       </c>
       <c r="F8" s="9" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="G8">
         <v>42002001</v>
@@ -7087,18 +7182,18 @@
         <v>0</v>
       </c>
       <c r="BJ8" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
     </row>
     <row r="9" ht="16.5" spans="4:62">
       <c r="D9" s="2" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="E9">
         <v>11020061</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="G9">
         <v>42002001</v>
@@ -7223,18 +7318,18 @@
         <v>0</v>
       </c>
       <c r="BJ9" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
     </row>
     <row r="10" ht="16.5" spans="4:62">
       <c r="D10" s="2" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="E10" s="10">
         <v>11020071</v>
       </c>
       <c r="F10" s="9" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="G10">
         <v>42002001</v>
@@ -7359,18 +7454,18 @@
         <v>0</v>
       </c>
       <c r="BJ10" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
     </row>
     <row r="11" ht="16.5" spans="4:62">
       <c r="D11" s="2" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="E11" s="10">
         <v>12020081</v>
       </c>
       <c r="F11" s="9" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="G11">
         <v>42002001</v>
@@ -7495,18 +7590,18 @@
         <v>0</v>
       </c>
       <c r="BJ11" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
     </row>
     <row r="12" ht="16.5" spans="4:62">
       <c r="D12" s="2" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="E12" s="10">
         <v>12020082</v>
       </c>
       <c r="F12" s="9" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="G12">
         <v>42002001</v>
@@ -7631,18 +7726,18 @@
         <v>0</v>
       </c>
       <c r="BJ12" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
     </row>
     <row r="13" ht="16.5" spans="4:62">
       <c r="D13" s="2" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="E13" s="10">
         <v>12020091</v>
       </c>
       <c r="F13" s="9" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="G13">
         <v>42002001</v>
@@ -7765,18 +7860,18 @@
         <v>0</v>
       </c>
       <c r="BJ13" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
     </row>
     <row r="14" ht="16.5" spans="4:62">
       <c r="D14" s="2" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="E14" s="10">
         <v>11020111</v>
       </c>
       <c r="F14" s="9" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="G14">
         <v>42002001</v>
@@ -7811,7 +7906,7 @@
         <v>0</v>
       </c>
       <c r="Z14" s="19" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="AA14" s="5">
         <v>200</v>
@@ -7899,18 +7994,18 @@
         <v>0</v>
       </c>
       <c r="BJ14" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
     </row>
     <row r="15" ht="16.5" spans="4:62">
       <c r="D15" s="2" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="E15" s="10">
         <v>11020121</v>
       </c>
       <c r="F15" s="9" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="G15">
         <v>42002001</v>
@@ -7945,7 +8040,7 @@
         <v>0</v>
       </c>
       <c r="Z15" s="19" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="AA15" s="5">
         <v>200</v>
@@ -8033,18 +8128,18 @@
         <v>0</v>
       </c>
       <c r="BJ15" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
     </row>
     <row r="16" ht="16.5" spans="4:62">
       <c r="D16" s="2" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="E16" s="10">
         <v>11020131</v>
       </c>
       <c r="F16" s="9" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="G16">
         <v>42002001</v>
@@ -8079,7 +8174,7 @@
         <v>0</v>
       </c>
       <c r="Z16" s="19" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="AA16" s="5">
         <v>200</v>
@@ -8167,18 +8262,18 @@
         <v>0</v>
       </c>
       <c r="BJ16" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
     </row>
     <row r="17" ht="16.5" spans="4:62">
       <c r="D17" s="2" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="E17" s="10">
         <v>11020141</v>
       </c>
       <c r="F17" s="9" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="G17">
         <v>42002001</v>
@@ -8301,18 +8396,18 @@
         <v>0</v>
       </c>
       <c r="BJ17" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
     </row>
     <row r="18" ht="16.5" spans="4:62">
       <c r="D18" s="2" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="E18" s="10">
         <v>12020181</v>
       </c>
       <c r="F18" s="9" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="G18">
         <v>42002001</v>
@@ -8435,18 +8530,18 @@
         <v>0</v>
       </c>
       <c r="BJ18" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
     </row>
     <row r="19" ht="16.5" spans="4:62">
       <c r="D19" s="2" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="E19" s="10">
         <v>12020191</v>
       </c>
       <c r="F19" s="9" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="G19">
         <v>42002001</v>
@@ -8569,18 +8664,18 @@
         <v>0</v>
       </c>
       <c r="BJ19" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
     </row>
     <row r="20" ht="16.5" spans="4:62">
       <c r="D20" s="2" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="E20" s="10">
         <v>12020201</v>
       </c>
       <c r="F20" s="9" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="G20">
         <v>42002001</v>
@@ -8703,18 +8798,18 @@
         <v>0</v>
       </c>
       <c r="BJ20" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
     </row>
     <row r="21" ht="16.5" spans="4:62">
       <c r="D21" s="2" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="E21" s="10">
         <v>12020211</v>
       </c>
       <c r="F21" s="9" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="G21">
         <v>42002001</v>
@@ -8837,18 +8932,18 @@
         <v>0</v>
       </c>
       <c r="BJ21" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
     </row>
     <row r="22" ht="16.5" spans="4:62">
       <c r="D22" s="2" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="E22" s="10">
         <v>12020221</v>
       </c>
       <c r="F22" s="9" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="G22">
         <v>42002001</v>
@@ -8971,18 +9066,18 @@
         <v>0</v>
       </c>
       <c r="BJ22" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
     </row>
     <row r="23" ht="16.5" spans="4:62">
       <c r="D23" s="2" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="E23" s="10">
         <v>12020231</v>
       </c>
       <c r="F23" s="9" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="G23">
         <v>42002001</v>
@@ -9105,18 +9200,18 @@
         <v>0</v>
       </c>
       <c r="BJ23" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
     </row>
     <row r="24" ht="16.5" spans="4:62">
       <c r="D24" s="2" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="E24" s="10">
         <v>12020232</v>
       </c>
       <c r="F24" s="9" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="G24">
         <v>42002001</v>
@@ -9151,7 +9246,7 @@
         <v>0</v>
       </c>
       <c r="Z24" s="19" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="AA24" s="5">
         <v>200</v>
@@ -9239,18 +9334,18 @@
         <v>0</v>
       </c>
       <c r="BJ24" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
     </row>
     <row r="25" ht="16.5" spans="4:62">
       <c r="D25" s="2" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="E25" s="10">
         <v>11020241</v>
       </c>
       <c r="F25" s="9" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="G25">
         <v>42002001</v>
@@ -9373,18 +9468,18 @@
         <v>0</v>
       </c>
       <c r="BJ25" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
     </row>
     <row r="26" ht="16.5" spans="4:62">
       <c r="D26" s="2" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="E26" s="10">
         <v>11020251</v>
       </c>
       <c r="F26" s="9" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="G26">
         <v>42002001</v>
@@ -9507,18 +9602,18 @@
         <v>0</v>
       </c>
       <c r="BJ26" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
     </row>
     <row r="27" ht="16.5" spans="4:62">
       <c r="D27" s="2" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="E27" s="10">
         <v>11020261</v>
       </c>
       <c r="F27" s="9" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="G27">
         <v>42002001</v>
@@ -9641,18 +9736,18 @@
         <v>0</v>
       </c>
       <c r="BJ27" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
     </row>
     <row r="28" ht="16.5" spans="4:62">
       <c r="D28" s="2" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="E28" s="10">
         <v>11020281</v>
       </c>
       <c r="F28" s="9" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="G28">
         <v>42002001</v>
@@ -9775,18 +9870,18 @@
         <v>0</v>
       </c>
       <c r="BJ28" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
     </row>
     <row r="29" ht="16.5" spans="4:62">
       <c r="D29" s="2" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="E29" s="10">
         <v>11020291</v>
       </c>
       <c r="F29" s="9" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="G29">
         <v>42002001</v>
@@ -9909,18 +10004,18 @@
         <v>0</v>
       </c>
       <c r="BJ29" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
     </row>
     <row r="30" ht="16.5" spans="4:62">
       <c r="D30" s="2" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="E30" s="10">
         <v>11020301</v>
       </c>
       <c r="F30" s="9" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="G30">
         <v>42002001</v>
@@ -10043,18 +10138,18 @@
         <v>0</v>
       </c>
       <c r="BJ30" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
     </row>
     <row r="31" ht="16.5" spans="4:62">
       <c r="D31" s="2" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="E31" s="10">
         <v>11020302</v>
       </c>
       <c r="F31" s="9" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="G31">
         <v>42002001</v>
@@ -10179,10 +10274,10 @@
         <v>0</v>
       </c>
       <c r="BE31" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="BF31" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="BG31" t="e">
         <f>IF(O31=0,"",VLOOKUP(O31,#REF!,2,FALSE))</f>
@@ -10192,18 +10287,18 @@
         <v>1</v>
       </c>
       <c r="BJ31" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
     </row>
     <row r="32" ht="16.5" spans="4:62">
       <c r="D32" s="2" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="E32" s="10">
         <v>11020303</v>
       </c>
       <c r="F32" s="9" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="G32">
         <v>42002001</v>
@@ -10238,7 +10333,7 @@
         <v>0</v>
       </c>
       <c r="Z32" s="19" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="AA32" s="5">
         <v>200</v>
@@ -10326,18 +10421,18 @@
         <v>0</v>
       </c>
       <c r="BJ32" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
     </row>
     <row r="33" ht="16.5" spans="4:62">
       <c r="D33" s="2" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="E33" s="10">
         <v>11020311</v>
       </c>
       <c r="F33" s="9" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="G33">
         <v>42002001</v>
@@ -10460,18 +10555,18 @@
         <v>0</v>
       </c>
       <c r="BJ33" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
     </row>
     <row r="34" ht="16.5" spans="4:62">
       <c r="D34" s="2" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="E34" s="10">
         <v>11020312</v>
       </c>
       <c r="F34" s="9" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="G34">
         <v>42002001</v>
@@ -10596,10 +10691,10 @@
         <v>0</v>
       </c>
       <c r="BE34" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="BF34" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="BG34" t="e">
         <f>IF(O34=0,"",VLOOKUP(O34,#REF!,2,FALSE))</f>
@@ -10609,18 +10704,18 @@
         <v>1</v>
       </c>
       <c r="BJ34" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
     </row>
     <row r="35" ht="16.5" spans="4:62">
       <c r="D35" s="2" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="E35" s="10">
         <v>11020313</v>
       </c>
       <c r="F35" s="9" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="G35">
         <v>42002001</v>
@@ -10655,7 +10750,7 @@
         <v>0</v>
       </c>
       <c r="Z35" s="19" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="AA35" s="5">
         <v>200</v>
@@ -10743,18 +10838,18 @@
         <v>0</v>
       </c>
       <c r="BJ35" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
     </row>
     <row r="36" ht="16.5" spans="4:62">
       <c r="D36" s="2" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="E36" s="10">
         <v>11020321</v>
       </c>
       <c r="F36" s="9" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="G36">
         <v>42002001</v>
@@ -10877,18 +10972,18 @@
         <v>0</v>
       </c>
       <c r="BJ36" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
     </row>
     <row r="37" ht="16.5" spans="4:62">
       <c r="D37" s="2" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="E37" s="10">
         <v>11020322</v>
       </c>
       <c r="F37" s="9" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="G37">
         <v>42002001</v>
@@ -11013,10 +11108,10 @@
         <v>0</v>
       </c>
       <c r="BE37" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="BF37" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="BG37" t="e">
         <f>IF(O37=0,"",VLOOKUP(O37,#REF!,2,FALSE))</f>
@@ -11026,18 +11121,18 @@
         <v>1</v>
       </c>
       <c r="BJ37" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
     </row>
     <row r="38" ht="16.5" spans="4:62">
       <c r="D38" s="2" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="E38" s="10">
         <v>11020323</v>
       </c>
       <c r="F38" s="9" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="G38">
         <v>42002001</v>
@@ -11072,7 +11167,7 @@
         <v>0</v>
       </c>
       <c r="Z38" s="19" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="AA38" s="5">
         <v>200</v>
@@ -11160,18 +11255,18 @@
         <v>0</v>
       </c>
       <c r="BJ38" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
     </row>
     <row r="39" ht="16.5" spans="4:62">
       <c r="D39" s="2" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="E39" s="10">
         <v>12020351</v>
       </c>
       <c r="F39" s="9" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="G39">
         <v>42002001</v>
@@ -11294,18 +11389,18 @@
         <v>0</v>
       </c>
       <c r="BJ39" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
     </row>
     <row r="40" ht="16.5" spans="4:62">
       <c r="D40" s="2" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="E40" s="10">
         <v>12020352</v>
       </c>
       <c r="F40" s="9" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="G40">
         <v>42002001</v>
@@ -11430,10 +11525,10 @@
         <v>0</v>
       </c>
       <c r="BE40" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="BF40" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="BG40" t="e">
         <f>IF(O40=0,"",VLOOKUP(O40,#REF!,2,FALSE))</f>
@@ -11443,18 +11538,18 @@
         <v>1</v>
       </c>
       <c r="BJ40" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
     </row>
     <row r="41" ht="16.5" spans="4:62">
       <c r="D41" s="2" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="E41" s="10">
         <v>12020361</v>
       </c>
       <c r="F41" s="9" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="G41">
         <v>42002001</v>
@@ -11577,18 +11672,18 @@
         <v>0</v>
       </c>
       <c r="BJ41" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
     </row>
     <row r="42" ht="16.5" spans="4:62">
       <c r="D42" s="2" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="E42" s="10">
         <v>12020362</v>
       </c>
       <c r="F42" s="9" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="G42">
         <v>42002001</v>
@@ -11713,10 +11808,10 @@
         <v>0</v>
       </c>
       <c r="BE42" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="BF42" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="BG42" t="e">
         <f>IF(O42=0,"",VLOOKUP(O42,#REF!,2,FALSE))</f>
@@ -11726,18 +11821,18 @@
         <v>1</v>
       </c>
       <c r="BJ42" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
     </row>
     <row r="43" ht="16.5" spans="4:62">
       <c r="D43" s="2" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="E43" s="10">
         <v>12020371</v>
       </c>
       <c r="F43" s="9" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="G43">
         <v>42002001</v>
@@ -11860,18 +11955,18 @@
         <v>0</v>
       </c>
       <c r="BJ43" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
     </row>
     <row r="44" ht="16.5" spans="4:62">
       <c r="D44" s="2" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="E44" s="10">
         <v>12020372</v>
       </c>
       <c r="F44" s="9" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="G44">
         <v>42002001</v>
@@ -11996,10 +12091,10 @@
         <v>0</v>
       </c>
       <c r="BE44" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="BF44" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="BG44" t="e">
         <f>IF(O44=0,"",VLOOKUP(O44,#REF!,2,FALSE))</f>
@@ -12009,18 +12104,18 @@
         <v>1</v>
       </c>
       <c r="BJ44" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
     </row>
     <row r="45" ht="16.5" spans="4:62">
       <c r="D45" s="2" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="E45" s="10">
         <v>12020401</v>
       </c>
       <c r="F45" s="9" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="G45">
         <v>42002001</v>
@@ -12143,18 +12238,18 @@
         <v>0</v>
       </c>
       <c r="BJ45" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
     </row>
     <row r="46" ht="16.5" spans="4:62">
       <c r="D46" s="2" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="E46" s="10">
         <v>12020402</v>
       </c>
       <c r="F46" s="9" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="G46">
         <v>42002001</v>
@@ -12279,10 +12374,10 @@
         <v>0</v>
       </c>
       <c r="BE46" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="BF46" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="BG46" t="e">
         <f>IF(O46=0,"",VLOOKUP(O46,#REF!,2,FALSE))</f>
@@ -12292,18 +12387,18 @@
         <v>1</v>
       </c>
       <c r="BJ46" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
     </row>
     <row r="47" ht="16.5" spans="4:62">
       <c r="D47" s="2" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="E47" s="10">
         <v>12020403</v>
       </c>
       <c r="F47" s="9" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="G47">
         <v>42002001</v>
@@ -12338,7 +12433,7 @@
         <v>0</v>
       </c>
       <c r="Z47" s="19" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="AA47" s="5">
         <v>200</v>
@@ -12426,18 +12521,18 @@
         <v>0</v>
       </c>
       <c r="BJ47" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
     </row>
     <row r="48" ht="16.5" spans="4:62">
       <c r="D48" s="2" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="E48" s="10">
         <v>12020404</v>
       </c>
       <c r="F48" s="9" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="G48">
         <v>42002001</v>
@@ -12474,7 +12569,7 @@
         <v>0</v>
       </c>
       <c r="Z48" s="19" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="AA48" s="5">
         <v>200</v>
@@ -12562,10 +12657,10 @@
         <v>0</v>
       </c>
       <c r="BE48" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="BF48" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="BG48" t="e">
         <f>IF(O48=0,"",VLOOKUP(O48,#REF!,2,FALSE))</f>
@@ -12575,18 +12670,18 @@
         <v>1</v>
       </c>
       <c r="BJ48" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
     </row>
     <row r="49" ht="16.5" spans="4:62">
       <c r="D49" s="2" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="E49" s="10">
         <v>12020411</v>
       </c>
       <c r="F49" s="9" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="G49">
         <v>42002001</v>
@@ -12709,18 +12804,18 @@
         <v>0</v>
       </c>
       <c r="BJ49" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
     </row>
     <row r="50" ht="16.5" spans="4:62">
       <c r="D50" s="2" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="E50" s="10">
         <v>12020412</v>
       </c>
       <c r="F50" s="9" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="G50">
         <v>42002001</v>
@@ -12845,10 +12940,10 @@
         <v>0</v>
       </c>
       <c r="BE50" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="BF50" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="BG50" t="e">
         <f>IF(O50=0,"",VLOOKUP(O50,#REF!,2,FALSE))</f>
@@ -12858,18 +12953,18 @@
         <v>1</v>
       </c>
       <c r="BJ50" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
     </row>
     <row r="51" ht="16.5" spans="4:62">
       <c r="D51" s="2" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="E51" s="10">
         <v>12020413</v>
       </c>
       <c r="F51" s="9" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="G51">
         <v>42002001</v>
@@ -12904,7 +12999,7 @@
         <v>0</v>
       </c>
       <c r="Z51" s="19" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="AA51" s="5">
         <v>200</v>
@@ -12992,18 +13087,18 @@
         <v>0</v>
       </c>
       <c r="BJ51" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
     </row>
     <row r="52" ht="16.5" spans="4:62">
       <c r="D52" s="2" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="E52" s="10">
         <v>12020414</v>
       </c>
       <c r="F52" s="9" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="G52">
         <v>42002001</v>
@@ -13040,7 +13135,7 @@
         <v>0</v>
       </c>
       <c r="Z52" s="19" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="AA52" s="5">
         <v>200</v>
@@ -13128,10 +13223,10 @@
         <v>0</v>
       </c>
       <c r="BE52" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="BF52" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="BG52" t="e">
         <f>IF(O52=0,"",VLOOKUP(O52,#REF!,2,FALSE))</f>
@@ -13141,18 +13236,18 @@
         <v>1</v>
       </c>
       <c r="BJ52" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
     </row>
     <row r="53" ht="16.5" spans="4:62">
       <c r="D53" s="2" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="E53" s="10">
         <v>12020421</v>
       </c>
       <c r="F53" s="9" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="G53">
         <v>42002001</v>
@@ -13275,18 +13370,18 @@
         <v>0</v>
       </c>
       <c r="BJ53" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
     </row>
     <row r="54" ht="16.5" spans="4:62">
       <c r="D54" s="2" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="E54" s="10">
         <v>12020422</v>
       </c>
       <c r="F54" s="9" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="G54">
         <v>42002001</v>
@@ -13411,10 +13506,10 @@
         <v>0</v>
       </c>
       <c r="BE54" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="BF54" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="BG54" t="e">
         <f>IF(O54=0,"",VLOOKUP(O54,#REF!,2,FALSE))</f>
@@ -13424,18 +13519,18 @@
         <v>1</v>
       </c>
       <c r="BJ54" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
     </row>
     <row r="55" ht="16.5" spans="4:62">
       <c r="D55" s="2" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="E55" s="10">
         <v>12020423</v>
       </c>
       <c r="F55" s="9" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="G55">
         <v>42002001</v>
@@ -13470,7 +13565,7 @@
         <v>0</v>
       </c>
       <c r="Z55" s="19" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="AA55" s="5">
         <v>200</v>
@@ -13558,18 +13653,18 @@
         <v>0</v>
       </c>
       <c r="BJ55" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
     </row>
     <row r="56" ht="16.5" spans="4:62">
       <c r="D56" s="2" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="E56" s="10">
         <v>12020424</v>
       </c>
       <c r="F56" s="9" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="G56">
         <v>42002001</v>
@@ -13606,7 +13701,7 @@
         <v>0</v>
       </c>
       <c r="Z56" s="19" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="AA56" s="5">
         <v>200</v>
@@ -13694,10 +13789,10 @@
         <v>0</v>
       </c>
       <c r="BE56" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="BF56" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="BG56" t="e">
         <f>IF(O56=0,"",VLOOKUP(O56,#REF!,2,FALSE))</f>
@@ -13707,18 +13802,18 @@
         <v>1</v>
       </c>
       <c r="BJ56" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
     </row>
     <row r="57" ht="16.5" spans="4:62">
       <c r="D57" s="2" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="E57" s="10">
         <v>11020451</v>
       </c>
       <c r="F57" s="9" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="G57">
         <v>42002001</v>
@@ -13841,18 +13936,18 @@
         <v>0</v>
       </c>
       <c r="BJ57" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
     </row>
     <row r="58" ht="15.75" customHeight="1" spans="4:62">
       <c r="D58" s="2" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="E58" s="10">
         <v>11020452</v>
       </c>
       <c r="F58" s="9" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="G58">
         <v>42002001</v>
@@ -13977,10 +14072,10 @@
         <v>0</v>
       </c>
       <c r="BE58" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="BF58" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="BG58" t="e">
         <f>IF(O58=0,"",VLOOKUP(O58,#REF!,2,FALSE))</f>
@@ -13990,18 +14085,18 @@
         <v>1</v>
       </c>
       <c r="BJ58" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
     </row>
     <row r="59" ht="15.75" customHeight="1" spans="4:62">
       <c r="D59" s="2" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="E59" s="10">
         <v>11020453</v>
       </c>
       <c r="F59" s="9" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="G59">
         <v>42002001</v>
@@ -14036,7 +14131,7 @@
         <v>0</v>
       </c>
       <c r="Z59" s="19" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="AA59" s="5">
         <v>200</v>
@@ -14124,18 +14219,18 @@
         <v>0</v>
       </c>
       <c r="BJ59" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
     </row>
     <row r="60" ht="15.75" customHeight="1" spans="4:62">
       <c r="D60" s="2" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="E60" s="10">
         <v>11020454</v>
       </c>
       <c r="F60" s="9" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="G60">
         <v>42002001</v>
@@ -14170,7 +14265,7 @@
         <v>0</v>
       </c>
       <c r="Z60" s="19" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="AA60" s="5">
         <v>200</v>
@@ -14258,18 +14353,18 @@
         <v>0</v>
       </c>
       <c r="BJ60" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
     </row>
     <row r="61" ht="15.75" customHeight="1" spans="4:62">
       <c r="D61" s="2" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="E61" s="10">
         <v>11020455</v>
       </c>
       <c r="F61" s="9" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="G61">
         <v>42002001</v>
@@ -14306,7 +14401,7 @@
         <v>0</v>
       </c>
       <c r="Z61" s="19" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="AA61" s="5">
         <v>200</v>
@@ -14394,10 +14489,10 @@
         <v>0</v>
       </c>
       <c r="BE61" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="BF61" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="BG61" t="e">
         <f>IF(O61=0,"",VLOOKUP(O61,#REF!,2,FALSE))</f>
@@ -14407,18 +14502,18 @@
         <v>1</v>
       </c>
       <c r="BJ61" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
     </row>
     <row r="62" ht="16.5" spans="4:62">
       <c r="D62" s="2" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="E62" s="10">
         <v>11020461</v>
       </c>
       <c r="F62" s="9" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="G62">
         <v>42002001</v>
@@ -14453,7 +14548,7 @@
         <v>0</v>
       </c>
       <c r="Z62" s="19" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="AA62" s="5">
         <v>200</v>
@@ -14541,18 +14636,18 @@
         <v>0</v>
       </c>
       <c r="BJ62" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
     </row>
     <row r="63" ht="16.5" spans="4:62">
       <c r="D63" s="2" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="E63" s="10">
         <v>11020462</v>
       </c>
       <c r="F63" s="9" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="G63">
         <v>42002001</v>
@@ -14589,7 +14684,7 @@
         <v>0</v>
       </c>
       <c r="Z63" s="19" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="AA63" s="5">
         <v>200</v>
@@ -14677,10 +14772,10 @@
         <v>0</v>
       </c>
       <c r="BE63" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="BF63" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="BG63" t="e">
         <f>IF(O63=0,"",VLOOKUP(O63,#REF!,2,FALSE))</f>
@@ -14690,18 +14785,18 @@
         <v>1</v>
       </c>
       <c r="BJ63" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
     </row>
     <row r="64" ht="15.75" customHeight="1" spans="4:62">
       <c r="D64" s="2" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="E64" s="10">
         <v>11020463</v>
       </c>
       <c r="F64" s="9" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="G64">
         <v>42002001</v>
@@ -14736,7 +14831,7 @@
         <v>0</v>
       </c>
       <c r="Z64" s="19" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="AA64" s="5">
         <v>200</v>
@@ -14824,18 +14919,18 @@
         <v>0</v>
       </c>
       <c r="BJ64" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
     </row>
     <row r="65" ht="15.75" customHeight="1" spans="4:62">
       <c r="D65" s="2" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="E65" s="10">
         <v>11020464</v>
       </c>
       <c r="F65" s="9" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="G65">
         <v>42002001</v>
@@ -14870,7 +14965,7 @@
         <v>0</v>
       </c>
       <c r="Z65" s="19" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="AA65" s="5">
         <v>200</v>
@@ -14958,18 +15053,18 @@
         <v>0</v>
       </c>
       <c r="BJ65" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
     </row>
     <row r="66" ht="15.75" customHeight="1" spans="4:62">
       <c r="D66" s="2" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="E66" s="10">
         <v>11020465</v>
       </c>
       <c r="F66" s="9" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="G66">
         <v>42002001</v>
@@ -15006,7 +15101,7 @@
         <v>0</v>
       </c>
       <c r="Z66" s="19" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="AA66" s="5">
         <v>200</v>
@@ -15094,10 +15189,10 @@
         <v>0</v>
       </c>
       <c r="BE66" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="BF66" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="BG66" t="e">
         <f>IF(O66=0,"",VLOOKUP(O66,#REF!,2,FALSE))</f>
@@ -15107,18 +15202,18 @@
         <v>1</v>
       </c>
       <c r="BJ66" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
     </row>
     <row r="67" ht="16.5" spans="4:62">
       <c r="D67" s="2" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="E67" s="10">
         <v>11020471</v>
       </c>
       <c r="F67" s="9" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="G67">
         <v>42002001</v>
@@ -15153,7 +15248,7 @@
         <v>0</v>
       </c>
       <c r="Z67" s="19" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="AA67" s="5">
         <v>200</v>
@@ -15241,18 +15336,18 @@
         <v>0</v>
       </c>
       <c r="BJ67" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
     </row>
     <row r="68" ht="16.5" spans="4:62">
       <c r="D68" s="2" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="E68" s="10">
         <v>11020472</v>
       </c>
       <c r="F68" s="9" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="G68">
         <v>42002001</v>
@@ -15289,7 +15384,7 @@
         <v>0</v>
       </c>
       <c r="Z68" s="19" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="AA68" s="5">
         <v>200</v>
@@ -15377,10 +15472,10 @@
         <v>0</v>
       </c>
       <c r="BE68" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="BF68" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="BG68" t="e">
         <f>IF(O68=0,"",VLOOKUP(O68,#REF!,2,FALSE))</f>
@@ -15390,18 +15485,18 @@
         <v>1</v>
       </c>
       <c r="BJ68" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
     </row>
     <row r="69" ht="15.75" customHeight="1" spans="4:62">
       <c r="D69" s="2" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="E69" s="10">
         <v>11020473</v>
       </c>
       <c r="F69" s="9" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="G69">
         <v>42002001</v>
@@ -15436,7 +15531,7 @@
         <v>0</v>
       </c>
       <c r="Z69" s="19" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="AA69" s="5">
         <v>200</v>
@@ -15524,18 +15619,18 @@
         <v>0</v>
       </c>
       <c r="BJ69" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
     </row>
     <row r="70" ht="15.75" customHeight="1" spans="4:62">
       <c r="D70" s="2" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="E70" s="10">
         <v>11020474</v>
       </c>
       <c r="F70" s="9" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="G70">
         <v>42002001</v>
@@ -15570,7 +15665,7 @@
         <v>0</v>
       </c>
       <c r="Z70" s="19" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="AA70" s="5">
         <v>200</v>
@@ -15658,18 +15753,18 @@
         <v>0</v>
       </c>
       <c r="BJ70" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
     </row>
     <row r="71" ht="15.75" customHeight="1" spans="4:62">
       <c r="D71" s="2" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="E71" s="10">
         <v>11020475</v>
       </c>
       <c r="F71" s="9" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="G71">
         <v>42002001</v>
@@ -15706,7 +15801,7 @@
         <v>0</v>
       </c>
       <c r="Z71" s="19" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="AA71" s="5">
         <v>200</v>
@@ -15794,10 +15889,10 @@
         <v>0</v>
       </c>
       <c r="BE71" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="BF71" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="BG71" t="e">
         <f>IF(O71=0,"",VLOOKUP(O71,#REF!,2,FALSE))</f>
@@ -15807,18 +15902,18 @@
         <v>1</v>
       </c>
       <c r="BJ71" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
     </row>
     <row r="72" ht="15.75" customHeight="1" spans="4:62">
       <c r="D72" s="2" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="E72" s="10">
         <v>11020551</v>
       </c>
       <c r="F72" s="9" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="G72">
         <v>42002001</v>
@@ -15853,7 +15948,7 @@
         <v>0</v>
       </c>
       <c r="Z72" s="19" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="AA72" s="5">
         <v>200</v>
@@ -15941,10 +16036,10 @@
         <v>0</v>
       </c>
       <c r="BE72" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="BF72" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="BG72" t="e">
         <f>IF(O72=0,"",VLOOKUP(O72,#REF!,2,FALSE))</f>
@@ -15954,18 +16049,18 @@
         <v>1</v>
       </c>
       <c r="BJ72" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
     </row>
     <row r="73" ht="15.75" customHeight="1" spans="4:62">
       <c r="D73" s="2" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="E73" s="10">
         <v>11020561</v>
       </c>
       <c r="F73" s="9" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="G73">
         <v>42002001</v>
@@ -16000,7 +16095,7 @@
         <v>0</v>
       </c>
       <c r="Z73" s="19" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="AA73" s="5">
         <v>200</v>
@@ -16088,10 +16183,10 @@
         <v>0</v>
       </c>
       <c r="BE73" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="BF73" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="BG73" t="e">
         <f>IF(O73=0,"",VLOOKUP(O73,#REF!,2,FALSE))</f>
@@ -16101,18 +16196,18 @@
         <v>1</v>
       </c>
       <c r="BJ73" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
     </row>
     <row r="74" ht="15.75" customHeight="1" spans="4:62">
       <c r="D74" s="2" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="E74" s="10">
         <v>11020571</v>
       </c>
       <c r="F74" s="9" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="G74">
         <v>42002001</v>
@@ -16147,7 +16242,7 @@
         <v>0</v>
       </c>
       <c r="Z74" s="19" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="AA74" s="5">
         <v>200</v>
@@ -16235,10 +16330,10 @@
         <v>0</v>
       </c>
       <c r="BE74" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="BF74" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="BG74" t="e">
         <f>IF(O74=0,"",VLOOKUP(O74,#REF!,2,FALSE))</f>
@@ -16248,18 +16343,18 @@
         <v>1</v>
       </c>
       <c r="BJ74" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
     </row>
     <row r="75" ht="15.75" customHeight="1" spans="4:62">
       <c r="D75" s="2" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="E75" s="10">
         <v>11020581</v>
       </c>
       <c r="F75" s="9" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="G75">
         <v>42002001</v>
@@ -16294,7 +16389,7 @@
         <v>0</v>
       </c>
       <c r="Z75" s="19" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="AA75" s="5">
         <v>200</v>
@@ -16382,10 +16477,10 @@
         <v>0</v>
       </c>
       <c r="BE75" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="BF75" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="BG75" t="e">
         <f>IF(O75=0,"",VLOOKUP(O75,#REF!,2,FALSE))</f>
@@ -16395,18 +16490,18 @@
         <v>1</v>
       </c>
       <c r="BJ75" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
     </row>
     <row r="76" ht="15.75" customHeight="1" spans="4:62">
       <c r="D76" s="2" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="E76" s="10">
         <v>11020591</v>
       </c>
       <c r="F76" s="9" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="G76">
         <v>42002001</v>
@@ -16441,7 +16536,7 @@
         <v>0</v>
       </c>
       <c r="Z76" s="19" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="AA76" s="5">
         <v>200</v>
@@ -16529,10 +16624,10 @@
         <v>0</v>
       </c>
       <c r="BE76" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="BF76" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="BG76" t="e">
         <f>IF(O76=0,"",VLOOKUP(O76,#REF!,2,FALSE))</f>
@@ -16542,18 +16637,18 @@
         <v>1</v>
       </c>
       <c r="BJ76" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
     </row>
     <row r="77" ht="16.5" spans="4:62">
       <c r="D77" s="2" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="E77" s="10">
         <v>11120301</v>
       </c>
       <c r="F77" s="9" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="G77">
         <v>42002001</v>
@@ -16587,7 +16682,7 @@
         <v>0</v>
       </c>
       <c r="Z77" s="19" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="AA77" s="5">
         <v>200</v>
@@ -16673,18 +16768,18 @@
         <v>0</v>
       </c>
       <c r="BJ77" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
     </row>
     <row r="78" ht="16.5" spans="4:62">
       <c r="D78" s="2" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="E78" s="10">
         <v>11120311</v>
       </c>
       <c r="F78" s="9" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="G78">
         <v>42002001</v>
@@ -16718,7 +16813,7 @@
         <v>0</v>
       </c>
       <c r="Z78" s="19" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="AA78" s="5">
         <v>200</v>
@@ -16804,18 +16899,18 @@
         <v>0</v>
       </c>
       <c r="BJ78" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
     </row>
     <row r="79" ht="16.5" spans="4:62">
       <c r="D79" s="2" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="E79" s="10">
         <v>11120321</v>
       </c>
       <c r="F79" s="9" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="G79">
         <v>42002001</v>
@@ -16849,7 +16944,7 @@
         <v>0</v>
       </c>
       <c r="Z79" s="19" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="AA79" s="5">
         <v>200</v>
@@ -16935,18 +17030,18 @@
         <v>0</v>
       </c>
       <c r="BJ79" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
     </row>
     <row r="80" ht="16.5" spans="4:62">
       <c r="D80" s="2" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="E80">
         <v>21020021</v>
       </c>
       <c r="F80" s="9" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="G80">
         <v>42002001</v>
@@ -17067,18 +17162,18 @@
         <v>0</v>
       </c>
       <c r="BJ80" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
     </row>
     <row r="81" ht="16.5" spans="4:62">
       <c r="D81" s="2" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="E81" s="10">
         <v>21020051</v>
       </c>
       <c r="F81" s="9" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="G81">
         <v>42002001</v>
@@ -17202,18 +17297,18 @@
         <v>0</v>
       </c>
       <c r="BJ81" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
     </row>
     <row r="82" ht="16.5" spans="4:62">
       <c r="D82" s="2" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="E82" s="10">
         <v>21020052</v>
       </c>
       <c r="F82" s="9" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="G82">
         <v>42002001</v>
@@ -17337,10 +17432,10 @@
         <v>0</v>
       </c>
       <c r="BE82" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="BF82" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="BG82" t="e">
         <f>IF(O82=0,"",VLOOKUP(O82,#REF!,2,FALSE))</f>
@@ -17350,18 +17445,18 @@
         <v>1</v>
       </c>
       <c r="BJ82" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
     </row>
     <row r="83" ht="16.5" spans="4:62">
       <c r="D83" s="2" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="E83" s="10">
         <v>21020071</v>
       </c>
       <c r="F83" s="9" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="G83">
         <v>42002001</v>
@@ -17485,18 +17580,18 @@
         <v>0</v>
       </c>
       <c r="BJ83" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
     </row>
     <row r="84" ht="16.5" spans="4:62">
       <c r="D84" s="2" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="E84" s="10">
         <v>21020072</v>
       </c>
       <c r="F84" s="9" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="G84">
         <v>42002001</v>
@@ -17620,10 +17715,10 @@
         <v>0</v>
       </c>
       <c r="BE84" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="BF84" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="BG84" t="e">
         <f>IF(O84=0,"",VLOOKUP(O84,#REF!,2,FALSE))</f>
@@ -17633,18 +17728,18 @@
         <v>1</v>
       </c>
       <c r="BJ84" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
     </row>
     <row r="85" ht="16.5" spans="4:62">
       <c r="D85" s="2" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="E85" s="10">
         <v>22020081</v>
       </c>
       <c r="F85" s="9" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="G85">
         <v>42002001</v>
@@ -17768,18 +17863,18 @@
         <v>0</v>
       </c>
       <c r="BJ85" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
     </row>
     <row r="86" ht="16.5" spans="4:62">
       <c r="D86" s="2" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="E86" s="10">
         <v>22020082</v>
       </c>
       <c r="F86" s="9" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="G86">
         <v>42002001</v>
@@ -17903,10 +17998,10 @@
         <v>0</v>
       </c>
       <c r="BE86" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="BF86" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="BG86" t="e">
         <f>IF(O86=0,"",VLOOKUP(O86,#REF!,2,FALSE))</f>
@@ -17916,18 +18011,18 @@
         <v>1</v>
       </c>
       <c r="BJ86" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
     </row>
     <row r="87" ht="16.5" spans="4:62">
       <c r="D87" s="2" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="E87" s="10">
         <v>21020121</v>
       </c>
       <c r="F87" s="9" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="G87">
         <v>42002001</v>
@@ -17961,7 +18056,7 @@
         <v>0</v>
       </c>
       <c r="Z87" s="19" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="AA87" s="5">
         <v>200</v>
@@ -18049,18 +18144,18 @@
         <v>0</v>
       </c>
       <c r="BJ87" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
     </row>
     <row r="88" ht="16.5" spans="4:62">
       <c r="D88" s="2" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="E88" s="10">
         <v>21020131</v>
       </c>
       <c r="F88" s="9" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="G88">
         <v>42002001</v>
@@ -18094,7 +18189,7 @@
         <v>0</v>
       </c>
       <c r="Z88" s="19" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="AA88" s="5">
         <v>200</v>
@@ -18182,18 +18277,18 @@
         <v>0</v>
       </c>
       <c r="BJ88" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
     </row>
     <row r="89" ht="16.5" spans="4:62">
       <c r="D89" s="2" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="E89" s="10">
         <v>21020132</v>
       </c>
       <c r="F89" s="9" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="G89">
         <v>42002001</v>
@@ -18227,7 +18322,7 @@
         <v>0</v>
       </c>
       <c r="Z89" s="19" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="AA89" s="5">
         <v>200</v>
@@ -18315,10 +18410,10 @@
         <v>0</v>
       </c>
       <c r="BE89" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="BF89" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="BG89" t="e">
         <f>IF(O89=0,"",VLOOKUP(O89,#REF!,2,FALSE))</f>
@@ -18328,18 +18423,18 @@
         <v>1</v>
       </c>
       <c r="BJ89" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
     </row>
     <row r="90" ht="16.5" spans="4:62">
       <c r="D90" s="2" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="E90" s="10">
         <v>21020301</v>
       </c>
       <c r="F90" s="9" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="G90">
         <v>42002001</v>
@@ -18459,10 +18554,10 @@
         <v>0</v>
       </c>
       <c r="BE90" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="BF90" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="BG90" t="e">
         <f>IF(O90=0,"",VLOOKUP(O90,#REF!,2,FALSE))</f>
@@ -18472,18 +18567,18 @@
         <v>1</v>
       </c>
       <c r="BJ90" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
     </row>
     <row r="91" ht="16.5" spans="4:62">
       <c r="D91" s="2" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="E91" s="10">
         <v>21020302</v>
       </c>
       <c r="F91" s="9" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="G91">
         <v>42002001</v>
@@ -18517,7 +18612,7 @@
         <v>0</v>
       </c>
       <c r="Z91" s="19" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="AA91" s="5">
         <v>200</v>
@@ -18603,10 +18698,10 @@
         <v>0</v>
       </c>
       <c r="BE91" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="BF91" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="BG91" t="e">
         <f>IF(O91=0,"",VLOOKUP(O91,#REF!,2,FALSE))</f>
@@ -18616,18 +18711,18 @@
         <v>1</v>
       </c>
       <c r="BJ91" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
     </row>
     <row r="92" ht="16.5" spans="4:62">
       <c r="D92" s="2" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="E92" s="10">
         <v>21020303</v>
       </c>
       <c r="F92" s="9" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="G92">
         <v>42002001</v>
@@ -18661,7 +18756,7 @@
         <v>0</v>
       </c>
       <c r="Z92" s="19" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="AA92" s="5">
         <v>200</v>
@@ -18747,18 +18842,18 @@
         <v>0</v>
       </c>
       <c r="BJ92" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
     </row>
     <row r="93" ht="16.5" spans="4:62">
       <c r="D93" s="2" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="E93" s="10">
         <v>21020304</v>
       </c>
       <c r="F93" s="9" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="G93">
         <v>42002001</v>
@@ -18878,18 +18973,18 @@
         <v>0</v>
       </c>
       <c r="BJ93" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
     </row>
     <row r="94" ht="16.5" spans="4:62">
       <c r="D94" s="2" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="E94" s="10">
         <v>21020311</v>
       </c>
       <c r="F94" s="9" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="G94">
         <v>42002001</v>
@@ -19009,10 +19104,10 @@
         <v>0</v>
       </c>
       <c r="BE94" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="BF94" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="BG94" t="e">
         <f>IF(O94=0,"",VLOOKUP(O94,#REF!,2,FALSE))</f>
@@ -19022,18 +19117,18 @@
         <v>1</v>
       </c>
       <c r="BJ94" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
     </row>
     <row r="95" ht="16.5" spans="4:62">
       <c r="D95" s="2" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="E95" s="10">
         <v>21020312</v>
       </c>
       <c r="F95" s="9" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="G95">
         <v>42002001</v>
@@ -19067,7 +19162,7 @@
         <v>0</v>
       </c>
       <c r="Z95" s="19" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="AA95" s="5">
         <v>200</v>
@@ -19153,10 +19248,10 @@
         <v>0</v>
       </c>
       <c r="BE95" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="BF95" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="BG95" t="e">
         <f>IF(O95=0,"",VLOOKUP(O95,#REF!,2,FALSE))</f>
@@ -19166,18 +19261,18 @@
         <v>1</v>
       </c>
       <c r="BJ95" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
     </row>
     <row r="96" ht="16.5" spans="4:62">
       <c r="D96" s="2" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="E96" s="10">
         <v>21020313</v>
       </c>
       <c r="F96" s="9" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="G96">
         <v>42002001</v>
@@ -19211,7 +19306,7 @@
         <v>0</v>
       </c>
       <c r="Z96" s="19" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="AA96" s="5">
         <v>200</v>
@@ -19297,18 +19392,18 @@
         <v>0</v>
       </c>
       <c r="BJ96" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
     </row>
     <row r="97" ht="16.5" spans="4:62">
       <c r="D97" s="2" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="E97" s="10">
         <v>21020314</v>
       </c>
       <c r="F97" s="9" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="G97">
         <v>42002001</v>
@@ -19428,18 +19523,18 @@
         <v>0</v>
       </c>
       <c r="BJ97" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
     </row>
     <row r="98" ht="16.5" spans="4:62">
       <c r="D98" s="2" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="E98" s="10">
         <v>21020321</v>
       </c>
       <c r="F98" s="9" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="G98">
         <v>42002001</v>
@@ -19559,10 +19654,10 @@
         <v>0</v>
       </c>
       <c r="BE98" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="BF98" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="BG98" t="e">
         <f>IF(O98=0,"",VLOOKUP(O98,#REF!,2,FALSE))</f>
@@ -19572,18 +19667,18 @@
         <v>1</v>
       </c>
       <c r="BJ98" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
     </row>
     <row r="99" ht="16.5" spans="4:62">
       <c r="D99" s="2" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="E99" s="10">
         <v>21020322</v>
       </c>
       <c r="F99" s="9" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="G99">
         <v>42002001</v>
@@ -19617,7 +19712,7 @@
         <v>0</v>
       </c>
       <c r="Z99" s="19" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="AA99" s="5">
         <v>200</v>
@@ -19703,10 +19798,10 @@
         <v>0</v>
       </c>
       <c r="BE99" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="BF99" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="BG99" t="e">
         <f>IF(O99=0,"",VLOOKUP(O99,#REF!,2,FALSE))</f>
@@ -19716,18 +19811,18 @@
         <v>1</v>
       </c>
       <c r="BJ99" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
     </row>
     <row r="100" ht="16.5" spans="4:62">
       <c r="D100" s="2" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="E100" s="10">
         <v>21020323</v>
       </c>
       <c r="F100" s="9" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="G100">
         <v>42002001</v>
@@ -19761,7 +19856,7 @@
         <v>0</v>
       </c>
       <c r="Z100" s="19" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="AA100" s="5">
         <v>200</v>
@@ -19847,18 +19942,18 @@
         <v>0</v>
       </c>
       <c r="BJ100" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
     </row>
     <row r="101" ht="16.5" spans="4:62">
       <c r="D101" s="2" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="E101" s="10">
         <v>21020324</v>
       </c>
       <c r="F101" s="9" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="G101">
         <v>42002001</v>
@@ -19978,18 +20073,18 @@
         <v>0</v>
       </c>
       <c r="BJ101" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
     </row>
     <row r="102" ht="16.5" spans="4:62">
       <c r="D102" s="2" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="E102" s="10">
         <v>22020351</v>
       </c>
       <c r="F102" s="9" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="G102">
         <v>42002001</v>
@@ -20109,10 +20204,10 @@
         <v>0</v>
       </c>
       <c r="BE102" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="BF102" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="BG102" t="e">
         <f>IF(O102=0,"",VLOOKUP(O102,#REF!,2,FALSE))</f>
@@ -20122,18 +20217,18 @@
         <v>1</v>
       </c>
       <c r="BJ102" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
     </row>
     <row r="103" ht="16.5" spans="4:62">
       <c r="D103" s="2" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="E103" s="10">
         <v>22020352</v>
       </c>
       <c r="F103" s="9" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="G103">
         <v>42002001</v>
@@ -20167,7 +20262,7 @@
         <v>0</v>
       </c>
       <c r="Z103" s="19" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="AA103" s="5">
         <v>200</v>
@@ -20253,21 +20348,21 @@
         <v>0</v>
       </c>
       <c r="BJ103" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
     </row>
     <row r="104" ht="16.5" spans="1:62">
       <c r="A104" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="E104" s="10">
         <v>22020353</v>
       </c>
       <c r="F104" s="9" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="G104">
         <v>42002001</v>
@@ -20301,7 +20396,7 @@
         <v>0</v>
       </c>
       <c r="Z104" s="19" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="AA104" s="5">
         <v>200</v>
@@ -20387,10 +20482,10 @@
         <v>0</v>
       </c>
       <c r="BE104" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="BF104" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="BG104" t="e">
         <f>IF(O104=0,"",VLOOKUP(O104,#REF!,2,FALSE))</f>
@@ -20400,21 +20495,21 @@
         <v>1</v>
       </c>
       <c r="BJ104" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
     </row>
     <row r="105" ht="16.5" spans="1:62">
       <c r="A105" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="E105" s="10">
         <v>22020354</v>
       </c>
       <c r="F105" s="9" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="G105">
         <v>42002001</v>
@@ -20534,18 +20629,18 @@
         <v>0</v>
       </c>
       <c r="BJ105" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
     </row>
     <row r="106" ht="16.5" spans="4:62">
       <c r="D106" s="2" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="E106" s="10">
         <v>22020361</v>
       </c>
       <c r="F106" s="9" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="G106">
         <v>42002001</v>
@@ -20665,10 +20760,10 @@
         <v>0</v>
       </c>
       <c r="BE106" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="BF106" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="BG106" t="e">
         <f>IF(O106=0,"",VLOOKUP(O106,#REF!,2,FALSE))</f>
@@ -20678,18 +20773,18 @@
         <v>1</v>
       </c>
       <c r="BJ106" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
     </row>
     <row r="107" ht="16.5" spans="4:62">
       <c r="D107" s="2" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="E107" s="10">
         <v>22020362</v>
       </c>
       <c r="F107" s="9" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="G107">
         <v>42002001</v>
@@ -20723,7 +20818,7 @@
         <v>0</v>
       </c>
       <c r="Z107" s="19" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="AA107" s="5">
         <v>200</v>
@@ -20809,18 +20904,18 @@
         <v>0</v>
       </c>
       <c r="BJ107" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
     </row>
     <row r="108" ht="16.5" spans="4:62">
       <c r="D108" s="2" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="E108" s="10">
         <v>22020363</v>
       </c>
       <c r="F108" s="9" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="G108">
         <v>42002001</v>
@@ -20854,7 +20949,7 @@
         <v>0</v>
       </c>
       <c r="Z108" s="19" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="AA108" s="5">
         <v>200</v>
@@ -20940,10 +21035,10 @@
         <v>0</v>
       </c>
       <c r="BE108" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="BF108" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="BG108" t="e">
         <f>IF(O108=0,"",VLOOKUP(O108,#REF!,2,FALSE))</f>
@@ -20953,18 +21048,18 @@
         <v>1</v>
       </c>
       <c r="BJ108" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
     </row>
     <row r="109" ht="16.5" spans="4:62">
       <c r="D109" s="2" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="E109" s="10">
         <v>22020364</v>
       </c>
       <c r="F109" s="9" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="G109">
         <v>42002001</v>
@@ -21084,18 +21179,18 @@
         <v>0</v>
       </c>
       <c r="BJ109" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
     </row>
     <row r="110" ht="16.5" spans="4:62">
       <c r="D110" s="2" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="E110" s="10">
         <v>22020371</v>
       </c>
       <c r="F110" s="9" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="G110">
         <v>42002001</v>
@@ -21215,10 +21310,10 @@
         <v>0</v>
       </c>
       <c r="BE110" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="BF110" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="BG110" t="e">
         <f>IF(O110=0,"",VLOOKUP(O110,#REF!,2,FALSE))</f>
@@ -21228,18 +21323,18 @@
         <v>1</v>
       </c>
       <c r="BJ110" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
     </row>
     <row r="111" ht="16.5" spans="4:62">
       <c r="D111" s="2" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="E111" s="10">
         <v>22020372</v>
       </c>
       <c r="F111" s="9" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="G111">
         <v>42002001</v>
@@ -21273,7 +21368,7 @@
         <v>0</v>
       </c>
       <c r="Z111" s="19" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="AA111" s="5">
         <v>200</v>
@@ -21359,18 +21454,18 @@
         <v>0</v>
       </c>
       <c r="BJ111" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
     </row>
     <row r="112" ht="16.5" spans="4:62">
       <c r="D112" s="2" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="E112" s="10">
         <v>22020373</v>
       </c>
       <c r="F112" s="9" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="G112">
         <v>42002001</v>
@@ -21404,7 +21499,7 @@
         <v>0</v>
       </c>
       <c r="Z112" s="19" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="AA112" s="5">
         <v>200</v>
@@ -21490,10 +21585,10 @@
         <v>0</v>
       </c>
       <c r="BE112" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="BF112" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="BG112" t="e">
         <f>IF(O112=0,"",VLOOKUP(O112,#REF!,2,FALSE))</f>
@@ -21503,18 +21598,18 @@
         <v>1</v>
       </c>
       <c r="BJ112" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
     </row>
     <row r="113" ht="16.5" spans="4:62">
       <c r="D113" s="2" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="E113" s="10">
         <v>22020374</v>
       </c>
       <c r="F113" s="9" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="G113">
         <v>42002001</v>
@@ -21634,18 +21729,18 @@
         <v>0</v>
       </c>
       <c r="BJ113" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
     </row>
     <row r="114" ht="16.5" spans="4:62">
       <c r="D114" s="2" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="E114" s="10">
         <v>22020401</v>
       </c>
       <c r="F114" s="9" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="G114">
         <v>42002001</v>
@@ -21765,10 +21860,10 @@
         <v>0</v>
       </c>
       <c r="BE114" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="BF114" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="BG114" t="e">
         <f>IF(O114=0,"",VLOOKUP(O114,#REF!,2,FALSE))</f>
@@ -21778,18 +21873,18 @@
         <v>1</v>
       </c>
       <c r="BJ114" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
     </row>
     <row r="115" ht="16.5" spans="4:62">
       <c r="D115" s="2" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="E115" s="10">
         <v>22020402</v>
       </c>
       <c r="F115" s="9" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="G115">
         <v>42002001</v>
@@ -21823,7 +21918,7 @@
         <v>0</v>
       </c>
       <c r="Z115" s="19" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="AA115" s="5">
         <v>200</v>
@@ -21909,10 +22004,10 @@
         <v>0</v>
       </c>
       <c r="BE115" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="BF115" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="BG115" t="e">
         <f>IF(O115=0,"",VLOOKUP(O115,#REF!,2,FALSE))</f>
@@ -21922,18 +22017,18 @@
         <v>1</v>
       </c>
       <c r="BJ115" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
     </row>
     <row r="116" ht="16.5" spans="4:62">
       <c r="D116" s="2" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="E116" s="10">
         <v>22020403</v>
       </c>
       <c r="F116" s="9" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="G116">
         <v>42002001</v>
@@ -22053,18 +22148,18 @@
         <v>0</v>
       </c>
       <c r="BJ116" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
     </row>
     <row r="117" ht="16.5" spans="4:62">
       <c r="D117" s="2" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="E117" s="10">
         <v>22020411</v>
       </c>
       <c r="F117" s="9" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="G117">
         <v>42002001</v>
@@ -22184,10 +22279,10 @@
         <v>0</v>
       </c>
       <c r="BE117" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="BF117" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="BG117" t="e">
         <f>IF(O117=0,"",VLOOKUP(O117,#REF!,2,FALSE))</f>
@@ -22197,18 +22292,18 @@
         <v>1</v>
       </c>
       <c r="BJ117" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
     </row>
     <row r="118" ht="16.5" spans="4:62">
       <c r="D118" s="2" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="E118" s="10">
         <v>22020412</v>
       </c>
       <c r="F118" s="9" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="G118">
         <v>42002001</v>
@@ -22242,7 +22337,7 @@
         <v>0</v>
       </c>
       <c r="Z118" s="19" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="AA118" s="5">
         <v>200</v>
@@ -22328,10 +22423,10 @@
         <v>0</v>
       </c>
       <c r="BE118" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="BF118" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="BG118" t="e">
         <f>IF(O118=0,"",VLOOKUP(O118,#REF!,2,FALSE))</f>
@@ -22341,18 +22436,18 @@
         <v>1</v>
       </c>
       <c r="BJ118" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
     </row>
     <row r="119" ht="16.5" spans="4:62">
       <c r="D119" s="2" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="E119" s="10">
         <v>22020413</v>
       </c>
       <c r="F119" s="9" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="G119">
         <v>42002001</v>
@@ -22472,18 +22567,18 @@
         <v>0</v>
       </c>
       <c r="BJ119" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
     </row>
     <row r="120" ht="16.5" spans="4:62">
       <c r="D120" s="2" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="E120" s="10">
         <v>22020421</v>
       </c>
       <c r="F120" s="9" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="G120">
         <v>42002001</v>
@@ -22603,10 +22698,10 @@
         <v>0</v>
       </c>
       <c r="BE120" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="BF120" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="BG120" t="e">
         <f>IF(O120=0,"",VLOOKUP(O120,#REF!,2,FALSE))</f>
@@ -22616,18 +22711,18 @@
         <v>1</v>
       </c>
       <c r="BJ120" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
     </row>
     <row r="121" ht="16.5" spans="4:62">
       <c r="D121" s="2" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="E121" s="10">
         <v>22020422</v>
       </c>
       <c r="F121" s="9" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="G121">
         <v>42002001</v>
@@ -22661,7 +22756,7 @@
         <v>0</v>
       </c>
       <c r="Z121" s="19" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="AA121" s="5">
         <v>200</v>
@@ -22747,10 +22842,10 @@
         <v>0</v>
       </c>
       <c r="BE121" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="BF121" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="BG121" t="e">
         <f>IF(O121=0,"",VLOOKUP(O121,#REF!,2,FALSE))</f>
@@ -22760,18 +22855,18 @@
         <v>1</v>
       </c>
       <c r="BJ121" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
     </row>
     <row r="122" ht="16.5" spans="4:62">
       <c r="D122" s="2" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="E122" s="10">
         <v>22020423</v>
       </c>
       <c r="F122" s="9" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="G122">
         <v>42002001</v>
@@ -22891,18 +22986,18 @@
         <v>0</v>
       </c>
       <c r="BJ122" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
     </row>
     <row r="123" ht="15.75" customHeight="1" spans="4:62">
       <c r="D123" s="2" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="E123" s="10">
         <v>21020451</v>
       </c>
       <c r="F123" s="9" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="G123">
         <v>42002001</v>
@@ -23022,10 +23117,10 @@
         <v>0</v>
       </c>
       <c r="BE123" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="BF123" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="BG123" t="e">
         <f>IF(O123=0,"",VLOOKUP(O123,#REF!,2,FALSE))</f>
@@ -23035,18 +23130,18 @@
         <v>1</v>
       </c>
       <c r="BJ123" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
     </row>
     <row r="124" ht="15.75" customHeight="1" spans="4:62">
       <c r="D124" s="2" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="E124" s="10">
         <v>21020452</v>
       </c>
       <c r="F124" s="9" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="G124">
         <v>42002001</v>
@@ -23080,7 +23175,7 @@
         <v>0</v>
       </c>
       <c r="Z124" s="19" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="AA124" s="5">
         <v>200</v>
@@ -23166,7 +23261,7 @@
         <v>0</v>
       </c>
       <c r="BF124" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="BG124" t="e">
         <f>IF(O124=0,"",VLOOKUP(O124,#REF!,2,FALSE))</f>
@@ -23176,18 +23271,18 @@
         <v>1</v>
       </c>
       <c r="BJ124" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
     </row>
     <row r="125" ht="15.75" customHeight="1" spans="4:62">
       <c r="D125" s="2" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="E125" s="10">
         <v>21020453</v>
       </c>
       <c r="F125" s="9" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="G125">
         <v>42002001</v>
@@ -23307,18 +23402,18 @@
         <v>0</v>
       </c>
       <c r="BJ125" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
     </row>
     <row r="126" ht="16.5" spans="4:62">
       <c r="D126" s="2" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="E126" s="10">
         <v>21020461</v>
       </c>
       <c r="F126" s="9" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="G126">
         <v>42002001</v>
@@ -23438,10 +23533,10 @@
         <v>0</v>
       </c>
       <c r="BE126" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="BF126" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="BG126" t="e">
         <f>IF(O126=0,"",VLOOKUP(O126,#REF!,2,FALSE))</f>
@@ -23451,18 +23546,18 @@
         <v>1</v>
       </c>
       <c r="BJ126" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
     </row>
     <row r="127" ht="16.5" spans="4:62">
       <c r="D127" s="2" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="E127" s="10">
         <v>21020462</v>
       </c>
       <c r="F127" s="9" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="G127">
         <v>42002001</v>
@@ -23496,7 +23591,7 @@
         <v>0</v>
       </c>
       <c r="Z127" s="19" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="AA127" s="5">
         <v>200</v>
@@ -23582,7 +23677,7 @@
         <v>0</v>
       </c>
       <c r="BF127" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="BG127" t="e">
         <f>IF(O127=0,"",VLOOKUP(O127,#REF!,2,FALSE))</f>
@@ -23592,18 +23687,18 @@
         <v>1</v>
       </c>
       <c r="BJ127" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
     </row>
     <row r="128" ht="16.5" spans="4:62">
       <c r="D128" s="2" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="E128" s="10">
         <v>21020463</v>
       </c>
       <c r="F128" s="9" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="G128">
         <v>42002001</v>
@@ -23723,18 +23818,18 @@
         <v>0</v>
       </c>
       <c r="BJ128" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
     </row>
     <row r="129" ht="16.5" spans="4:62">
       <c r="D129" s="2" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="E129" s="10">
         <v>21020471</v>
       </c>
       <c r="F129" s="9" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="G129">
         <v>42002001</v>
@@ -23854,10 +23949,10 @@
         <v>0</v>
       </c>
       <c r="BE129" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="BF129" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="BG129" t="e">
         <f>IF(O129=0,"",VLOOKUP(O129,#REF!,2,FALSE))</f>
@@ -23867,18 +23962,18 @@
         <v>1</v>
       </c>
       <c r="BJ129" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
     </row>
     <row r="130" ht="16.5" spans="4:62">
       <c r="D130" s="2" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="E130" s="10">
         <v>21020472</v>
       </c>
       <c r="F130" s="9" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="G130">
         <v>42002001</v>
@@ -23912,7 +24007,7 @@
         <v>0</v>
       </c>
       <c r="Z130" s="19" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="AA130" s="5">
         <v>200</v>
@@ -23998,7 +24093,7 @@
         <v>0</v>
       </c>
       <c r="BF130" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="BG130" t="e">
         <f>IF(O130=0,"",VLOOKUP(O130,#REF!,2,FALSE))</f>
@@ -24008,18 +24103,18 @@
         <v>1</v>
       </c>
       <c r="BJ130" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
     </row>
     <row r="131" ht="16.5" spans="4:62">
       <c r="D131" s="2" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="E131" s="10">
         <v>21020473</v>
       </c>
       <c r="F131" s="9" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="G131">
         <v>42002001</v>
@@ -24139,18 +24234,18 @@
         <v>0</v>
       </c>
       <c r="BJ131" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
     </row>
     <row r="132" ht="16.5" spans="4:62">
       <c r="D132" s="2" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="E132" s="10">
         <v>22020181</v>
       </c>
       <c r="F132" s="9" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="G132">
         <v>42002001</v>
@@ -24272,18 +24367,18 @@
         <v>0</v>
       </c>
       <c r="BJ132" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
     </row>
     <row r="133" ht="16.5" spans="4:62">
       <c r="D133" s="2" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="E133" s="10">
         <v>22020182</v>
       </c>
       <c r="F133" s="9" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="G133">
         <v>42002001</v>
@@ -24405,10 +24500,10 @@
         <v>0</v>
       </c>
       <c r="BE133" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="BF133" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="BG133" t="e">
         <f>IF(O133=0,"",VLOOKUP(O133,#REF!,2,FALSE))</f>
@@ -24418,18 +24513,18 @@
         <v>1</v>
       </c>
       <c r="BJ133" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
     </row>
     <row r="134" ht="16.5" spans="4:62">
       <c r="D134" s="2" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="E134" s="10">
         <v>22020191</v>
       </c>
       <c r="F134" s="9" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="G134">
         <v>42002001</v>
@@ -24551,18 +24646,18 @@
         <v>0</v>
       </c>
       <c r="BJ134" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
     </row>
     <row r="135" ht="16.5" spans="4:62">
       <c r="D135" s="2" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="E135" s="10">
         <v>22020192</v>
       </c>
       <c r="F135" s="9" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="G135">
         <v>42002001</v>
@@ -24684,10 +24779,10 @@
         <v>0</v>
       </c>
       <c r="BE135" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="BF135" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="BG135" t="e">
         <f>IF(O135=0,"",VLOOKUP(O135,#REF!,2,FALSE))</f>
@@ -24697,18 +24792,18 @@
         <v>1</v>
       </c>
       <c r="BJ135" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
     </row>
     <row r="136" ht="16.5" spans="4:62">
       <c r="D136" s="2" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="E136" s="10">
         <v>22020201</v>
       </c>
       <c r="F136" s="9" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="G136">
         <v>42002001</v>
@@ -24830,18 +24925,18 @@
         <v>0</v>
       </c>
       <c r="BJ136" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
     </row>
     <row r="137" ht="16.5" spans="4:62">
       <c r="D137" s="2" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="E137" s="10">
         <v>22020202</v>
       </c>
       <c r="F137" s="9" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="G137">
         <v>42002001</v>
@@ -24963,10 +25058,10 @@
         <v>0</v>
       </c>
       <c r="BE137" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="BF137" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="BG137" t="e">
         <f>IF(O137=0,"",VLOOKUP(O137,#REF!,2,FALSE))</f>
@@ -24976,18 +25071,18 @@
         <v>1</v>
       </c>
       <c r="BJ137" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
     </row>
     <row r="138" ht="16.5" spans="4:62">
       <c r="D138" s="2" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="E138" s="10">
         <v>22020211</v>
       </c>
       <c r="F138" s="9" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="G138">
         <v>42002001</v>
@@ -25109,18 +25204,18 @@
         <v>0</v>
       </c>
       <c r="BJ138" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
     </row>
     <row r="139" ht="16.5" spans="4:62">
       <c r="D139" s="2" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="E139" s="10">
         <v>22020212</v>
       </c>
       <c r="F139" s="9" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="G139">
         <v>42002001</v>
@@ -25242,10 +25337,10 @@
         <v>0</v>
       </c>
       <c r="BE139" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="BF139" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="BG139" t="e">
         <f>IF(O139=0,"",VLOOKUP(O139,#REF!,2,FALSE))</f>
@@ -25255,18 +25350,18 @@
         <v>1</v>
       </c>
       <c r="BJ139" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
     </row>
     <row r="140" ht="16.5" spans="4:62">
       <c r="D140" s="2" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="E140" s="10">
         <v>22020221</v>
       </c>
       <c r="F140" s="9" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="G140">
         <v>42002001</v>
@@ -25388,18 +25483,18 @@
         <v>0</v>
       </c>
       <c r="BJ140" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
     </row>
     <row r="141" ht="16.5" spans="4:62">
       <c r="D141" s="2" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="E141" s="10">
         <v>22020222</v>
       </c>
       <c r="F141" s="9" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="G141">
         <v>42002001</v>
@@ -25521,10 +25616,10 @@
         <v>0</v>
       </c>
       <c r="BE141" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="BF141" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="BG141" t="e">
         <f>IF(O141=0,"",VLOOKUP(O141,#REF!,2,FALSE))</f>
@@ -25534,18 +25629,18 @@
         <v>1</v>
       </c>
       <c r="BJ141" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
     </row>
     <row r="142" ht="16.5" spans="4:62">
       <c r="D142" s="2" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="E142" s="10">
         <v>22020231</v>
       </c>
       <c r="F142" s="9" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="G142">
         <v>42002001</v>
@@ -25667,10 +25762,10 @@
         <v>0</v>
       </c>
       <c r="BE142" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="BF142" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="BG142" t="e">
         <f>IF(O142=0,"",VLOOKUP(O142,#REF!,2,FALSE))</f>
@@ -25680,18 +25775,18 @@
         <v>1</v>
       </c>
       <c r="BJ142" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
     </row>
     <row r="143" ht="16.5" spans="4:62">
       <c r="D143" s="2" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="E143" s="10">
         <v>22029011</v>
       </c>
       <c r="F143" s="9" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="G143">
         <v>42002001</v>
@@ -25725,7 +25820,7 @@
         <v>0</v>
       </c>
       <c r="Z143" s="19" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="AA143" s="5">
         <v>200</v>
@@ -25813,18 +25908,18 @@
         <v>0</v>
       </c>
       <c r="BJ143" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
     </row>
     <row r="144" spans="4:62">
       <c r="D144" s="2" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="E144" s="10">
         <v>41120471</v>
       </c>
       <c r="F144" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="G144">
         <v>44001101</v>
@@ -25833,7 +25928,7 @@
         <v>44001101</v>
       </c>
       <c r="I144" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="J144">
         <v>4001</v>
@@ -25858,7 +25953,7 @@
         <v>0</v>
       </c>
       <c r="Z144" s="19" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="AA144" s="5">
         <v>200</v>
@@ -25946,18 +26041,18 @@
         <v>0</v>
       </c>
       <c r="BJ144" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
     </row>
     <row r="145" spans="4:62">
       <c r="D145" s="2" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="E145">
         <v>41130021</v>
       </c>
       <c r="F145" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="G145">
         <v>44001102</v>
@@ -25991,7 +26086,7 @@
         <v>0</v>
       </c>
       <c r="Z145" s="19" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="AA145" s="5">
         <v>200</v>
@@ -26079,18 +26174,18 @@
         <v>0</v>
       </c>
       <c r="BJ145" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
     </row>
     <row r="146" spans="4:62">
       <c r="D146" s="2" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="E146">
         <v>41130031</v>
       </c>
       <c r="F146" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="G146">
         <v>44001103</v>
@@ -26211,18 +26306,18 @@
         <v>0</v>
       </c>
       <c r="BJ146" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
     </row>
     <row r="147" spans="4:62">
       <c r="D147" s="2" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="E147">
         <v>41130041</v>
       </c>
       <c r="F147" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="G147">
         <v>44001104</v>
@@ -26231,7 +26326,7 @@
         <v>44001104</v>
       </c>
       <c r="I147" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="J147">
         <v>4001</v>
@@ -26343,18 +26438,18 @@
         <v>0</v>
       </c>
       <c r="BJ147" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
     </row>
     <row r="148" spans="4:62">
       <c r="D148" s="2" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="E148">
         <v>41130051</v>
       </c>
       <c r="F148" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="G148">
         <v>44001116</v>
@@ -26363,7 +26458,7 @@
         <v>44001116</v>
       </c>
       <c r="I148" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="J148">
         <v>4001</v>
@@ -26387,7 +26482,7 @@
         <v>0</v>
       </c>
       <c r="Z148" s="19" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="AA148" s="5">
         <v>200</v>
@@ -26475,18 +26570,18 @@
         <v>0</v>
       </c>
       <c r="BJ148" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
     </row>
     <row r="149" spans="4:62">
       <c r="D149" s="2" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="E149">
         <v>41130061</v>
       </c>
       <c r="F149" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="G149">
         <v>44001117</v>
@@ -26495,7 +26590,7 @@
         <v>44001117</v>
       </c>
       <c r="I149" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="J149">
         <v>4001</v>
@@ -26519,7 +26614,7 @@
         <v>0</v>
       </c>
       <c r="Z149" s="19" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="AA149" s="5">
         <v>200</v>
@@ -26607,18 +26702,18 @@
         <v>0</v>
       </c>
       <c r="BJ149" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
     </row>
     <row r="150" spans="4:62">
       <c r="D150" s="2" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="E150">
         <v>41130071</v>
       </c>
       <c r="F150" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="G150">
         <v>44001118</v>
@@ -26627,7 +26722,7 @@
         <v>44001118</v>
       </c>
       <c r="I150" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="J150">
         <v>4001</v>
@@ -26651,7 +26746,7 @@
         <v>0</v>
       </c>
       <c r="Z150" s="19" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="AA150" s="5">
         <v>200</v>
@@ -26739,18 +26834,18 @@
         <v>0</v>
       </c>
       <c r="BJ150" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
     </row>
     <row r="151" spans="4:62">
       <c r="D151" s="2" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="E151">
         <v>41130081</v>
       </c>
       <c r="F151" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="G151">
         <v>44001105</v>
@@ -26759,7 +26854,7 @@
         <v>44001105</v>
       </c>
       <c r="I151" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="J151">
         <v>4001</v>
@@ -26783,7 +26878,7 @@
         <v>0</v>
       </c>
       <c r="Z151" s="19" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="AA151" s="5">
         <v>200</v>
@@ -26871,18 +26966,18 @@
         <v>0</v>
       </c>
       <c r="BJ151" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
     </row>
     <row r="152" spans="4:62">
       <c r="D152" s="2" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="E152">
         <v>41130121</v>
       </c>
       <c r="F152" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="G152">
         <v>44001106</v>
@@ -26891,7 +26986,7 @@
         <v>44001106</v>
       </c>
       <c r="I152" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="J152">
         <v>4001</v>
@@ -26915,7 +27010,7 @@
         <v>0</v>
       </c>
       <c r="Z152" s="19" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="AA152" s="5">
         <v>200</v>
@@ -27003,18 +27098,18 @@
         <v>0</v>
       </c>
       <c r="BJ152" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
     </row>
     <row r="153" spans="4:62">
       <c r="D153" s="2" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="E153">
         <v>41130131</v>
       </c>
       <c r="F153" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="G153">
         <v>44001107</v>
@@ -27023,7 +27118,7 @@
         <v>44001107</v>
       </c>
       <c r="I153" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="J153">
         <v>4001</v>
@@ -27047,7 +27142,7 @@
         <v>0</v>
       </c>
       <c r="Z153" s="19" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="AA153" s="5">
         <v>200</v>
@@ -27135,18 +27230,18 @@
         <v>0</v>
       </c>
       <c r="BJ153" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
     </row>
     <row r="154" spans="4:62">
       <c r="D154" s="2" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="E154">
         <v>41130161</v>
       </c>
       <c r="F154" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="G154">
         <v>44001108</v>
@@ -27155,7 +27250,7 @@
         <v>44001108</v>
       </c>
       <c r="I154" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="J154">
         <v>4001</v>
@@ -27267,18 +27362,18 @@
         <v>0</v>
       </c>
       <c r="BJ154" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
     </row>
     <row r="155" spans="4:62">
       <c r="D155" s="2" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="E155">
         <v>41130181</v>
       </c>
       <c r="F155" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="G155">
         <v>44001109</v>
@@ -27287,7 +27382,7 @@
         <v>44001109</v>
       </c>
       <c r="I155" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="J155">
         <v>4001</v>
@@ -27311,7 +27406,7 @@
         <v>0</v>
       </c>
       <c r="Z155" s="19" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="AA155" s="5">
         <v>200</v>
@@ -27399,18 +27494,18 @@
         <v>0</v>
       </c>
       <c r="BJ155" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
     </row>
     <row r="156" spans="4:62">
       <c r="D156" s="2" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="E156">
         <v>41130191</v>
       </c>
       <c r="F156" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="G156">
         <v>44001110</v>
@@ -27419,7 +27514,7 @@
         <v>44001110</v>
       </c>
       <c r="I156" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="J156">
         <v>4001</v>
@@ -27443,7 +27538,7 @@
         <v>0</v>
       </c>
       <c r="Z156" s="19" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="AA156" s="5">
         <v>200</v>
@@ -27531,18 +27626,18 @@
         <v>0</v>
       </c>
       <c r="BJ156" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
     </row>
     <row r="157" spans="4:62">
       <c r="D157" s="2" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="E157">
         <v>41130261</v>
       </c>
       <c r="F157" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="G157">
         <v>44001111</v>
@@ -27551,7 +27646,7 @@
         <v>44001111</v>
       </c>
       <c r="I157" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="J157">
         <v>4001</v>
@@ -27575,7 +27670,7 @@
         <v>0</v>
       </c>
       <c r="Z157" s="19" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="AA157" s="5">
         <v>200</v>
@@ -27663,18 +27758,18 @@
         <v>0</v>
       </c>
       <c r="BJ157" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
     </row>
     <row r="158" spans="4:62">
       <c r="D158" s="2" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="E158">
         <v>41130271</v>
       </c>
       <c r="F158" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="G158">
         <v>44001112</v>
@@ -27683,7 +27778,7 @@
         <v>44001112</v>
       </c>
       <c r="I158" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="J158">
         <v>4001</v>
@@ -27707,7 +27802,7 @@
         <v>0</v>
       </c>
       <c r="Z158" s="19" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="AA158" s="5">
         <v>200</v>
@@ -27795,18 +27890,18 @@
         <v>0</v>
       </c>
       <c r="BJ158" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
     </row>
     <row r="159" spans="4:62">
       <c r="D159" s="2" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="E159">
         <v>41130311</v>
       </c>
       <c r="F159" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="G159">
         <v>44001113</v>
@@ -27815,7 +27910,7 @@
         <v>44001113</v>
       </c>
       <c r="I159" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="J159">
         <v>4001</v>
@@ -27927,18 +28022,18 @@
         <v>0</v>
       </c>
       <c r="BJ159" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
     </row>
     <row r="160" spans="4:62">
       <c r="D160" s="2" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="E160">
         <v>41130321</v>
       </c>
       <c r="F160" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="G160">
         <v>44001114</v>
@@ -27947,7 +28042,7 @@
         <v>44001114</v>
       </c>
       <c r="I160" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="J160">
         <v>4001</v>
@@ -28059,18 +28154,18 @@
         <v>0</v>
       </c>
       <c r="BJ160" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
     </row>
     <row r="161" spans="4:62">
       <c r="D161" s="2" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="E161">
         <v>41130331</v>
       </c>
       <c r="F161" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="G161">
         <v>44001115</v>
@@ -28103,7 +28198,7 @@
         <v>0</v>
       </c>
       <c r="Z161" s="19" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="AA161" s="5">
         <v>200</v>
@@ -28191,18 +28286,18 @@
         <v>0</v>
       </c>
       <c r="BJ161" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
     </row>
     <row r="162" spans="4:62">
       <c r="D162" s="2" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="E162" s="10">
         <v>51120471</v>
       </c>
       <c r="F162" s="20" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="G162">
         <v>44001101</v>
@@ -28211,7 +28306,7 @@
         <v>44001101</v>
       </c>
       <c r="I162" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="J162">
         <v>4001</v>
@@ -28324,18 +28419,18 @@
         <v>0</v>
       </c>
       <c r="BJ162" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
     </row>
     <row r="163" spans="4:62">
       <c r="D163" s="2" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="E163">
         <v>51130021</v>
       </c>
       <c r="F163" s="20" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="G163">
         <v>44001102</v>
@@ -28369,7 +28464,7 @@
         <v>0</v>
       </c>
       <c r="Z163" s="19" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="AA163" s="5">
         <v>200</v>
@@ -28457,18 +28552,18 @@
         <v>0</v>
       </c>
       <c r="BJ163" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
     </row>
     <row r="164" spans="4:62">
       <c r="D164" s="2" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="E164">
         <v>51130031</v>
       </c>
       <c r="F164" s="20" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="G164">
         <v>44001103</v>
@@ -28589,18 +28684,18 @@
         <v>0</v>
       </c>
       <c r="BJ164" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
     </row>
     <row r="165" spans="4:62">
       <c r="D165" s="2" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="E165">
         <v>51130041</v>
       </c>
       <c r="F165" s="20" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="G165">
         <v>44001104</v>
@@ -28609,7 +28704,7 @@
         <v>44001104</v>
       </c>
       <c r="I165" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="J165">
         <v>4001</v>
@@ -28721,18 +28816,18 @@
         <v>0</v>
       </c>
       <c r="BJ165" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
     </row>
     <row r="166" spans="4:62">
       <c r="D166" s="2" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="E166">
         <v>51130051</v>
       </c>
       <c r="F166" s="20" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="G166">
         <v>44001116</v>
@@ -28741,7 +28836,7 @@
         <v>44001116</v>
       </c>
       <c r="I166" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="J166">
         <v>4001</v>
@@ -28765,7 +28860,7 @@
         <v>0</v>
       </c>
       <c r="Z166" s="19" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="AA166" s="5">
         <v>200</v>
@@ -28853,18 +28948,18 @@
         <v>0</v>
       </c>
       <c r="BJ166" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
     </row>
     <row r="167" spans="4:62">
       <c r="D167" s="2" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="E167">
         <v>51130061</v>
       </c>
       <c r="F167" s="20" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="G167">
         <v>44001117</v>
@@ -28873,7 +28968,7 @@
         <v>44001117</v>
       </c>
       <c r="I167" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="J167">
         <v>4001</v>
@@ -28897,7 +28992,7 @@
         <v>0</v>
       </c>
       <c r="Z167" s="19" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="AA167" s="5">
         <v>200</v>
@@ -28985,18 +29080,18 @@
         <v>0</v>
       </c>
       <c r="BJ167" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
     </row>
     <row r="168" spans="4:62">
       <c r="D168" s="2" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="E168">
         <v>51130071</v>
       </c>
       <c r="F168" s="20" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="G168">
         <v>44001118</v>
@@ -29005,7 +29100,7 @@
         <v>44001118</v>
       </c>
       <c r="I168" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="J168">
         <v>4001</v>
@@ -29029,7 +29124,7 @@
         <v>0</v>
       </c>
       <c r="Z168" s="19" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="AA168" s="5">
         <v>200</v>
@@ -29117,18 +29212,18 @@
         <v>0</v>
       </c>
       <c r="BJ168" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
     </row>
     <row r="169" spans="4:62">
       <c r="D169" s="2" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="E169">
         <v>51130081</v>
       </c>
       <c r="F169" s="20" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="G169">
         <v>44001105</v>
@@ -29137,7 +29232,7 @@
         <v>44001105</v>
       </c>
       <c r="I169" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="J169">
         <v>4001</v>
@@ -29161,7 +29256,7 @@
         <v>0</v>
       </c>
       <c r="Z169" s="19" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="AA169" s="5">
         <v>200</v>
@@ -29249,18 +29344,18 @@
         <v>0</v>
       </c>
       <c r="BJ169" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
     </row>
     <row r="170" spans="4:62">
       <c r="D170" s="2" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="E170">
         <v>51130121</v>
       </c>
       <c r="F170" s="20" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="G170">
         <v>44001106</v>
@@ -29269,7 +29364,7 @@
         <v>44001106</v>
       </c>
       <c r="I170" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="J170">
         <v>4001</v>
@@ -29293,7 +29388,7 @@
         <v>0</v>
       </c>
       <c r="Z170" s="19" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="AA170" s="5">
         <v>200</v>
@@ -29381,18 +29476,18 @@
         <v>0</v>
       </c>
       <c r="BJ170" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
     </row>
     <row r="171" spans="4:62">
       <c r="D171" s="2" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="E171">
         <v>51130131</v>
       </c>
       <c r="F171" s="20" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="G171">
         <v>44001107</v>
@@ -29401,7 +29496,7 @@
         <v>44001107</v>
       </c>
       <c r="I171" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="J171">
         <v>4001</v>
@@ -29425,7 +29520,7 @@
         <v>0</v>
       </c>
       <c r="Z171" s="19" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="AA171" s="5">
         <v>200</v>
@@ -29513,18 +29608,18 @@
         <v>0</v>
       </c>
       <c r="BJ171" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
     </row>
     <row r="172" spans="4:62">
       <c r="D172" s="2" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="E172">
         <v>51130161</v>
       </c>
       <c r="F172" s="20" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="G172">
         <v>44001108</v>
@@ -29533,7 +29628,7 @@
         <v>44001108</v>
       </c>
       <c r="I172" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="J172">
         <v>4001</v>
@@ -29645,18 +29740,18 @@
         <v>0</v>
       </c>
       <c r="BJ172" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
     </row>
     <row r="173" spans="4:62">
       <c r="D173" s="2" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="E173">
         <v>51130181</v>
       </c>
       <c r="F173" s="20" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="G173">
         <v>44001109</v>
@@ -29665,7 +29760,7 @@
         <v>44001109</v>
       </c>
       <c r="I173" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="J173">
         <v>4001</v>
@@ -29689,7 +29784,7 @@
         <v>0</v>
       </c>
       <c r="Z173" s="19" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="AA173" s="5">
         <v>200</v>
@@ -29777,18 +29872,18 @@
         <v>0</v>
       </c>
       <c r="BJ173" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
     </row>
     <row r="174" spans="4:62">
       <c r="D174" s="2" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="E174">
         <v>51130191</v>
       </c>
       <c r="F174" s="20" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="G174">
         <v>44001110</v>
@@ -29797,7 +29892,7 @@
         <v>44001110</v>
       </c>
       <c r="I174" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="J174">
         <v>4001</v>
@@ -29821,7 +29916,7 @@
         <v>0</v>
       </c>
       <c r="Z174" s="19" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="AA174" s="5">
         <v>200</v>
@@ -29909,18 +30004,18 @@
         <v>0</v>
       </c>
       <c r="BJ174" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
     </row>
     <row r="175" spans="4:62">
       <c r="D175" s="2" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="E175">
         <v>51130261</v>
       </c>
       <c r="F175" s="20" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="G175">
         <v>44001111</v>
@@ -29929,7 +30024,7 @@
         <v>44001111</v>
       </c>
       <c r="I175" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="J175">
         <v>4001</v>
@@ -29953,7 +30048,7 @@
         <v>0</v>
       </c>
       <c r="Z175" s="19" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="AA175" s="5">
         <v>200</v>
@@ -30041,18 +30136,18 @@
         <v>0</v>
       </c>
       <c r="BJ175" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
     </row>
     <row r="176" spans="4:62">
       <c r="D176" s="2" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="E176">
         <v>51130271</v>
       </c>
       <c r="F176" s="20" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="G176">
         <v>44001112</v>
@@ -30061,7 +30156,7 @@
         <v>44001112</v>
       </c>
       <c r="I176" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="J176">
         <v>4001</v>
@@ -30085,7 +30180,7 @@
         <v>0</v>
       </c>
       <c r="Z176" s="19" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="AA176" s="5">
         <v>200</v>
@@ -30173,18 +30268,18 @@
         <v>0</v>
       </c>
       <c r="BJ176" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
     </row>
     <row r="177" spans="4:62">
       <c r="D177" s="2" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="E177">
         <v>51130311</v>
       </c>
       <c r="F177" s="20" t="s">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="G177">
         <v>44001113</v>
@@ -30193,7 +30288,7 @@
         <v>44001113</v>
       </c>
       <c r="I177" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="J177">
         <v>4001</v>
@@ -30305,18 +30400,18 @@
         <v>0</v>
       </c>
       <c r="BJ177" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
     </row>
     <row r="178" spans="4:62">
       <c r="D178" s="2" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="E178">
         <v>51130321</v>
       </c>
       <c r="F178" s="20" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="G178">
         <v>44001114</v>
@@ -30325,7 +30420,7 @@
         <v>44001114</v>
       </c>
       <c r="I178" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="J178">
         <v>4001</v>
@@ -30437,18 +30532,18 @@
         <v>0</v>
       </c>
       <c r="BJ178" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
     </row>
     <row r="179" spans="4:62">
       <c r="D179" s="2" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="E179">
         <v>51130331</v>
       </c>
       <c r="F179" s="20" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="G179">
         <v>44001115</v>
@@ -30481,7 +30576,7 @@
         <v>0</v>
       </c>
       <c r="Z179" s="19" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="AA179" s="5">
         <v>200</v>
@@ -30569,18 +30664,18 @@
         <v>0</v>
       </c>
       <c r="BJ179" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
     </row>
     <row r="180" spans="4:62">
       <c r="D180" s="2" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="E180">
         <v>51120231</v>
       </c>
       <c r="F180" t="s">
-        <v>511</v>
+        <v>513</v>
       </c>
       <c r="G180">
         <v>42002009</v>
@@ -30589,7 +30684,7 @@
         <v>42002009</v>
       </c>
       <c r="I180" t="s">
-        <v>512</v>
+        <v>514</v>
       </c>
       <c r="J180">
         <v>4001</v>
@@ -30710,13 +30805,13 @@
     </row>
     <row r="181" spans="4:62">
       <c r="D181" s="2" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="E181">
         <v>61000001</v>
       </c>
       <c r="F181" t="s">
-        <v>513</v>
+        <v>515</v>
       </c>
       <c r="G181">
         <v>42002001</v>
@@ -30837,18 +30932,18 @@
         <v>0</v>
       </c>
       <c r="BJ181" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
     </row>
     <row r="182" spans="4:62">
       <c r="D182" s="2" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="E182">
         <v>61000002</v>
       </c>
       <c r="F182" t="s">
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="G182">
         <v>42002001</v>
@@ -30969,18 +31064,18 @@
         <v>0</v>
       </c>
       <c r="BJ182" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
     </row>
     <row r="183" spans="4:62">
       <c r="D183" s="2" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="E183">
         <v>61000003</v>
       </c>
       <c r="F183" t="s">
-        <v>517</v>
+        <v>519</v>
       </c>
       <c r="G183">
         <v>42002001</v>
@@ -31102,19 +31197,19 @@
         <v>0</v>
       </c>
       <c r="BJ183" t="s">
-        <v>518</v>
+        <v>520</v>
       </c>
     </row>
     <row r="184" spans="3:62">
       <c r="C184"/>
       <c r="D184" s="2" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="E184">
         <v>61000004</v>
       </c>
       <c r="F184" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="G184" s="2">
         <v>42002001</v>
@@ -31243,18 +31338,18 @@
       <c r="BE184" s="3"/>
       <c r="BF184" s="3"/>
       <c r="BJ184" t="s">
-        <v>520</v>
+        <v>522</v>
       </c>
     </row>
     <row r="185" spans="4:62">
       <c r="D185" s="2" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="E185">
         <v>61000005</v>
       </c>
       <c r="F185" t="s">
-        <v>521</v>
+        <v>523</v>
       </c>
       <c r="G185">
         <v>42002001</v>
@@ -31375,18 +31470,18 @@
         <v>0</v>
       </c>
       <c r="BJ185" t="s">
-        <v>522</v>
+        <v>524</v>
       </c>
     </row>
     <row r="186" spans="4:62">
       <c r="D186" s="2" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="E186">
         <v>61000101</v>
       </c>
       <c r="F186" t="s">
-        <v>523</v>
+        <v>525</v>
       </c>
       <c r="G186">
         <v>42002001</v>
@@ -31505,18 +31600,18 @@
         <v>0</v>
       </c>
       <c r="BJ186" t="s">
-        <v>524</v>
+        <v>526</v>
       </c>
     </row>
     <row r="187" spans="4:62">
       <c r="D187" s="2" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="E187">
         <v>62000001</v>
       </c>
       <c r="F187" t="s">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="G187">
         <v>44001110</v>
@@ -31525,7 +31620,7 @@
         <v>44001110</v>
       </c>
       <c r="I187" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="J187">
         <v>4001</v>
@@ -31635,18 +31730,18 @@
         <v>0</v>
       </c>
       <c r="BJ187" t="s">
-        <v>526</v>
+        <v>528</v>
       </c>
     </row>
     <row r="188" spans="4:62">
       <c r="D188" s="2" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="E188">
         <v>63000001</v>
       </c>
       <c r="F188" t="s">
-        <v>527</v>
+        <v>529</v>
       </c>
       <c r="G188">
         <v>44001110</v>
@@ -31655,7 +31750,7 @@
         <v>44001110</v>
       </c>
       <c r="I188" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="J188">
         <v>4001</v>
@@ -31765,18 +31860,18 @@
         <v>0</v>
       </c>
       <c r="BJ188" t="s">
-        <v>528</v>
+        <v>530</v>
       </c>
     </row>
     <row r="189" spans="4:62">
       <c r="D189" s="2" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="E189">
         <v>63000002</v>
       </c>
       <c r="F189" t="s">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="G189">
         <v>44001110</v>
@@ -31785,7 +31880,7 @@
         <v>44001110</v>
       </c>
       <c r="I189" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="J189">
         <v>4001</v>
@@ -31895,18 +31990,18 @@
         <v>0</v>
       </c>
       <c r="BJ189" t="s">
-        <v>530</v>
+        <v>532</v>
       </c>
     </row>
     <row r="190" spans="4:62">
       <c r="D190" s="2" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="E190">
         <v>62000099</v>
       </c>
       <c r="F190" t="s">
-        <v>531</v>
+        <v>533</v>
       </c>
       <c r="G190">
         <v>44001104</v>
@@ -31915,7 +32010,7 @@
         <v>44001104</v>
       </c>
       <c r="I190" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="J190">
         <v>4001</v>
@@ -32025,7 +32120,7 @@
         <v>0</v>
       </c>
       <c r="BJ190" t="s">
-        <v>532</v>
+        <v>534</v>
       </c>
     </row>
     <row r="191" spans="3:58">

--- a/Developer/配置表/Excel/monster.xlsx
+++ b/Developer/配置表/Excel/monster.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="21795" windowHeight="11970" tabRatio="594"/>
+    <workbookView windowWidth="28800" windowHeight="14340" tabRatio="594"/>
   </bookViews>
   <sheets>
     <sheet name="monster" sheetId="1" r:id="rId1"/>
@@ -12,7 +12,7 @@
     <sheet name="旧数据备份" sheetId="9" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">monster!$C$1:$U$23</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">monster!$C$1:$U$10</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">旧数据备份!$C$1:$BJ$192</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
@@ -401,7 +401,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1538" uniqueCount="535">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1423" uniqueCount="516">
   <si>
     <t>怪物ID</t>
   </si>
@@ -800,7 +800,7 @@
     <t>damageType</t>
   </si>
   <si>
-    <t>固定-长矛哥布林</t>
+    <t>巡逻-刺客哥布林</t>
   </si>
   <si>
     <t>avatar_hero_5</t>
@@ -809,64 +809,43 @@
     <t>3|4</t>
   </si>
   <si>
+    <t>yuancheng_monster</t>
+  </si>
+  <si>
+    <t>0|2|3|8</t>
+  </si>
+  <si>
+    <t>1|1|1|1</t>
+  </si>
+  <si>
+    <t>1745|181|23|1</t>
+  </si>
+  <si>
+    <t>400|40|5|0</t>
+  </si>
+  <si>
+    <t>70001|70002|70003</t>
+  </si>
+  <si>
+    <t>巡逻-骷髅镰刀手</t>
+  </si>
+  <si>
+    <t>7|8|13</t>
+  </si>
+  <si>
     <t>jinzhan_monster</t>
   </si>
   <si>
-    <t>0|2|3|8</t>
-  </si>
-  <si>
-    <t>1|1|1|1</t>
-  </si>
-  <si>
-    <t>1745|180|23|1</t>
-  </si>
-  <si>
-    <t>400|40|5|0</t>
-  </si>
-  <si>
-    <t>70001|70002|70003</t>
-  </si>
-  <si>
-    <t>固定-骷髅剑士</t>
-  </si>
-  <si>
-    <t>7|8|13|16</t>
-  </si>
-  <si>
-    <t>yuancheng_monster</t>
-  </si>
-  <si>
-    <t>1745|181|23|1</t>
-  </si>
-  <si>
-    <t>固定-盔甲长矛哥布林</t>
-  </si>
-  <si>
-    <t>3|4|7|8</t>
-  </si>
-  <si>
-    <t>固定-骷髅盾兵</t>
-  </si>
-  <si>
-    <t>13|16</t>
-  </si>
-  <si>
-    <t>空中-连射针蜂</t>
-  </si>
-  <si>
-    <t>对峙-连射针蜂</t>
-  </si>
-  <si>
-    <t>对峙-恶魔蝙蝠</t>
-  </si>
-  <si>
-    <t>7|8|16|13</t>
-  </si>
-  <si>
-    <t>空中-恶魔蝙蝠</t>
-  </si>
-  <si>
-    <t>场外-喷吐小毒蛙</t>
+    <t>巡逻-土系钢牙蜥蜴</t>
+  </si>
+  <si>
+    <t>冰野猪</t>
+  </si>
+  <si>
+    <t>1300|181|23|1</t>
+  </si>
+  <si>
+    <t>吹箭哥布林-土</t>
   </si>
   <si>
     <t>0|2|3|6|7|8</t>
@@ -879,42 +858,6 @@
   </si>
   <si>
     <t>800|0|0|0|0</t>
-  </si>
-  <si>
-    <t>场外-爆破哥布林</t>
-  </si>
-  <si>
-    <t>冲锋-小野猪</t>
-  </si>
-  <si>
-    <t>1300|181|23|1</t>
-  </si>
-  <si>
-    <t>冲锋-火野猪</t>
-  </si>
-  <si>
-    <t>7|8</t>
-  </si>
-  <si>
-    <t>冲锋-铁甲猪</t>
-  </si>
-  <si>
-    <t>巡逻-刺客哥布林</t>
-  </si>
-  <si>
-    <t>巡逻-骷髅镰刀手</t>
-  </si>
-  <si>
-    <t>7|8|13</t>
-  </si>
-  <si>
-    <t>巡逻-土系钢牙蜥蜴</t>
-  </si>
-  <si>
-    <t>冰野猪</t>
-  </si>
-  <si>
-    <t>吹箭哥布林-土</t>
   </si>
   <si>
     <t>Boss</t>
@@ -2044,10 +1987,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -2611,7 +2554,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2620,10 +2563,10 @@
     <xf numFmtId="0" fontId="6" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2632,7 +2575,7 @@
     <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2838,10 +2781,10 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -3202,14 +3145,14 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="C1:BC23"/>
+  <dimension ref="C1:BC10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="4" topLeftCell="E5" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="4" ySplit="4" topLeftCell="I5" activePane="bottomRight" state="frozenSplit"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="K27" sqref="K27"/>
+      <selection pane="bottomRight" activeCell="N29" sqref="N29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.25" defaultRowHeight="14.25"/>
@@ -3475,7 +3418,7 @@
       <c r="S2" t="s">
         <v>53</v>
       </c>
-      <c r="T2" s="25" t="s">
+      <c r="T2" s="26" t="s">
         <v>53</v>
       </c>
       <c r="U2" t="s">
@@ -3729,7 +3672,7 @@
       <c r="AH4" s="17" t="s">
         <v>104</v>
       </c>
-      <c r="AI4" s="25" t="s">
+      <c r="AI4" s="26" t="s">
         <v>105</v>
       </c>
       <c r="AJ4" t="s">
@@ -3795,7 +3738,7 @@
     </row>
     <row r="5" ht="16.5" spans="3:55">
       <c r="C5">
-        <v>1203201</v>
+        <v>1203202</v>
       </c>
       <c r="D5" s="8" t="s">
         <v>126</v>
@@ -3819,19 +3762,19 @@
         <v>4001</v>
       </c>
       <c r="K5">
-        <v>2009</v>
+        <v>2117</v>
       </c>
       <c r="M5">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="N5" s="3">
         <v>0</v>
       </c>
-      <c r="O5" s="26" t="s">
+      <c r="O5" s="25" t="s">
         <v>128</v>
       </c>
       <c r="P5" s="19">
-        <v>15010</v>
+        <v>15050</v>
       </c>
       <c r="Q5">
         <v>10000</v>
@@ -3854,10 +3797,10 @@
       <c r="Z5" s="30" t="s">
         <v>131</v>
       </c>
-      <c r="AA5" s="26" t="s">
+      <c r="AA5" s="25" t="s">
         <v>132</v>
       </c>
-      <c r="AB5" s="26" t="s">
+      <c r="AB5" s="25" t="s">
         <v>133</v>
       </c>
       <c r="AC5">
@@ -3879,7 +3822,7 @@
       <c r="AS5" s="3"/>
       <c r="AT5" s="3"/>
       <c r="BA5" s="3">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="BB5">
         <v>1</v>
@@ -3890,7 +3833,7 @@
     </row>
     <row r="6" ht="16.5" spans="3:55">
       <c r="C6">
-        <v>1200501</v>
+        <v>1200701</v>
       </c>
       <c r="D6" s="8" t="s">
         <v>135</v>
@@ -3914,19 +3857,19 @@
         <v>4001</v>
       </c>
       <c r="K6">
-        <v>2019</v>
+        <v>2118</v>
       </c>
       <c r="M6">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="N6" s="3">
         <v>0</v>
       </c>
-      <c r="O6" s="26" t="s">
+      <c r="O6" s="25" t="s">
         <v>136</v>
       </c>
       <c r="P6" s="19">
-        <v>15050</v>
+        <v>15010</v>
       </c>
       <c r="Q6">
         <v>10000</v>
@@ -3949,10 +3892,10 @@
       <c r="Z6" s="30" t="s">
         <v>131</v>
       </c>
-      <c r="AA6" s="26" t="s">
-        <v>138</v>
-      </c>
-      <c r="AB6" s="26" t="s">
+      <c r="AA6" s="25" t="s">
+        <v>132</v>
+      </c>
+      <c r="AB6" s="25" t="s">
         <v>133</v>
       </c>
       <c r="AC6">
@@ -3974,7 +3917,7 @@
       <c r="AS6" s="3"/>
       <c r="AT6" s="3"/>
       <c r="BA6" s="3">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="BB6">
         <v>1</v>
@@ -3985,10 +3928,10 @@
     </row>
     <row r="7" ht="16.5" spans="3:55">
       <c r="C7">
-        <v>1203203</v>
+        <v>1205801</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E7" s="9">
         <v>2</v>
@@ -4009,16 +3952,16 @@
         <v>4001</v>
       </c>
       <c r="K7">
-        <v>2020</v>
+        <v>2119</v>
       </c>
       <c r="M7">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="N7" s="3">
         <v>0</v>
       </c>
-      <c r="O7" s="26" t="s">
-        <v>140</v>
+      <c r="O7" s="25">
+        <v>16</v>
       </c>
       <c r="P7" s="19">
         <v>15010</v>
@@ -4044,10 +3987,10 @@
       <c r="Z7" s="30" t="s">
         <v>131</v>
       </c>
-      <c r="AA7" s="26" t="s">
-        <v>138</v>
-      </c>
-      <c r="AB7" s="26" t="s">
+      <c r="AA7" s="25" t="s">
+        <v>132</v>
+      </c>
+      <c r="AB7" s="25" t="s">
         <v>133</v>
       </c>
       <c r="AC7">
@@ -4069,7 +4012,7 @@
       <c r="AS7" s="3"/>
       <c r="AT7" s="3"/>
       <c r="BA7" s="3">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="BB7">
         <v>1</v>
@@ -4080,10 +4023,10 @@
     </row>
     <row r="8" ht="16.5" spans="3:55">
       <c r="C8">
-        <v>1200601</v>
+        <v>1201501</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E8" s="9">
         <v>2</v>
@@ -4104,16 +4047,16 @@
         <v>4001</v>
       </c>
       <c r="K8">
-        <v>2023</v>
+        <v>2120</v>
       </c>
       <c r="M8">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="N8" s="3">
         <v>0</v>
       </c>
-      <c r="O8" s="26" t="s">
-        <v>142</v>
+      <c r="O8" s="3">
+        <v>10</v>
       </c>
       <c r="P8" s="19">
         <v>15010</v>
@@ -4139,10 +4082,10 @@
       <c r="Z8" s="30" t="s">
         <v>131</v>
       </c>
-      <c r="AA8" s="26" t="s">
-        <v>138</v>
-      </c>
-      <c r="AB8" s="26" t="s">
+      <c r="AA8" s="25" t="s">
+        <v>140</v>
+      </c>
+      <c r="AB8" s="25" t="s">
         <v>133</v>
       </c>
       <c r="AC8">
@@ -4164,7 +4107,7 @@
       <c r="AS8" s="3"/>
       <c r="AT8" s="3"/>
       <c r="BA8" s="3">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="BB8">
         <v>1</v>
@@ -4173,14 +4116,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="3:55">
+    <row r="9" ht="16.5" spans="3:55">
       <c r="C9">
-        <v>1200901</v>
-      </c>
-      <c r="D9" s="25" t="s">
-        <v>143</v>
-      </c>
-      <c r="E9">
+        <v>1203801</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="E9" s="9">
         <v>2</v>
       </c>
       <c r="F9">
@@ -4190,7 +4133,7 @@
         <v>42002001</v>
       </c>
       <c r="H9">
-        <v>42003001</v>
+        <v>42002001</v>
       </c>
       <c r="I9" t="s">
         <v>127</v>
@@ -4199,16 +4142,16 @@
         <v>4001</v>
       </c>
       <c r="K9">
-        <v>2043</v>
-      </c>
-      <c r="M9" s="13">
-        <v>3</v>
+        <v>2121</v>
+      </c>
+      <c r="M9">
+        <v>1</v>
       </c>
       <c r="N9" s="3">
         <v>0</v>
       </c>
-      <c r="O9" s="26" t="s">
-        <v>128</v>
+      <c r="O9" s="3">
+        <v>5</v>
       </c>
       <c r="P9" s="19">
         <v>15050</v>
@@ -4229,16 +4172,16 @@
         <v>129</v>
       </c>
       <c r="Y9" s="30" t="s">
-        <v>130</v>
+        <v>142</v>
       </c>
       <c r="Z9" s="30" t="s">
-        <v>131</v>
-      </c>
-      <c r="AA9" s="26" t="s">
-        <v>138</v>
-      </c>
-      <c r="AB9" s="26" t="s">
-        <v>133</v>
+        <v>143</v>
+      </c>
+      <c r="AA9" s="25" t="s">
+        <v>144</v>
+      </c>
+      <c r="AB9" s="25" t="s">
+        <v>145</v>
       </c>
       <c r="AC9">
         <v>0</v>
@@ -4252,24 +4195,30 @@
       <c r="AJ9" t="s">
         <v>134</v>
       </c>
+      <c r="AO9" s="3"/>
+      <c r="AP9" s="3"/>
+      <c r="AQ9" s="3"/>
+      <c r="AR9" s="3"/>
+      <c r="AS9" s="3"/>
+      <c r="AT9" s="3"/>
       <c r="BA9" s="3">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="BB9">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="BC9">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="3:55">
+    <row r="10" ht="16.5" spans="3:55">
       <c r="C10">
-        <v>1200902</v>
-      </c>
-      <c r="D10" s="25" t="s">
-        <v>144</v>
-      </c>
-      <c r="E10">
+        <v>3200101</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="E10" s="9">
         <v>2</v>
       </c>
       <c r="F10">
@@ -4279,7 +4228,7 @@
         <v>42002001</v>
       </c>
       <c r="H10">
-        <v>42003001</v>
+        <v>42002001</v>
       </c>
       <c r="I10" t="s">
         <v>127</v>
@@ -4288,19 +4237,19 @@
         <v>4001</v>
       </c>
       <c r="K10">
-        <v>2001</v>
-      </c>
-      <c r="M10" s="13">
-        <v>13</v>
+        <v>5000</v>
+      </c>
+      <c r="M10">
+        <v>5</v>
       </c>
       <c r="N10" s="3">
-        <v>0</v>
-      </c>
-      <c r="O10" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="O10" s="25" t="s">
         <v>128</v>
       </c>
       <c r="P10" s="19">
-        <v>15010</v>
+        <v>15050</v>
       </c>
       <c r="Q10">
         <v>10000</v>
@@ -4315,7 +4264,7 @@
         <v>80</v>
       </c>
       <c r="U10" t="s">
-        <v>137</v>
+        <v>147</v>
       </c>
       <c r="Y10" s="30" t="s">
         <v>130</v>
@@ -4323,10 +4272,10 @@
       <c r="Z10" s="30" t="s">
         <v>131</v>
       </c>
-      <c r="AA10" s="26" t="s">
-        <v>138</v>
-      </c>
-      <c r="AB10" s="26" t="s">
+      <c r="AA10" s="25" t="s">
+        <v>140</v>
+      </c>
+      <c r="AB10" s="25" t="s">
         <v>133</v>
       </c>
       <c r="AC10">
@@ -4338,1291 +4287,59 @@
       <c r="AG10">
         <v>3002001</v>
       </c>
+      <c r="AJ10" t="s">
+        <v>134</v>
+      </c>
+      <c r="AO10" s="3"/>
+      <c r="AP10" s="3"/>
+      <c r="AQ10" s="3"/>
+      <c r="AR10" s="3"/>
+      <c r="AS10" s="3"/>
+      <c r="AT10" s="3"/>
       <c r="BA10" s="3">
         <v>20</v>
       </c>
       <c r="BB10">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="BC10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" ht="16.5" spans="3:55">
-      <c r="C11">
-        <v>1201902</v>
-      </c>
-      <c r="D11" s="8" t="s">
-        <v>145</v>
-      </c>
-      <c r="E11" s="9">
-        <v>2</v>
-      </c>
-      <c r="F11">
-        <v>0</v>
-      </c>
-      <c r="G11">
-        <v>42002001</v>
-      </c>
-      <c r="H11">
-        <v>42002001</v>
-      </c>
-      <c r="I11" t="s">
-        <v>127</v>
-      </c>
-      <c r="J11">
-        <v>4001</v>
-      </c>
-      <c r="K11">
-        <v>2013</v>
-      </c>
-      <c r="M11">
-        <v>13</v>
-      </c>
-      <c r="N11" s="3">
-        <v>0</v>
-      </c>
-      <c r="O11" s="26" t="s">
-        <v>146</v>
-      </c>
-      <c r="P11" s="19">
-        <v>15010</v>
-      </c>
-      <c r="Q11">
-        <v>10000</v>
-      </c>
-      <c r="R11">
-        <v>10000</v>
-      </c>
-      <c r="S11">
-        <v>40</v>
-      </c>
-      <c r="T11">
-        <v>80</v>
-      </c>
-      <c r="U11" t="s">
-        <v>129</v>
-      </c>
-      <c r="Y11" s="30" t="s">
-        <v>130</v>
-      </c>
-      <c r="Z11" s="30" t="s">
-        <v>131</v>
-      </c>
-      <c r="AA11" s="26" t="s">
-        <v>138</v>
-      </c>
-      <c r="AB11" s="26" t="s">
-        <v>133</v>
-      </c>
-      <c r="AC11">
-        <v>0</v>
-      </c>
-      <c r="AE11">
-        <v>999</v>
-      </c>
-      <c r="AG11">
-        <v>3002001</v>
-      </c>
-      <c r="AO11" s="3"/>
-      <c r="AP11" s="3"/>
-      <c r="AQ11" s="3"/>
-      <c r="AR11" s="3"/>
-      <c r="AS11" s="3"/>
-      <c r="AT11" s="3"/>
-      <c r="BA11" s="3">
-        <v>20</v>
-      </c>
-      <c r="BB11">
-        <v>1</v>
-      </c>
-      <c r="BC11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" ht="16.5" spans="3:55">
-      <c r="C12">
-        <v>1201903</v>
-      </c>
-      <c r="D12" s="8" t="s">
-        <v>147</v>
-      </c>
-      <c r="E12" s="9">
-        <v>2</v>
-      </c>
-      <c r="F12">
-        <v>0</v>
-      </c>
-      <c r="G12">
-        <v>42002001</v>
-      </c>
-      <c r="H12">
-        <v>42002001</v>
-      </c>
-      <c r="I12" t="s">
-        <v>127</v>
-      </c>
-      <c r="J12">
-        <v>4001</v>
-      </c>
-      <c r="K12">
-        <v>2012</v>
-      </c>
-      <c r="M12">
-        <v>3</v>
-      </c>
-      <c r="N12" s="3">
-        <v>0</v>
-      </c>
-      <c r="O12" s="26" t="s">
-        <v>146</v>
-      </c>
-      <c r="P12" s="19">
-        <v>15050</v>
-      </c>
-      <c r="Q12">
-        <v>10000</v>
-      </c>
-      <c r="R12">
-        <v>10000</v>
-      </c>
-      <c r="S12">
-        <v>40</v>
-      </c>
-      <c r="T12">
-        <v>80</v>
-      </c>
-      <c r="U12" t="s">
-        <v>137</v>
-      </c>
-      <c r="Y12" s="30" t="s">
-        <v>130</v>
-      </c>
-      <c r="Z12" s="30" t="s">
-        <v>131</v>
-      </c>
-      <c r="AA12" s="26" t="s">
-        <v>138</v>
-      </c>
-      <c r="AB12" s="26" t="s">
-        <v>133</v>
-      </c>
-      <c r="AC12">
-        <v>0</v>
-      </c>
-      <c r="AE12">
-        <v>999</v>
-      </c>
-      <c r="AG12">
-        <v>3002001</v>
-      </c>
-      <c r="AJ12" t="s">
-        <v>134</v>
-      </c>
-      <c r="AO12" s="3"/>
-      <c r="AP12" s="3"/>
-      <c r="AQ12" s="3"/>
-      <c r="AR12" s="3"/>
-      <c r="AS12" s="3"/>
-      <c r="AT12" s="3"/>
-      <c r="BA12" s="3">
-        <v>20</v>
-      </c>
-      <c r="BB12">
-        <v>1</v>
-      </c>
-      <c r="BC12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="3:55">
-      <c r="C13">
-        <v>1202301</v>
-      </c>
-      <c r="D13" s="25" t="s">
-        <v>148</v>
-      </c>
-      <c r="E13">
-        <v>2</v>
-      </c>
-      <c r="F13">
-        <v>0</v>
-      </c>
-      <c r="G13">
-        <v>42002001</v>
-      </c>
-      <c r="H13">
-        <v>42002001</v>
-      </c>
-      <c r="I13" t="s">
-        <v>127</v>
-      </c>
-      <c r="J13">
-        <v>4001</v>
-      </c>
-      <c r="K13" s="13">
-        <v>2051</v>
-      </c>
-      <c r="M13" s="13">
-        <v>9</v>
-      </c>
-      <c r="N13" s="3">
-        <v>0</v>
-      </c>
-      <c r="O13" s="26" t="s">
-        <v>128</v>
-      </c>
-      <c r="P13" s="19">
-        <v>15010</v>
-      </c>
-      <c r="Q13">
-        <v>10000</v>
-      </c>
-      <c r="R13">
-        <v>10000</v>
-      </c>
-      <c r="S13">
-        <v>40</v>
-      </c>
-      <c r="T13">
-        <v>80</v>
-      </c>
-      <c r="U13" t="s">
-        <v>129</v>
-      </c>
-      <c r="Y13" s="30" t="s">
-        <v>149</v>
-      </c>
-      <c r="Z13" s="30" t="s">
-        <v>150</v>
-      </c>
-      <c r="AA13" s="26" t="s">
-        <v>151</v>
-      </c>
-      <c r="AB13" s="26" t="s">
-        <v>152</v>
-      </c>
-      <c r="AC13">
-        <v>0</v>
-      </c>
-      <c r="AE13">
-        <v>999</v>
-      </c>
-      <c r="AG13">
-        <v>3002001</v>
-      </c>
-      <c r="AJ13" t="s">
-        <v>134</v>
-      </c>
-      <c r="AO13" s="3"/>
-      <c r="AP13" s="3"/>
-      <c r="AQ13" s="3"/>
-      <c r="AR13" s="3"/>
-      <c r="AS13" s="3"/>
-      <c r="AT13" s="3"/>
-      <c r="BA13" s="3">
-        <v>20</v>
-      </c>
-      <c r="BB13">
-        <v>4</v>
-      </c>
-      <c r="BC13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" ht="16.5" spans="3:55">
-      <c r="C14">
-        <v>1204301</v>
-      </c>
-      <c r="D14" s="8" t="s">
-        <v>153</v>
-      </c>
-      <c r="E14" s="9">
-        <v>2</v>
-      </c>
-      <c r="F14">
-        <v>0</v>
-      </c>
-      <c r="G14">
-        <v>42002001</v>
-      </c>
-      <c r="H14">
-        <v>42002001</v>
-      </c>
-      <c r="I14" t="s">
-        <v>127</v>
-      </c>
-      <c r="J14">
-        <v>4001</v>
-      </c>
-      <c r="K14">
-        <v>2007</v>
-      </c>
-      <c r="M14">
-        <v>9</v>
-      </c>
-      <c r="N14" s="3">
-        <v>0</v>
-      </c>
-      <c r="O14" s="26" t="s">
-        <v>142</v>
-      </c>
-      <c r="P14" s="19">
-        <v>15010</v>
-      </c>
-      <c r="Q14">
-        <v>10000</v>
-      </c>
-      <c r="R14">
-        <v>10000</v>
-      </c>
-      <c r="S14">
-        <v>40</v>
-      </c>
-      <c r="T14">
-        <v>80</v>
-      </c>
-      <c r="U14" t="s">
-        <v>137</v>
-      </c>
-      <c r="Y14" s="30" t="s">
-        <v>149</v>
-      </c>
-      <c r="Z14" s="30" t="s">
-        <v>150</v>
-      </c>
-      <c r="AA14" s="26" t="s">
-        <v>151</v>
-      </c>
-      <c r="AB14" s="26" t="s">
-        <v>152</v>
-      </c>
-      <c r="AC14">
-        <v>0</v>
-      </c>
-      <c r="AE14">
-        <v>999</v>
-      </c>
-      <c r="AG14">
-        <v>3002001</v>
-      </c>
-      <c r="AJ14" t="s">
-        <v>134</v>
-      </c>
-      <c r="AO14" s="3"/>
-      <c r="AP14" s="3"/>
-      <c r="AQ14" s="3"/>
-      <c r="AR14" s="3"/>
-      <c r="AS14" s="3"/>
-      <c r="AT14" s="3"/>
-      <c r="BA14" s="3">
-        <v>20</v>
-      </c>
-      <c r="BB14">
-        <v>1</v>
-      </c>
-      <c r="BC14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" ht="16.5" spans="3:55">
-      <c r="C15">
-        <v>1200101</v>
-      </c>
-      <c r="D15" s="8" t="s">
-        <v>154</v>
-      </c>
-      <c r="E15" s="9">
-        <v>2</v>
-      </c>
-      <c r="F15">
-        <v>0</v>
-      </c>
-      <c r="G15">
-        <v>42002001</v>
-      </c>
-      <c r="H15">
-        <v>42002001</v>
-      </c>
-      <c r="I15" t="s">
-        <v>127</v>
-      </c>
-      <c r="J15">
-        <v>4001</v>
-      </c>
-      <c r="K15">
-        <v>2058</v>
-      </c>
-      <c r="M15">
-        <v>5</v>
-      </c>
-      <c r="N15" s="3">
-        <v>0</v>
-      </c>
-      <c r="O15" s="26" t="s">
-        <v>128</v>
-      </c>
-      <c r="P15" s="19">
-        <v>15050</v>
-      </c>
-      <c r="Q15">
-        <v>10000</v>
-      </c>
-      <c r="R15">
-        <v>10000</v>
-      </c>
-      <c r="S15">
-        <v>40</v>
-      </c>
-      <c r="T15">
-        <v>80</v>
-      </c>
-      <c r="U15" t="s">
-        <v>129</v>
-      </c>
-      <c r="Y15" s="30" t="s">
-        <v>130</v>
-      </c>
-      <c r="Z15" s="30" t="s">
-        <v>131</v>
-      </c>
-      <c r="AA15" s="26" t="s">
-        <v>155</v>
-      </c>
-      <c r="AB15" s="26" t="s">
-        <v>133</v>
-      </c>
-      <c r="AC15">
-        <v>0</v>
-      </c>
-      <c r="AE15">
-        <v>999</v>
-      </c>
-      <c r="AG15">
-        <v>3002001</v>
-      </c>
-      <c r="AJ15" t="s">
-        <v>134</v>
-      </c>
-      <c r="AO15" s="3"/>
-      <c r="AP15" s="3"/>
-      <c r="AQ15" s="3"/>
-      <c r="AR15" s="3"/>
-      <c r="AS15" s="3"/>
-      <c r="AT15" s="3"/>
-      <c r="BA15" s="3">
-        <v>20</v>
-      </c>
-      <c r="BB15">
-        <v>1</v>
-      </c>
-      <c r="BC15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" ht="16.5" spans="3:55">
-      <c r="C16">
-        <v>1201301</v>
-      </c>
-      <c r="D16" s="8" t="s">
-        <v>156</v>
-      </c>
-      <c r="E16" s="9">
-        <v>2</v>
-      </c>
-      <c r="F16">
-        <v>0</v>
-      </c>
-      <c r="G16">
-        <v>42002001</v>
-      </c>
-      <c r="H16">
-        <v>42002001</v>
-      </c>
-      <c r="I16" t="s">
-        <v>127</v>
-      </c>
-      <c r="J16">
-        <v>4001</v>
-      </c>
-      <c r="K16">
-        <v>2015</v>
-      </c>
-      <c r="M16">
-        <v>5</v>
-      </c>
-      <c r="N16" s="3">
-        <v>0</v>
-      </c>
-      <c r="O16" s="26" t="s">
-        <v>157</v>
-      </c>
-      <c r="P16" s="19">
-        <v>15010</v>
-      </c>
-      <c r="Q16">
-        <v>10000</v>
-      </c>
-      <c r="R16">
-        <v>10000</v>
-      </c>
-      <c r="S16">
-        <v>40</v>
-      </c>
-      <c r="T16">
-        <v>80</v>
-      </c>
-      <c r="U16" t="s">
-        <v>137</v>
-      </c>
-      <c r="Y16" s="30" t="s">
-        <v>130</v>
-      </c>
-      <c r="Z16" s="30" t="s">
-        <v>131</v>
-      </c>
-      <c r="AA16" s="26" t="s">
-        <v>155</v>
-      </c>
-      <c r="AB16" s="26" t="s">
-        <v>133</v>
-      </c>
-      <c r="AC16">
-        <v>0</v>
-      </c>
-      <c r="AE16">
-        <v>999</v>
-      </c>
-      <c r="AG16">
-        <v>3002001</v>
-      </c>
-      <c r="AJ16" t="s">
-        <v>134</v>
-      </c>
-      <c r="AO16" s="3"/>
-      <c r="AP16" s="3"/>
-      <c r="AQ16" s="3"/>
-      <c r="AR16" s="3"/>
-      <c r="AS16" s="3"/>
-      <c r="AT16" s="3"/>
-      <c r="BA16" s="3">
-        <v>20</v>
-      </c>
-      <c r="BB16">
-        <v>1</v>
-      </c>
-      <c r="BC16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" ht="16.5" spans="3:55">
-      <c r="C17">
-        <v>1201201</v>
-      </c>
-      <c r="D17" s="8" t="s">
-        <v>158</v>
-      </c>
-      <c r="E17" s="9">
-        <v>2</v>
-      </c>
-      <c r="F17">
-        <v>0</v>
-      </c>
-      <c r="G17">
-        <v>42002001</v>
-      </c>
-      <c r="H17">
-        <v>42002001</v>
-      </c>
-      <c r="I17" t="s">
-        <v>127</v>
-      </c>
-      <c r="J17">
-        <v>4001</v>
-      </c>
-      <c r="K17">
-        <v>2016</v>
-      </c>
-      <c r="M17">
-        <v>5</v>
-      </c>
-      <c r="N17" s="3">
-        <v>0</v>
-      </c>
-      <c r="O17" s="26" t="s">
-        <v>142</v>
-      </c>
-      <c r="P17" s="19">
-        <v>15010</v>
-      </c>
-      <c r="Q17">
-        <v>10000</v>
-      </c>
-      <c r="R17">
-        <v>10000</v>
-      </c>
-      <c r="S17">
-        <v>40</v>
-      </c>
-      <c r="T17">
-        <v>80</v>
-      </c>
-      <c r="U17" t="s">
-        <v>129</v>
-      </c>
-      <c r="Y17" s="30" t="s">
-        <v>130</v>
-      </c>
-      <c r="Z17" s="30" t="s">
-        <v>131</v>
-      </c>
-      <c r="AA17" s="26" t="s">
-        <v>155</v>
-      </c>
-      <c r="AB17" s="26" t="s">
-        <v>133</v>
-      </c>
-      <c r="AC17">
-        <v>0</v>
-      </c>
-      <c r="AE17">
-        <v>999</v>
-      </c>
-      <c r="AG17">
-        <v>3002001</v>
-      </c>
-      <c r="AJ17" t="s">
-        <v>134</v>
-      </c>
-      <c r="AO17" s="3"/>
-      <c r="AP17" s="3"/>
-      <c r="AQ17" s="3"/>
-      <c r="AR17" s="3"/>
-      <c r="AS17" s="3"/>
-      <c r="AT17" s="3"/>
-      <c r="BA17" s="3">
-        <v>20</v>
-      </c>
-      <c r="BB17">
-        <v>1</v>
-      </c>
-      <c r="BC17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" ht="16.5" spans="3:55">
-      <c r="C18">
-        <v>1203202</v>
-      </c>
-      <c r="D18" s="8" t="s">
-        <v>159</v>
-      </c>
-      <c r="E18" s="9">
-        <v>2</v>
-      </c>
-      <c r="F18">
-        <v>0</v>
-      </c>
-      <c r="G18">
-        <v>42002001</v>
-      </c>
-      <c r="H18">
-        <v>42002001</v>
-      </c>
-      <c r="I18" t="s">
-        <v>127</v>
-      </c>
-      <c r="J18">
-        <v>4001</v>
-      </c>
-      <c r="K18">
-        <v>2117</v>
-      </c>
-      <c r="M18">
-        <v>7</v>
-      </c>
-      <c r="N18" s="3">
-        <v>0</v>
-      </c>
-      <c r="O18" s="26" t="s">
-        <v>128</v>
-      </c>
-      <c r="P18" s="19">
-        <v>15050</v>
-      </c>
-      <c r="Q18">
-        <v>10000</v>
-      </c>
-      <c r="R18">
-        <v>10000</v>
-      </c>
-      <c r="S18">
-        <v>40</v>
-      </c>
-      <c r="T18">
-        <v>80</v>
-      </c>
-      <c r="U18" t="s">
-        <v>137</v>
-      </c>
-      <c r="Y18" s="30" t="s">
-        <v>130</v>
-      </c>
-      <c r="Z18" s="30" t="s">
-        <v>131</v>
-      </c>
-      <c r="AA18" s="26" t="s">
-        <v>138</v>
-      </c>
-      <c r="AB18" s="26" t="s">
-        <v>133</v>
-      </c>
-      <c r="AC18">
-        <v>0</v>
-      </c>
-      <c r="AE18">
-        <v>999</v>
-      </c>
-      <c r="AG18">
-        <v>3002001</v>
-      </c>
-      <c r="AJ18" t="s">
-        <v>134</v>
-      </c>
-      <c r="AO18" s="3"/>
-      <c r="AP18" s="3"/>
-      <c r="AQ18" s="3"/>
-      <c r="AR18" s="3"/>
-      <c r="AS18" s="3"/>
-      <c r="AT18" s="3"/>
-      <c r="BA18" s="3">
-        <v>20</v>
-      </c>
-      <c r="BB18">
-        <v>1</v>
-      </c>
-      <c r="BC18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" ht="16.5" spans="3:55">
-      <c r="C19">
-        <v>1200701</v>
-      </c>
-      <c r="D19" s="8" t="s">
-        <v>160</v>
-      </c>
-      <c r="E19" s="9">
-        <v>2</v>
-      </c>
-      <c r="F19">
-        <v>0</v>
-      </c>
-      <c r="G19">
-        <v>42002001</v>
-      </c>
-      <c r="H19">
-        <v>42002001</v>
-      </c>
-      <c r="I19" t="s">
-        <v>127</v>
-      </c>
-      <c r="J19">
-        <v>4001</v>
-      </c>
-      <c r="K19">
-        <v>2118</v>
-      </c>
-      <c r="M19">
-        <v>7</v>
-      </c>
-      <c r="N19" s="3">
-        <v>0</v>
-      </c>
-      <c r="O19" s="26" t="s">
-        <v>161</v>
-      </c>
-      <c r="P19" s="19">
-        <v>15010</v>
-      </c>
-      <c r="Q19">
-        <v>10000</v>
-      </c>
-      <c r="R19">
-        <v>10000</v>
-      </c>
-      <c r="S19">
-        <v>40</v>
-      </c>
-      <c r="T19">
-        <v>80</v>
-      </c>
-      <c r="U19" t="s">
-        <v>129</v>
-      </c>
-      <c r="Y19" s="30" t="s">
-        <v>130</v>
-      </c>
-      <c r="Z19" s="30" t="s">
-        <v>131</v>
-      </c>
-      <c r="AA19" s="26" t="s">
-        <v>138</v>
-      </c>
-      <c r="AB19" s="26" t="s">
-        <v>133</v>
-      </c>
-      <c r="AC19">
-        <v>0</v>
-      </c>
-      <c r="AE19">
-        <v>999</v>
-      </c>
-      <c r="AG19">
-        <v>3002001</v>
-      </c>
-      <c r="AJ19" t="s">
-        <v>134</v>
-      </c>
-      <c r="AO19" s="3"/>
-      <c r="AP19" s="3"/>
-      <c r="AQ19" s="3"/>
-      <c r="AR19" s="3"/>
-      <c r="AS19" s="3"/>
-      <c r="AT19" s="3"/>
-      <c r="BA19" s="3">
-        <v>20</v>
-      </c>
-      <c r="BB19">
-        <v>1</v>
-      </c>
-      <c r="BC19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" ht="16.5" spans="3:55">
-      <c r="C20">
-        <v>1205801</v>
-      </c>
-      <c r="D20" s="8" t="s">
-        <v>162</v>
-      </c>
-      <c r="E20" s="9">
-        <v>2</v>
-      </c>
-      <c r="F20">
-        <v>0</v>
-      </c>
-      <c r="G20">
-        <v>42002001</v>
-      </c>
-      <c r="H20">
-        <v>42002001</v>
-      </c>
-      <c r="I20" t="s">
-        <v>127</v>
-      </c>
-      <c r="J20">
-        <v>4001</v>
-      </c>
-      <c r="K20">
-        <v>2119</v>
-      </c>
-      <c r="M20">
-        <v>7</v>
-      </c>
-      <c r="N20" s="3">
-        <v>0</v>
-      </c>
-      <c r="O20" s="26">
-        <v>16</v>
-      </c>
-      <c r="P20" s="19">
-        <v>15010</v>
-      </c>
-      <c r="Q20">
-        <v>10000</v>
-      </c>
-      <c r="R20">
-        <v>10000</v>
-      </c>
-      <c r="S20">
-        <v>40</v>
-      </c>
-      <c r="T20">
-        <v>80</v>
-      </c>
-      <c r="U20" t="s">
-        <v>137</v>
-      </c>
-      <c r="Y20" s="30" t="s">
-        <v>130</v>
-      </c>
-      <c r="Z20" s="30" t="s">
-        <v>131</v>
-      </c>
-      <c r="AA20" s="26" t="s">
-        <v>138</v>
-      </c>
-      <c r="AB20" s="26" t="s">
-        <v>133</v>
-      </c>
-      <c r="AC20">
-        <v>0</v>
-      </c>
-      <c r="AE20">
-        <v>999</v>
-      </c>
-      <c r="AG20">
-        <v>3002001</v>
-      </c>
-      <c r="AJ20" t="s">
-        <v>134</v>
-      </c>
-      <c r="AO20" s="3"/>
-      <c r="AP20" s="3"/>
-      <c r="AQ20" s="3"/>
-      <c r="AR20" s="3"/>
-      <c r="AS20" s="3"/>
-      <c r="AT20" s="3"/>
-      <c r="BA20" s="3">
-        <v>20</v>
-      </c>
-      <c r="BB20">
-        <v>1</v>
-      </c>
-      <c r="BC20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" ht="16.5" spans="3:55">
-      <c r="C21">
-        <v>1201501</v>
-      </c>
-      <c r="D21" s="8" t="s">
-        <v>163</v>
-      </c>
-      <c r="E21" s="9">
-        <v>2</v>
-      </c>
-      <c r="F21">
-        <v>0</v>
-      </c>
-      <c r="G21">
-        <v>42002001</v>
-      </c>
-      <c r="H21">
-        <v>42002001</v>
-      </c>
-      <c r="I21" t="s">
-        <v>127</v>
-      </c>
-      <c r="J21">
-        <v>4001</v>
-      </c>
-      <c r="K21">
-        <v>2120</v>
-      </c>
-      <c r="M21">
-        <v>7</v>
-      </c>
-      <c r="N21" s="3">
-        <v>0</v>
-      </c>
-      <c r="O21" s="3">
-        <v>10</v>
-      </c>
-      <c r="P21" s="19">
-        <v>15010</v>
-      </c>
-      <c r="Q21">
-        <v>10000</v>
-      </c>
-      <c r="R21">
-        <v>10000</v>
-      </c>
-      <c r="S21">
-        <v>40</v>
-      </c>
-      <c r="T21">
-        <v>80</v>
-      </c>
-      <c r="U21" t="s">
-        <v>129</v>
-      </c>
-      <c r="Y21" s="30" t="s">
-        <v>130</v>
-      </c>
-      <c r="Z21" s="30" t="s">
-        <v>131</v>
-      </c>
-      <c r="AA21" s="26" t="s">
-        <v>155</v>
-      </c>
-      <c r="AB21" s="26" t="s">
-        <v>133</v>
-      </c>
-      <c r="AC21">
-        <v>0</v>
-      </c>
-      <c r="AE21">
-        <v>999</v>
-      </c>
-      <c r="AG21">
-        <v>3002001</v>
-      </c>
-      <c r="AJ21" t="s">
-        <v>134</v>
-      </c>
-      <c r="AO21" s="3"/>
-      <c r="AP21" s="3"/>
-      <c r="AQ21" s="3"/>
-      <c r="AR21" s="3"/>
-      <c r="AS21" s="3"/>
-      <c r="AT21" s="3"/>
-      <c r="BA21" s="3">
-        <v>20</v>
-      </c>
-      <c r="BB21">
-        <v>1</v>
-      </c>
-      <c r="BC21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" ht="16.5" spans="3:55">
-      <c r="C22">
-        <v>1203801</v>
-      </c>
-      <c r="D22" s="8" t="s">
-        <v>164</v>
-      </c>
-      <c r="E22" s="9">
-        <v>2</v>
-      </c>
-      <c r="F22">
-        <v>0</v>
-      </c>
-      <c r="G22">
-        <v>42002001</v>
-      </c>
-      <c r="H22">
-        <v>42002001</v>
-      </c>
-      <c r="I22" t="s">
-        <v>127</v>
-      </c>
-      <c r="J22">
-        <v>4001</v>
-      </c>
-      <c r="K22">
-        <v>2121</v>
-      </c>
-      <c r="M22">
-        <v>1</v>
-      </c>
-      <c r="N22" s="3">
-        <v>0</v>
-      </c>
-      <c r="O22" s="3">
-        <v>5</v>
-      </c>
-      <c r="P22" s="19">
-        <v>15050</v>
-      </c>
-      <c r="Q22">
-        <v>10000</v>
-      </c>
-      <c r="R22">
-        <v>10000</v>
-      </c>
-      <c r="S22">
-        <v>40</v>
-      </c>
-      <c r="T22">
-        <v>80</v>
-      </c>
-      <c r="U22" t="s">
-        <v>137</v>
-      </c>
-      <c r="Y22" s="30" t="s">
-        <v>149</v>
-      </c>
-      <c r="Z22" s="30" t="s">
-        <v>150</v>
-      </c>
-      <c r="AA22" s="26" t="s">
-        <v>151</v>
-      </c>
-      <c r="AB22" s="26" t="s">
-        <v>152</v>
-      </c>
-      <c r="AC22">
-        <v>0</v>
-      </c>
-      <c r="AE22">
-        <v>999</v>
-      </c>
-      <c r="AG22">
-        <v>3002001</v>
-      </c>
-      <c r="AJ22" t="s">
-        <v>134</v>
-      </c>
-      <c r="AO22" s="3"/>
-      <c r="AP22" s="3"/>
-      <c r="AQ22" s="3"/>
-      <c r="AR22" s="3"/>
-      <c r="AS22" s="3"/>
-      <c r="AT22" s="3"/>
-      <c r="BA22" s="3">
-        <v>20</v>
-      </c>
-      <c r="BB22">
-        <v>1</v>
-      </c>
-      <c r="BC22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" ht="16.5" spans="3:55">
-      <c r="C23">
-        <v>3200101</v>
-      </c>
-      <c r="D23" s="8" t="s">
-        <v>165</v>
-      </c>
-      <c r="E23" s="9">
-        <v>2</v>
-      </c>
-      <c r="F23">
-        <v>0</v>
-      </c>
-      <c r="G23">
-        <v>42002001</v>
-      </c>
-      <c r="H23">
-        <v>42002001</v>
-      </c>
-      <c r="I23" t="s">
-        <v>127</v>
-      </c>
-      <c r="J23">
-        <v>4001</v>
-      </c>
-      <c r="K23">
-        <v>5000</v>
-      </c>
-      <c r="M23">
-        <v>5</v>
-      </c>
-      <c r="N23" s="3">
-        <v>3</v>
-      </c>
-      <c r="O23" s="26" t="s">
-        <v>128</v>
-      </c>
-      <c r="P23" s="19">
-        <v>15050</v>
-      </c>
-      <c r="Q23">
-        <v>10000</v>
-      </c>
-      <c r="R23">
-        <v>10000</v>
-      </c>
-      <c r="S23">
-        <v>40</v>
-      </c>
-      <c r="T23">
-        <v>80</v>
-      </c>
-      <c r="U23" t="s">
-        <v>166</v>
-      </c>
-      <c r="Y23" s="30" t="s">
-        <v>130</v>
-      </c>
-      <c r="Z23" s="30" t="s">
-        <v>131</v>
-      </c>
-      <c r="AA23" s="26" t="s">
-        <v>155</v>
-      </c>
-      <c r="AB23" s="26" t="s">
-        <v>133</v>
-      </c>
-      <c r="AC23">
-        <v>0</v>
-      </c>
-      <c r="AE23">
-        <v>999</v>
-      </c>
-      <c r="AG23">
-        <v>3002001</v>
-      </c>
-      <c r="AJ23" t="s">
-        <v>134</v>
-      </c>
-      <c r="AO23" s="3"/>
-      <c r="AP23" s="3"/>
-      <c r="AQ23" s="3"/>
-      <c r="AR23" s="3"/>
-      <c r="AS23" s="3"/>
-      <c r="AT23" s="3"/>
-      <c r="BA23" s="3">
-        <v>20</v>
-      </c>
-      <c r="BB23">
-        <v>1</v>
-      </c>
-      <c r="BC23">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="C1:U23">
+  <autoFilter ref="C1:U10">
     <extLst/>
   </autoFilter>
-  <conditionalFormatting sqref="K13">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  <conditionalFormatting sqref="C10">
+    <cfRule type="duplicateValues" dxfId="0" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="8"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C23">
-    <cfRule type="duplicateValues" dxfId="0" priority="8"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="7"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="6"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="5"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="4"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C24:C1048576">
-    <cfRule type="duplicateValues" dxfId="0" priority="318"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C1:C4 C24:C1048576">
-    <cfRule type="duplicateValues" dxfId="0" priority="251"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C13 C9:C10 C1:C4 C24:C1048576">
-    <cfRule type="duplicateValues" dxfId="0" priority="843"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="844"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AH2:AJ8">
-    <cfRule type="notContainsBlanks" dxfId="1" priority="250">
-      <formula>LEN(TRIM(AH2))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C5:C8 C11:C12 C14:C22">
+  <conditionalFormatting sqref="C5:C9">
     <cfRule type="duplicateValues" dxfId="0" priority="845"/>
     <cfRule type="duplicateValues" dxfId="0" priority="846"/>
     <cfRule type="duplicateValues" dxfId="0" priority="847"/>
     <cfRule type="duplicateValues" dxfId="0" priority="848"/>
     <cfRule type="duplicateValues" dxfId="0" priority="849"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C13 C9:C10">
-    <cfRule type="duplicateValues" dxfId="0" priority="818"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="819"/>
+  <conditionalFormatting sqref="C11:C1048576">
+    <cfRule type="duplicateValues" dxfId="0" priority="318"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AH18:AJ20">
+  <conditionalFormatting sqref="C1:C4 C11:C1048576">
+    <cfRule type="duplicateValues" dxfId="0" priority="251"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="843"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="844"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AH2:AJ4">
+    <cfRule type="notContainsBlanks" dxfId="1" priority="250">
+      <formula>LEN(TRIM(AH2))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AH5:AJ7">
     <cfRule type="notContainsBlanks" dxfId="1" priority="12">
-      <formula>LEN(TRIM(AH18))&gt;0</formula>
+      <formula>LEN(TRIM(AH5))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5653,19 +4370,19 @@
   <sheetData>
     <row r="1" ht="18" spans="1:5">
       <c r="A1" s="21" t="s">
-        <v>167</v>
+        <v>148</v>
       </c>
       <c r="B1" s="21" t="s">
-        <v>168</v>
+        <v>149</v>
       </c>
       <c r="C1" s="21" t="s">
-        <v>169</v>
+        <v>150</v>
       </c>
       <c r="D1" s="21" t="s">
-        <v>170</v>
+        <v>151</v>
       </c>
       <c r="E1" s="21" t="s">
-        <v>171</v>
+        <v>152</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -5673,7 +4390,7 @@
         <v>73</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>172</v>
+        <v>153</v>
       </c>
       <c r="C2" s="12" t="s">
         <v>53</v>
@@ -5696,17 +4413,17 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="12" t="s">
-        <v>173</v>
+        <v>154</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>174</v>
+        <v>155</v>
       </c>
       <c r="C4" s="12" t="s">
         <v>53</v>
       </c>
       <c r="D4" s="12"/>
       <c r="E4" s="12" t="s">
-        <v>175</v>
+        <v>156</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -5720,7 +4437,7 @@
         <v>53</v>
       </c>
       <c r="D5" s="22" t="s">
-        <v>176</v>
+        <v>157</v>
       </c>
       <c r="E5" s="22"/>
     </row>
@@ -5735,7 +4452,7 @@
         <v>53</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>176</v>
+        <v>157</v>
       </c>
       <c r="E6" s="12"/>
     </row>
@@ -5779,33 +4496,33 @@
       <c r="C9" s="22"/>
       <c r="D9" s="22"/>
       <c r="E9" s="23" t="s">
-        <v>177</v>
+        <v>158</v>
       </c>
     </row>
     <row r="10" ht="66" spans="1:5">
       <c r="A10" s="12" t="s">
-        <v>178</v>
+        <v>159</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>179</v>
+        <v>160</v>
       </c>
       <c r="C10" s="12"/>
       <c r="D10" s="12"/>
       <c r="E10" s="24" t="s">
-        <v>180</v>
+        <v>161</v>
       </c>
     </row>
     <row r="11" ht="66" spans="1:5">
       <c r="A11" s="22" t="s">
-        <v>181</v>
+        <v>162</v>
       </c>
       <c r="B11" s="22" t="s">
-        <v>182</v>
+        <v>163</v>
       </c>
       <c r="C11" s="22"/>
       <c r="D11" s="22"/>
       <c r="E11" s="23" t="s">
-        <v>183</v>
+        <v>164</v>
       </c>
     </row>
     <row r="12" ht="33" spans="1:5">
@@ -5820,15 +4537,15 @@
       </c>
       <c r="D12" s="12"/>
       <c r="E12" s="24" t="s">
-        <v>184</v>
+        <v>165</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="22" t="s">
-        <v>185</v>
+        <v>166</v>
       </c>
       <c r="B13" s="22" t="s">
-        <v>186</v>
+        <v>167</v>
       </c>
       <c r="C13" s="22" t="s">
         <v>53</v>
@@ -5838,25 +4555,25 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="12" t="s">
-        <v>187</v>
+        <v>168</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>188</v>
+        <v>169</v>
       </c>
       <c r="C14" s="12" t="s">
         <v>53</v>
       </c>
       <c r="D14" s="12"/>
       <c r="E14" s="12" t="s">
-        <v>189</v>
+        <v>170</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="22" t="s">
-        <v>190</v>
+        <v>171</v>
       </c>
       <c r="B15" s="22" t="s">
-        <v>191</v>
+        <v>172</v>
       </c>
       <c r="C15" s="22" t="s">
         <v>53</v>
@@ -5866,10 +4583,10 @@
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="12" t="s">
-        <v>192</v>
+        <v>173</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>193</v>
+        <v>174</v>
       </c>
       <c r="C16" s="12" t="s">
         <v>53</v>
@@ -5879,10 +4596,10 @@
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="22" t="s">
-        <v>194</v>
+        <v>175</v>
       </c>
       <c r="B17" s="22" t="s">
-        <v>195</v>
+        <v>176</v>
       </c>
       <c r="C17" s="22" t="s">
         <v>53</v>
@@ -5892,32 +4609,32 @@
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="22" t="s">
-        <v>196</v>
+        <v>177</v>
       </c>
       <c r="B18" s="22" t="s">
-        <v>197</v>
+        <v>178</v>
       </c>
       <c r="C18" s="22" t="s">
         <v>59</v>
       </c>
       <c r="D18" s="22"/>
       <c r="E18" s="22" t="s">
-        <v>198</v>
+        <v>179</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="12" t="s">
-        <v>199</v>
+        <v>180</v>
       </c>
       <c r="B19" s="12" t="s">
-        <v>200</v>
+        <v>181</v>
       </c>
       <c r="C19" s="12" t="s">
         <v>59</v>
       </c>
       <c r="D19" s="12"/>
       <c r="E19" s="12" t="s">
-        <v>201</v>
+        <v>182</v>
       </c>
     </row>
     <row r="20" ht="49.5" spans="1:5">
@@ -5932,7 +4649,7 @@
       </c>
       <c r="D20" s="12"/>
       <c r="E20" s="24" t="s">
-        <v>202</v>
+        <v>183</v>
       </c>
     </row>
     <row r="21" ht="33" spans="1:5">
@@ -5947,7 +4664,7 @@
       </c>
       <c r="D21" s="22"/>
       <c r="E21" s="23" t="s">
-        <v>203</v>
+        <v>184</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -5962,7 +4679,7 @@
       </c>
       <c r="D22" s="12"/>
       <c r="E22" s="12" t="s">
-        <v>204</v>
+        <v>185</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -5977,7 +4694,7 @@
       </c>
       <c r="D23" s="22"/>
       <c r="E23" s="22" t="s">
-        <v>205</v>
+        <v>186</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -5994,7 +4711,7 @@
         <v>68</v>
       </c>
       <c r="E24" s="12" t="s">
-        <v>206</v>
+        <v>187</v>
       </c>
     </row>
   </sheetData>
@@ -6143,64 +4860,64 @@
         <v>13</v>
       </c>
       <c r="AA1" s="18" t="s">
+        <v>188</v>
+      </c>
+      <c r="AB1" s="18" t="s">
+        <v>189</v>
+      </c>
+      <c r="AC1" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="AD1" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="AE1" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="AF1" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="AG1" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="AH1" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="AI1" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="AJ1" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="AK1" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="AL1" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="AM1" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="AN1" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="AO1" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="AP1" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="AQ1" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="AR1" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="AS1" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="AT1" s="4" t="s">
         <v>207</v>
-      </c>
-      <c r="AB1" s="18" t="s">
-        <v>208</v>
-      </c>
-      <c r="AC1" s="3" t="s">
-        <v>209</v>
-      </c>
-      <c r="AD1" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="AE1" s="3" t="s">
-        <v>211</v>
-      </c>
-      <c r="AF1" s="3" t="s">
-        <v>212</v>
-      </c>
-      <c r="AG1" s="3" t="s">
-        <v>213</v>
-      </c>
-      <c r="AH1" s="3" t="s">
-        <v>214</v>
-      </c>
-      <c r="AI1" s="4" t="s">
-        <v>215</v>
-      </c>
-      <c r="AJ1" s="4" t="s">
-        <v>216</v>
-      </c>
-      <c r="AK1" s="3" t="s">
-        <v>217</v>
-      </c>
-      <c r="AL1" s="3" t="s">
-        <v>218</v>
-      </c>
-      <c r="AM1" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="AN1" s="3" t="s">
-        <v>220</v>
-      </c>
-      <c r="AO1" s="3" t="s">
-        <v>221</v>
-      </c>
-      <c r="AP1" s="3" t="s">
-        <v>222</v>
-      </c>
-      <c r="AQ1" s="3" t="s">
-        <v>223</v>
-      </c>
-      <c r="AR1" s="3" t="s">
-        <v>224</v>
-      </c>
-      <c r="AS1" s="4" t="s">
-        <v>225</v>
-      </c>
-      <c r="AT1" s="4" t="s">
-        <v>226</v>
       </c>
       <c r="AU1" s="3" t="s">
         <v>44</v>
@@ -6277,7 +4994,7 @@
         <v>55</v>
       </c>
       <c r="M2" s="11" t="s">
-        <v>227</v>
+        <v>208</v>
       </c>
       <c r="N2" s="6" t="s">
         <v>64</v>
@@ -6465,10 +5182,10 @@
     </row>
     <row r="4" ht="16.5" spans="3:62">
       <c r="C4" s="7" t="s">
-        <v>171</v>
+        <v>152</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>228</v>
+        <v>209</v>
       </c>
       <c r="E4" s="6" t="s">
         <v>73</v>
@@ -6537,64 +5254,64 @@
         <v>86</v>
       </c>
       <c r="AA4" s="18" t="s">
+        <v>210</v>
+      </c>
+      <c r="AB4" s="18" t="s">
+        <v>211</v>
+      </c>
+      <c r="AC4" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="AD4" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="AE4" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="AF4" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="AG4" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="AH4" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="AI4" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="AJ4" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="AK4" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="AL4" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="AM4" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="AN4" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="AO4" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="AP4" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="AQ4" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="AR4" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="AS4" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="AT4" s="4" t="s">
         <v>229</v>
-      </c>
-      <c r="AB4" s="18" t="s">
-        <v>230</v>
-      </c>
-      <c r="AC4" s="3" t="s">
-        <v>231</v>
-      </c>
-      <c r="AD4" s="3" t="s">
-        <v>232</v>
-      </c>
-      <c r="AE4" s="3" t="s">
-        <v>233</v>
-      </c>
-      <c r="AF4" s="3" t="s">
-        <v>234</v>
-      </c>
-      <c r="AG4" s="3" t="s">
-        <v>235</v>
-      </c>
-      <c r="AH4" s="3" t="s">
-        <v>236</v>
-      </c>
-      <c r="AI4" s="4" t="s">
-        <v>237</v>
-      </c>
-      <c r="AJ4" s="4" t="s">
-        <v>238</v>
-      </c>
-      <c r="AK4" s="3" t="s">
-        <v>239</v>
-      </c>
-      <c r="AL4" s="3" t="s">
-        <v>240</v>
-      </c>
-      <c r="AM4" s="3" t="s">
-        <v>241</v>
-      </c>
-      <c r="AN4" s="3" t="s">
-        <v>242</v>
-      </c>
-      <c r="AO4" s="3" t="s">
-        <v>243</v>
-      </c>
-      <c r="AP4" s="3" t="s">
-        <v>244</v>
-      </c>
-      <c r="AQ4" s="3" t="s">
-        <v>245</v>
-      </c>
-      <c r="AR4" s="3" t="s">
-        <v>246</v>
-      </c>
-      <c r="AS4" s="4" t="s">
-        <v>247</v>
-      </c>
-      <c r="AT4" s="4" t="s">
-        <v>248</v>
       </c>
       <c r="AU4" s="3" t="s">
         <v>117</v>
@@ -6647,13 +5364,13 @@
     </row>
     <row r="5" ht="16.5" spans="4:62">
       <c r="D5" s="2" t="s">
-        <v>249</v>
+        <v>230</v>
       </c>
       <c r="E5">
         <v>11020011</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>250</v>
+        <v>231</v>
       </c>
       <c r="G5">
         <v>42002001</v>
@@ -6780,18 +5497,18 @@
       <c r="BH5" s="3"/>
       <c r="BI5" s="3"/>
       <c r="BJ5" t="s">
-        <v>251</v>
+        <v>232</v>
       </c>
     </row>
     <row r="6" ht="16.5" spans="4:62">
       <c r="D6" s="2" t="s">
-        <v>249</v>
+        <v>230</v>
       </c>
       <c r="E6">
         <v>11020021</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>252</v>
+        <v>233</v>
       </c>
       <c r="G6">
         <v>42002001</v>
@@ -6913,18 +5630,18 @@
         <v>0</v>
       </c>
       <c r="BJ6" t="s">
-        <v>253</v>
+        <v>234</v>
       </c>
     </row>
     <row r="7" ht="16.5" spans="4:62">
       <c r="D7" s="2" t="s">
-        <v>249</v>
+        <v>230</v>
       </c>
       <c r="E7">
         <v>11020031</v>
       </c>
       <c r="F7" s="9" t="s">
-        <v>254</v>
+        <v>235</v>
       </c>
       <c r="G7">
         <v>42002001</v>
@@ -7046,18 +5763,18 @@
         <v>0</v>
       </c>
       <c r="BJ7" t="s">
-        <v>255</v>
+        <v>236</v>
       </c>
     </row>
     <row r="8" ht="16.5" spans="4:62">
       <c r="D8" s="2" t="s">
-        <v>249</v>
+        <v>230</v>
       </c>
       <c r="E8">
         <v>11020051</v>
       </c>
       <c r="F8" s="9" t="s">
-        <v>256</v>
+        <v>237</v>
       </c>
       <c r="G8">
         <v>42002001</v>
@@ -7182,18 +5899,18 @@
         <v>0</v>
       </c>
       <c r="BJ8" t="s">
-        <v>255</v>
+        <v>236</v>
       </c>
     </row>
     <row r="9" ht="16.5" spans="4:62">
       <c r="D9" s="2" t="s">
-        <v>249</v>
+        <v>230</v>
       </c>
       <c r="E9">
         <v>11020061</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>257</v>
+        <v>238</v>
       </c>
       <c r="G9">
         <v>42002001</v>
@@ -7318,18 +6035,18 @@
         <v>0</v>
       </c>
       <c r="BJ9" t="s">
-        <v>255</v>
+        <v>236</v>
       </c>
     </row>
     <row r="10" ht="16.5" spans="4:62">
       <c r="D10" s="2" t="s">
-        <v>249</v>
+        <v>230</v>
       </c>
       <c r="E10" s="10">
         <v>11020071</v>
       </c>
       <c r="F10" s="9" t="s">
-        <v>258</v>
+        <v>239</v>
       </c>
       <c r="G10">
         <v>42002001</v>
@@ -7454,18 +6171,18 @@
         <v>0</v>
       </c>
       <c r="BJ10" t="s">
-        <v>259</v>
+        <v>240</v>
       </c>
     </row>
     <row r="11" ht="16.5" spans="4:62">
       <c r="D11" s="2" t="s">
-        <v>260</v>
+        <v>241</v>
       </c>
       <c r="E11" s="10">
         <v>12020081</v>
       </c>
       <c r="F11" s="9" t="s">
-        <v>261</v>
+        <v>242</v>
       </c>
       <c r="G11">
         <v>42002001</v>
@@ -7590,18 +6307,18 @@
         <v>0</v>
       </c>
       <c r="BJ11" t="s">
-        <v>262</v>
+        <v>243</v>
       </c>
     </row>
     <row r="12" ht="16.5" spans="4:62">
       <c r="D12" s="2" t="s">
-        <v>260</v>
+        <v>241</v>
       </c>
       <c r="E12" s="10">
         <v>12020082</v>
       </c>
       <c r="F12" s="9" t="s">
-        <v>263</v>
+        <v>244</v>
       </c>
       <c r="G12">
         <v>42002001</v>
@@ -7726,18 +6443,18 @@
         <v>0</v>
       </c>
       <c r="BJ12" t="s">
-        <v>262</v>
+        <v>243</v>
       </c>
     </row>
     <row r="13" ht="16.5" spans="4:62">
       <c r="D13" s="2" t="s">
-        <v>260</v>
+        <v>241</v>
       </c>
       <c r="E13" s="10">
         <v>12020091</v>
       </c>
       <c r="F13" s="9" t="s">
-        <v>264</v>
+        <v>245</v>
       </c>
       <c r="G13">
         <v>42002001</v>
@@ -7860,18 +6577,18 @@
         <v>0</v>
       </c>
       <c r="BJ13" t="s">
-        <v>265</v>
+        <v>246</v>
       </c>
     </row>
     <row r="14" ht="16.5" spans="4:62">
       <c r="D14" s="2" t="s">
-        <v>249</v>
+        <v>230</v>
       </c>
       <c r="E14" s="10">
         <v>11020111</v>
       </c>
       <c r="F14" s="9" t="s">
-        <v>266</v>
+        <v>247</v>
       </c>
       <c r="G14">
         <v>42002001</v>
@@ -7906,7 +6623,7 @@
         <v>0</v>
       </c>
       <c r="Z14" s="19" t="s">
-        <v>267</v>
+        <v>248</v>
       </c>
       <c r="AA14" s="5">
         <v>200</v>
@@ -7994,18 +6711,18 @@
         <v>0</v>
       </c>
       <c r="BJ14" t="s">
-        <v>268</v>
+        <v>249</v>
       </c>
     </row>
     <row r="15" ht="16.5" spans="4:62">
       <c r="D15" s="2" t="s">
-        <v>249</v>
+        <v>230</v>
       </c>
       <c r="E15" s="10">
         <v>11020121</v>
       </c>
       <c r="F15" s="9" t="s">
-        <v>269</v>
+        <v>250</v>
       </c>
       <c r="G15">
         <v>42002001</v>
@@ -8040,7 +6757,7 @@
         <v>0</v>
       </c>
       <c r="Z15" s="19" t="s">
-        <v>270</v>
+        <v>251</v>
       </c>
       <c r="AA15" s="5">
         <v>200</v>
@@ -8128,18 +6845,18 @@
         <v>0</v>
       </c>
       <c r="BJ15" t="s">
-        <v>251</v>
+        <v>232</v>
       </c>
     </row>
     <row r="16" ht="16.5" spans="4:62">
       <c r="D16" s="2" t="s">
-        <v>249</v>
+        <v>230</v>
       </c>
       <c r="E16" s="10">
         <v>11020131</v>
       </c>
       <c r="F16" s="9" t="s">
-        <v>271</v>
+        <v>252</v>
       </c>
       <c r="G16">
         <v>42002001</v>
@@ -8174,7 +6891,7 @@
         <v>0</v>
       </c>
       <c r="Z16" s="19" t="s">
-        <v>270</v>
+        <v>251</v>
       </c>
       <c r="AA16" s="5">
         <v>200</v>
@@ -8262,18 +6979,18 @@
         <v>0</v>
       </c>
       <c r="BJ16" t="s">
-        <v>251</v>
+        <v>232</v>
       </c>
     </row>
     <row r="17" ht="16.5" spans="4:62">
       <c r="D17" s="2" t="s">
-        <v>249</v>
+        <v>230</v>
       </c>
       <c r="E17" s="10">
         <v>11020141</v>
       </c>
       <c r="F17" s="9" t="s">
-        <v>272</v>
+        <v>253</v>
       </c>
       <c r="G17">
         <v>42002001</v>
@@ -8396,18 +7113,18 @@
         <v>0</v>
       </c>
       <c r="BJ17" t="s">
-        <v>251</v>
+        <v>232</v>
       </c>
     </row>
     <row r="18" ht="16.5" spans="4:62">
       <c r="D18" s="2" t="s">
-        <v>260</v>
+        <v>241</v>
       </c>
       <c r="E18" s="10">
         <v>12020181</v>
       </c>
       <c r="F18" s="9" t="s">
-        <v>273</v>
+        <v>254</v>
       </c>
       <c r="G18">
         <v>42002001</v>
@@ -8530,18 +7247,18 @@
         <v>0</v>
       </c>
       <c r="BJ18" t="s">
-        <v>274</v>
+        <v>255</v>
       </c>
     </row>
     <row r="19" ht="16.5" spans="4:62">
       <c r="D19" s="2" t="s">
-        <v>260</v>
+        <v>241</v>
       </c>
       <c r="E19" s="10">
         <v>12020191</v>
       </c>
       <c r="F19" s="9" t="s">
-        <v>275</v>
+        <v>256</v>
       </c>
       <c r="G19">
         <v>42002001</v>
@@ -8664,18 +7381,18 @@
         <v>0</v>
       </c>
       <c r="BJ19" t="s">
-        <v>274</v>
+        <v>255</v>
       </c>
     </row>
     <row r="20" ht="16.5" spans="4:62">
       <c r="D20" s="2" t="s">
-        <v>260</v>
+        <v>241</v>
       </c>
       <c r="E20" s="10">
         <v>12020201</v>
       </c>
       <c r="F20" s="9" t="s">
-        <v>276</v>
+        <v>257</v>
       </c>
       <c r="G20">
         <v>42002001</v>
@@ -8798,18 +7515,18 @@
         <v>0</v>
       </c>
       <c r="BJ20" t="s">
-        <v>274</v>
+        <v>255</v>
       </c>
     </row>
     <row r="21" ht="16.5" spans="4:62">
       <c r="D21" s="2" t="s">
-        <v>260</v>
+        <v>241</v>
       </c>
       <c r="E21" s="10">
         <v>12020211</v>
       </c>
       <c r="F21" s="9" t="s">
-        <v>277</v>
+        <v>258</v>
       </c>
       <c r="G21">
         <v>42002001</v>
@@ -8932,18 +7649,18 @@
         <v>0</v>
       </c>
       <c r="BJ21" t="s">
-        <v>274</v>
+        <v>255</v>
       </c>
     </row>
     <row r="22" ht="16.5" spans="4:62">
       <c r="D22" s="2" t="s">
-        <v>260</v>
+        <v>241</v>
       </c>
       <c r="E22" s="10">
         <v>12020221</v>
       </c>
       <c r="F22" s="9" t="s">
-        <v>278</v>
+        <v>259</v>
       </c>
       <c r="G22">
         <v>42002001</v>
@@ -9066,18 +7783,18 @@
         <v>0</v>
       </c>
       <c r="BJ22" t="s">
-        <v>274</v>
+        <v>255</v>
       </c>
     </row>
     <row r="23" ht="16.5" spans="4:62">
       <c r="D23" s="2" t="s">
-        <v>260</v>
+        <v>241</v>
       </c>
       <c r="E23" s="10">
         <v>12020231</v>
       </c>
       <c r="F23" s="9" t="s">
-        <v>279</v>
+        <v>260</v>
       </c>
       <c r="G23">
         <v>42002001</v>
@@ -9200,18 +7917,18 @@
         <v>0</v>
       </c>
       <c r="BJ23" t="s">
-        <v>280</v>
+        <v>261</v>
       </c>
     </row>
     <row r="24" ht="16.5" spans="4:62">
       <c r="D24" s="2" t="s">
-        <v>260</v>
+        <v>241</v>
       </c>
       <c r="E24" s="10">
         <v>12020232</v>
       </c>
       <c r="F24" s="9" t="s">
-        <v>281</v>
+        <v>262</v>
       </c>
       <c r="G24">
         <v>42002001</v>
@@ -9246,7 +7963,7 @@
         <v>0</v>
       </c>
       <c r="Z24" s="19" t="s">
-        <v>282</v>
+        <v>263</v>
       </c>
       <c r="AA24" s="5">
         <v>200</v>
@@ -9334,18 +8051,18 @@
         <v>0</v>
       </c>
       <c r="BJ24" t="s">
-        <v>280</v>
+        <v>261</v>
       </c>
     </row>
     <row r="25" ht="16.5" spans="4:62">
       <c r="D25" s="2" t="s">
-        <v>249</v>
+        <v>230</v>
       </c>
       <c r="E25" s="10">
         <v>11020241</v>
       </c>
       <c r="F25" s="9" t="s">
-        <v>283</v>
+        <v>264</v>
       </c>
       <c r="G25">
         <v>42002001</v>
@@ -9468,18 +8185,18 @@
         <v>0</v>
       </c>
       <c r="BJ25" t="s">
-        <v>284</v>
+        <v>265</v>
       </c>
     </row>
     <row r="26" ht="16.5" spans="4:62">
       <c r="D26" s="2" t="s">
-        <v>249</v>
+        <v>230</v>
       </c>
       <c r="E26" s="10">
         <v>11020251</v>
       </c>
       <c r="F26" s="9" t="s">
-        <v>285</v>
+        <v>266</v>
       </c>
       <c r="G26">
         <v>42002001</v>
@@ -9602,18 +8319,18 @@
         <v>0</v>
       </c>
       <c r="BJ26" t="s">
-        <v>286</v>
+        <v>267</v>
       </c>
     </row>
     <row r="27" ht="16.5" spans="4:62">
       <c r="D27" s="2" t="s">
-        <v>249</v>
+        <v>230</v>
       </c>
       <c r="E27" s="10">
         <v>11020261</v>
       </c>
       <c r="F27" s="9" t="s">
-        <v>287</v>
+        <v>268</v>
       </c>
       <c r="G27">
         <v>42002001</v>
@@ -9736,18 +8453,18 @@
         <v>0</v>
       </c>
       <c r="BJ27" t="s">
-        <v>288</v>
+        <v>269</v>
       </c>
     </row>
     <row r="28" ht="16.5" spans="4:62">
       <c r="D28" s="2" t="s">
-        <v>249</v>
+        <v>230</v>
       </c>
       <c r="E28" s="10">
         <v>11020281</v>
       </c>
       <c r="F28" s="9" t="s">
-        <v>289</v>
+        <v>270</v>
       </c>
       <c r="G28">
         <v>42002001</v>
@@ -9870,18 +8587,18 @@
         <v>0</v>
       </c>
       <c r="BJ28" t="s">
-        <v>290</v>
+        <v>271</v>
       </c>
     </row>
     <row r="29" ht="16.5" spans="4:62">
       <c r="D29" s="2" t="s">
-        <v>249</v>
+        <v>230</v>
       </c>
       <c r="E29" s="10">
         <v>11020291</v>
       </c>
       <c r="F29" s="9" t="s">
-        <v>291</v>
+        <v>272</v>
       </c>
       <c r="G29">
         <v>42002001</v>
@@ -10004,18 +8721,18 @@
         <v>0</v>
       </c>
       <c r="BJ29" t="s">
-        <v>292</v>
+        <v>273</v>
       </c>
     </row>
     <row r="30" ht="16.5" spans="4:62">
       <c r="D30" s="2" t="s">
-        <v>249</v>
+        <v>230</v>
       </c>
       <c r="E30" s="10">
         <v>11020301</v>
       </c>
       <c r="F30" s="9" t="s">
-        <v>293</v>
+        <v>274</v>
       </c>
       <c r="G30">
         <v>42002001</v>
@@ -10138,18 +8855,18 @@
         <v>0</v>
       </c>
       <c r="BJ30" t="s">
-        <v>294</v>
+        <v>275</v>
       </c>
     </row>
     <row r="31" ht="16.5" spans="4:62">
       <c r="D31" s="2" t="s">
-        <v>249</v>
+        <v>230</v>
       </c>
       <c r="E31" s="10">
         <v>11020302</v>
       </c>
       <c r="F31" s="9" t="s">
-        <v>295</v>
+        <v>276</v>
       </c>
       <c r="G31">
         <v>42002001</v>
@@ -10274,10 +8991,10 @@
         <v>0</v>
       </c>
       <c r="BE31" t="s">
-        <v>296</v>
+        <v>277</v>
       </c>
       <c r="BF31" t="s">
-        <v>297</v>
+        <v>278</v>
       </c>
       <c r="BG31" t="e">
         <f>IF(O31=0,"",VLOOKUP(O31,#REF!,2,FALSE))</f>
@@ -10287,18 +9004,18 @@
         <v>1</v>
       </c>
       <c r="BJ31" t="s">
-        <v>294</v>
+        <v>275</v>
       </c>
     </row>
     <row r="32" ht="16.5" spans="4:62">
       <c r="D32" s="2" t="s">
-        <v>249</v>
+        <v>230</v>
       </c>
       <c r="E32" s="10">
         <v>11020303</v>
       </c>
       <c r="F32" s="9" t="s">
-        <v>298</v>
+        <v>279</v>
       </c>
       <c r="G32">
         <v>42002001</v>
@@ -10333,7 +9050,7 @@
         <v>0</v>
       </c>
       <c r="Z32" s="19" t="s">
-        <v>299</v>
+        <v>280</v>
       </c>
       <c r="AA32" s="5">
         <v>200</v>
@@ -10421,18 +9138,18 @@
         <v>0</v>
       </c>
       <c r="BJ32" t="s">
-        <v>294</v>
+        <v>275</v>
       </c>
     </row>
     <row r="33" ht="16.5" spans="4:62">
       <c r="D33" s="2" t="s">
-        <v>249</v>
+        <v>230</v>
       </c>
       <c r="E33" s="10">
         <v>11020311</v>
       </c>
       <c r="F33" s="9" t="s">
-        <v>300</v>
+        <v>281</v>
       </c>
       <c r="G33">
         <v>42002001</v>
@@ -10555,18 +9272,18 @@
         <v>0</v>
       </c>
       <c r="BJ33" t="s">
-        <v>294</v>
+        <v>275</v>
       </c>
     </row>
     <row r="34" ht="16.5" spans="4:62">
       <c r="D34" s="2" t="s">
-        <v>249</v>
+        <v>230</v>
       </c>
       <c r="E34" s="10">
         <v>11020312</v>
       </c>
       <c r="F34" s="9" t="s">
-        <v>301</v>
+        <v>282</v>
       </c>
       <c r="G34">
         <v>42002001</v>
@@ -10691,10 +9408,10 @@
         <v>0</v>
       </c>
       <c r="BE34" t="s">
-        <v>296</v>
+        <v>277</v>
       </c>
       <c r="BF34" t="s">
-        <v>297</v>
+        <v>278</v>
       </c>
       <c r="BG34" t="e">
         <f>IF(O34=0,"",VLOOKUP(O34,#REF!,2,FALSE))</f>
@@ -10704,18 +9421,18 @@
         <v>1</v>
       </c>
       <c r="BJ34" t="s">
-        <v>294</v>
+        <v>275</v>
       </c>
     </row>
     <row r="35" ht="16.5" spans="4:62">
       <c r="D35" s="2" t="s">
-        <v>249</v>
+        <v>230</v>
       </c>
       <c r="E35" s="10">
         <v>11020313</v>
       </c>
       <c r="F35" s="9" t="s">
-        <v>302</v>
+        <v>283</v>
       </c>
       <c r="G35">
         <v>42002001</v>
@@ -10750,7 +9467,7 @@
         <v>0</v>
       </c>
       <c r="Z35" s="19" t="s">
-        <v>299</v>
+        <v>280</v>
       </c>
       <c r="AA35" s="5">
         <v>200</v>
@@ -10838,18 +9555,18 @@
         <v>0</v>
       </c>
       <c r="BJ35" t="s">
-        <v>294</v>
+        <v>275</v>
       </c>
     </row>
     <row r="36" ht="16.5" spans="4:62">
       <c r="D36" s="2" t="s">
-        <v>249</v>
+        <v>230</v>
       </c>
       <c r="E36" s="10">
         <v>11020321</v>
       </c>
       <c r="F36" s="9" t="s">
-        <v>303</v>
+        <v>284</v>
       </c>
       <c r="G36">
         <v>42002001</v>
@@ -10972,18 +9689,18 @@
         <v>0</v>
       </c>
       <c r="BJ36" t="s">
-        <v>294</v>
+        <v>275</v>
       </c>
     </row>
     <row r="37" ht="16.5" spans="4:62">
       <c r="D37" s="2" t="s">
-        <v>249</v>
+        <v>230</v>
       </c>
       <c r="E37" s="10">
         <v>11020322</v>
       </c>
       <c r="F37" s="9" t="s">
-        <v>304</v>
+        <v>285</v>
       </c>
       <c r="G37">
         <v>42002001</v>
@@ -11108,10 +9825,10 @@
         <v>0</v>
       </c>
       <c r="BE37" t="s">
-        <v>296</v>
+        <v>277</v>
       </c>
       <c r="BF37" t="s">
-        <v>297</v>
+        <v>278</v>
       </c>
       <c r="BG37" t="e">
         <f>IF(O37=0,"",VLOOKUP(O37,#REF!,2,FALSE))</f>
@@ -11121,18 +9838,18 @@
         <v>1</v>
       </c>
       <c r="BJ37" t="s">
-        <v>294</v>
+        <v>275</v>
       </c>
     </row>
     <row r="38" ht="16.5" spans="4:62">
       <c r="D38" s="2" t="s">
-        <v>249</v>
+        <v>230</v>
       </c>
       <c r="E38" s="10">
         <v>11020323</v>
       </c>
       <c r="F38" s="9" t="s">
-        <v>305</v>
+        <v>286</v>
       </c>
       <c r="G38">
         <v>42002001</v>
@@ -11167,7 +9884,7 @@
         <v>0</v>
       </c>
       <c r="Z38" s="19" t="s">
-        <v>299</v>
+        <v>280</v>
       </c>
       <c r="AA38" s="5">
         <v>200</v>
@@ -11255,18 +9972,18 @@
         <v>0</v>
       </c>
       <c r="BJ38" t="s">
-        <v>294</v>
+        <v>275</v>
       </c>
     </row>
     <row r="39" ht="16.5" spans="4:62">
       <c r="D39" s="2" t="s">
-        <v>260</v>
+        <v>241</v>
       </c>
       <c r="E39" s="10">
         <v>12020351</v>
       </c>
       <c r="F39" s="9" t="s">
-        <v>306</v>
+        <v>287</v>
       </c>
       <c r="G39">
         <v>42002001</v>
@@ -11389,18 +10106,18 @@
         <v>0</v>
       </c>
       <c r="BJ39" t="s">
-        <v>307</v>
+        <v>288</v>
       </c>
     </row>
     <row r="40" ht="16.5" spans="4:62">
       <c r="D40" s="2" t="s">
-        <v>260</v>
+        <v>241</v>
       </c>
       <c r="E40" s="10">
         <v>12020352</v>
       </c>
       <c r="F40" s="9" t="s">
-        <v>308</v>
+        <v>289</v>
       </c>
       <c r="G40">
         <v>42002001</v>
@@ -11525,10 +10242,10 @@
         <v>0</v>
       </c>
       <c r="BE40" t="s">
-        <v>296</v>
+        <v>277</v>
       </c>
       <c r="BF40" t="s">
-        <v>297</v>
+        <v>278</v>
       </c>
       <c r="BG40" t="e">
         <f>IF(O40=0,"",VLOOKUP(O40,#REF!,2,FALSE))</f>
@@ -11538,18 +10255,18 @@
         <v>1</v>
       </c>
       <c r="BJ40" t="s">
-        <v>307</v>
+        <v>288</v>
       </c>
     </row>
     <row r="41" ht="16.5" spans="4:62">
       <c r="D41" s="2" t="s">
-        <v>260</v>
+        <v>241</v>
       </c>
       <c r="E41" s="10">
         <v>12020361</v>
       </c>
       <c r="F41" s="9" t="s">
-        <v>309</v>
+        <v>290</v>
       </c>
       <c r="G41">
         <v>42002001</v>
@@ -11672,18 +10389,18 @@
         <v>0</v>
       </c>
       <c r="BJ41" t="s">
-        <v>307</v>
+        <v>288</v>
       </c>
     </row>
     <row r="42" ht="16.5" spans="4:62">
       <c r="D42" s="2" t="s">
-        <v>260</v>
+        <v>241</v>
       </c>
       <c r="E42" s="10">
         <v>12020362</v>
       </c>
       <c r="F42" s="9" t="s">
-        <v>310</v>
+        <v>291</v>
       </c>
       <c r="G42">
         <v>42002001</v>
@@ -11808,10 +10525,10 @@
         <v>0</v>
       </c>
       <c r="BE42" t="s">
-        <v>296</v>
+        <v>277</v>
       </c>
       <c r="BF42" t="s">
-        <v>297</v>
+        <v>278</v>
       </c>
       <c r="BG42" t="e">
         <f>IF(O42=0,"",VLOOKUP(O42,#REF!,2,FALSE))</f>
@@ -11821,18 +10538,18 @@
         <v>1</v>
       </c>
       <c r="BJ42" t="s">
-        <v>307</v>
+        <v>288</v>
       </c>
     </row>
     <row r="43" ht="16.5" spans="4:62">
       <c r="D43" s="2" t="s">
-        <v>260</v>
+        <v>241</v>
       </c>
       <c r="E43" s="10">
         <v>12020371</v>
       </c>
       <c r="F43" s="9" t="s">
-        <v>311</v>
+        <v>292</v>
       </c>
       <c r="G43">
         <v>42002001</v>
@@ -11955,18 +10672,18 @@
         <v>0</v>
       </c>
       <c r="BJ43" t="s">
-        <v>307</v>
+        <v>288</v>
       </c>
     </row>
     <row r="44" ht="16.5" spans="4:62">
       <c r="D44" s="2" t="s">
-        <v>260</v>
+        <v>241</v>
       </c>
       <c r="E44" s="10">
         <v>12020372</v>
       </c>
       <c r="F44" s="9" t="s">
-        <v>312</v>
+        <v>293</v>
       </c>
       <c r="G44">
         <v>42002001</v>
@@ -12091,10 +10808,10 @@
         <v>0</v>
       </c>
       <c r="BE44" t="s">
-        <v>296</v>
+        <v>277</v>
       </c>
       <c r="BF44" t="s">
-        <v>297</v>
+        <v>278</v>
       </c>
       <c r="BG44" t="e">
         <f>IF(O44=0,"",VLOOKUP(O44,#REF!,2,FALSE))</f>
@@ -12104,18 +10821,18 @@
         <v>1</v>
       </c>
       <c r="BJ44" t="s">
-        <v>307</v>
+        <v>288</v>
       </c>
     </row>
     <row r="45" ht="16.5" spans="4:62">
       <c r="D45" s="2" t="s">
-        <v>260</v>
+        <v>241</v>
       </c>
       <c r="E45" s="10">
         <v>12020401</v>
       </c>
       <c r="F45" s="9" t="s">
-        <v>313</v>
+        <v>294</v>
       </c>
       <c r="G45">
         <v>42002001</v>
@@ -12238,18 +10955,18 @@
         <v>0</v>
       </c>
       <c r="BJ45" t="s">
-        <v>314</v>
+        <v>295</v>
       </c>
     </row>
     <row r="46" ht="16.5" spans="4:62">
       <c r="D46" s="2" t="s">
-        <v>260</v>
+        <v>241</v>
       </c>
       <c r="E46" s="10">
         <v>12020402</v>
       </c>
       <c r="F46" s="9" t="s">
-        <v>315</v>
+        <v>296</v>
       </c>
       <c r="G46">
         <v>42002001</v>
@@ -12374,10 +11091,10 @@
         <v>0</v>
       </c>
       <c r="BE46" t="s">
-        <v>296</v>
+        <v>277</v>
       </c>
       <c r="BF46" t="s">
-        <v>297</v>
+        <v>278</v>
       </c>
       <c r="BG46" t="e">
         <f>IF(O46=0,"",VLOOKUP(O46,#REF!,2,FALSE))</f>
@@ -12387,18 +11104,18 @@
         <v>1</v>
       </c>
       <c r="BJ46" t="s">
-        <v>314</v>
+        <v>295</v>
       </c>
     </row>
     <row r="47" ht="16.5" spans="4:62">
       <c r="D47" s="2" t="s">
-        <v>260</v>
+        <v>241</v>
       </c>
       <c r="E47" s="10">
         <v>12020403</v>
       </c>
       <c r="F47" s="9" t="s">
-        <v>316</v>
+        <v>297</v>
       </c>
       <c r="G47">
         <v>42002001</v>
@@ -12433,7 +11150,7 @@
         <v>0</v>
       </c>
       <c r="Z47" s="19" t="s">
-        <v>317</v>
+        <v>298</v>
       </c>
       <c r="AA47" s="5">
         <v>200</v>
@@ -12521,18 +11238,18 @@
         <v>0</v>
       </c>
       <c r="BJ47" t="s">
-        <v>314</v>
+        <v>295</v>
       </c>
     </row>
     <row r="48" ht="16.5" spans="4:62">
       <c r="D48" s="2" t="s">
-        <v>260</v>
+        <v>241</v>
       </c>
       <c r="E48" s="10">
         <v>12020404</v>
       </c>
       <c r="F48" s="9" t="s">
-        <v>318</v>
+        <v>299</v>
       </c>
       <c r="G48">
         <v>42002001</v>
@@ -12569,7 +11286,7 @@
         <v>0</v>
       </c>
       <c r="Z48" s="19" t="s">
-        <v>317</v>
+        <v>298</v>
       </c>
       <c r="AA48" s="5">
         <v>200</v>
@@ -12657,10 +11374,10 @@
         <v>0</v>
       </c>
       <c r="BE48" t="s">
-        <v>296</v>
+        <v>277</v>
       </c>
       <c r="BF48" t="s">
-        <v>297</v>
+        <v>278</v>
       </c>
       <c r="BG48" t="e">
         <f>IF(O48=0,"",VLOOKUP(O48,#REF!,2,FALSE))</f>
@@ -12670,18 +11387,18 @@
         <v>1</v>
       </c>
       <c r="BJ48" t="s">
-        <v>314</v>
+        <v>295</v>
       </c>
     </row>
     <row r="49" ht="16.5" spans="4:62">
       <c r="D49" s="2" t="s">
-        <v>260</v>
+        <v>241</v>
       </c>
       <c r="E49" s="10">
         <v>12020411</v>
       </c>
       <c r="F49" s="9" t="s">
-        <v>319</v>
+        <v>300</v>
       </c>
       <c r="G49">
         <v>42002001</v>
@@ -12804,18 +11521,18 @@
         <v>0</v>
       </c>
       <c r="BJ49" t="s">
-        <v>314</v>
+        <v>295</v>
       </c>
     </row>
     <row r="50" ht="16.5" spans="4:62">
       <c r="D50" s="2" t="s">
-        <v>260</v>
+        <v>241</v>
       </c>
       <c r="E50" s="10">
         <v>12020412</v>
       </c>
       <c r="F50" s="9" t="s">
-        <v>320</v>
+        <v>301</v>
       </c>
       <c r="G50">
         <v>42002001</v>
@@ -12940,10 +11657,10 @@
         <v>0</v>
       </c>
       <c r="BE50" t="s">
-        <v>296</v>
+        <v>277</v>
       </c>
       <c r="BF50" t="s">
-        <v>297</v>
+        <v>278</v>
       </c>
       <c r="BG50" t="e">
         <f>IF(O50=0,"",VLOOKUP(O50,#REF!,2,FALSE))</f>
@@ -12953,18 +11670,18 @@
         <v>1</v>
       </c>
       <c r="BJ50" t="s">
-        <v>314</v>
+        <v>295</v>
       </c>
     </row>
     <row r="51" ht="16.5" spans="4:62">
       <c r="D51" s="2" t="s">
-        <v>260</v>
+        <v>241</v>
       </c>
       <c r="E51" s="10">
         <v>12020413</v>
       </c>
       <c r="F51" s="9" t="s">
-        <v>321</v>
+        <v>302</v>
       </c>
       <c r="G51">
         <v>42002001</v>
@@ -12999,7 +11716,7 @@
         <v>0</v>
       </c>
       <c r="Z51" s="19" t="s">
-        <v>317</v>
+        <v>298</v>
       </c>
       <c r="AA51" s="5">
         <v>200</v>
@@ -13087,18 +11804,18 @@
         <v>0</v>
       </c>
       <c r="BJ51" t="s">
-        <v>314</v>
+        <v>295</v>
       </c>
     </row>
     <row r="52" ht="16.5" spans="4:62">
       <c r="D52" s="2" t="s">
-        <v>260</v>
+        <v>241</v>
       </c>
       <c r="E52" s="10">
         <v>12020414</v>
       </c>
       <c r="F52" s="9" t="s">
-        <v>322</v>
+        <v>303</v>
       </c>
       <c r="G52">
         <v>42002001</v>
@@ -13135,7 +11852,7 @@
         <v>0</v>
       </c>
       <c r="Z52" s="19" t="s">
-        <v>317</v>
+        <v>298</v>
       </c>
       <c r="AA52" s="5">
         <v>200</v>
@@ -13223,10 +11940,10 @@
         <v>0</v>
       </c>
       <c r="BE52" t="s">
-        <v>296</v>
+        <v>277</v>
       </c>
       <c r="BF52" t="s">
-        <v>297</v>
+        <v>278</v>
       </c>
       <c r="BG52" t="e">
         <f>IF(O52=0,"",VLOOKUP(O52,#REF!,2,FALSE))</f>
@@ -13236,18 +11953,18 @@
         <v>1</v>
       </c>
       <c r="BJ52" t="s">
-        <v>314</v>
+        <v>295</v>
       </c>
     </row>
     <row r="53" ht="16.5" spans="4:62">
       <c r="D53" s="2" t="s">
-        <v>260</v>
+        <v>241</v>
       </c>
       <c r="E53" s="10">
         <v>12020421</v>
       </c>
       <c r="F53" s="9" t="s">
-        <v>323</v>
+        <v>304</v>
       </c>
       <c r="G53">
         <v>42002001</v>
@@ -13370,18 +12087,18 @@
         <v>0</v>
       </c>
       <c r="BJ53" t="s">
-        <v>314</v>
+        <v>295</v>
       </c>
     </row>
     <row r="54" ht="16.5" spans="4:62">
       <c r="D54" s="2" t="s">
-        <v>260</v>
+        <v>241</v>
       </c>
       <c r="E54" s="10">
         <v>12020422</v>
       </c>
       <c r="F54" s="9" t="s">
-        <v>324</v>
+        <v>305</v>
       </c>
       <c r="G54">
         <v>42002001</v>
@@ -13506,10 +12223,10 @@
         <v>0</v>
       </c>
       <c r="BE54" t="s">
-        <v>296</v>
+        <v>277</v>
       </c>
       <c r="BF54" t="s">
-        <v>297</v>
+        <v>278</v>
       </c>
       <c r="BG54" t="e">
         <f>IF(O54=0,"",VLOOKUP(O54,#REF!,2,FALSE))</f>
@@ -13519,18 +12236,18 @@
         <v>1</v>
       </c>
       <c r="BJ54" t="s">
-        <v>314</v>
+        <v>295</v>
       </c>
     </row>
     <row r="55" ht="16.5" spans="4:62">
       <c r="D55" s="2" t="s">
-        <v>260</v>
+        <v>241</v>
       </c>
       <c r="E55" s="10">
         <v>12020423</v>
       </c>
       <c r="F55" s="9" t="s">
-        <v>325</v>
+        <v>306</v>
       </c>
       <c r="G55">
         <v>42002001</v>
@@ -13565,7 +12282,7 @@
         <v>0</v>
       </c>
       <c r="Z55" s="19" t="s">
-        <v>317</v>
+        <v>298</v>
       </c>
       <c r="AA55" s="5">
         <v>200</v>
@@ -13653,18 +12370,18 @@
         <v>0</v>
       </c>
       <c r="BJ55" t="s">
-        <v>314</v>
+        <v>295</v>
       </c>
     </row>
     <row r="56" ht="16.5" spans="4:62">
       <c r="D56" s="2" t="s">
-        <v>260</v>
+        <v>241</v>
       </c>
       <c r="E56" s="10">
         <v>12020424</v>
       </c>
       <c r="F56" s="9" t="s">
-        <v>326</v>
+        <v>307</v>
       </c>
       <c r="G56">
         <v>42002001</v>
@@ -13701,7 +12418,7 @@
         <v>0</v>
       </c>
       <c r="Z56" s="19" t="s">
-        <v>317</v>
+        <v>298</v>
       </c>
       <c r="AA56" s="5">
         <v>200</v>
@@ -13789,10 +12506,10 @@
         <v>0</v>
       </c>
       <c r="BE56" t="s">
-        <v>296</v>
+        <v>277</v>
       </c>
       <c r="BF56" t="s">
-        <v>297</v>
+        <v>278</v>
       </c>
       <c r="BG56" t="e">
         <f>IF(O56=0,"",VLOOKUP(O56,#REF!,2,FALSE))</f>
@@ -13802,18 +12519,18 @@
         <v>1</v>
       </c>
       <c r="BJ56" t="s">
-        <v>314</v>
+        <v>295</v>
       </c>
     </row>
     <row r="57" ht="16.5" spans="4:62">
       <c r="D57" s="2" t="s">
-        <v>249</v>
+        <v>230</v>
       </c>
       <c r="E57" s="10">
         <v>11020451</v>
       </c>
       <c r="F57" s="9" t="s">
-        <v>327</v>
+        <v>308</v>
       </c>
       <c r="G57">
         <v>42002001</v>
@@ -13936,18 +12653,18 @@
         <v>0</v>
       </c>
       <c r="BJ57" t="s">
-        <v>328</v>
+        <v>309</v>
       </c>
     </row>
     <row r="58" ht="15.75" customHeight="1" spans="4:62">
       <c r="D58" s="2" t="s">
-        <v>249</v>
+        <v>230</v>
       </c>
       <c r="E58" s="10">
         <v>11020452</v>
       </c>
       <c r="F58" s="9" t="s">
-        <v>329</v>
+        <v>310</v>
       </c>
       <c r="G58">
         <v>42002001</v>
@@ -14072,10 +12789,10 @@
         <v>0</v>
       </c>
       <c r="BE58" t="s">
-        <v>296</v>
+        <v>277</v>
       </c>
       <c r="BF58" t="s">
-        <v>297</v>
+        <v>278</v>
       </c>
       <c r="BG58" t="e">
         <f>IF(O58=0,"",VLOOKUP(O58,#REF!,2,FALSE))</f>
@@ -14085,18 +12802,18 @@
         <v>1</v>
       </c>
       <c r="BJ58" t="s">
-        <v>328</v>
+        <v>309</v>
       </c>
     </row>
     <row r="59" ht="15.75" customHeight="1" spans="4:62">
       <c r="D59" s="2" t="s">
-        <v>249</v>
+        <v>230</v>
       </c>
       <c r="E59" s="10">
         <v>11020453</v>
       </c>
       <c r="F59" s="9" t="s">
-        <v>330</v>
+        <v>311</v>
       </c>
       <c r="G59">
         <v>42002001</v>
@@ -14131,7 +12848,7 @@
         <v>0</v>
       </c>
       <c r="Z59" s="19" t="s">
-        <v>331</v>
+        <v>312</v>
       </c>
       <c r="AA59" s="5">
         <v>200</v>
@@ -14219,18 +12936,18 @@
         <v>0</v>
       </c>
       <c r="BJ59" t="s">
-        <v>328</v>
+        <v>309</v>
       </c>
     </row>
     <row r="60" ht="15.75" customHeight="1" spans="4:62">
       <c r="D60" s="2" t="s">
-        <v>249</v>
+        <v>230</v>
       </c>
       <c r="E60" s="10">
         <v>11020454</v>
       </c>
       <c r="F60" s="9" t="s">
-        <v>332</v>
+        <v>313</v>
       </c>
       <c r="G60">
         <v>42002001</v>
@@ -14265,7 +12982,7 @@
         <v>0</v>
       </c>
       <c r="Z60" s="19" t="s">
-        <v>333</v>
+        <v>314</v>
       </c>
       <c r="AA60" s="5">
         <v>200</v>
@@ -14353,18 +13070,18 @@
         <v>0</v>
       </c>
       <c r="BJ60" t="s">
-        <v>328</v>
+        <v>309</v>
       </c>
     </row>
     <row r="61" ht="15.75" customHeight="1" spans="4:62">
       <c r="D61" s="2" t="s">
-        <v>249</v>
+        <v>230</v>
       </c>
       <c r="E61" s="10">
         <v>11020455</v>
       </c>
       <c r="F61" s="9" t="s">
-        <v>334</v>
+        <v>315</v>
       </c>
       <c r="G61">
         <v>42002001</v>
@@ -14401,7 +13118,7 @@
         <v>0</v>
       </c>
       <c r="Z61" s="19" t="s">
-        <v>333</v>
+        <v>314</v>
       </c>
       <c r="AA61" s="5">
         <v>200</v>
@@ -14489,10 +13206,10 @@
         <v>0</v>
       </c>
       <c r="BE61" t="s">
-        <v>296</v>
+        <v>277</v>
       </c>
       <c r="BF61" t="s">
-        <v>297</v>
+        <v>278</v>
       </c>
       <c r="BG61" t="e">
         <f>IF(O61=0,"",VLOOKUP(O61,#REF!,2,FALSE))</f>
@@ -14502,18 +13219,18 @@
         <v>1</v>
       </c>
       <c r="BJ61" t="s">
-        <v>328</v>
+        <v>309</v>
       </c>
     </row>
     <row r="62" ht="16.5" spans="4:62">
       <c r="D62" s="2" t="s">
-        <v>249</v>
+        <v>230</v>
       </c>
       <c r="E62" s="10">
         <v>11020461</v>
       </c>
       <c r="F62" s="9" t="s">
-        <v>335</v>
+        <v>316</v>
       </c>
       <c r="G62">
         <v>42002001</v>
@@ -14548,7 +13265,7 @@
         <v>0</v>
       </c>
       <c r="Z62" s="19" t="s">
-        <v>331</v>
+        <v>312</v>
       </c>
       <c r="AA62" s="5">
         <v>200</v>
@@ -14636,18 +13353,18 @@
         <v>0</v>
       </c>
       <c r="BJ62" t="s">
-        <v>328</v>
+        <v>309</v>
       </c>
     </row>
     <row r="63" ht="16.5" spans="4:62">
       <c r="D63" s="2" t="s">
-        <v>249</v>
+        <v>230</v>
       </c>
       <c r="E63" s="10">
         <v>11020462</v>
       </c>
       <c r="F63" s="9" t="s">
-        <v>336</v>
+        <v>317</v>
       </c>
       <c r="G63">
         <v>42002001</v>
@@ -14684,7 +13401,7 @@
         <v>0</v>
       </c>
       <c r="Z63" s="19" t="s">
-        <v>331</v>
+        <v>312</v>
       </c>
       <c r="AA63" s="5">
         <v>200</v>
@@ -14772,10 +13489,10 @@
         <v>0</v>
       </c>
       <c r="BE63" t="s">
-        <v>296</v>
+        <v>277</v>
       </c>
       <c r="BF63" t="s">
-        <v>297</v>
+        <v>278</v>
       </c>
       <c r="BG63" t="e">
         <f>IF(O63=0,"",VLOOKUP(O63,#REF!,2,FALSE))</f>
@@ -14785,18 +13502,18 @@
         <v>1</v>
       </c>
       <c r="BJ63" t="s">
-        <v>328</v>
+        <v>309</v>
       </c>
     </row>
     <row r="64" ht="15.75" customHeight="1" spans="4:62">
       <c r="D64" s="2" t="s">
-        <v>249</v>
+        <v>230</v>
       </c>
       <c r="E64" s="10">
         <v>11020463</v>
       </c>
       <c r="F64" s="9" t="s">
-        <v>337</v>
+        <v>318</v>
       </c>
       <c r="G64">
         <v>42002001</v>
@@ -14831,7 +13548,7 @@
         <v>0</v>
       </c>
       <c r="Z64" s="19" t="s">
-        <v>331</v>
+        <v>312</v>
       </c>
       <c r="AA64" s="5">
         <v>200</v>
@@ -14919,18 +13636,18 @@
         <v>0</v>
       </c>
       <c r="BJ64" t="s">
-        <v>328</v>
+        <v>309</v>
       </c>
     </row>
     <row r="65" ht="15.75" customHeight="1" spans="4:62">
       <c r="D65" s="2" t="s">
-        <v>249</v>
+        <v>230</v>
       </c>
       <c r="E65" s="10">
         <v>11020464</v>
       </c>
       <c r="F65" s="9" t="s">
-        <v>338</v>
+        <v>319</v>
       </c>
       <c r="G65">
         <v>42002001</v>
@@ -14965,7 +13682,7 @@
         <v>0</v>
       </c>
       <c r="Z65" s="19" t="s">
-        <v>333</v>
+        <v>314</v>
       </c>
       <c r="AA65" s="5">
         <v>200</v>
@@ -15053,18 +13770,18 @@
         <v>0</v>
       </c>
       <c r="BJ65" t="s">
-        <v>328</v>
+        <v>309</v>
       </c>
     </row>
     <row r="66" ht="15.75" customHeight="1" spans="4:62">
       <c r="D66" s="2" t="s">
-        <v>249</v>
+        <v>230</v>
       </c>
       <c r="E66" s="10">
         <v>11020465</v>
       </c>
       <c r="F66" s="9" t="s">
-        <v>339</v>
+        <v>320</v>
       </c>
       <c r="G66">
         <v>42002001</v>
@@ -15101,7 +13818,7 @@
         <v>0</v>
       </c>
       <c r="Z66" s="19" t="s">
-        <v>333</v>
+        <v>314</v>
       </c>
       <c r="AA66" s="5">
         <v>200</v>
@@ -15189,10 +13906,10 @@
         <v>0</v>
       </c>
       <c r="BE66" t="s">
-        <v>296</v>
+        <v>277</v>
       </c>
       <c r="BF66" t="s">
-        <v>297</v>
+        <v>278</v>
       </c>
       <c r="BG66" t="e">
         <f>IF(O66=0,"",VLOOKUP(O66,#REF!,2,FALSE))</f>
@@ -15202,18 +13919,18 @@
         <v>1</v>
       </c>
       <c r="BJ66" t="s">
-        <v>328</v>
+        <v>309</v>
       </c>
     </row>
     <row r="67" ht="16.5" spans="4:62">
       <c r="D67" s="2" t="s">
-        <v>249</v>
+        <v>230</v>
       </c>
       <c r="E67" s="10">
         <v>11020471</v>
       </c>
       <c r="F67" s="9" t="s">
-        <v>340</v>
+        <v>321</v>
       </c>
       <c r="G67">
         <v>42002001</v>
@@ -15248,7 +13965,7 @@
         <v>0</v>
       </c>
       <c r="Z67" s="19" t="s">
-        <v>331</v>
+        <v>312</v>
       </c>
       <c r="AA67" s="5">
         <v>200</v>
@@ -15336,18 +14053,18 @@
         <v>0</v>
       </c>
       <c r="BJ67" t="s">
-        <v>328</v>
+        <v>309</v>
       </c>
     </row>
     <row r="68" ht="16.5" spans="4:62">
       <c r="D68" s="2" t="s">
-        <v>249</v>
+        <v>230</v>
       </c>
       <c r="E68" s="10">
         <v>11020472</v>
       </c>
       <c r="F68" s="9" t="s">
-        <v>341</v>
+        <v>322</v>
       </c>
       <c r="G68">
         <v>42002001</v>
@@ -15384,7 +14101,7 @@
         <v>0</v>
       </c>
       <c r="Z68" s="19" t="s">
-        <v>331</v>
+        <v>312</v>
       </c>
       <c r="AA68" s="5">
         <v>200</v>
@@ -15472,10 +14189,10 @@
         <v>0</v>
       </c>
       <c r="BE68" t="s">
-        <v>296</v>
+        <v>277</v>
       </c>
       <c r="BF68" t="s">
-        <v>297</v>
+        <v>278</v>
       </c>
       <c r="BG68" t="e">
         <f>IF(O68=0,"",VLOOKUP(O68,#REF!,2,FALSE))</f>
@@ -15485,18 +14202,18 @@
         <v>1</v>
       </c>
       <c r="BJ68" t="s">
-        <v>328</v>
+        <v>309</v>
       </c>
     </row>
     <row r="69" ht="15.75" customHeight="1" spans="4:62">
       <c r="D69" s="2" t="s">
-        <v>249</v>
+        <v>230</v>
       </c>
       <c r="E69" s="10">
         <v>11020473</v>
       </c>
       <c r="F69" s="9" t="s">
-        <v>342</v>
+        <v>323</v>
       </c>
       <c r="G69">
         <v>42002001</v>
@@ -15531,7 +14248,7 @@
         <v>0</v>
       </c>
       <c r="Z69" s="19" t="s">
-        <v>331</v>
+        <v>312</v>
       </c>
       <c r="AA69" s="5">
         <v>200</v>
@@ -15619,18 +14336,18 @@
         <v>0</v>
       </c>
       <c r="BJ69" t="s">
-        <v>328</v>
+        <v>309</v>
       </c>
     </row>
     <row r="70" ht="15.75" customHeight="1" spans="4:62">
       <c r="D70" s="2" t="s">
-        <v>249</v>
+        <v>230</v>
       </c>
       <c r="E70" s="10">
         <v>11020474</v>
       </c>
       <c r="F70" s="9" t="s">
-        <v>343</v>
+        <v>324</v>
       </c>
       <c r="G70">
         <v>42002001</v>
@@ -15665,7 +14382,7 @@
         <v>0</v>
       </c>
       <c r="Z70" s="19" t="s">
-        <v>333</v>
+        <v>314</v>
       </c>
       <c r="AA70" s="5">
         <v>200</v>
@@ -15753,18 +14470,18 @@
         <v>0</v>
       </c>
       <c r="BJ70" t="s">
-        <v>328</v>
+        <v>309</v>
       </c>
     </row>
     <row r="71" ht="15.75" customHeight="1" spans="4:62">
       <c r="D71" s="2" t="s">
-        <v>249</v>
+        <v>230</v>
       </c>
       <c r="E71" s="10">
         <v>11020475</v>
       </c>
       <c r="F71" s="9" t="s">
-        <v>344</v>
+        <v>325</v>
       </c>
       <c r="G71">
         <v>42002001</v>
@@ -15801,7 +14518,7 @@
         <v>0</v>
       </c>
       <c r="Z71" s="19" t="s">
-        <v>333</v>
+        <v>314</v>
       </c>
       <c r="AA71" s="5">
         <v>200</v>
@@ -15889,10 +14606,10 @@
         <v>0</v>
       </c>
       <c r="BE71" t="s">
-        <v>296</v>
+        <v>277</v>
       </c>
       <c r="BF71" t="s">
-        <v>297</v>
+        <v>278</v>
       </c>
       <c r="BG71" t="e">
         <f>IF(O71=0,"",VLOOKUP(O71,#REF!,2,FALSE))</f>
@@ -15902,18 +14619,18 @@
         <v>1</v>
       </c>
       <c r="BJ71" t="s">
-        <v>328</v>
+        <v>309</v>
       </c>
     </row>
     <row r="72" ht="15.75" customHeight="1" spans="4:62">
       <c r="D72" s="2" t="s">
-        <v>249</v>
+        <v>230</v>
       </c>
       <c r="E72" s="10">
         <v>11020551</v>
       </c>
       <c r="F72" s="9" t="s">
-        <v>345</v>
+        <v>326</v>
       </c>
       <c r="G72">
         <v>42002001</v>
@@ -15948,7 +14665,7 @@
         <v>0</v>
       </c>
       <c r="Z72" s="19" t="s">
-        <v>333</v>
+        <v>314</v>
       </c>
       <c r="AA72" s="5">
         <v>200</v>
@@ -16036,10 +14753,10 @@
         <v>0</v>
       </c>
       <c r="BE72" t="s">
-        <v>296</v>
+        <v>277</v>
       </c>
       <c r="BF72" t="s">
-        <v>297</v>
+        <v>278</v>
       </c>
       <c r="BG72" t="e">
         <f>IF(O72=0,"",VLOOKUP(O72,#REF!,2,FALSE))</f>
@@ -16049,18 +14766,18 @@
         <v>1</v>
       </c>
       <c r="BJ72" t="s">
-        <v>346</v>
+        <v>327</v>
       </c>
     </row>
     <row r="73" ht="15.75" customHeight="1" spans="4:62">
       <c r="D73" s="2" t="s">
-        <v>249</v>
+        <v>230</v>
       </c>
       <c r="E73" s="10">
         <v>11020561</v>
       </c>
       <c r="F73" s="9" t="s">
-        <v>347</v>
+        <v>328</v>
       </c>
       <c r="G73">
         <v>42002001</v>
@@ -16095,7 +14812,7 @@
         <v>0</v>
       </c>
       <c r="Z73" s="19" t="s">
-        <v>333</v>
+        <v>314</v>
       </c>
       <c r="AA73" s="5">
         <v>200</v>
@@ -16183,10 +14900,10 @@
         <v>0</v>
       </c>
       <c r="BE73" t="s">
-        <v>296</v>
+        <v>277</v>
       </c>
       <c r="BF73" t="s">
-        <v>297</v>
+        <v>278</v>
       </c>
       <c r="BG73" t="e">
         <f>IF(O73=0,"",VLOOKUP(O73,#REF!,2,FALSE))</f>
@@ -16196,18 +14913,18 @@
         <v>1</v>
       </c>
       <c r="BJ73" t="s">
-        <v>346</v>
+        <v>327</v>
       </c>
     </row>
     <row r="74" ht="15.75" customHeight="1" spans="4:62">
       <c r="D74" s="2" t="s">
-        <v>249</v>
+        <v>230</v>
       </c>
       <c r="E74" s="10">
         <v>11020571</v>
       </c>
       <c r="F74" s="9" t="s">
-        <v>348</v>
+        <v>329</v>
       </c>
       <c r="G74">
         <v>42002001</v>
@@ -16242,7 +14959,7 @@
         <v>0</v>
       </c>
       <c r="Z74" s="19" t="s">
-        <v>333</v>
+        <v>314</v>
       </c>
       <c r="AA74" s="5">
         <v>200</v>
@@ -16330,10 +15047,10 @@
         <v>0</v>
       </c>
       <c r="BE74" t="s">
-        <v>296</v>
+        <v>277</v>
       </c>
       <c r="BF74" t="s">
-        <v>297</v>
+        <v>278</v>
       </c>
       <c r="BG74" t="e">
         <f>IF(O74=0,"",VLOOKUP(O74,#REF!,2,FALSE))</f>
@@ -16343,18 +15060,18 @@
         <v>1</v>
       </c>
       <c r="BJ74" t="s">
-        <v>346</v>
+        <v>327</v>
       </c>
     </row>
     <row r="75" ht="15.75" customHeight="1" spans="4:62">
       <c r="D75" s="2" t="s">
-        <v>249</v>
+        <v>230</v>
       </c>
       <c r="E75" s="10">
         <v>11020581</v>
       </c>
       <c r="F75" s="9" t="s">
-        <v>349</v>
+        <v>330</v>
       </c>
       <c r="G75">
         <v>42002001</v>
@@ -16389,7 +15106,7 @@
         <v>0</v>
       </c>
       <c r="Z75" s="19" t="s">
-        <v>333</v>
+        <v>314</v>
       </c>
       <c r="AA75" s="5">
         <v>200</v>
@@ -16477,10 +15194,10 @@
         <v>0</v>
       </c>
       <c r="BE75" t="s">
-        <v>296</v>
+        <v>277</v>
       </c>
       <c r="BF75" t="s">
-        <v>297</v>
+        <v>278</v>
       </c>
       <c r="BG75" t="e">
         <f>IF(O75=0,"",VLOOKUP(O75,#REF!,2,FALSE))</f>
@@ -16490,18 +15207,18 @@
         <v>1</v>
       </c>
       <c r="BJ75" t="s">
-        <v>346</v>
+        <v>327</v>
       </c>
     </row>
     <row r="76" ht="15.75" customHeight="1" spans="4:62">
       <c r="D76" s="2" t="s">
-        <v>249</v>
+        <v>230</v>
       </c>
       <c r="E76" s="10">
         <v>11020591</v>
       </c>
       <c r="F76" s="9" t="s">
-        <v>350</v>
+        <v>331</v>
       </c>
       <c r="G76">
         <v>42002001</v>
@@ -16536,7 +15253,7 @@
         <v>0</v>
       </c>
       <c r="Z76" s="19" t="s">
-        <v>333</v>
+        <v>314</v>
       </c>
       <c r="AA76" s="5">
         <v>200</v>
@@ -16624,10 +15341,10 @@
         <v>0</v>
       </c>
       <c r="BE76" t="s">
-        <v>296</v>
+        <v>277</v>
       </c>
       <c r="BF76" t="s">
-        <v>297</v>
+        <v>278</v>
       </c>
       <c r="BG76" t="e">
         <f>IF(O76=0,"",VLOOKUP(O76,#REF!,2,FALSE))</f>
@@ -16637,18 +15354,18 @@
         <v>1</v>
       </c>
       <c r="BJ76" t="s">
-        <v>346</v>
+        <v>327</v>
       </c>
     </row>
     <row r="77" ht="16.5" spans="4:62">
       <c r="D77" s="2" t="s">
-        <v>249</v>
+        <v>230</v>
       </c>
       <c r="E77" s="10">
         <v>11120301</v>
       </c>
       <c r="F77" s="9" t="s">
-        <v>351</v>
+        <v>332</v>
       </c>
       <c r="G77">
         <v>42002001</v>
@@ -16682,7 +15399,7 @@
         <v>0</v>
       </c>
       <c r="Z77" s="19" t="s">
-        <v>352</v>
+        <v>333</v>
       </c>
       <c r="AA77" s="5">
         <v>200</v>
@@ -16768,18 +15485,18 @@
         <v>0</v>
       </c>
       <c r="BJ77" t="s">
-        <v>294</v>
+        <v>275</v>
       </c>
     </row>
     <row r="78" ht="16.5" spans="4:62">
       <c r="D78" s="2" t="s">
-        <v>249</v>
+        <v>230</v>
       </c>
       <c r="E78" s="10">
         <v>11120311</v>
       </c>
       <c r="F78" s="9" t="s">
-        <v>353</v>
+        <v>334</v>
       </c>
       <c r="G78">
         <v>42002001</v>
@@ -16813,7 +15530,7 @@
         <v>0</v>
       </c>
       <c r="Z78" s="19" t="s">
-        <v>352</v>
+        <v>333</v>
       </c>
       <c r="AA78" s="5">
         <v>200</v>
@@ -16899,18 +15616,18 @@
         <v>0</v>
       </c>
       <c r="BJ78" t="s">
-        <v>294</v>
+        <v>275</v>
       </c>
     </row>
     <row r="79" ht="16.5" spans="4:62">
       <c r="D79" s="2" t="s">
-        <v>249</v>
+        <v>230</v>
       </c>
       <c r="E79" s="10">
         <v>11120321</v>
       </c>
       <c r="F79" s="9" t="s">
-        <v>354</v>
+        <v>335</v>
       </c>
       <c r="G79">
         <v>42002001</v>
@@ -16944,7 +15661,7 @@
         <v>0</v>
       </c>
       <c r="Z79" s="19" t="s">
-        <v>352</v>
+        <v>333</v>
       </c>
       <c r="AA79" s="5">
         <v>200</v>
@@ -17030,18 +15747,18 @@
         <v>0</v>
       </c>
       <c r="BJ79" t="s">
-        <v>294</v>
+        <v>275</v>
       </c>
     </row>
     <row r="80" ht="16.5" spans="4:62">
       <c r="D80" s="2" t="s">
-        <v>355</v>
+        <v>336</v>
       </c>
       <c r="E80">
         <v>21020021</v>
       </c>
       <c r="F80" s="9" t="s">
-        <v>356</v>
+        <v>337</v>
       </c>
       <c r="G80">
         <v>42002001</v>
@@ -17162,18 +15879,18 @@
         <v>0</v>
       </c>
       <c r="BJ80" t="s">
-        <v>357</v>
+        <v>338</v>
       </c>
     </row>
     <row r="81" ht="16.5" spans="4:62">
       <c r="D81" s="2" t="s">
-        <v>355</v>
+        <v>336</v>
       </c>
       <c r="E81" s="10">
         <v>21020051</v>
       </c>
       <c r="F81" s="9" t="s">
-        <v>358</v>
+        <v>339</v>
       </c>
       <c r="G81">
         <v>42002001</v>
@@ -17297,18 +16014,18 @@
         <v>0</v>
       </c>
       <c r="BJ81" t="s">
-        <v>259</v>
+        <v>240</v>
       </c>
     </row>
     <row r="82" ht="16.5" spans="4:62">
       <c r="D82" s="2" t="s">
-        <v>355</v>
+        <v>336</v>
       </c>
       <c r="E82" s="10">
         <v>21020052</v>
       </c>
       <c r="F82" s="9" t="s">
-        <v>359</v>
+        <v>340</v>
       </c>
       <c r="G82">
         <v>42002001</v>
@@ -17432,10 +16149,10 @@
         <v>0</v>
       </c>
       <c r="BE82" t="s">
-        <v>296</v>
+        <v>277</v>
       </c>
       <c r="BF82" t="s">
-        <v>297</v>
+        <v>278</v>
       </c>
       <c r="BG82" t="e">
         <f>IF(O82=0,"",VLOOKUP(O82,#REF!,2,FALSE))</f>
@@ -17445,18 +16162,18 @@
         <v>1</v>
       </c>
       <c r="BJ82" t="s">
-        <v>259</v>
+        <v>240</v>
       </c>
     </row>
     <row r="83" ht="16.5" spans="4:62">
       <c r="D83" s="2" t="s">
-        <v>355</v>
+        <v>336</v>
       </c>
       <c r="E83" s="10">
         <v>21020071</v>
       </c>
       <c r="F83" s="9" t="s">
-        <v>360</v>
+        <v>341</v>
       </c>
       <c r="G83">
         <v>42002001</v>
@@ -17580,18 +16297,18 @@
         <v>0</v>
       </c>
       <c r="BJ83" t="s">
-        <v>259</v>
+        <v>240</v>
       </c>
     </row>
     <row r="84" ht="16.5" spans="4:62">
       <c r="D84" s="2" t="s">
-        <v>355</v>
+        <v>336</v>
       </c>
       <c r="E84" s="10">
         <v>21020072</v>
       </c>
       <c r="F84" s="9" t="s">
-        <v>361</v>
+        <v>342</v>
       </c>
       <c r="G84">
         <v>42002001</v>
@@ -17715,10 +16432,10 @@
         <v>0</v>
       </c>
       <c r="BE84" t="s">
-        <v>296</v>
+        <v>277</v>
       </c>
       <c r="BF84" t="s">
-        <v>297</v>
+        <v>278</v>
       </c>
       <c r="BG84" t="e">
         <f>IF(O84=0,"",VLOOKUP(O84,#REF!,2,FALSE))</f>
@@ -17728,18 +16445,18 @@
         <v>1</v>
       </c>
       <c r="BJ84" t="s">
-        <v>259</v>
+        <v>240</v>
       </c>
     </row>
     <row r="85" ht="16.5" spans="4:62">
       <c r="D85" s="2" t="s">
-        <v>355</v>
+        <v>336</v>
       </c>
       <c r="E85" s="10">
         <v>22020081</v>
       </c>
       <c r="F85" s="9" t="s">
-        <v>362</v>
+        <v>343</v>
       </c>
       <c r="G85">
         <v>42002001</v>
@@ -17863,18 +16580,18 @@
         <v>0</v>
       </c>
       <c r="BJ85" t="s">
-        <v>262</v>
+        <v>243</v>
       </c>
     </row>
     <row r="86" ht="16.5" spans="4:62">
       <c r="D86" s="2" t="s">
-        <v>355</v>
+        <v>336</v>
       </c>
       <c r="E86" s="10">
         <v>22020082</v>
       </c>
       <c r="F86" s="9" t="s">
-        <v>363</v>
+        <v>344</v>
       </c>
       <c r="G86">
         <v>42002001</v>
@@ -17998,10 +16715,10 @@
         <v>0</v>
       </c>
       <c r="BE86" t="s">
-        <v>296</v>
+        <v>277</v>
       </c>
       <c r="BF86" t="s">
-        <v>297</v>
+        <v>278</v>
       </c>
       <c r="BG86" t="e">
         <f>IF(O86=0,"",VLOOKUP(O86,#REF!,2,FALSE))</f>
@@ -18011,18 +16728,18 @@
         <v>1</v>
       </c>
       <c r="BJ86" t="s">
-        <v>262</v>
+        <v>243</v>
       </c>
     </row>
     <row r="87" ht="16.5" spans="4:62">
       <c r="D87" s="2" t="s">
-        <v>355</v>
+        <v>336</v>
       </c>
       <c r="E87" s="10">
         <v>21020121</v>
       </c>
       <c r="F87" s="9" t="s">
-        <v>364</v>
+        <v>345</v>
       </c>
       <c r="G87">
         <v>42002001</v>
@@ -18056,7 +16773,7 @@
         <v>0</v>
       </c>
       <c r="Z87" s="19" t="s">
-        <v>365</v>
+        <v>346</v>
       </c>
       <c r="AA87" s="5">
         <v>200</v>
@@ -18144,18 +16861,18 @@
         <v>0</v>
       </c>
       <c r="BJ87" t="s">
-        <v>366</v>
+        <v>347</v>
       </c>
     </row>
     <row r="88" ht="16.5" spans="4:62">
       <c r="D88" s="2" t="s">
-        <v>355</v>
+        <v>336</v>
       </c>
       <c r="E88" s="10">
         <v>21020131</v>
       </c>
       <c r="F88" s="9" t="s">
-        <v>367</v>
+        <v>348</v>
       </c>
       <c r="G88">
         <v>42002001</v>
@@ -18189,7 +16906,7 @@
         <v>0</v>
       </c>
       <c r="Z88" s="19" t="s">
-        <v>365</v>
+        <v>346</v>
       </c>
       <c r="AA88" s="5">
         <v>200</v>
@@ -18277,18 +16994,18 @@
         <v>0</v>
       </c>
       <c r="BJ88" t="s">
-        <v>366</v>
+        <v>347</v>
       </c>
     </row>
     <row r="89" ht="16.5" spans="4:62">
       <c r="D89" s="2" t="s">
-        <v>355</v>
+        <v>336</v>
       </c>
       <c r="E89" s="10">
         <v>21020132</v>
       </c>
       <c r="F89" s="9" t="s">
-        <v>368</v>
+        <v>349</v>
       </c>
       <c r="G89">
         <v>42002001</v>
@@ -18322,7 +17039,7 @@
         <v>0</v>
       </c>
       <c r="Z89" s="19" t="s">
-        <v>365</v>
+        <v>346</v>
       </c>
       <c r="AA89" s="5">
         <v>200</v>
@@ -18410,10 +17127,10 @@
         <v>0</v>
       </c>
       <c r="BE89" t="s">
-        <v>296</v>
+        <v>277</v>
       </c>
       <c r="BF89" t="s">
-        <v>297</v>
+        <v>278</v>
       </c>
       <c r="BG89" t="e">
         <f>IF(O89=0,"",VLOOKUP(O89,#REF!,2,FALSE))</f>
@@ -18423,18 +17140,18 @@
         <v>1</v>
       </c>
       <c r="BJ89" t="s">
-        <v>366</v>
+        <v>347</v>
       </c>
     </row>
     <row r="90" ht="16.5" spans="4:62">
       <c r="D90" s="2" t="s">
-        <v>355</v>
+        <v>336</v>
       </c>
       <c r="E90" s="10">
         <v>21020301</v>
       </c>
       <c r="F90" s="9" t="s">
-        <v>369</v>
+        <v>350</v>
       </c>
       <c r="G90">
         <v>42002001</v>
@@ -18554,10 +17271,10 @@
         <v>0</v>
       </c>
       <c r="BE90" t="s">
-        <v>296</v>
+        <v>277</v>
       </c>
       <c r="BF90" t="s">
-        <v>297</v>
+        <v>278</v>
       </c>
       <c r="BG90" t="e">
         <f>IF(O90=0,"",VLOOKUP(O90,#REF!,2,FALSE))</f>
@@ -18567,18 +17284,18 @@
         <v>1</v>
       </c>
       <c r="BJ90" t="s">
-        <v>370</v>
+        <v>351</v>
       </c>
     </row>
     <row r="91" ht="16.5" spans="4:62">
       <c r="D91" s="2" t="s">
-        <v>355</v>
+        <v>336</v>
       </c>
       <c r="E91" s="10">
         <v>21020302</v>
       </c>
       <c r="F91" s="9" t="s">
-        <v>371</v>
+        <v>352</v>
       </c>
       <c r="G91">
         <v>42002001</v>
@@ -18612,7 +17329,7 @@
         <v>0</v>
       </c>
       <c r="Z91" s="19" t="s">
-        <v>352</v>
+        <v>333</v>
       </c>
       <c r="AA91" s="5">
         <v>200</v>
@@ -18698,10 +17415,10 @@
         <v>0</v>
       </c>
       <c r="BE91" t="s">
-        <v>296</v>
+        <v>277</v>
       </c>
       <c r="BF91" t="s">
-        <v>297</v>
+        <v>278</v>
       </c>
       <c r="BG91" t="e">
         <f>IF(O91=0,"",VLOOKUP(O91,#REF!,2,FALSE))</f>
@@ -18711,18 +17428,18 @@
         <v>1</v>
       </c>
       <c r="BJ91" t="s">
-        <v>370</v>
+        <v>351</v>
       </c>
     </row>
     <row r="92" ht="16.5" spans="4:62">
       <c r="D92" s="2" t="s">
-        <v>355</v>
+        <v>336</v>
       </c>
       <c r="E92" s="10">
         <v>21020303</v>
       </c>
       <c r="F92" s="9" t="s">
-        <v>372</v>
+        <v>353</v>
       </c>
       <c r="G92">
         <v>42002001</v>
@@ -18756,7 +17473,7 @@
         <v>0</v>
       </c>
       <c r="Z92" s="19" t="s">
-        <v>352</v>
+        <v>333</v>
       </c>
       <c r="AA92" s="5">
         <v>200</v>
@@ -18842,18 +17559,18 @@
         <v>0</v>
       </c>
       <c r="BJ92" t="s">
-        <v>370</v>
+        <v>351</v>
       </c>
     </row>
     <row r="93" ht="16.5" spans="4:62">
       <c r="D93" s="2" t="s">
-        <v>355</v>
+        <v>336</v>
       </c>
       <c r="E93" s="10">
         <v>21020304</v>
       </c>
       <c r="F93" s="9" t="s">
-        <v>373</v>
+        <v>354</v>
       </c>
       <c r="G93">
         <v>42002001</v>
@@ -18973,18 +17690,18 @@
         <v>0</v>
       </c>
       <c r="BJ93" t="s">
-        <v>370</v>
+        <v>351</v>
       </c>
     </row>
     <row r="94" ht="16.5" spans="4:62">
       <c r="D94" s="2" t="s">
-        <v>355</v>
+        <v>336</v>
       </c>
       <c r="E94" s="10">
         <v>21020311</v>
       </c>
       <c r="F94" s="9" t="s">
-        <v>374</v>
+        <v>355</v>
       </c>
       <c r="G94">
         <v>42002001</v>
@@ -19104,10 +17821,10 @@
         <v>0</v>
       </c>
       <c r="BE94" t="s">
-        <v>296</v>
+        <v>277</v>
       </c>
       <c r="BF94" t="s">
-        <v>297</v>
+        <v>278</v>
       </c>
       <c r="BG94" t="e">
         <f>IF(O94=0,"",VLOOKUP(O94,#REF!,2,FALSE))</f>
@@ -19117,18 +17834,18 @@
         <v>1</v>
       </c>
       <c r="BJ94" t="s">
-        <v>370</v>
+        <v>351</v>
       </c>
     </row>
     <row r="95" ht="16.5" spans="4:62">
       <c r="D95" s="2" t="s">
-        <v>355</v>
+        <v>336</v>
       </c>
       <c r="E95" s="10">
         <v>21020312</v>
       </c>
       <c r="F95" s="9" t="s">
-        <v>375</v>
+        <v>356</v>
       </c>
       <c r="G95">
         <v>42002001</v>
@@ -19162,7 +17879,7 @@
         <v>0</v>
       </c>
       <c r="Z95" s="19" t="s">
-        <v>352</v>
+        <v>333</v>
       </c>
       <c r="AA95" s="5">
         <v>200</v>
@@ -19248,10 +17965,10 @@
         <v>0</v>
       </c>
       <c r="BE95" t="s">
-        <v>296</v>
+        <v>277</v>
       </c>
       <c r="BF95" t="s">
-        <v>297</v>
+        <v>278</v>
       </c>
       <c r="BG95" t="e">
         <f>IF(O95=0,"",VLOOKUP(O95,#REF!,2,FALSE))</f>
@@ -19261,18 +17978,18 @@
         <v>1</v>
       </c>
       <c r="BJ95" t="s">
-        <v>370</v>
+        <v>351</v>
       </c>
     </row>
     <row r="96" ht="16.5" spans="4:62">
       <c r="D96" s="2" t="s">
-        <v>355</v>
+        <v>336</v>
       </c>
       <c r="E96" s="10">
         <v>21020313</v>
       </c>
       <c r="F96" s="9" t="s">
-        <v>376</v>
+        <v>357</v>
       </c>
       <c r="G96">
         <v>42002001</v>
@@ -19306,7 +18023,7 @@
         <v>0</v>
       </c>
       <c r="Z96" s="19" t="s">
-        <v>352</v>
+        <v>333</v>
       </c>
       <c r="AA96" s="5">
         <v>200</v>
@@ -19392,18 +18109,18 @@
         <v>0</v>
       </c>
       <c r="BJ96" t="s">
-        <v>370</v>
+        <v>351</v>
       </c>
     </row>
     <row r="97" ht="16.5" spans="4:62">
       <c r="D97" s="2" t="s">
-        <v>355</v>
+        <v>336</v>
       </c>
       <c r="E97" s="10">
         <v>21020314</v>
       </c>
       <c r="F97" s="9" t="s">
-        <v>377</v>
+        <v>358</v>
       </c>
       <c r="G97">
         <v>42002001</v>
@@ -19523,18 +18240,18 @@
         <v>0</v>
       </c>
       <c r="BJ97" t="s">
-        <v>370</v>
+        <v>351</v>
       </c>
     </row>
     <row r="98" ht="16.5" spans="4:62">
       <c r="D98" s="2" t="s">
-        <v>355</v>
+        <v>336</v>
       </c>
       <c r="E98" s="10">
         <v>21020321</v>
       </c>
       <c r="F98" s="9" t="s">
-        <v>378</v>
+        <v>359</v>
       </c>
       <c r="G98">
         <v>42002001</v>
@@ -19654,10 +18371,10 @@
         <v>0</v>
       </c>
       <c r="BE98" t="s">
-        <v>296</v>
+        <v>277</v>
       </c>
       <c r="BF98" t="s">
-        <v>297</v>
+        <v>278</v>
       </c>
       <c r="BG98" t="e">
         <f>IF(O98=0,"",VLOOKUP(O98,#REF!,2,FALSE))</f>
@@ -19667,18 +18384,18 @@
         <v>1</v>
       </c>
       <c r="BJ98" t="s">
-        <v>370</v>
+        <v>351</v>
       </c>
     </row>
     <row r="99" ht="16.5" spans="4:62">
       <c r="D99" s="2" t="s">
-        <v>355</v>
+        <v>336</v>
       </c>
       <c r="E99" s="10">
         <v>21020322</v>
       </c>
       <c r="F99" s="9" t="s">
-        <v>379</v>
+        <v>360</v>
       </c>
       <c r="G99">
         <v>42002001</v>
@@ -19712,7 +18429,7 @@
         <v>0</v>
       </c>
       <c r="Z99" s="19" t="s">
-        <v>352</v>
+        <v>333</v>
       </c>
       <c r="AA99" s="5">
         <v>200</v>
@@ -19798,10 +18515,10 @@
         <v>0</v>
       </c>
       <c r="BE99" t="s">
-        <v>296</v>
+        <v>277</v>
       </c>
       <c r="BF99" t="s">
-        <v>297</v>
+        <v>278</v>
       </c>
       <c r="BG99" t="e">
         <f>IF(O99=0,"",VLOOKUP(O99,#REF!,2,FALSE))</f>
@@ -19811,18 +18528,18 @@
         <v>1</v>
       </c>
       <c r="BJ99" t="s">
-        <v>370</v>
+        <v>351</v>
       </c>
     </row>
     <row r="100" ht="16.5" spans="4:62">
       <c r="D100" s="2" t="s">
-        <v>355</v>
+        <v>336</v>
       </c>
       <c r="E100" s="10">
         <v>21020323</v>
       </c>
       <c r="F100" s="9" t="s">
-        <v>380</v>
+        <v>361</v>
       </c>
       <c r="G100">
         <v>42002001</v>
@@ -19856,7 +18573,7 @@
         <v>0</v>
       </c>
       <c r="Z100" s="19" t="s">
-        <v>352</v>
+        <v>333</v>
       </c>
       <c r="AA100" s="5">
         <v>200</v>
@@ -19942,18 +18659,18 @@
         <v>0</v>
       </c>
       <c r="BJ100" t="s">
-        <v>370</v>
+        <v>351</v>
       </c>
     </row>
     <row r="101" ht="16.5" spans="4:62">
       <c r="D101" s="2" t="s">
-        <v>355</v>
+        <v>336</v>
       </c>
       <c r="E101" s="10">
         <v>21020324</v>
       </c>
       <c r="F101" s="9" t="s">
-        <v>381</v>
+        <v>362</v>
       </c>
       <c r="G101">
         <v>42002001</v>
@@ -20073,18 +18790,18 @@
         <v>0</v>
       </c>
       <c r="BJ101" t="s">
-        <v>370</v>
+        <v>351</v>
       </c>
     </row>
     <row r="102" ht="16.5" spans="4:62">
       <c r="D102" s="2" t="s">
-        <v>382</v>
+        <v>363</v>
       </c>
       <c r="E102" s="10">
         <v>22020351</v>
       </c>
       <c r="F102" s="9" t="s">
-        <v>383</v>
+        <v>364</v>
       </c>
       <c r="G102">
         <v>42002001</v>
@@ -20204,10 +18921,10 @@
         <v>0</v>
       </c>
       <c r="BE102" t="s">
-        <v>296</v>
+        <v>277</v>
       </c>
       <c r="BF102" t="s">
-        <v>297</v>
+        <v>278</v>
       </c>
       <c r="BG102" t="e">
         <f>IF(O102=0,"",VLOOKUP(O102,#REF!,2,FALSE))</f>
@@ -20217,18 +18934,18 @@
         <v>1</v>
       </c>
       <c r="BJ102" t="s">
-        <v>384</v>
+        <v>365</v>
       </c>
     </row>
     <row r="103" ht="16.5" spans="4:62">
       <c r="D103" s="2" t="s">
-        <v>382</v>
+        <v>363</v>
       </c>
       <c r="E103" s="10">
         <v>22020352</v>
       </c>
       <c r="F103" s="9" t="s">
-        <v>385</v>
+        <v>366</v>
       </c>
       <c r="G103">
         <v>42002001</v>
@@ -20262,7 +18979,7 @@
         <v>0</v>
       </c>
       <c r="Z103" s="19" t="s">
-        <v>386</v>
+        <v>367</v>
       </c>
       <c r="AA103" s="5">
         <v>200</v>
@@ -20348,21 +19065,21 @@
         <v>0</v>
       </c>
       <c r="BJ103" t="s">
-        <v>384</v>
+        <v>365</v>
       </c>
     </row>
     <row r="104" ht="16.5" spans="1:62">
       <c r="A104" t="s">
-        <v>387</v>
+        <v>368</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>382</v>
+        <v>363</v>
       </c>
       <c r="E104" s="10">
         <v>22020353</v>
       </c>
       <c r="F104" s="9" t="s">
-        <v>388</v>
+        <v>369</v>
       </c>
       <c r="G104">
         <v>42002001</v>
@@ -20396,7 +19113,7 @@
         <v>0</v>
       </c>
       <c r="Z104" s="19" t="s">
-        <v>386</v>
+        <v>367</v>
       </c>
       <c r="AA104" s="5">
         <v>200</v>
@@ -20482,10 +19199,10 @@
         <v>0</v>
       </c>
       <c r="BE104" t="s">
-        <v>296</v>
+        <v>277</v>
       </c>
       <c r="BF104" t="s">
-        <v>297</v>
+        <v>278</v>
       </c>
       <c r="BG104" t="e">
         <f>IF(O104=0,"",VLOOKUP(O104,#REF!,2,FALSE))</f>
@@ -20495,21 +19212,21 @@
         <v>1</v>
       </c>
       <c r="BJ104" t="s">
-        <v>384</v>
+        <v>365</v>
       </c>
     </row>
     <row r="105" ht="16.5" spans="1:62">
       <c r="A105" t="s">
-        <v>387</v>
+        <v>368</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>382</v>
+        <v>363</v>
       </c>
       <c r="E105" s="10">
         <v>22020354</v>
       </c>
       <c r="F105" s="9" t="s">
-        <v>389</v>
+        <v>370</v>
       </c>
       <c r="G105">
         <v>42002001</v>
@@ -20629,18 +19346,18 @@
         <v>0</v>
       </c>
       <c r="BJ105" t="s">
-        <v>384</v>
+        <v>365</v>
       </c>
     </row>
     <row r="106" ht="16.5" spans="4:62">
       <c r="D106" s="2" t="s">
-        <v>382</v>
+        <v>363</v>
       </c>
       <c r="E106" s="10">
         <v>22020361</v>
       </c>
       <c r="F106" s="9" t="s">
-        <v>390</v>
+        <v>371</v>
       </c>
       <c r="G106">
         <v>42002001</v>
@@ -20760,10 +19477,10 @@
         <v>0</v>
       </c>
       <c r="BE106" t="s">
-        <v>296</v>
+        <v>277</v>
       </c>
       <c r="BF106" t="s">
-        <v>297</v>
+        <v>278</v>
       </c>
       <c r="BG106" t="e">
         <f>IF(O106=0,"",VLOOKUP(O106,#REF!,2,FALSE))</f>
@@ -20773,18 +19490,18 @@
         <v>1</v>
       </c>
       <c r="BJ106" t="s">
-        <v>384</v>
+        <v>365</v>
       </c>
     </row>
     <row r="107" ht="16.5" spans="4:62">
       <c r="D107" s="2" t="s">
-        <v>382</v>
+        <v>363</v>
       </c>
       <c r="E107" s="10">
         <v>22020362</v>
       </c>
       <c r="F107" s="9" t="s">
-        <v>391</v>
+        <v>372</v>
       </c>
       <c r="G107">
         <v>42002001</v>
@@ -20818,7 +19535,7 @@
         <v>0</v>
       </c>
       <c r="Z107" s="19" t="s">
-        <v>386</v>
+        <v>367</v>
       </c>
       <c r="AA107" s="5">
         <v>200</v>
@@ -20904,18 +19621,18 @@
         <v>0</v>
       </c>
       <c r="BJ107" t="s">
-        <v>384</v>
+        <v>365</v>
       </c>
     </row>
     <row r="108" ht="16.5" spans="4:62">
       <c r="D108" s="2" t="s">
-        <v>382</v>
+        <v>363</v>
       </c>
       <c r="E108" s="10">
         <v>22020363</v>
       </c>
       <c r="F108" s="9" t="s">
-        <v>392</v>
+        <v>373</v>
       </c>
       <c r="G108">
         <v>42002001</v>
@@ -20949,7 +19666,7 @@
         <v>0</v>
       </c>
       <c r="Z108" s="19" t="s">
-        <v>386</v>
+        <v>367</v>
       </c>
       <c r="AA108" s="5">
         <v>200</v>
@@ -21035,10 +19752,10 @@
         <v>0</v>
       </c>
       <c r="BE108" t="s">
-        <v>296</v>
+        <v>277</v>
       </c>
       <c r="BF108" t="s">
-        <v>297</v>
+        <v>278</v>
       </c>
       <c r="BG108" t="e">
         <f>IF(O108=0,"",VLOOKUP(O108,#REF!,2,FALSE))</f>
@@ -21048,18 +19765,18 @@
         <v>1</v>
       </c>
       <c r="BJ108" t="s">
-        <v>384</v>
+        <v>365</v>
       </c>
     </row>
     <row r="109" ht="16.5" spans="4:62">
       <c r="D109" s="2" t="s">
-        <v>382</v>
+        <v>363</v>
       </c>
       <c r="E109" s="10">
         <v>22020364</v>
       </c>
       <c r="F109" s="9" t="s">
-        <v>393</v>
+        <v>374</v>
       </c>
       <c r="G109">
         <v>42002001</v>
@@ -21179,18 +19896,18 @@
         <v>0</v>
       </c>
       <c r="BJ109" t="s">
-        <v>384</v>
+        <v>365</v>
       </c>
     </row>
     <row r="110" ht="16.5" spans="4:62">
       <c r="D110" s="2" t="s">
-        <v>382</v>
+        <v>363</v>
       </c>
       <c r="E110" s="10">
         <v>22020371</v>
       </c>
       <c r="F110" s="9" t="s">
-        <v>394</v>
+        <v>375</v>
       </c>
       <c r="G110">
         <v>42002001</v>
@@ -21310,10 +20027,10 @@
         <v>0</v>
       </c>
       <c r="BE110" t="s">
-        <v>296</v>
+        <v>277</v>
       </c>
       <c r="BF110" t="s">
-        <v>297</v>
+        <v>278</v>
       </c>
       <c r="BG110" t="e">
         <f>IF(O110=0,"",VLOOKUP(O110,#REF!,2,FALSE))</f>
@@ -21323,18 +20040,18 @@
         <v>1</v>
       </c>
       <c r="BJ110" t="s">
-        <v>384</v>
+        <v>365</v>
       </c>
     </row>
     <row r="111" ht="16.5" spans="4:62">
       <c r="D111" s="2" t="s">
-        <v>382</v>
+        <v>363</v>
       </c>
       <c r="E111" s="10">
         <v>22020372</v>
       </c>
       <c r="F111" s="9" t="s">
-        <v>395</v>
+        <v>376</v>
       </c>
       <c r="G111">
         <v>42002001</v>
@@ -21368,7 +20085,7 @@
         <v>0</v>
       </c>
       <c r="Z111" s="19" t="s">
-        <v>386</v>
+        <v>367</v>
       </c>
       <c r="AA111" s="5">
         <v>200</v>
@@ -21454,18 +20171,18 @@
         <v>0</v>
       </c>
       <c r="BJ111" t="s">
-        <v>384</v>
+        <v>365</v>
       </c>
     </row>
     <row r="112" ht="16.5" spans="4:62">
       <c r="D112" s="2" t="s">
-        <v>382</v>
+        <v>363</v>
       </c>
       <c r="E112" s="10">
         <v>22020373</v>
       </c>
       <c r="F112" s="9" t="s">
-        <v>396</v>
+        <v>377</v>
       </c>
       <c r="G112">
         <v>42002001</v>
@@ -21499,7 +20216,7 @@
         <v>0</v>
       </c>
       <c r="Z112" s="19" t="s">
-        <v>386</v>
+        <v>367</v>
       </c>
       <c r="AA112" s="5">
         <v>200</v>
@@ -21585,10 +20302,10 @@
         <v>0</v>
       </c>
       <c r="BE112" t="s">
-        <v>296</v>
+        <v>277</v>
       </c>
       <c r="BF112" t="s">
-        <v>297</v>
+        <v>278</v>
       </c>
       <c r="BG112" t="e">
         <f>IF(O112=0,"",VLOOKUP(O112,#REF!,2,FALSE))</f>
@@ -21598,18 +20315,18 @@
         <v>1</v>
       </c>
       <c r="BJ112" t="s">
-        <v>384</v>
+        <v>365</v>
       </c>
     </row>
     <row r="113" ht="16.5" spans="4:62">
       <c r="D113" s="2" t="s">
-        <v>382</v>
+        <v>363</v>
       </c>
       <c r="E113" s="10">
         <v>22020374</v>
       </c>
       <c r="F113" s="9" t="s">
-        <v>397</v>
+        <v>378</v>
       </c>
       <c r="G113">
         <v>42002001</v>
@@ -21729,18 +20446,18 @@
         <v>0</v>
       </c>
       <c r="BJ113" t="s">
-        <v>384</v>
+        <v>365</v>
       </c>
     </row>
     <row r="114" ht="16.5" spans="4:62">
       <c r="D114" s="2" t="s">
-        <v>382</v>
+        <v>363</v>
       </c>
       <c r="E114" s="10">
         <v>22020401</v>
       </c>
       <c r="F114" s="9" t="s">
-        <v>398</v>
+        <v>379</v>
       </c>
       <c r="G114">
         <v>42002001</v>
@@ -21860,10 +20577,10 @@
         <v>0</v>
       </c>
       <c r="BE114" t="s">
-        <v>296</v>
+        <v>277</v>
       </c>
       <c r="BF114" t="s">
-        <v>297</v>
+        <v>278</v>
       </c>
       <c r="BG114" t="e">
         <f>IF(O114=0,"",VLOOKUP(O114,#REF!,2,FALSE))</f>
@@ -21873,18 +20590,18 @@
         <v>1</v>
       </c>
       <c r="BJ114" t="s">
-        <v>399</v>
+        <v>380</v>
       </c>
     </row>
     <row r="115" ht="16.5" spans="4:62">
       <c r="D115" s="2" t="s">
-        <v>382</v>
+        <v>363</v>
       </c>
       <c r="E115" s="10">
         <v>22020402</v>
       </c>
       <c r="F115" s="9" t="s">
-        <v>400</v>
+        <v>381</v>
       </c>
       <c r="G115">
         <v>42002001</v>
@@ -21918,7 +20635,7 @@
         <v>0</v>
       </c>
       <c r="Z115" s="19" t="s">
-        <v>401</v>
+        <v>382</v>
       </c>
       <c r="AA115" s="5">
         <v>200</v>
@@ -22004,10 +20721,10 @@
         <v>0</v>
       </c>
       <c r="BE115" t="s">
-        <v>296</v>
+        <v>277</v>
       </c>
       <c r="BF115" t="s">
-        <v>297</v>
+        <v>278</v>
       </c>
       <c r="BG115" t="e">
         <f>IF(O115=0,"",VLOOKUP(O115,#REF!,2,FALSE))</f>
@@ -22017,18 +20734,18 @@
         <v>1</v>
       </c>
       <c r="BJ115" t="s">
-        <v>399</v>
+        <v>380</v>
       </c>
     </row>
     <row r="116" ht="16.5" spans="4:62">
       <c r="D116" s="2" t="s">
-        <v>382</v>
+        <v>363</v>
       </c>
       <c r="E116" s="10">
         <v>22020403</v>
       </c>
       <c r="F116" s="9" t="s">
-        <v>402</v>
+        <v>383</v>
       </c>
       <c r="G116">
         <v>42002001</v>
@@ -22148,18 +20865,18 @@
         <v>0</v>
       </c>
       <c r="BJ116" t="s">
-        <v>399</v>
+        <v>380</v>
       </c>
     </row>
     <row r="117" ht="16.5" spans="4:62">
       <c r="D117" s="2" t="s">
-        <v>382</v>
+        <v>363</v>
       </c>
       <c r="E117" s="10">
         <v>22020411</v>
       </c>
       <c r="F117" s="9" t="s">
-        <v>403</v>
+        <v>384</v>
       </c>
       <c r="G117">
         <v>42002001</v>
@@ -22279,10 +20996,10 @@
         <v>0</v>
       </c>
       <c r="BE117" t="s">
-        <v>296</v>
+        <v>277</v>
       </c>
       <c r="BF117" t="s">
-        <v>297</v>
+        <v>278</v>
       </c>
       <c r="BG117" t="e">
         <f>IF(O117=0,"",VLOOKUP(O117,#REF!,2,FALSE))</f>
@@ -22292,18 +21009,18 @@
         <v>1</v>
       </c>
       <c r="BJ117" t="s">
-        <v>399</v>
+        <v>380</v>
       </c>
     </row>
     <row r="118" ht="16.5" spans="4:62">
       <c r="D118" s="2" t="s">
-        <v>382</v>
+        <v>363</v>
       </c>
       <c r="E118" s="10">
         <v>22020412</v>
       </c>
       <c r="F118" s="9" t="s">
-        <v>404</v>
+        <v>385</v>
       </c>
       <c r="G118">
         <v>42002001</v>
@@ -22337,7 +21054,7 @@
         <v>0</v>
       </c>
       <c r="Z118" s="19" t="s">
-        <v>401</v>
+        <v>382</v>
       </c>
       <c r="AA118" s="5">
         <v>200</v>
@@ -22423,10 +21140,10 @@
         <v>0</v>
       </c>
       <c r="BE118" t="s">
-        <v>296</v>
+        <v>277</v>
       </c>
       <c r="BF118" t="s">
-        <v>297</v>
+        <v>278</v>
       </c>
       <c r="BG118" t="e">
         <f>IF(O118=0,"",VLOOKUP(O118,#REF!,2,FALSE))</f>
@@ -22436,18 +21153,18 @@
         <v>1</v>
       </c>
       <c r="BJ118" t="s">
-        <v>399</v>
+        <v>380</v>
       </c>
     </row>
     <row r="119" ht="16.5" spans="4:62">
       <c r="D119" s="2" t="s">
-        <v>382</v>
+        <v>363</v>
       </c>
       <c r="E119" s="10">
         <v>22020413</v>
       </c>
       <c r="F119" s="9" t="s">
-        <v>405</v>
+        <v>386</v>
       </c>
       <c r="G119">
         <v>42002001</v>
@@ -22567,18 +21284,18 @@
         <v>0</v>
       </c>
       <c r="BJ119" t="s">
-        <v>399</v>
+        <v>380</v>
       </c>
     </row>
     <row r="120" ht="16.5" spans="4:62">
       <c r="D120" s="2" t="s">
-        <v>382</v>
+        <v>363</v>
       </c>
       <c r="E120" s="10">
         <v>22020421</v>
       </c>
       <c r="F120" s="9" t="s">
-        <v>406</v>
+        <v>387</v>
       </c>
       <c r="G120">
         <v>42002001</v>
@@ -22698,10 +21415,10 @@
         <v>0</v>
       </c>
       <c r="BE120" t="s">
-        <v>296</v>
+        <v>277</v>
       </c>
       <c r="BF120" t="s">
-        <v>297</v>
+        <v>278</v>
       </c>
       <c r="BG120" t="e">
         <f>IF(O120=0,"",VLOOKUP(O120,#REF!,2,FALSE))</f>
@@ -22711,18 +21428,18 @@
         <v>1</v>
       </c>
       <c r="BJ120" t="s">
-        <v>399</v>
+        <v>380</v>
       </c>
     </row>
     <row r="121" ht="16.5" spans="4:62">
       <c r="D121" s="2" t="s">
-        <v>382</v>
+        <v>363</v>
       </c>
       <c r="E121" s="10">
         <v>22020422</v>
       </c>
       <c r="F121" s="9" t="s">
-        <v>407</v>
+        <v>388</v>
       </c>
       <c r="G121">
         <v>42002001</v>
@@ -22756,7 +21473,7 @@
         <v>0</v>
       </c>
       <c r="Z121" s="19" t="s">
-        <v>401</v>
+        <v>382</v>
       </c>
       <c r="AA121" s="5">
         <v>200</v>
@@ -22842,10 +21559,10 @@
         <v>0</v>
       </c>
       <c r="BE121" t="s">
-        <v>296</v>
+        <v>277</v>
       </c>
       <c r="BF121" t="s">
-        <v>297</v>
+        <v>278</v>
       </c>
       <c r="BG121" t="e">
         <f>IF(O121=0,"",VLOOKUP(O121,#REF!,2,FALSE))</f>
@@ -22855,18 +21572,18 @@
         <v>1</v>
       </c>
       <c r="BJ121" t="s">
-        <v>399</v>
+        <v>380</v>
       </c>
     </row>
     <row r="122" ht="16.5" spans="4:62">
       <c r="D122" s="2" t="s">
-        <v>382</v>
+        <v>363</v>
       </c>
       <c r="E122" s="10">
         <v>22020423</v>
       </c>
       <c r="F122" s="9" t="s">
-        <v>408</v>
+        <v>389</v>
       </c>
       <c r="G122">
         <v>42002001</v>
@@ -22986,18 +21703,18 @@
         <v>0</v>
       </c>
       <c r="BJ122" t="s">
-        <v>399</v>
+        <v>380</v>
       </c>
     </row>
     <row r="123" ht="15.75" customHeight="1" spans="4:62">
       <c r="D123" s="2" t="s">
-        <v>355</v>
+        <v>336</v>
       </c>
       <c r="E123" s="10">
         <v>21020451</v>
       </c>
       <c r="F123" s="9" t="s">
-        <v>409</v>
+        <v>390</v>
       </c>
       <c r="G123">
         <v>42002001</v>
@@ -23117,10 +21834,10 @@
         <v>0</v>
       </c>
       <c r="BE123" t="s">
-        <v>296</v>
+        <v>277</v>
       </c>
       <c r="BF123" t="s">
-        <v>297</v>
+        <v>278</v>
       </c>
       <c r="BG123" t="e">
         <f>IF(O123=0,"",VLOOKUP(O123,#REF!,2,FALSE))</f>
@@ -23130,18 +21847,18 @@
         <v>1</v>
       </c>
       <c r="BJ123" t="s">
-        <v>410</v>
+        <v>391</v>
       </c>
     </row>
     <row r="124" ht="15.75" customHeight="1" spans="4:62">
       <c r="D124" s="2" t="s">
-        <v>355</v>
+        <v>336</v>
       </c>
       <c r="E124" s="10">
         <v>21020452</v>
       </c>
       <c r="F124" s="9" t="s">
-        <v>411</v>
+        <v>392</v>
       </c>
       <c r="G124">
         <v>42002001</v>
@@ -23175,7 +21892,7 @@
         <v>0</v>
       </c>
       <c r="Z124" s="19" t="s">
-        <v>333</v>
+        <v>314</v>
       </c>
       <c r="AA124" s="5">
         <v>200</v>
@@ -23261,7 +21978,7 @@
         <v>0</v>
       </c>
       <c r="BF124" t="s">
-        <v>297</v>
+        <v>278</v>
       </c>
       <c r="BG124" t="e">
         <f>IF(O124=0,"",VLOOKUP(O124,#REF!,2,FALSE))</f>
@@ -23271,18 +21988,18 @@
         <v>1</v>
       </c>
       <c r="BJ124" t="s">
-        <v>410</v>
+        <v>391</v>
       </c>
     </row>
     <row r="125" ht="15.75" customHeight="1" spans="4:62">
       <c r="D125" s="2" t="s">
-        <v>355</v>
+        <v>336</v>
       </c>
       <c r="E125" s="10">
         <v>21020453</v>
       </c>
       <c r="F125" s="9" t="s">
-        <v>412</v>
+        <v>393</v>
       </c>
       <c r="G125">
         <v>42002001</v>
@@ -23402,18 +22119,18 @@
         <v>0</v>
       </c>
       <c r="BJ125" t="s">
-        <v>410</v>
+        <v>391</v>
       </c>
     </row>
     <row r="126" ht="16.5" spans="4:62">
       <c r="D126" s="2" t="s">
-        <v>355</v>
+        <v>336</v>
       </c>
       <c r="E126" s="10">
         <v>21020461</v>
       </c>
       <c r="F126" s="9" t="s">
-        <v>413</v>
+        <v>394</v>
       </c>
       <c r="G126">
         <v>42002001</v>
@@ -23533,10 +22250,10 @@
         <v>0</v>
       </c>
       <c r="BE126" t="s">
-        <v>296</v>
+        <v>277</v>
       </c>
       <c r="BF126" t="s">
-        <v>297</v>
+        <v>278</v>
       </c>
       <c r="BG126" t="e">
         <f>IF(O126=0,"",VLOOKUP(O126,#REF!,2,FALSE))</f>
@@ -23546,18 +22263,18 @@
         <v>1</v>
       </c>
       <c r="BJ126" t="s">
-        <v>410</v>
+        <v>391</v>
       </c>
     </row>
     <row r="127" ht="16.5" spans="4:62">
       <c r="D127" s="2" t="s">
-        <v>355</v>
+        <v>336</v>
       </c>
       <c r="E127" s="10">
         <v>21020462</v>
       </c>
       <c r="F127" s="9" t="s">
-        <v>414</v>
+        <v>395</v>
       </c>
       <c r="G127">
         <v>42002001</v>
@@ -23591,7 +22308,7 @@
         <v>0</v>
       </c>
       <c r="Z127" s="19" t="s">
-        <v>333</v>
+        <v>314</v>
       </c>
       <c r="AA127" s="5">
         <v>200</v>
@@ -23677,7 +22394,7 @@
         <v>0</v>
       </c>
       <c r="BF127" t="s">
-        <v>297</v>
+        <v>278</v>
       </c>
       <c r="BG127" t="e">
         <f>IF(O127=0,"",VLOOKUP(O127,#REF!,2,FALSE))</f>
@@ -23687,18 +22404,18 @@
         <v>1</v>
       </c>
       <c r="BJ127" t="s">
-        <v>410</v>
+        <v>391</v>
       </c>
     </row>
     <row r="128" ht="16.5" spans="4:62">
       <c r="D128" s="2" t="s">
-        <v>355</v>
+        <v>336</v>
       </c>
       <c r="E128" s="10">
         <v>21020463</v>
       </c>
       <c r="F128" s="9" t="s">
-        <v>415</v>
+        <v>396</v>
       </c>
       <c r="G128">
         <v>42002001</v>
@@ -23818,18 +22535,18 @@
         <v>0</v>
       </c>
       <c r="BJ128" t="s">
-        <v>410</v>
+        <v>391</v>
       </c>
     </row>
     <row r="129" ht="16.5" spans="4:62">
       <c r="D129" s="2" t="s">
-        <v>355</v>
+        <v>336</v>
       </c>
       <c r="E129" s="10">
         <v>21020471</v>
       </c>
       <c r="F129" s="9" t="s">
-        <v>416</v>
+        <v>397</v>
       </c>
       <c r="G129">
         <v>42002001</v>
@@ -23949,10 +22666,10 @@
         <v>0</v>
       </c>
       <c r="BE129" t="s">
-        <v>296</v>
+        <v>277</v>
       </c>
       <c r="BF129" t="s">
-        <v>297</v>
+        <v>278</v>
       </c>
       <c r="BG129" t="e">
         <f>IF(O129=0,"",VLOOKUP(O129,#REF!,2,FALSE))</f>
@@ -23962,18 +22679,18 @@
         <v>1</v>
       </c>
       <c r="BJ129" t="s">
-        <v>410</v>
+        <v>391</v>
       </c>
     </row>
     <row r="130" ht="16.5" spans="4:62">
       <c r="D130" s="2" t="s">
-        <v>355</v>
+        <v>336</v>
       </c>
       <c r="E130" s="10">
         <v>21020472</v>
       </c>
       <c r="F130" s="9" t="s">
-        <v>417</v>
+        <v>398</v>
       </c>
       <c r="G130">
         <v>42002001</v>
@@ -24007,7 +22724,7 @@
         <v>0</v>
       </c>
       <c r="Z130" s="19" t="s">
-        <v>333</v>
+        <v>314</v>
       </c>
       <c r="AA130" s="5">
         <v>200</v>
@@ -24093,7 +22810,7 @@
         <v>0</v>
       </c>
       <c r="BF130" t="s">
-        <v>297</v>
+        <v>278</v>
       </c>
       <c r="BG130" t="e">
         <f>IF(O130=0,"",VLOOKUP(O130,#REF!,2,FALSE))</f>
@@ -24103,18 +22820,18 @@
         <v>1</v>
       </c>
       <c r="BJ130" t="s">
-        <v>410</v>
+        <v>391</v>
       </c>
     </row>
     <row r="131" ht="16.5" spans="4:62">
       <c r="D131" s="2" t="s">
-        <v>355</v>
+        <v>336</v>
       </c>
       <c r="E131" s="10">
         <v>21020473</v>
       </c>
       <c r="F131" s="9" t="s">
-        <v>418</v>
+        <v>399</v>
       </c>
       <c r="G131">
         <v>42002001</v>
@@ -24234,18 +22951,18 @@
         <v>0</v>
       </c>
       <c r="BJ131" t="s">
-        <v>410</v>
+        <v>391</v>
       </c>
     </row>
     <row r="132" ht="16.5" spans="4:62">
       <c r="D132" s="2" t="s">
-        <v>382</v>
+        <v>363</v>
       </c>
       <c r="E132" s="10">
         <v>22020181</v>
       </c>
       <c r="F132" s="9" t="s">
-        <v>419</v>
+        <v>400</v>
       </c>
       <c r="G132">
         <v>42002001</v>
@@ -24367,18 +23084,18 @@
         <v>0</v>
       </c>
       <c r="BJ132" t="s">
-        <v>420</v>
+        <v>401</v>
       </c>
     </row>
     <row r="133" ht="16.5" spans="4:62">
       <c r="D133" s="2" t="s">
-        <v>382</v>
+        <v>363</v>
       </c>
       <c r="E133" s="10">
         <v>22020182</v>
       </c>
       <c r="F133" s="9" t="s">
-        <v>421</v>
+        <v>402</v>
       </c>
       <c r="G133">
         <v>42002001</v>
@@ -24500,10 +23217,10 @@
         <v>0</v>
       </c>
       <c r="BE133" t="s">
-        <v>296</v>
+        <v>277</v>
       </c>
       <c r="BF133" t="s">
-        <v>297</v>
+        <v>278</v>
       </c>
       <c r="BG133" t="e">
         <f>IF(O133=0,"",VLOOKUP(O133,#REF!,2,FALSE))</f>
@@ -24513,18 +23230,18 @@
         <v>1</v>
       </c>
       <c r="BJ133" t="s">
-        <v>420</v>
+        <v>401</v>
       </c>
     </row>
     <row r="134" ht="16.5" spans="4:62">
       <c r="D134" s="2" t="s">
-        <v>382</v>
+        <v>363</v>
       </c>
       <c r="E134" s="10">
         <v>22020191</v>
       </c>
       <c r="F134" s="9" t="s">
-        <v>422</v>
+        <v>403</v>
       </c>
       <c r="G134">
         <v>42002001</v>
@@ -24646,18 +23363,18 @@
         <v>0</v>
       </c>
       <c r="BJ134" t="s">
-        <v>420</v>
+        <v>401</v>
       </c>
     </row>
     <row r="135" ht="16.5" spans="4:62">
       <c r="D135" s="2" t="s">
-        <v>382</v>
+        <v>363</v>
       </c>
       <c r="E135" s="10">
         <v>22020192</v>
       </c>
       <c r="F135" s="9" t="s">
-        <v>423</v>
+        <v>404</v>
       </c>
       <c r="G135">
         <v>42002001</v>
@@ -24779,10 +23496,10 @@
         <v>0</v>
       </c>
       <c r="BE135" t="s">
-        <v>296</v>
+        <v>277</v>
       </c>
       <c r="BF135" t="s">
-        <v>297</v>
+        <v>278</v>
       </c>
       <c r="BG135" t="e">
         <f>IF(O135=0,"",VLOOKUP(O135,#REF!,2,FALSE))</f>
@@ -24792,18 +23509,18 @@
         <v>1</v>
       </c>
       <c r="BJ135" t="s">
-        <v>420</v>
+        <v>401</v>
       </c>
     </row>
     <row r="136" ht="16.5" spans="4:62">
       <c r="D136" s="2" t="s">
-        <v>382</v>
+        <v>363</v>
       </c>
       <c r="E136" s="10">
         <v>22020201</v>
       </c>
       <c r="F136" s="9" t="s">
-        <v>424</v>
+        <v>405</v>
       </c>
       <c r="G136">
         <v>42002001</v>
@@ -24925,18 +23642,18 @@
         <v>0</v>
       </c>
       <c r="BJ136" t="s">
-        <v>420</v>
+        <v>401</v>
       </c>
     </row>
     <row r="137" ht="16.5" spans="4:62">
       <c r="D137" s="2" t="s">
-        <v>382</v>
+        <v>363</v>
       </c>
       <c r="E137" s="10">
         <v>22020202</v>
       </c>
       <c r="F137" s="9" t="s">
-        <v>425</v>
+        <v>406</v>
       </c>
       <c r="G137">
         <v>42002001</v>
@@ -25058,10 +23775,10 @@
         <v>0</v>
       </c>
       <c r="BE137" t="s">
-        <v>296</v>
+        <v>277</v>
       </c>
       <c r="BF137" t="s">
-        <v>297</v>
+        <v>278</v>
       </c>
       <c r="BG137" t="e">
         <f>IF(O137=0,"",VLOOKUP(O137,#REF!,2,FALSE))</f>
@@ -25071,18 +23788,18 @@
         <v>1</v>
       </c>
       <c r="BJ137" t="s">
-        <v>420</v>
+        <v>401</v>
       </c>
     </row>
     <row r="138" ht="16.5" spans="4:62">
       <c r="D138" s="2" t="s">
-        <v>382</v>
+        <v>363</v>
       </c>
       <c r="E138" s="10">
         <v>22020211</v>
       </c>
       <c r="F138" s="9" t="s">
-        <v>426</v>
+        <v>407</v>
       </c>
       <c r="G138">
         <v>42002001</v>
@@ -25204,18 +23921,18 @@
         <v>0</v>
       </c>
       <c r="BJ138" t="s">
-        <v>420</v>
+        <v>401</v>
       </c>
     </row>
     <row r="139" ht="16.5" spans="4:62">
       <c r="D139" s="2" t="s">
-        <v>382</v>
+        <v>363</v>
       </c>
       <c r="E139" s="10">
         <v>22020212</v>
       </c>
       <c r="F139" s="9" t="s">
-        <v>427</v>
+        <v>408</v>
       </c>
       <c r="G139">
         <v>42002001</v>
@@ -25337,10 +24054,10 @@
         <v>0</v>
       </c>
       <c r="BE139" t="s">
-        <v>296</v>
+        <v>277</v>
       </c>
       <c r="BF139" t="s">
-        <v>297</v>
+        <v>278</v>
       </c>
       <c r="BG139" t="e">
         <f>IF(O139=0,"",VLOOKUP(O139,#REF!,2,FALSE))</f>
@@ -25350,18 +24067,18 @@
         <v>1</v>
       </c>
       <c r="BJ139" t="s">
-        <v>420</v>
+        <v>401</v>
       </c>
     </row>
     <row r="140" ht="16.5" spans="4:62">
       <c r="D140" s="2" t="s">
-        <v>382</v>
+        <v>363</v>
       </c>
       <c r="E140" s="10">
         <v>22020221</v>
       </c>
       <c r="F140" s="9" t="s">
-        <v>428</v>
+        <v>409</v>
       </c>
       <c r="G140">
         <v>42002001</v>
@@ -25483,18 +24200,18 @@
         <v>0</v>
       </c>
       <c r="BJ140" t="s">
-        <v>420</v>
+        <v>401</v>
       </c>
     </row>
     <row r="141" ht="16.5" spans="4:62">
       <c r="D141" s="2" t="s">
-        <v>382</v>
+        <v>363</v>
       </c>
       <c r="E141" s="10">
         <v>22020222</v>
       </c>
       <c r="F141" s="9" t="s">
-        <v>429</v>
+        <v>410</v>
       </c>
       <c r="G141">
         <v>42002001</v>
@@ -25616,10 +24333,10 @@
         <v>0</v>
       </c>
       <c r="BE141" t="s">
-        <v>296</v>
+        <v>277</v>
       </c>
       <c r="BF141" t="s">
-        <v>297</v>
+        <v>278</v>
       </c>
       <c r="BG141" t="e">
         <f>IF(O141=0,"",VLOOKUP(O141,#REF!,2,FALSE))</f>
@@ -25629,18 +24346,18 @@
         <v>1</v>
       </c>
       <c r="BJ141" t="s">
-        <v>420</v>
+        <v>401</v>
       </c>
     </row>
     <row r="142" ht="16.5" spans="4:62">
       <c r="D142" s="2" t="s">
-        <v>382</v>
+        <v>363</v>
       </c>
       <c r="E142" s="10">
         <v>22020231</v>
       </c>
       <c r="F142" s="9" t="s">
-        <v>430</v>
+        <v>411</v>
       </c>
       <c r="G142">
         <v>42002001</v>
@@ -25762,10 +24479,10 @@
         <v>0</v>
       </c>
       <c r="BE142" t="s">
-        <v>431</v>
+        <v>412</v>
       </c>
       <c r="BF142" t="s">
-        <v>297</v>
+        <v>278</v>
       </c>
       <c r="BG142" t="e">
         <f>IF(O142=0,"",VLOOKUP(O142,#REF!,2,FALSE))</f>
@@ -25775,18 +24492,18 @@
         <v>1</v>
       </c>
       <c r="BJ142" t="s">
-        <v>432</v>
+        <v>413</v>
       </c>
     </row>
     <row r="143" ht="16.5" spans="4:62">
       <c r="D143" s="2" t="s">
-        <v>382</v>
+        <v>363</v>
       </c>
       <c r="E143" s="10">
         <v>22029011</v>
       </c>
       <c r="F143" s="9" t="s">
-        <v>433</v>
+        <v>414</v>
       </c>
       <c r="G143">
         <v>42002001</v>
@@ -25820,7 +24537,7 @@
         <v>0</v>
       </c>
       <c r="Z143" s="19" t="s">
-        <v>401</v>
+        <v>382</v>
       </c>
       <c r="AA143" s="5">
         <v>200</v>
@@ -25908,18 +24625,18 @@
         <v>0</v>
       </c>
       <c r="BJ143" t="s">
-        <v>434</v>
+        <v>415</v>
       </c>
     </row>
     <row r="144" spans="4:62">
       <c r="D144" s="2" t="s">
-        <v>435</v>
+        <v>416</v>
       </c>
       <c r="E144" s="10">
         <v>41120471</v>
       </c>
       <c r="F144" t="s">
-        <v>436</v>
+        <v>417</v>
       </c>
       <c r="G144">
         <v>44001101</v>
@@ -25928,7 +24645,7 @@
         <v>44001101</v>
       </c>
       <c r="I144" t="s">
-        <v>437</v>
+        <v>418</v>
       </c>
       <c r="J144">
         <v>4001</v>
@@ -25953,7 +24670,7 @@
         <v>0</v>
       </c>
       <c r="Z144" s="19" t="s">
-        <v>438</v>
+        <v>419</v>
       </c>
       <c r="AA144" s="5">
         <v>200</v>
@@ -26041,18 +24758,18 @@
         <v>0</v>
       </c>
       <c r="BJ144" t="s">
-        <v>439</v>
+        <v>420</v>
       </c>
     </row>
     <row r="145" spans="4:62">
       <c r="D145" s="2" t="s">
-        <v>435</v>
+        <v>416</v>
       </c>
       <c r="E145">
         <v>41130021</v>
       </c>
       <c r="F145" t="s">
-        <v>440</v>
+        <v>421</v>
       </c>
       <c r="G145">
         <v>44001102</v>
@@ -26086,7 +24803,7 @@
         <v>0</v>
       </c>
       <c r="Z145" s="19" t="s">
-        <v>441</v>
+        <v>422</v>
       </c>
       <c r="AA145" s="5">
         <v>200</v>
@@ -26174,18 +24891,18 @@
         <v>0</v>
       </c>
       <c r="BJ145" t="s">
-        <v>442</v>
+        <v>423</v>
       </c>
     </row>
     <row r="146" spans="4:62">
       <c r="D146" s="2" t="s">
-        <v>435</v>
+        <v>416</v>
       </c>
       <c r="E146">
         <v>41130031</v>
       </c>
       <c r="F146" t="s">
-        <v>443</v>
+        <v>424</v>
       </c>
       <c r="G146">
         <v>44001103</v>
@@ -26306,18 +25023,18 @@
         <v>0</v>
       </c>
       <c r="BJ146" t="s">
-        <v>444</v>
+        <v>425</v>
       </c>
     </row>
     <row r="147" spans="4:62">
       <c r="D147" s="2" t="s">
-        <v>445</v>
+        <v>426</v>
       </c>
       <c r="E147">
         <v>41130041</v>
       </c>
       <c r="F147" t="s">
-        <v>446</v>
+        <v>427</v>
       </c>
       <c r="G147">
         <v>44001104</v>
@@ -26326,7 +25043,7 @@
         <v>44001104</v>
       </c>
       <c r="I147" t="s">
-        <v>447</v>
+        <v>428</v>
       </c>
       <c r="J147">
         <v>4001</v>
@@ -26438,18 +25155,18 @@
         <v>0</v>
       </c>
       <c r="BJ147" t="s">
-        <v>448</v>
+        <v>429</v>
       </c>
     </row>
     <row r="148" spans="4:62">
       <c r="D148" s="2" t="s">
-        <v>445</v>
+        <v>426</v>
       </c>
       <c r="E148">
         <v>41130051</v>
       </c>
       <c r="F148" t="s">
-        <v>449</v>
+        <v>430</v>
       </c>
       <c r="G148">
         <v>44001116</v>
@@ -26458,7 +25175,7 @@
         <v>44001116</v>
       </c>
       <c r="I148" t="s">
-        <v>450</v>
+        <v>431</v>
       </c>
       <c r="J148">
         <v>4001</v>
@@ -26482,7 +25199,7 @@
         <v>0</v>
       </c>
       <c r="Z148" s="19" t="s">
-        <v>451</v>
+        <v>432</v>
       </c>
       <c r="AA148" s="5">
         <v>200</v>
@@ -26570,18 +25287,18 @@
         <v>0</v>
       </c>
       <c r="BJ148" t="s">
-        <v>452</v>
+        <v>433</v>
       </c>
     </row>
     <row r="149" spans="4:62">
       <c r="D149" s="2" t="s">
-        <v>445</v>
+        <v>426</v>
       </c>
       <c r="E149">
         <v>41130061</v>
       </c>
       <c r="F149" t="s">
-        <v>453</v>
+        <v>434</v>
       </c>
       <c r="G149">
         <v>44001117</v>
@@ -26590,7 +25307,7 @@
         <v>44001117</v>
       </c>
       <c r="I149" t="s">
-        <v>450</v>
+        <v>431</v>
       </c>
       <c r="J149">
         <v>4001</v>
@@ -26614,7 +25331,7 @@
         <v>0</v>
       </c>
       <c r="Z149" s="19" t="s">
-        <v>451</v>
+        <v>432</v>
       </c>
       <c r="AA149" s="5">
         <v>200</v>
@@ -26702,18 +25419,18 @@
         <v>0</v>
       </c>
       <c r="BJ149" t="s">
-        <v>454</v>
+        <v>435</v>
       </c>
     </row>
     <row r="150" spans="4:62">
       <c r="D150" s="2" t="s">
-        <v>445</v>
+        <v>426</v>
       </c>
       <c r="E150">
         <v>41130071</v>
       </c>
       <c r="F150" t="s">
-        <v>455</v>
+        <v>436</v>
       </c>
       <c r="G150">
         <v>44001118</v>
@@ -26722,7 +25439,7 @@
         <v>44001118</v>
       </c>
       <c r="I150" t="s">
-        <v>450</v>
+        <v>431</v>
       </c>
       <c r="J150">
         <v>4001</v>
@@ -26746,7 +25463,7 @@
         <v>0</v>
       </c>
       <c r="Z150" s="19" t="s">
-        <v>451</v>
+        <v>432</v>
       </c>
       <c r="AA150" s="5">
         <v>200</v>
@@ -26834,18 +25551,18 @@
         <v>0</v>
       </c>
       <c r="BJ150" t="s">
-        <v>456</v>
+        <v>437</v>
       </c>
     </row>
     <row r="151" spans="4:62">
       <c r="D151" s="2" t="s">
-        <v>445</v>
+        <v>426</v>
       </c>
       <c r="E151">
         <v>41130081</v>
       </c>
       <c r="F151" t="s">
-        <v>457</v>
+        <v>438</v>
       </c>
       <c r="G151">
         <v>44001105</v>
@@ -26854,7 +25571,7 @@
         <v>44001105</v>
       </c>
       <c r="I151" t="s">
-        <v>450</v>
+        <v>431</v>
       </c>
       <c r="J151">
         <v>4001</v>
@@ -26878,7 +25595,7 @@
         <v>0</v>
       </c>
       <c r="Z151" s="19" t="s">
-        <v>451</v>
+        <v>432</v>
       </c>
       <c r="AA151" s="5">
         <v>200</v>
@@ -26966,18 +25683,18 @@
         <v>0</v>
       </c>
       <c r="BJ151" t="s">
-        <v>458</v>
+        <v>439</v>
       </c>
     </row>
     <row r="152" spans="4:62">
       <c r="D152" s="2" t="s">
-        <v>435</v>
+        <v>416</v>
       </c>
       <c r="E152">
         <v>41130121</v>
       </c>
       <c r="F152" t="s">
-        <v>459</v>
+        <v>440</v>
       </c>
       <c r="G152">
         <v>44001106</v>
@@ -26986,7 +25703,7 @@
         <v>44001106</v>
       </c>
       <c r="I152" t="s">
-        <v>460</v>
+        <v>441</v>
       </c>
       <c r="J152">
         <v>4001</v>
@@ -27010,7 +25727,7 @@
         <v>0</v>
       </c>
       <c r="Z152" s="19" t="s">
-        <v>461</v>
+        <v>442</v>
       </c>
       <c r="AA152" s="5">
         <v>200</v>
@@ -27098,18 +25815,18 @@
         <v>0</v>
       </c>
       <c r="BJ152" t="s">
-        <v>462</v>
+        <v>443</v>
       </c>
     </row>
     <row r="153" spans="4:62">
       <c r="D153" s="2" t="s">
-        <v>445</v>
+        <v>426</v>
       </c>
       <c r="E153">
         <v>41130131</v>
       </c>
       <c r="F153" t="s">
-        <v>463</v>
+        <v>444</v>
       </c>
       <c r="G153">
         <v>44001107</v>
@@ -27118,7 +25835,7 @@
         <v>44001107</v>
       </c>
       <c r="I153" t="s">
-        <v>464</v>
+        <v>445</v>
       </c>
       <c r="J153">
         <v>4001</v>
@@ -27142,7 +25859,7 @@
         <v>0</v>
       </c>
       <c r="Z153" s="19" t="s">
-        <v>465</v>
+        <v>446</v>
       </c>
       <c r="AA153" s="5">
         <v>200</v>
@@ -27230,18 +25947,18 @@
         <v>0</v>
       </c>
       <c r="BJ153" t="s">
-        <v>466</v>
+        <v>447</v>
       </c>
     </row>
     <row r="154" spans="4:62">
       <c r="D154" s="2" t="s">
-        <v>445</v>
+        <v>426</v>
       </c>
       <c r="E154">
         <v>41130161</v>
       </c>
       <c r="F154" t="s">
-        <v>467</v>
+        <v>448</v>
       </c>
       <c r="G154">
         <v>44001108</v>
@@ -27250,7 +25967,7 @@
         <v>44001108</v>
       </c>
       <c r="I154" t="s">
-        <v>468</v>
+        <v>449</v>
       </c>
       <c r="J154">
         <v>4001</v>
@@ -27362,18 +26079,18 @@
         <v>0</v>
       </c>
       <c r="BJ154" t="s">
-        <v>469</v>
+        <v>450</v>
       </c>
     </row>
     <row r="155" spans="4:62">
       <c r="D155" s="2" t="s">
-        <v>435</v>
+        <v>416</v>
       </c>
       <c r="E155">
         <v>41130181</v>
       </c>
       <c r="F155" t="s">
-        <v>470</v>
+        <v>451</v>
       </c>
       <c r="G155">
         <v>44001109</v>
@@ -27382,7 +26099,7 @@
         <v>44001109</v>
       </c>
       <c r="I155" t="s">
-        <v>471</v>
+        <v>452</v>
       </c>
       <c r="J155">
         <v>4001</v>
@@ -27406,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="Z155" s="19" t="s">
-        <v>472</v>
+        <v>453</v>
       </c>
       <c r="AA155" s="5">
         <v>200</v>
@@ -27494,18 +26211,18 @@
         <v>0</v>
       </c>
       <c r="BJ155" t="s">
-        <v>473</v>
+        <v>454</v>
       </c>
     </row>
     <row r="156" spans="4:62">
       <c r="D156" s="2" t="s">
-        <v>445</v>
+        <v>426</v>
       </c>
       <c r="E156">
         <v>41130191</v>
       </c>
       <c r="F156" t="s">
-        <v>474</v>
+        <v>455</v>
       </c>
       <c r="G156">
         <v>44001110</v>
@@ -27514,7 +26231,7 @@
         <v>44001110</v>
       </c>
       <c r="I156" t="s">
-        <v>475</v>
+        <v>456</v>
       </c>
       <c r="J156">
         <v>4001</v>
@@ -27538,7 +26255,7 @@
         <v>0</v>
       </c>
       <c r="Z156" s="19" t="s">
-        <v>476</v>
+        <v>457</v>
       </c>
       <c r="AA156" s="5">
         <v>200</v>
@@ -27626,18 +26343,18 @@
         <v>0</v>
       </c>
       <c r="BJ156" t="s">
-        <v>477</v>
+        <v>458</v>
       </c>
     </row>
     <row r="157" spans="4:62">
       <c r="D157" s="2" t="s">
-        <v>435</v>
+        <v>416</v>
       </c>
       <c r="E157">
         <v>41130261</v>
       </c>
       <c r="F157" t="s">
-        <v>478</v>
+        <v>459</v>
       </c>
       <c r="G157">
         <v>44001111</v>
@@ -27646,7 +26363,7 @@
         <v>44001111</v>
       </c>
       <c r="I157" t="s">
-        <v>479</v>
+        <v>460</v>
       </c>
       <c r="J157">
         <v>4001</v>
@@ -27670,7 +26387,7 @@
         <v>0</v>
       </c>
       <c r="Z157" s="19" t="s">
-        <v>472</v>
+        <v>453</v>
       </c>
       <c r="AA157" s="5">
         <v>200</v>
@@ -27758,18 +26475,18 @@
         <v>0</v>
       </c>
       <c r="BJ157" t="s">
-        <v>480</v>
+        <v>461</v>
       </c>
     </row>
     <row r="158" spans="4:62">
       <c r="D158" s="2" t="s">
-        <v>445</v>
+        <v>426</v>
       </c>
       <c r="E158">
         <v>41130271</v>
       </c>
       <c r="F158" t="s">
-        <v>481</v>
+        <v>462</v>
       </c>
       <c r="G158">
         <v>44001112</v>
@@ -27778,7 +26495,7 @@
         <v>44001112</v>
       </c>
       <c r="I158" t="s">
-        <v>482</v>
+        <v>463</v>
       </c>
       <c r="J158">
         <v>4001</v>
@@ -27802,7 +26519,7 @@
         <v>0</v>
       </c>
       <c r="Z158" s="19" t="s">
-        <v>483</v>
+        <v>464</v>
       </c>
       <c r="AA158" s="5">
         <v>200</v>
@@ -27890,18 +26607,18 @@
         <v>0</v>
       </c>
       <c r="BJ158" t="s">
-        <v>484</v>
+        <v>465</v>
       </c>
     </row>
     <row r="159" spans="4:62">
       <c r="D159" s="2" t="s">
-        <v>435</v>
+        <v>416</v>
       </c>
       <c r="E159">
         <v>41130311</v>
       </c>
       <c r="F159" t="s">
-        <v>485</v>
+        <v>466</v>
       </c>
       <c r="G159">
         <v>44001113</v>
@@ -27910,7 +26627,7 @@
         <v>44001113</v>
       </c>
       <c r="I159" t="s">
-        <v>486</v>
+        <v>467</v>
       </c>
       <c r="J159">
         <v>4001</v>
@@ -28022,18 +26739,18 @@
         <v>0</v>
       </c>
       <c r="BJ159" t="s">
-        <v>487</v>
+        <v>468</v>
       </c>
     </row>
     <row r="160" spans="4:62">
       <c r="D160" s="2" t="s">
-        <v>445</v>
+        <v>426</v>
       </c>
       <c r="E160">
         <v>41130321</v>
       </c>
       <c r="F160" t="s">
-        <v>488</v>
+        <v>469</v>
       </c>
       <c r="G160">
         <v>44001114</v>
@@ -28042,7 +26759,7 @@
         <v>44001114</v>
       </c>
       <c r="I160" t="s">
-        <v>489</v>
+        <v>470</v>
       </c>
       <c r="J160">
         <v>4001</v>
@@ -28154,18 +26871,18 @@
         <v>0</v>
       </c>
       <c r="BJ160" t="s">
-        <v>490</v>
+        <v>471</v>
       </c>
     </row>
     <row r="161" spans="4:62">
       <c r="D161" s="2" t="s">
-        <v>435</v>
+        <v>416</v>
       </c>
       <c r="E161">
         <v>41130331</v>
       </c>
       <c r="F161" t="s">
-        <v>491</v>
+        <v>472</v>
       </c>
       <c r="G161">
         <v>44001115</v>
@@ -28198,7 +26915,7 @@
         <v>0</v>
       </c>
       <c r="Z161" s="19" t="s">
-        <v>492</v>
+        <v>473</v>
       </c>
       <c r="AA161" s="5">
         <v>200</v>
@@ -28286,18 +27003,18 @@
         <v>0</v>
       </c>
       <c r="BJ161" t="s">
-        <v>493</v>
+        <v>474</v>
       </c>
     </row>
     <row r="162" spans="4:62">
       <c r="D162" s="2" t="s">
-        <v>435</v>
+        <v>416</v>
       </c>
       <c r="E162" s="10">
         <v>51120471</v>
       </c>
       <c r="F162" s="20" t="s">
-        <v>494</v>
+        <v>475</v>
       </c>
       <c r="G162">
         <v>44001101</v>
@@ -28306,7 +27023,7 @@
         <v>44001101</v>
       </c>
       <c r="I162" t="s">
-        <v>437</v>
+        <v>418</v>
       </c>
       <c r="J162">
         <v>4001</v>
@@ -28419,18 +27136,18 @@
         <v>0</v>
       </c>
       <c r="BJ162" t="s">
-        <v>439</v>
+        <v>420</v>
       </c>
     </row>
     <row r="163" spans="4:62">
       <c r="D163" s="2" t="s">
-        <v>435</v>
+        <v>416</v>
       </c>
       <c r="E163">
         <v>51130021</v>
       </c>
       <c r="F163" s="20" t="s">
-        <v>495</v>
+        <v>476</v>
       </c>
       <c r="G163">
         <v>44001102</v>
@@ -28464,7 +27181,7 @@
         <v>0</v>
       </c>
       <c r="Z163" s="19" t="s">
-        <v>441</v>
+        <v>422</v>
       </c>
       <c r="AA163" s="5">
         <v>200</v>
@@ -28552,18 +27269,18 @@
         <v>0</v>
       </c>
       <c r="BJ163" t="s">
-        <v>442</v>
+        <v>423</v>
       </c>
     </row>
     <row r="164" spans="4:62">
       <c r="D164" s="2" t="s">
-        <v>435</v>
+        <v>416</v>
       </c>
       <c r="E164">
         <v>51130031</v>
       </c>
       <c r="F164" s="20" t="s">
-        <v>496</v>
+        <v>477</v>
       </c>
       <c r="G164">
         <v>44001103</v>
@@ -28684,18 +27401,18 @@
         <v>0</v>
       </c>
       <c r="BJ164" t="s">
-        <v>444</v>
+        <v>425</v>
       </c>
     </row>
     <row r="165" spans="4:62">
       <c r="D165" s="2" t="s">
-        <v>445</v>
+        <v>426</v>
       </c>
       <c r="E165">
         <v>51130041</v>
       </c>
       <c r="F165" s="20" t="s">
-        <v>497</v>
+        <v>478</v>
       </c>
       <c r="G165">
         <v>44001104</v>
@@ -28704,7 +27421,7 @@
         <v>44001104</v>
       </c>
       <c r="I165" t="s">
-        <v>447</v>
+        <v>428</v>
       </c>
       <c r="J165">
         <v>4001</v>
@@ -28816,18 +27533,18 @@
         <v>0</v>
       </c>
       <c r="BJ165" t="s">
-        <v>448</v>
+        <v>429</v>
       </c>
     </row>
     <row r="166" spans="4:62">
       <c r="D166" s="2" t="s">
-        <v>445</v>
+        <v>426</v>
       </c>
       <c r="E166">
         <v>51130051</v>
       </c>
       <c r="F166" s="20" t="s">
-        <v>498</v>
+        <v>479</v>
       </c>
       <c r="G166">
         <v>44001116</v>
@@ -28836,7 +27553,7 @@
         <v>44001116</v>
       </c>
       <c r="I166" t="s">
-        <v>450</v>
+        <v>431</v>
       </c>
       <c r="J166">
         <v>4001</v>
@@ -28860,7 +27577,7 @@
         <v>0</v>
       </c>
       <c r="Z166" s="19" t="s">
-        <v>451</v>
+        <v>432</v>
       </c>
       <c r="AA166" s="5">
         <v>200</v>
@@ -28948,18 +27665,18 @@
         <v>0</v>
       </c>
       <c r="BJ166" t="s">
-        <v>452</v>
+        <v>433</v>
       </c>
     </row>
     <row r="167" spans="4:62">
       <c r="D167" s="2" t="s">
-        <v>445</v>
+        <v>426</v>
       </c>
       <c r="E167">
         <v>51130061</v>
       </c>
       <c r="F167" s="20" t="s">
-        <v>499</v>
+        <v>480</v>
       </c>
       <c r="G167">
         <v>44001117</v>
@@ -28968,7 +27685,7 @@
         <v>44001117</v>
       </c>
       <c r="I167" t="s">
-        <v>450</v>
+        <v>431</v>
       </c>
       <c r="J167">
         <v>4001</v>
@@ -28992,7 +27709,7 @@
         <v>0</v>
       </c>
       <c r="Z167" s="19" t="s">
-        <v>451</v>
+        <v>432</v>
       </c>
       <c r="AA167" s="5">
         <v>200</v>
@@ -29080,18 +27797,18 @@
         <v>0</v>
       </c>
       <c r="BJ167" t="s">
-        <v>454</v>
+        <v>435</v>
       </c>
     </row>
     <row r="168" spans="4:62">
       <c r="D168" s="2" t="s">
-        <v>445</v>
+        <v>426</v>
       </c>
       <c r="E168">
         <v>51130071</v>
       </c>
       <c r="F168" s="20" t="s">
-        <v>500</v>
+        <v>481</v>
       </c>
       <c r="G168">
         <v>44001118</v>
@@ -29100,7 +27817,7 @@
         <v>44001118</v>
       </c>
       <c r="I168" t="s">
-        <v>450</v>
+        <v>431</v>
       </c>
       <c r="J168">
         <v>4001</v>
@@ -29124,7 +27841,7 @@
         <v>0</v>
       </c>
       <c r="Z168" s="19" t="s">
-        <v>451</v>
+        <v>432</v>
       </c>
       <c r="AA168" s="5">
         <v>200</v>
@@ -29212,18 +27929,18 @@
         <v>0</v>
       </c>
       <c r="BJ168" t="s">
-        <v>456</v>
+        <v>437</v>
       </c>
     </row>
     <row r="169" spans="4:62">
       <c r="D169" s="2" t="s">
-        <v>445</v>
+        <v>426</v>
       </c>
       <c r="E169">
         <v>51130081</v>
       </c>
       <c r="F169" s="20" t="s">
-        <v>501</v>
+        <v>482</v>
       </c>
       <c r="G169">
         <v>44001105</v>
@@ -29232,7 +27949,7 @@
         <v>44001105</v>
       </c>
       <c r="I169" t="s">
-        <v>450</v>
+        <v>431</v>
       </c>
       <c r="J169">
         <v>4001</v>
@@ -29256,7 +27973,7 @@
         <v>0</v>
       </c>
       <c r="Z169" s="19" t="s">
-        <v>451</v>
+        <v>432</v>
       </c>
       <c r="AA169" s="5">
         <v>200</v>
@@ -29344,18 +28061,18 @@
         <v>0</v>
       </c>
       <c r="BJ169" t="s">
-        <v>458</v>
+        <v>439</v>
       </c>
     </row>
     <row r="170" spans="4:62">
       <c r="D170" s="2" t="s">
-        <v>435</v>
+        <v>416</v>
       </c>
       <c r="E170">
         <v>51130121</v>
       </c>
       <c r="F170" s="20" t="s">
-        <v>502</v>
+        <v>483</v>
       </c>
       <c r="G170">
         <v>44001106</v>
@@ -29364,7 +28081,7 @@
         <v>44001106</v>
       </c>
       <c r="I170" t="s">
-        <v>460</v>
+        <v>441</v>
       </c>
       <c r="J170">
         <v>4001</v>
@@ -29388,7 +28105,7 @@
         <v>0</v>
       </c>
       <c r="Z170" s="19" t="s">
-        <v>461</v>
+        <v>442</v>
       </c>
       <c r="AA170" s="5">
         <v>200</v>
@@ -29476,18 +28193,18 @@
         <v>0</v>
       </c>
       <c r="BJ170" t="s">
-        <v>462</v>
+        <v>443</v>
       </c>
     </row>
     <row r="171" spans="4:62">
       <c r="D171" s="2" t="s">
-        <v>445</v>
+        <v>426</v>
       </c>
       <c r="E171">
         <v>51130131</v>
       </c>
       <c r="F171" s="20" t="s">
-        <v>503</v>
+        <v>484</v>
       </c>
       <c r="G171">
         <v>44001107</v>
@@ -29496,7 +28213,7 @@
         <v>44001107</v>
       </c>
       <c r="I171" t="s">
-        <v>464</v>
+        <v>445</v>
       </c>
       <c r="J171">
         <v>4001</v>
@@ -29520,7 +28237,7 @@
         <v>0</v>
       </c>
       <c r="Z171" s="19" t="s">
-        <v>465</v>
+        <v>446</v>
       </c>
       <c r="AA171" s="5">
         <v>200</v>
@@ -29608,18 +28325,18 @@
         <v>0</v>
       </c>
       <c r="BJ171" t="s">
-        <v>466</v>
+        <v>447</v>
       </c>
     </row>
     <row r="172" spans="4:62">
       <c r="D172" s="2" t="s">
-        <v>445</v>
+        <v>426</v>
       </c>
       <c r="E172">
         <v>51130161</v>
       </c>
       <c r="F172" s="20" t="s">
-        <v>504</v>
+        <v>485</v>
       </c>
       <c r="G172">
         <v>44001108</v>
@@ -29628,7 +28345,7 @@
         <v>44001108</v>
       </c>
       <c r="I172" t="s">
-        <v>468</v>
+        <v>449</v>
       </c>
       <c r="J172">
         <v>4001</v>
@@ -29740,18 +28457,18 @@
         <v>0</v>
       </c>
       <c r="BJ172" t="s">
-        <v>469</v>
+        <v>450</v>
       </c>
     </row>
     <row r="173" spans="4:62">
       <c r="D173" s="2" t="s">
-        <v>435</v>
+        <v>416</v>
       </c>
       <c r="E173">
         <v>51130181</v>
       </c>
       <c r="F173" s="20" t="s">
-        <v>505</v>
+        <v>486</v>
       </c>
       <c r="G173">
         <v>44001109</v>
@@ -29760,7 +28477,7 @@
         <v>44001109</v>
       </c>
       <c r="I173" t="s">
-        <v>471</v>
+        <v>452</v>
       </c>
       <c r="J173">
         <v>4001</v>
@@ -29784,7 +28501,7 @@
         <v>0</v>
       </c>
       <c r="Z173" s="19" t="s">
-        <v>472</v>
+        <v>453</v>
       </c>
       <c r="AA173" s="5">
         <v>200</v>
@@ -29872,18 +28589,18 @@
         <v>0</v>
       </c>
       <c r="BJ173" t="s">
-        <v>473</v>
+        <v>454</v>
       </c>
     </row>
     <row r="174" spans="4:62">
       <c r="D174" s="2" t="s">
-        <v>445</v>
+        <v>426</v>
       </c>
       <c r="E174">
         <v>51130191</v>
       </c>
       <c r="F174" s="20" t="s">
-        <v>506</v>
+        <v>487</v>
       </c>
       <c r="G174">
         <v>44001110</v>
@@ -29892,7 +28609,7 @@
         <v>44001110</v>
       </c>
       <c r="I174" t="s">
-        <v>475</v>
+        <v>456</v>
       </c>
       <c r="J174">
         <v>4001</v>
@@ -29916,7 +28633,7 @@
         <v>0</v>
       </c>
       <c r="Z174" s="19" t="s">
-        <v>476</v>
+        <v>457</v>
       </c>
       <c r="AA174" s="5">
         <v>200</v>
@@ -30004,18 +28721,18 @@
         <v>0</v>
       </c>
       <c r="BJ174" t="s">
-        <v>477</v>
+        <v>458</v>
       </c>
     </row>
     <row r="175" spans="4:62">
       <c r="D175" s="2" t="s">
-        <v>435</v>
+        <v>416</v>
       </c>
       <c r="E175">
         <v>51130261</v>
       </c>
       <c r="F175" s="20" t="s">
-        <v>507</v>
+        <v>488</v>
       </c>
       <c r="G175">
         <v>44001111</v>
@@ -30024,7 +28741,7 @@
         <v>44001111</v>
       </c>
       <c r="I175" t="s">
-        <v>479</v>
+        <v>460</v>
       </c>
       <c r="J175">
         <v>4001</v>
@@ -30048,7 +28765,7 @@
         <v>0</v>
       </c>
       <c r="Z175" s="19" t="s">
-        <v>472</v>
+        <v>453</v>
       </c>
       <c r="AA175" s="5">
         <v>200</v>
@@ -30136,18 +28853,18 @@
         <v>0</v>
       </c>
       <c r="BJ175" t="s">
-        <v>480</v>
+        <v>461</v>
       </c>
     </row>
     <row r="176" spans="4:62">
       <c r="D176" s="2" t="s">
-        <v>445</v>
+        <v>426</v>
       </c>
       <c r="E176">
         <v>51130271</v>
       </c>
       <c r="F176" s="20" t="s">
-        <v>508</v>
+        <v>489</v>
       </c>
       <c r="G176">
         <v>44001112</v>
@@ -30156,7 +28873,7 @@
         <v>44001112</v>
       </c>
       <c r="I176" t="s">
-        <v>482</v>
+        <v>463</v>
       </c>
       <c r="J176">
         <v>4001</v>
@@ -30180,7 +28897,7 @@
         <v>0</v>
       </c>
       <c r="Z176" s="19" t="s">
-        <v>483</v>
+        <v>464</v>
       </c>
       <c r="AA176" s="5">
         <v>200</v>
@@ -30268,18 +28985,18 @@
         <v>0</v>
       </c>
       <c r="BJ176" t="s">
-        <v>484</v>
+        <v>465</v>
       </c>
     </row>
     <row r="177" spans="4:62">
       <c r="D177" s="2" t="s">
-        <v>435</v>
+        <v>416</v>
       </c>
       <c r="E177">
         <v>51130311</v>
       </c>
       <c r="F177" s="20" t="s">
-        <v>509</v>
+        <v>490</v>
       </c>
       <c r="G177">
         <v>44001113</v>
@@ -30288,7 +29005,7 @@
         <v>44001113</v>
       </c>
       <c r="I177" t="s">
-        <v>486</v>
+        <v>467</v>
       </c>
       <c r="J177">
         <v>4001</v>
@@ -30400,18 +29117,18 @@
         <v>0</v>
       </c>
       <c r="BJ177" t="s">
-        <v>487</v>
+        <v>468</v>
       </c>
     </row>
     <row r="178" spans="4:62">
       <c r="D178" s="2" t="s">
-        <v>445</v>
+        <v>426</v>
       </c>
       <c r="E178">
         <v>51130321</v>
       </c>
       <c r="F178" s="20" t="s">
-        <v>510</v>
+        <v>491</v>
       </c>
       <c r="G178">
         <v>44001114</v>
@@ -30420,7 +29137,7 @@
         <v>44001114</v>
       </c>
       <c r="I178" t="s">
-        <v>489</v>
+        <v>470</v>
       </c>
       <c r="J178">
         <v>4001</v>
@@ -30532,18 +29249,18 @@
         <v>0</v>
       </c>
       <c r="BJ178" t="s">
-        <v>490</v>
+        <v>471</v>
       </c>
     </row>
     <row r="179" spans="4:62">
       <c r="D179" s="2" t="s">
-        <v>435</v>
+        <v>416</v>
       </c>
       <c r="E179">
         <v>51130331</v>
       </c>
       <c r="F179" s="20" t="s">
-        <v>511</v>
+        <v>492</v>
       </c>
       <c r="G179">
         <v>44001115</v>
@@ -30576,7 +29293,7 @@
         <v>0</v>
       </c>
       <c r="Z179" s="19" t="s">
-        <v>492</v>
+        <v>473</v>
       </c>
       <c r="AA179" s="5">
         <v>200</v>
@@ -30664,18 +29381,18 @@
         <v>0</v>
       </c>
       <c r="BJ179" t="s">
-        <v>493</v>
+        <v>474</v>
       </c>
     </row>
     <row r="180" spans="4:62">
       <c r="D180" s="2" t="s">
-        <v>512</v>
+        <v>493</v>
       </c>
       <c r="E180">
         <v>51120231</v>
       </c>
       <c r="F180" t="s">
-        <v>513</v>
+        <v>494</v>
       </c>
       <c r="G180">
         <v>42002009</v>
@@ -30684,7 +29401,7 @@
         <v>42002009</v>
       </c>
       <c r="I180" t="s">
-        <v>514</v>
+        <v>495</v>
       </c>
       <c r="J180">
         <v>4001</v>
@@ -30805,13 +29522,13 @@
     </row>
     <row r="181" spans="4:62">
       <c r="D181" s="2" t="s">
-        <v>249</v>
+        <v>230</v>
       </c>
       <c r="E181">
         <v>61000001</v>
       </c>
       <c r="F181" t="s">
-        <v>515</v>
+        <v>496</v>
       </c>
       <c r="G181">
         <v>42002001</v>
@@ -30932,18 +29649,18 @@
         <v>0</v>
       </c>
       <c r="BJ181" t="s">
-        <v>516</v>
+        <v>497</v>
       </c>
     </row>
     <row r="182" spans="4:62">
       <c r="D182" s="2" t="s">
-        <v>249</v>
+        <v>230</v>
       </c>
       <c r="E182">
         <v>61000002</v>
       </c>
       <c r="F182" t="s">
-        <v>517</v>
+        <v>498</v>
       </c>
       <c r="G182">
         <v>42002001</v>
@@ -31064,18 +29781,18 @@
         <v>0</v>
       </c>
       <c r="BJ182" t="s">
-        <v>518</v>
+        <v>499</v>
       </c>
     </row>
     <row r="183" spans="4:62">
       <c r="D183" s="2" t="s">
-        <v>260</v>
+        <v>241</v>
       </c>
       <c r="E183">
         <v>61000003</v>
       </c>
       <c r="F183" t="s">
-        <v>519</v>
+        <v>500</v>
       </c>
       <c r="G183">
         <v>42002001</v>
@@ -31197,19 +29914,19 @@
         <v>0</v>
       </c>
       <c r="BJ183" t="s">
-        <v>520</v>
+        <v>501</v>
       </c>
     </row>
     <row r="184" spans="3:62">
       <c r="C184"/>
       <c r="D184" s="2" t="s">
-        <v>249</v>
+        <v>230</v>
       </c>
       <c r="E184">
         <v>61000004</v>
       </c>
       <c r="F184" t="s">
-        <v>521</v>
+        <v>502</v>
       </c>
       <c r="G184" s="2">
         <v>42002001</v>
@@ -31338,18 +30055,18 @@
       <c r="BE184" s="3"/>
       <c r="BF184" s="3"/>
       <c r="BJ184" t="s">
-        <v>522</v>
+        <v>503</v>
       </c>
     </row>
     <row r="185" spans="4:62">
       <c r="D185" s="2" t="s">
-        <v>260</v>
+        <v>241</v>
       </c>
       <c r="E185">
         <v>61000005</v>
       </c>
       <c r="F185" t="s">
-        <v>523</v>
+        <v>504</v>
       </c>
       <c r="G185">
         <v>42002001</v>
@@ -31470,18 +30187,18 @@
         <v>0</v>
       </c>
       <c r="BJ185" t="s">
-        <v>524</v>
+        <v>505</v>
       </c>
     </row>
     <row r="186" spans="4:62">
       <c r="D186" s="2" t="s">
-        <v>249</v>
+        <v>230</v>
       </c>
       <c r="E186">
         <v>61000101</v>
       </c>
       <c r="F186" t="s">
-        <v>525</v>
+        <v>506</v>
       </c>
       <c r="G186">
         <v>42002001</v>
@@ -31600,18 +30317,18 @@
         <v>0</v>
       </c>
       <c r="BJ186" t="s">
-        <v>526</v>
+        <v>507</v>
       </c>
     </row>
     <row r="187" spans="4:62">
       <c r="D187" s="2" t="s">
-        <v>445</v>
+        <v>426</v>
       </c>
       <c r="E187">
         <v>62000001</v>
       </c>
       <c r="F187" t="s">
-        <v>527</v>
+        <v>508</v>
       </c>
       <c r="G187">
         <v>44001110</v>
@@ -31620,7 +30337,7 @@
         <v>44001110</v>
       </c>
       <c r="I187" t="s">
-        <v>475</v>
+        <v>456</v>
       </c>
       <c r="J187">
         <v>4001</v>
@@ -31730,18 +30447,18 @@
         <v>0</v>
       </c>
       <c r="BJ187" t="s">
-        <v>528</v>
+        <v>509</v>
       </c>
     </row>
     <row r="188" spans="4:62">
       <c r="D188" s="2" t="s">
-        <v>445</v>
+        <v>426</v>
       </c>
       <c r="E188">
         <v>63000001</v>
       </c>
       <c r="F188" t="s">
-        <v>529</v>
+        <v>510</v>
       </c>
       <c r="G188">
         <v>44001110</v>
@@ -31750,7 +30467,7 @@
         <v>44001110</v>
       </c>
       <c r="I188" t="s">
-        <v>475</v>
+        <v>456</v>
       </c>
       <c r="J188">
         <v>4001</v>
@@ -31860,18 +30577,18 @@
         <v>0</v>
       </c>
       <c r="BJ188" t="s">
-        <v>530</v>
+        <v>511</v>
       </c>
     </row>
     <row r="189" spans="4:62">
       <c r="D189" s="2" t="s">
-        <v>445</v>
+        <v>426</v>
       </c>
       <c r="E189">
         <v>63000002</v>
       </c>
       <c r="F189" t="s">
-        <v>531</v>
+        <v>512</v>
       </c>
       <c r="G189">
         <v>44001110</v>
@@ -31880,7 +30597,7 @@
         <v>44001110</v>
       </c>
       <c r="I189" t="s">
-        <v>475</v>
+        <v>456</v>
       </c>
       <c r="J189">
         <v>4001</v>
@@ -31990,18 +30707,18 @@
         <v>0</v>
       </c>
       <c r="BJ189" t="s">
-        <v>532</v>
+        <v>513</v>
       </c>
     </row>
     <row r="190" spans="4:62">
       <c r="D190" s="2" t="s">
-        <v>445</v>
+        <v>426</v>
       </c>
       <c r="E190">
         <v>62000099</v>
       </c>
       <c r="F190" t="s">
-        <v>533</v>
+        <v>514</v>
       </c>
       <c r="G190">
         <v>44001104</v>
@@ -32010,7 +30727,7 @@
         <v>44001104</v>
       </c>
       <c r="I190" t="s">
-        <v>447</v>
+        <v>428</v>
       </c>
       <c r="J190">
         <v>4001</v>
@@ -32120,7 +30837,7 @@
         <v>0</v>
       </c>
       <c r="BJ190" t="s">
-        <v>534</v>
+        <v>515</v>
       </c>
     </row>
     <row r="191" spans="3:58">
